--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtravis\Google Drive\Ranch-Drought\Ranch_Drought_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ucbfiles.colorado.edu\erlb\Users\wtravis\Documents\GitHub\drought_decision_model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14745" tabRatio="653" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14745" tabRatio="653" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1195,7 +1195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -3264,7 +3264,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3356,6 +3356,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9789-49F5-B99C-58455B98FCCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3402,24 +3407,29 @@
                   <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55138.572309009673</c:v>
+                  <c:v>62597.842528418929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31140.179757549762</c:v>
+                  <c:v>31204.142999681197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31407.20679897075</c:v>
+                  <c:v>31471.718525903463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31676.523597271924</c:v>
+                  <c:v>31741.588512263086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31948.149787118531</c:v>
+                  <c:v>32013.77263375574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9789-49F5-B99C-58455B98FCCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3466,24 +3476,29 @@
                   <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.741692702402</c:v>
+                  <c:v>-13475.741692702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.443289974348</c:v>
+                  <c:v>29791.443289974348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.456416274305</c:v>
+                  <c:v>30754.381355052752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.169868822304</c:v>
+                  <c:v>31018.100175172331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.861150447457</c:v>
+                  <c:v>31284.080384174435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9789-49F5-B99C-58455B98FCCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3530,24 +3545,29 @@
                   <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28116.821692702419</c:v>
+                  <c:v>-17358.679192702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28839.773089974347</c:v>
+                  <c:v>29539.052352474348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30125.738572056303</c:v>
+                  <c:v>30703.680384013693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30821.535491343137</c:v>
+                  <c:v>30966.96444330661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30821.535491343137</c:v>
+                  <c:v>30966.96444330661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9789-49F5-B99C-58455B98FCCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3612,6 +3632,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9789-49F5-B99C-58455B98FCCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3676,6 +3701,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9789-49F5-B99C-58455B98FCCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3769,6 +3799,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
@@ -3814,7 +3845,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3896,6 +3927,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3942,24 +3978,29 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547825.06060398067</c:v>
+                  <c:v>552942.11997449538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569187.22391765972</c:v>
+                  <c:v>574348.1620722767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590732.56778175372</c:v>
+                  <c:v>595937.76098104648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612462.66296948225</c:v>
+                  <c:v>617712.49070045887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>634379.09372344555</c:v>
+                  <c:v>639673.9387272154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4006,24 +4047,29 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>476724.2583072976</c:v>
+                  <c:v>496524.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>496278.30640422</c:v>
+                  <c:v>516961.18840421998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.26950578415</c:v>
+                  <c:v>538058.69401378615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.57203579624</c:v>
+                  <c:v>559337.11073395447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.76678500324</c:v>
+                  <c:v>580797.98987749801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4070,24 +4116,29 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481883.17830729758</c:v>
+                  <c:v>492641.3208072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501667.26264701999</c:v>
+                  <c:v>512905.110721095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522333.51930745062</c:v>
+                  <c:v>533967.83546452841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543477.09265451203</c:v>
+                  <c:v>555211.17307263671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564801.97214302444</c:v>
+                  <c:v>576636.67230073456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4152,6 +4203,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4216,6 +4272,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4356,7 +4417,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4474,6 +4535,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-845E-4902-B526-06FF0A5A4F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4529,24 +4595,29 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547825.06060398067</c:v>
+                  <c:v>552942.11997449538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569187.22391765972</c:v>
+                  <c:v>574348.1620722767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590732.56778175372</c:v>
+                  <c:v>595937.76098104648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612462.66296948225</c:v>
+                  <c:v>617712.49070045887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>634379.09372344555</c:v>
+                  <c:v>639673.9387272154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-845E-4902-B526-06FF0A5A4F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4602,24 +4673,29 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>476724.2583072976</c:v>
+                  <c:v>496524.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>496278.30640422</c:v>
+                  <c:v>516961.18840421998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.26950578415</c:v>
+                  <c:v>538058.69401378615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.57203579624</c:v>
+                  <c:v>559337.11073395447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.76678500324</c:v>
+                  <c:v>580797.98987749801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-845E-4902-B526-06FF0A5A4F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4675,24 +4751,29 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481883.17830729758</c:v>
+                  <c:v>492641.3208072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501667.26264701999</c:v>
+                  <c:v>512905.110721095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522333.51930745062</c:v>
+                  <c:v>533967.83546452841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543477.09265451203</c:v>
+                  <c:v>555211.17307263671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564801.97214302444</c:v>
+                  <c:v>576636.67230073456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-845E-4902-B526-06FF0A5A4F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4766,6 +4847,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-845E-4902-B526-06FF0A5A4F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4839,6 +4925,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-845E-4902-B526-06FF0A5A4F77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4960,7 +5051,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5079,6 +5170,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99FE-41E1-95D2-A3D5A1653148}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5134,24 +5230,29 @@
                   <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55138.572309009673</c:v>
+                  <c:v>62597.842528418929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31140.179757549762</c:v>
+                  <c:v>31204.142999681197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31407.20679897075</c:v>
+                  <c:v>31471.718525903463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31676.523597271924</c:v>
+                  <c:v>31741.588512263086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31948.149787118531</c:v>
+                  <c:v>32013.77263375574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99FE-41E1-95D2-A3D5A1653148}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5198,24 +5299,29 @@
                   <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.741692702402</c:v>
+                  <c:v>-13475.741692702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.443289974348</c:v>
+                  <c:v>29791.443289974348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.456416274305</c:v>
+                  <c:v>30754.381355052752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.169868822304</c:v>
+                  <c:v>31018.100175172331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.861150447457</c:v>
+                  <c:v>31284.080384174435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99FE-41E1-95D2-A3D5A1653148}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5262,24 +5368,29 @@
                   <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28116.821692702419</c:v>
+                  <c:v>-17358.679192702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28839.773089974347</c:v>
+                  <c:v>29539.052352474348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30125.738572056303</c:v>
+                  <c:v>30703.680384013693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30821.535491343137</c:v>
+                  <c:v>30966.96444330661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31085.830158181405</c:v>
+                  <c:v>31232.506163407961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-99FE-41E1-95D2-A3D5A1653148}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5353,6 +5464,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-99FE-41E1-95D2-A3D5A1653148}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5426,6 +5542,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-99FE-41E1-95D2-A3D5A1653148}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6028,7 +6149,7 @@
     <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="E2" s="148">
         <f>'Ranch Strategies'!$Q$149</f>
-        <v>634379.09372344555</v>
+        <v>639673.9387272154</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -6131,7 +6252,7 @@
       </c>
       <c r="E5" s="160">
         <f>'Ranch Strategies'!$I$13</f>
-        <v>0.77091180097417411</v>
+        <v>0.82714981978038837</v>
       </c>
       <c r="F5" t="s">
         <v>143</v>
@@ -6275,8 +6396,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:CK80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6401,11 +6522,11 @@
       <c r="L8" s="407"/>
       <c r="M8" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!Q84,'Ranch Strategies'!Q167)</f>
-        <v>55138.572309009673</v>
+        <v>62597.842528418929</v>
       </c>
       <c r="N8" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!Q167,'Ranch Strategies'!Q84)</f>
-        <v>23314.314001712075</v>
+        <v>30773.584221121331</v>
       </c>
     </row>
     <row r="9" spans="2:89" x14ac:dyDescent="0.2">
@@ -6416,7 +6537,7 @@
       <c r="D9" s="391"/>
       <c r="E9" s="391"/>
       <c r="F9" s="380">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="437"/>
       <c r="H9" s="442"/>
@@ -6427,11 +6548,11 @@
       <c r="L9" s="407"/>
       <c r="M9" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!R84,'Ranch Strategies'!R167)</f>
-        <v>-33275.741692702402</v>
+        <v>-13475.741692702402</v>
       </c>
       <c r="N9" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!R167,'Ranch Strategies'!R84)</f>
-        <v>-65100</v>
+        <v>-45300</v>
       </c>
       <c r="CJ9" s="363"/>
       <c r="CK9" s="357"/>
@@ -6444,7 +6565,7 @@
       <c r="D10" s="391"/>
       <c r="E10" s="391"/>
       <c r="F10" s="380">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="437"/>
       <c r="H10" s="442"/>
@@ -6455,11 +6576,11 @@
       <c r="L10" s="407"/>
       <c r="M10" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!S84,'Ranch Strategies'!S167)</f>
-        <v>-28116.821692702419</v>
+        <v>-17358.679192702402</v>
       </c>
       <c r="N10" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!S167,'Ranch Strategies'!S84)</f>
-        <v>-59941.080000000016</v>
+        <v>-49182.9375</v>
       </c>
       <c r="CJ10" s="363"/>
       <c r="CK10" s="357"/>
@@ -6643,11 +6764,11 @@
       <c r="L15" s="407"/>
       <c r="M15" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q99,'Ranch Strategies'!Q182)</f>
-        <v>31140.179757549762</v>
+        <v>31204.142999681197</v>
       </c>
       <c r="N15" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q182,'Ranch Strategies'!Q99)</f>
-        <v>37699.92024256468</v>
+        <v>37763.883484696118</v>
       </c>
       <c r="P15" s="149">
         <f>'Ranch Strategies'!E80</f>
@@ -6659,15 +6780,15 @@
       </c>
       <c r="R15" s="148">
         <f>'Ranch Strategies'!Q92</f>
-        <v>547825.06060398067</v>
+        <v>552942.11997449538</v>
       </c>
       <c r="S15" s="148">
         <f>'Ranch Strategies'!R92</f>
-        <v>476724.2583072976</v>
+        <v>496524.2583072976</v>
       </c>
       <c r="T15" s="148">
         <f>'Ranch Strategies'!S92</f>
-        <v>481883.17830729758</v>
+        <v>492641.3208072976</v>
       </c>
       <c r="U15" s="148">
         <f>'Ranch Strategies'!T92</f>
@@ -6702,11 +6823,11 @@
       <c r="L16" s="407"/>
       <c r="M16" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R99,'Ranch Strategies'!R182)</f>
-        <v>28504.443289974348</v>
+        <v>29791.443289974348</v>
       </c>
       <c r="N16" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R182,'Ranch Strategies'!R99)</f>
-        <v>33268.5</v>
+        <v>34555.5</v>
       </c>
       <c r="P16" s="149">
         <f>'Ranch Strategies'!E94</f>
@@ -6718,15 +6839,15 @@
       </c>
       <c r="R16" s="148">
         <f>'Ranch Strategies'!Q107</f>
-        <v>569187.22391765972</v>
+        <v>574348.1620722767</v>
       </c>
       <c r="S16" s="148">
         <f>'Ranch Strategies'!R107</f>
-        <v>496278.30640422</v>
+        <v>516961.18840421998</v>
       </c>
       <c r="T16" s="148">
         <f>'Ranch Strategies'!S107</f>
-        <v>501667.26264701999</v>
+        <v>512905.110721095</v>
       </c>
       <c r="U16" s="148">
         <f>'Ranch Strategies'!T107</f>
@@ -6755,11 +6876,11 @@
       <c r="L17" s="407"/>
       <c r="M17" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S99,'Ranch Strategies'!S182)</f>
-        <v>28839.773089974347</v>
+        <v>29539.052352474348</v>
       </c>
       <c r="N17" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S182,'Ranch Strategies'!S99)</f>
-        <v>33603.8298</v>
+        <v>34303.1090625</v>
       </c>
       <c r="P17" s="149">
         <f>'Ranch Strategies'!E109</f>
@@ -6771,15 +6892,15 @@
       </c>
       <c r="R17" s="148">
         <f>'Ranch Strategies'!Q121</f>
-        <v>590732.56778175372</v>
+        <v>595937.76098104648</v>
       </c>
       <c r="S17" s="148">
         <f>'Ranch Strategies'!R121</f>
-        <v>516704.26950578415</v>
+        <v>538058.69401378615</v>
       </c>
       <c r="T17" s="148">
         <f>'Ranch Strategies'!S121</f>
-        <v>522333.51930745062</v>
+        <v>533967.83546452841</v>
       </c>
       <c r="U17" s="148">
         <f>'Ranch Strategies'!T121</f>
@@ -6828,15 +6949,15 @@
       </c>
       <c r="R18" s="148">
         <f>'Ranch Strategies'!Q135</f>
-        <v>612462.66296948225</v>
+        <v>617712.49070045887</v>
       </c>
       <c r="S18" s="148">
         <f>'Ranch Strategies'!R135</f>
-        <v>537799.57203579624</v>
+        <v>559337.11073395447</v>
       </c>
       <c r="T18" s="148">
         <f>'Ranch Strategies'!S135</f>
-        <v>543477.09265451203</v>
+        <v>555211.17307263671</v>
       </c>
       <c r="U18" s="148">
         <f>'Ranch Strategies'!T135</f>
@@ -6885,15 +7006,15 @@
       </c>
       <c r="R19" s="148">
         <f>'Ranch Strategies'!Q149</f>
-        <v>634379.09372344555</v>
+        <v>639673.9387272154</v>
       </c>
       <c r="S19" s="148">
         <f>'Ranch Strategies'!R149</f>
-        <v>559075.76678500324</v>
+        <v>580797.98987749801</v>
       </c>
       <c r="T19" s="148">
         <f>'Ranch Strategies'!S149</f>
-        <v>564801.97214302444</v>
+        <v>576636.67230073456</v>
       </c>
       <c r="U19" s="148">
         <f>'Ranch Strategies'!T149</f>
@@ -6978,11 +7099,11 @@
       <c r="L22" s="407"/>
       <c r="M22" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q114,'Ranch Strategies'!Q197)</f>
-        <v>31407.20679897075</v>
+        <v>31471.718525903463</v>
       </c>
       <c r="N22" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q197,'Ranch Strategies'!Q114)</f>
-        <v>38023.19705864467</v>
+        <v>38087.708785577386</v>
       </c>
       <c r="CH22" s="468">
         <v>10</v>
@@ -7003,11 +7124,11 @@
       <c r="L23" s="407"/>
       <c r="M23" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R114,'Ranch Strategies'!R197)</f>
-        <v>29775.456416274305</v>
+        <v>30754.381355052752</v>
       </c>
       <c r="N23" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R197,'Ranch Strategies'!R114)</f>
-        <v>34751.942414999998</v>
+        <v>36096.329745000003</v>
       </c>
       <c r="CH23" s="468">
         <v>11</v>
@@ -7028,11 +7149,11 @@
       <c r="L24" s="407"/>
       <c r="M24" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S114,'Ranch Strategies'!S197)</f>
-        <v>30125.738572056303</v>
+        <v>30703.680384013693</v>
       </c>
       <c r="N24" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S197,'Ranch Strategies'!S114)</f>
-        <v>35102.224570781997</v>
+        <v>35832.684695596872</v>
       </c>
       <c r="CH24" s="468">
         <v>12</v>
@@ -7152,11 +7273,11 @@
       <c r="L29" s="407"/>
       <c r="M29" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q128,'Ranch Strategies'!Q211)</f>
-        <v>31676.523597271924</v>
+        <v>31741.588512263086</v>
       </c>
       <c r="N29" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q211,'Ranch Strategies'!Q128)</f>
-        <v>38349.245973422549</v>
+        <v>38414.310888413711</v>
       </c>
     </row>
     <row r="30" spans="2:86" x14ac:dyDescent="0.2">
@@ -7178,11 +7299,11 @@
       <c r="L30" s="407"/>
       <c r="M30" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R128,'Ranch Strategies'!R211)</f>
-        <v>30751.169868822304</v>
+        <v>31018.100175172331</v>
       </c>
       <c r="N30" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!R211,'Ranch Strategies'!R128)</f>
-        <v>36301.531527284853</v>
+        <v>37539.589440063377</v>
       </c>
     </row>
     <row r="31" spans="2:86" x14ac:dyDescent="0.2">
@@ -7200,11 +7321,11 @@
       <c r="L31" s="407"/>
       <c r="M31" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S128,'Ranch Strategies'!S211)</f>
-        <v>30821.535491343137</v>
+        <v>30966.96444330661</v>
       </c>
       <c r="N31" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S211,'Ranch Strategies'!S128)</f>
-        <v>36667.432764393168</v>
+        <v>37430.464106173538</v>
       </c>
     </row>
     <row r="32" spans="2:86" x14ac:dyDescent="0.2">
@@ -7322,11 +7443,11 @@
       <c r="L36" s="407"/>
       <c r="M36" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q142,'Ranch Strategies'!Q225)</f>
-        <v>31948.149787118531</v>
+        <v>32013.77263375574</v>
       </c>
       <c r="N36" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q225, 'Ranch Strategies'!Q142)</f>
-        <v>38678.090757644648</v>
+        <v>38743.71360428186</v>
       </c>
       <c r="P36" s="403"/>
       <c r="Q36" s="432" t="s">
@@ -7356,11 +7477,11 @@
       <c r="L37" s="407"/>
       <c r="M37" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R142,'Ranch Strategies'!R225)</f>
-        <v>31014.861150447457</v>
+        <v>31284.080384174435</v>
       </c>
       <c r="N37" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R225, 'Ranch Strategies'!R142)</f>
-        <v>37580.810926555096</v>
+        <v>37861.49141951192</v>
       </c>
       <c r="P37" s="406"/>
       <c r="Q37" s="407"/>
@@ -7388,11 +7509,11 @@
       <c r="L38" s="407"/>
       <c r="M38" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S142,'Ranch Strategies'!S225)</f>
-        <v>31085.830158181405</v>
+        <v>31232.506163407961</v>
       </c>
       <c r="N38" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S225, 'Ranch Strategies'!S142)</f>
-        <v>37654.314152184124</v>
+        <v>37807.59394243612</v>
       </c>
       <c r="P38" s="406"/>
       <c r="Q38" s="407" t="s">
@@ -7449,16 +7570,16 @@
       </c>
       <c r="R39" s="457">
         <f>IF($G$51=1, 'Ranch Strategies'!Q152,'Ranch Strategies'!Q235)</f>
-        <v>119691.59372344555</v>
+        <v>124986.4387272154</v>
       </c>
       <c r="S39" s="458"/>
       <c r="T39" s="436">
         <f>IF($G$51=1, 'Ranch Strategies'!R152, 'Ranch Strategies'!R235)</f>
-        <v>44388.266785003245</v>
+        <v>66110.48987749801</v>
       </c>
       <c r="U39" s="436">
         <f>IF($G$51=1, 'Ranch Strategies'!S152, 'Ranch Strategies'!S235)</f>
-        <v>50114.472143024439</v>
+        <v>61949.172300734557</v>
       </c>
       <c r="V39" s="459">
         <f>IF($G$51=1, 'Ranch Strategies'!T152,'Ranch Strategies'!T235)</f>
@@ -7501,16 +7622,16 @@
       </c>
       <c r="R40" s="462">
         <f>IF($G$51=1, 'Ranch Strategies'!Q235,'Ranch Strategies'!Q152)</f>
-        <v>116092.93087131623</v>
+        <v>121387.77587508596</v>
       </c>
       <c r="S40" s="463"/>
       <c r="T40" s="464">
         <f>IF($G$51=1, 'Ranch Strategies'!R235,'Ranch Strategies'!R152)</f>
-        <v>27557.810420024209</v>
+        <v>50204.796674738638</v>
       </c>
       <c r="U40" s="464">
         <f>IF($G$51=1, 'Ranch Strategies'!S235,'Ranch Strategies'!S152)</f>
-        <v>33488.491683128406</v>
+        <v>45856.024839400663</v>
       </c>
       <c r="V40" s="462">
         <f>IF($G$51=1, 'Ranch Strategies'!T235,'Ranch Strategies'!T152)</f>
@@ -7666,11 +7787,11 @@
       <c r="L48" s="407"/>
       <c r="M48" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q92,'Ranch Strategies'!Q175)</f>
-        <v>547825.06060398067</v>
+        <v>552942.11997449538</v>
       </c>
       <c r="N48" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q175,'Ranch Strategies'!Q92)</f>
-        <v>525993.61940517451</v>
+        <v>531110.67877568922</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="15" x14ac:dyDescent="0.25">
@@ -7690,11 +7811,11 @@
       <c r="L49" s="407"/>
       <c r="M49" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R92,'Ranch Strategies'!R175)</f>
-        <v>476724.2583072976</v>
+        <v>496524.2583072976</v>
       </c>
       <c r="N49" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!R175,'Ranch Strategies'!R92)</f>
-        <v>444900</v>
+        <v>464700</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.2">
@@ -7712,11 +7833,11 @@
       <c r="L50" s="407"/>
       <c r="M50" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S92,'Ranch Strategies'!S175)</f>
-        <v>481883.17830729758</v>
+        <v>492641.3208072976</v>
       </c>
       <c r="N50" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S175,'Ranch Strategies'!S92)</f>
-        <v>450058.92</v>
+        <v>460817.0625</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
@@ -7764,7 +7885,7 @@
       <c r="L52" s="407"/>
       <c r="M52" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R92,'Ranch Strategies'!R175)</f>
-        <v>476724.2583072976</v>
+        <v>496524.2583072976</v>
       </c>
       <c r="N52" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!U175,'Ranch Strategies'!U92)</f>
@@ -7836,11 +7957,11 @@
       <c r="L55" s="407"/>
       <c r="M55" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q107,'Ranch Strategies'!Q190)</f>
-        <v>569187.22391765972</v>
+        <v>574348.1620722767</v>
       </c>
       <c r="N55" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q190,'Ranch Strategies'!Q107)</f>
-        <v>551855.7646915738</v>
+        <v>557016.70284619078</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.2">
@@ -7858,11 +7979,11 @@
       <c r="L56" s="407"/>
       <c r="M56" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R107,'Ranch Strategies'!R190)</f>
-        <v>496278.30640422</v>
+        <v>516961.18840421998</v>
       </c>
       <c r="N56" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R190,'Ranch Strategies'!R107)</f>
-        <v>467722.19099999999</v>
+        <v>488405.07299999997</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.2">
@@ -7880,11 +8001,11 @@
       <c r="L57" s="407"/>
       <c r="M57" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S107,'Ranch Strategies'!S190)</f>
-        <v>501667.26264701999</v>
+        <v>512905.110721095</v>
       </c>
       <c r="N57" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S190,'Ranch Strategies'!S107)</f>
-        <v>473111.14724279998</v>
+        <v>484348.99531687499</v>
       </c>
       <c r="Q57" s="155" t="s">
         <v>115</v>
@@ -7974,15 +8095,15 @@
       </c>
       <c r="S59" s="148">
         <f>'Ranch Strategies'!Q84</f>
-        <v>55138.572309009673</v>
+        <v>62597.842528418929</v>
       </c>
       <c r="T59" s="148">
         <f>'Ranch Strategies'!R84</f>
-        <v>-33275.741692702402</v>
+        <v>-13475.741692702402</v>
       </c>
       <c r="U59" s="148">
         <f>'Ranch Strategies'!S84</f>
-        <v>-28116.821692702419</v>
+        <v>-17358.679192702402</v>
       </c>
       <c r="V59" s="148">
         <f>'Ranch Strategies'!T84</f>
@@ -8011,15 +8132,15 @@
       </c>
       <c r="S60" s="148">
         <f>'Ranch Strategies'!Q99</f>
-        <v>31140.179757549762</v>
+        <v>31204.142999681197</v>
       </c>
       <c r="T60" s="148">
         <f>'Ranch Strategies'!R99</f>
-        <v>28504.443289974348</v>
+        <v>29791.443289974348</v>
       </c>
       <c r="U60" s="148">
         <f>'Ranch Strategies'!S99</f>
-        <v>28839.773089974347</v>
+        <v>29539.052352474348</v>
       </c>
       <c r="V60" s="148">
         <f>'Ranch Strategies'!T99</f>
@@ -8054,15 +8175,15 @@
       </c>
       <c r="S61" s="148">
         <f>'Ranch Strategies'!Q114</f>
-        <v>31407.20679897075</v>
+        <v>31471.718525903463</v>
       </c>
       <c r="T61" s="148">
         <f>'Ranch Strategies'!R114</f>
-        <v>29775.456416274305</v>
+        <v>30754.381355052752</v>
       </c>
       <c r="U61" s="148">
         <f>'Ranch Strategies'!S114</f>
-        <v>30125.738572056303</v>
+        <v>30703.680384013693</v>
       </c>
       <c r="V61" s="148">
         <f>'Ranch Strategies'!T114</f>
@@ -8081,11 +8202,11 @@
       <c r="L62" s="407"/>
       <c r="M62" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q121,'Ranch Strategies'!Q204)</f>
-        <v>590732.56778175372</v>
+        <v>595937.76098104648</v>
       </c>
       <c r="N62" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q204,'Ranch Strategies'!Q121)</f>
-        <v>577939.67787380412</v>
+        <v>583144.87107309687</v>
       </c>
       <c r="Q62" s="149">
         <f>'Ranch Strategies'!E123</f>
@@ -8097,15 +8218,15 @@
       </c>
       <c r="S62" s="148">
         <f>'Ranch Strategies'!Q128</f>
-        <v>31676.523597271924</v>
+        <v>31741.588512263086</v>
       </c>
       <c r="T62" s="148">
         <f>'Ranch Strategies'!R128</f>
-        <v>30751.169868822304</v>
+        <v>31018.100175172331</v>
       </c>
       <c r="U62" s="148">
         <f>'Ranch Strategies'!S128</f>
-        <v>30821.535491343137</v>
+        <v>30966.96444330661</v>
       </c>
       <c r="V62" s="148">
         <f>'Ranch Strategies'!T128</f>
@@ -8124,11 +8245,11 @@
       <c r="L63" s="407"/>
       <c r="M63" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R121,'Ranch Strategies'!R204)</f>
-        <v>516704.26950578415</v>
+        <v>538058.69401378615</v>
       </c>
       <c r="N63" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R204,'Ranch Strategies'!R121)</f>
-        <v>491562.02349668997</v>
+        <v>513167.15520506998</v>
       </c>
       <c r="Q63" s="149">
         <f>'Ranch Strategies'!E137</f>
@@ -8140,15 +8261,15 @@
       </c>
       <c r="S63" s="148">
         <f>'Ranch Strategies'!Q142</f>
-        <v>31948.149787118531</v>
+        <v>32013.77263375574</v>
       </c>
       <c r="T63" s="148">
         <f>'Ranch Strategies'!R142</f>
-        <v>31014.861150447457</v>
+        <v>31284.080384174435</v>
       </c>
       <c r="U63" s="148">
         <f>'Ranch Strategies'!S128</f>
-        <v>30821.535491343137</v>
+        <v>30966.96444330661</v>
       </c>
       <c r="V63" s="148">
         <f>'Ranch Strategies'!T142</f>
@@ -8167,11 +8288,11 @@
       <c r="L64" s="407"/>
       <c r="M64" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S121,'Ranch Strategies'!S204)</f>
-        <v>522333.51930745062</v>
+        <v>533967.83546452841</v>
       </c>
       <c r="N64" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S204,'Ranch Strategies'!S121)</f>
-        <v>497191.27329835645</v>
+        <v>508930.21701805445</v>
       </c>
     </row>
     <row r="65" spans="10:14" x14ac:dyDescent="0.2">
@@ -8236,11 +8357,11 @@
       <c r="L69" s="407"/>
       <c r="M69" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q135,'Ranch Strategies'!Q218)</f>
-        <v>612462.66296948225</v>
+        <v>617712.49070045887</v>
       </c>
       <c r="N69" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q218,'Ranch Strategies'!Q135)</f>
-        <v>604247.26061157195</v>
+        <v>609497.0883425487</v>
       </c>
     </row>
     <row r="70" spans="10:14" x14ac:dyDescent="0.2">
@@ -8251,11 +8372,11 @@
       <c r="L70" s="407"/>
       <c r="M70" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R135,'Ranch Strategies'!R218)</f>
-        <v>537799.57203579624</v>
+        <v>559337.11073395447</v>
       </c>
       <c r="N70" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R218,'Ranch Strategies'!R135)</f>
-        <v>516464.87412440742</v>
+        <v>538919.31356095348</v>
       </c>
     </row>
     <row r="71" spans="10:14" x14ac:dyDescent="0.2">
@@ -8266,11 +8387,11 @@
       <c r="L71" s="407"/>
       <c r="M71" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S135,'Ranch Strategies'!S218)</f>
-        <v>543477.09265451203</v>
+        <v>555211.17307263671</v>
       </c>
       <c r="N71" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S218,'Ranch Strategies'!S135)</f>
-        <v>522345.13217473013</v>
+        <v>534607.51539488952</v>
       </c>
     </row>
     <row r="72" spans="10:14" x14ac:dyDescent="0.2">
@@ -8335,11 +8456,11 @@
       <c r="L76" s="407"/>
       <c r="M76" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q149,'Ranch Strategies'!Q232)</f>
-        <v>634379.09372344555</v>
+        <v>639673.9387272154</v>
       </c>
       <c r="N76" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q232,'Ranch Strategies'!Q149)</f>
-        <v>630780.43087131623</v>
+        <v>636075.27587508596</v>
       </c>
     </row>
     <row r="77" spans="10:14" x14ac:dyDescent="0.2">
@@ -8350,11 +8471,11 @@
       <c r="L77" s="407"/>
       <c r="M77" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R149,'Ranch Strategies'!R232)</f>
-        <v>559075.76678500324</v>
+        <v>580797.98987749801</v>
       </c>
       <c r="N77" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!R232,'Ranch Strategies'!R149)</f>
-        <v>542245.31042002421</v>
+        <v>564892.29667473864</v>
       </c>
     </row>
     <row r="78" spans="10:14" x14ac:dyDescent="0.2">
@@ -8365,11 +8486,11 @@
       <c r="L78" s="407"/>
       <c r="M78" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S149,'Ranch Strategies'!S232)</f>
-        <v>564801.97214302444</v>
+        <v>576636.67230073456</v>
       </c>
       <c r="N78" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S232,'Ranch Strategies'!S149)</f>
-        <v>548175.99168312841</v>
+        <v>560543.52483940066</v>
       </c>
     </row>
     <row r="79" spans="10:14" x14ac:dyDescent="0.2">
@@ -8430,8 +8551,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8478,19 +8599,19 @@
       <c r="C3"/>
       <c r="D3">
         <f>SUM(D16:O16)</f>
-        <v>0.52506122115640519</v>
+        <v>0.52236121052680584</v>
       </c>
       <c r="E3" s="172">
         <f>SUM(D17:O17)</f>
-        <v>0.86285919084859752</v>
+        <v>0.91934720965481176</v>
       </c>
       <c r="F3" s="172">
         <f>SUM(D18:O18)</f>
-        <v>0.77091180097417411</v>
+        <v>0.82714981978038837</v>
       </c>
       <c r="G3" s="172">
         <f>SUM(D19:O19)</f>
-        <v>0.74817432356158775</v>
+        <v>0.76114290573656729</v>
       </c>
       <c r="P3"/>
     </row>
@@ -8609,9 +8730,9 @@
         <f>IF($H$7&lt;$C$9,('CPER Precip'!F81),"#N/A")</f>
         <v>2.2273684210526317</v>
       </c>
-      <c r="I8" s="173" t="str">
+      <c r="I8" s="173">
         <f>IF($I$7&lt;$C$9,('CPER Precip'!G81),"#N/A")</f>
-        <v>#N/A</v>
+        <v>2.2528947368421059</v>
       </c>
       <c r="J8" s="173" t="str">
         <f>IF($J$7&lt;$C$9,('CPER Precip'!H81),"#N/A")</f>
@@ -8653,7 +8774,7 @@
       </c>
       <c r="C9" s="226">
         <f>UI!F9</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="172">
         <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,D7+1)</f>
@@ -8675,9 +8796,9 @@
         <f>IF($H$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,H7+1)),"#N/A")</f>
         <v>1.27</v>
       </c>
-      <c r="I9" s="172" t="str">
+      <c r="I9" s="172">
         <f>IF($I$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,I7+1)),"#N/A")</f>
-        <v>#N/A</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J9" s="172" t="str">
         <f>IF($J$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,J7+1)),"#N/A")</f>
@@ -8733,9 +8854,9 @@
         <f>IF($H$7&lt;$C$9,(H9/H8),"#N/A")</f>
         <v>0.57017958412098302</v>
       </c>
-      <c r="I10" s="172" t="str">
+      <c r="I10" s="172">
         <f>IF($I$7&lt;$C$9,(I9/I8), "#N/A")</f>
-        <v>#N/A</v>
+        <v>0.49713818479149624</v>
       </c>
       <c r="J10" s="172" t="str">
         <f>IF($J$7&lt;$C$9,(J9/J8),"#N/A")</f>
@@ -8988,7 +9109,7 @@
       </c>
       <c r="I16" s="172">
         <f>IF($I$7&lt;$C$9,(I11*I$10),IF($Q$9&gt;$I$7,0.049431,0.086547))</f>
-        <v>4.9431000000000003E-2</v>
+        <v>4.6730989370400648E-2</v>
       </c>
       <c r="J16" s="172">
         <f>IF($J$7&lt;$C$9,(J11*J$10), 0)</f>
@@ -9042,7 +9163,7 @@
       </c>
       <c r="I17" s="172">
         <f>IF($I$7&lt;$C$9,(I12*I$10), IF($Q$9&gt;$I$7,0.047911,0.118421))</f>
-        <v>4.7911000000000002E-2</v>
+        <v>0.1043990188062142</v>
       </c>
       <c r="J17" s="172">
         <f>IF($J$7&lt;$C$9,(J12*J$10), IF($Q$9&gt;$J$7,0.047911,0.118421))</f>
@@ -9096,7 +9217,7 @@
       </c>
       <c r="I18" s="172">
         <f>IF($I$7&lt;$C$9,(I13*I$10), IF($Q$9&gt;$I$7, 0.048161,0.099464))</f>
-        <v>4.8161000000000002E-2</v>
+        <v>0.1043990188062142</v>
       </c>
       <c r="J18" s="172">
         <f>IF($J$7&lt;$C$9,(J13*J$10),IF($Q$9&gt;$J$7,0.048161,0.099464))</f>
@@ -9150,7 +9271,7 @@
       </c>
       <c r="I19" s="172">
         <f>IF($I$7&lt;$C$9,(I14*I$10),IF($Q$9&gt;$I$7, 0.046688,0.109621))</f>
-        <v>4.6688E-2</v>
+        <v>5.9656582174979544E-2</v>
       </c>
       <c r="J19" s="172">
         <f>IF($J$7&lt;$C$9,(J14*J$10),IF($Q$9&gt;$J$7, 0.046688,0.109621))</f>
@@ -13546,7 +13667,7 @@
       </c>
       <c r="V11" s="470">
         <f>(($U$11-$U$10)*$I$13)+$U$10</f>
-        <v>548.45515521918924</v>
+        <v>561.10870945058741</v>
       </c>
       <c r="AH11" s="363"/>
       <c r="AI11" s="357"/>
@@ -13603,7 +13724,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="186">
         <f>'Drought Calculator'!F3</f>
-        <v>0.77091180097417411</v>
+        <v>0.82714981978038837</v>
       </c>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -13760,11 +13881,11 @@
       <c r="Z16" s="273"/>
       <c r="AA16" s="273">
         <f>IF($U$19&lt;2, $U$18-I21, 12-I21)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="274">
         <f>AA16*30</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AH16" s="363"/>
       <c r="AJ16" s="357"/>
@@ -13953,7 +14074,7 @@
       </c>
       <c r="I21" s="157">
         <f>UI!F10</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
@@ -13971,11 +14092,11 @@
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
         <f>SUM(AA16:AA20)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB21" s="276">
         <f>SUM(AB16:AB20)</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AH21" s="363"/>
       <c r="AI21" s="357"/>
@@ -14144,18 +14265,18 @@
       <c r="N27" s="13"/>
       <c r="P27" s="326">
         <f>AB16</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="253">
         <f>I29*P27</f>
-        <v>198.00000000000003</v>
+        <v>165</v>
       </c>
       <c r="U27" s="254">
         <f>T27*I8</f>
-        <v>118800.00000000001</v>
+        <v>99000</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -14209,18 +14330,18 @@
       <c r="N29" s="13"/>
       <c r="P29" s="328">
         <f>AB21</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="255">
         <f>I29*P29</f>
-        <v>198.00000000000003</v>
+        <v>165</v>
       </c>
       <c r="U29" s="256">
         <f>T29*I8</f>
-        <v>118800.00000000001</v>
+        <v>99000</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -14721,7 +14842,7 @@
       <c r="H46" s="79"/>
       <c r="I46" s="9">
         <f>AB16</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N46" s="13"/>
       <c r="P46" s="135" t="s">
@@ -14766,11 +14887,11 @@
       <c r="S47" s="21"/>
       <c r="T47" s="63">
         <f>U47/$I$8</f>
-        <v>98.94</v>
+        <v>82.449999999999989</v>
       </c>
       <c r="U47" s="238">
         <f>(I45/30)*I46*I8</f>
-        <v>59364</v>
+        <v>49469.999999999993</v>
       </c>
       <c r="Y47" s="54" t="s">
         <v>75</v>
@@ -14874,7 +14995,7 @@
       <c r="H50" s="145"/>
       <c r="I50" s="297">
         <f>AB21</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N50" s="13"/>
       <c r="P50" s="331" t="s">
@@ -14885,11 +15006,11 @@
       <c r="S50" s="22"/>
       <c r="T50" s="64">
         <f t="shared" si="3"/>
-        <v>5.9618000000000002</v>
+        <v>4.5215625000000008</v>
       </c>
       <c r="U50" s="242">
         <f>(U45+U46+U47+U48)*((I15/360)*I46)</f>
-        <v>3577.08</v>
+        <v>2712.9375000000005</v>
       </c>
       <c r="W50" s="13"/>
       <c r="Y50" s="54"/>
@@ -14910,7 +15031,7 @@
       <c r="H51" s="146"/>
       <c r="I51" s="298">
         <f>AA21</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N51" s="13"/>
       <c r="P51" s="332" t="s">
@@ -14921,11 +15042,11 @@
       <c r="S51" s="110"/>
       <c r="T51" s="111">
         <f>SUM(T45:T48, T50)</f>
-        <v>189.40180000000001</v>
+        <v>171.47156249999998</v>
       </c>
       <c r="U51" s="243">
         <f>SUM(U45:U48, U50)</f>
-        <v>113641.08</v>
+        <v>102882.9375</v>
       </c>
       <c r="W51" s="29"/>
       <c r="Y51" s="122" t="s">
@@ -14964,7 +15085,7 @@
       <c r="AB52" s="114"/>
       <c r="AC52" s="124">
         <f>AC51*AB16*(I16/360)</f>
-        <v>3187.5</v>
+        <v>2656.25</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14995,7 +15116,7 @@
       <c r="AB53" s="114"/>
       <c r="AC53" s="124">
         <f>(AC51+AC52)*I16</f>
-        <v>6414.84375</v>
+        <v>6408.203125</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15029,7 +15150,7 @@
       <c r="AB54" s="116"/>
       <c r="AC54" s="128">
         <f>(AC51+AC52+AC53)*I16</f>
-        <v>6495.029296875</v>
+        <v>6488.3056640625</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15205,15 +15326,15 @@
       </c>
       <c r="Z58" s="148">
         <f t="shared" ref="Z58:AD58" si="5">Q92</f>
-        <v>547825.06060398067</v>
+        <v>552942.11997449538</v>
       </c>
       <c r="AA58" s="148">
         <f t="shared" si="5"/>
-        <v>476724.2583072976</v>
+        <v>496524.2583072976</v>
       </c>
       <c r="AB58" s="148">
         <f t="shared" si="5"/>
-        <v>481883.17830729758</v>
+        <v>492641.3208072976</v>
       </c>
       <c r="AC58" s="148">
         <f t="shared" si="5"/>
@@ -15244,11 +15365,11 @@
       <c r="S59" s="139"/>
       <c r="T59" s="25">
         <f>U59/I8</f>
-        <v>-5.3125</v>
+        <v>-4.427083333333333</v>
       </c>
       <c r="U59" s="247">
         <f>-(AC49*AB16*(I16/360))</f>
-        <v>-3187.5</v>
+        <v>-2656.25</v>
       </c>
       <c r="W59" s="13"/>
       <c r="X59" s="149">
@@ -15261,15 +15382,15 @@
       </c>
       <c r="Z59" s="148">
         <f t="shared" ref="Z59:AD59" si="6">Q107</f>
-        <v>569187.22391765972</v>
+        <v>574348.1620722767</v>
       </c>
       <c r="AA59" s="148">
         <f t="shared" si="6"/>
-        <v>496278.30640422</v>
+        <v>516961.18840421998</v>
       </c>
       <c r="AB59" s="148">
         <f t="shared" si="6"/>
-        <v>501667.26264701999</v>
+        <v>512905.110721095</v>
       </c>
       <c r="AC59" s="148">
         <f t="shared" si="6"/>
@@ -15298,11 +15419,11 @@
       <c r="S60" s="140"/>
       <c r="T60" s="141">
         <f>SUM(T56:T59)</f>
-        <v>193.0625</v>
+        <v>193.94791666666666</v>
       </c>
       <c r="U60" s="248">
         <f>SUM(U56:U59)</f>
-        <v>115837.5</v>
+        <v>116368.75</v>
       </c>
       <c r="W60" s="13"/>
       <c r="X60" s="149">
@@ -15315,15 +15436,15 @@
       </c>
       <c r="Z60" s="148">
         <f>Q121</f>
-        <v>590732.56778175372</v>
+        <v>595937.76098104648</v>
       </c>
       <c r="AA60" s="148">
         <f>R121</f>
-        <v>516704.26950578415</v>
+        <v>538058.69401378615</v>
       </c>
       <c r="AB60" s="148">
         <f>S121</f>
-        <v>522333.51930745062</v>
+        <v>533967.83546452841</v>
       </c>
       <c r="AC60" s="148">
         <f>T121</f>
@@ -15369,15 +15490,15 @@
       </c>
       <c r="Z61" s="148">
         <f>Q135</f>
-        <v>612462.66296948225</v>
+        <v>617712.49070045887</v>
       </c>
       <c r="AA61" s="148">
         <f>R135</f>
-        <v>537799.57203579624</v>
+        <v>559337.11073395447</v>
       </c>
       <c r="AB61" s="148">
         <f>S135</f>
-        <v>543477.09265451203</v>
+        <v>555211.17307263671</v>
       </c>
       <c r="AC61" s="148">
         <f>T135</f>
@@ -15406,11 +15527,11 @@
       <c r="S62" s="23"/>
       <c r="T62" s="24">
         <f>U62/I8</f>
-        <v>-26.828955078124999</v>
+        <v>-25.9212646484375</v>
       </c>
       <c r="U62" s="246">
         <f>-(AC52+AC53+AC54)</f>
-        <v>-16097.373046875</v>
+        <v>-15552.7587890625</v>
       </c>
       <c r="W62" s="13"/>
       <c r="X62" s="149">
@@ -15423,15 +15544,15 @@
       </c>
       <c r="Z62" s="148">
         <f>Q149</f>
-        <v>634379.09372344555</v>
+        <v>639673.9387272154</v>
       </c>
       <c r="AA62" s="148">
         <f>R149</f>
-        <v>559075.76678500324</v>
+        <v>580797.98987749801</v>
       </c>
       <c r="AB62" s="148">
         <f>S149</f>
-        <v>564801.97214302444</v>
+        <v>576636.67230073456</v>
       </c>
       <c r="AC62" s="148">
         <f>T149</f>
@@ -15541,11 +15662,11 @@
       <c r="S66" s="23"/>
       <c r="T66" s="24">
         <f>SUM(T61:T65)</f>
-        <v>136.08771158854165</v>
+        <v>136.99540201822913</v>
       </c>
       <c r="U66" s="246">
         <f>SUM(U61:U65)</f>
-        <v>81652.626953125</v>
+        <v>82197.2412109375</v>
       </c>
       <c r="W66" s="13"/>
     </row>
@@ -15568,11 +15689,11 @@
       <c r="S67" s="142"/>
       <c r="T67" s="143">
         <f>T60+T66</f>
-        <v>329.15021158854165</v>
+        <v>330.94331868489576</v>
       </c>
       <c r="U67" s="249">
         <f>U60+U66</f>
-        <v>197490.126953125</v>
+        <v>198565.9912109375</v>
       </c>
       <c r="W67" s="13"/>
     </row>
@@ -15976,7 +16097,7 @@
       </c>
       <c r="Q81" s="89">
         <f>IF($I$22=E80,($I$8*$U$9)*$V$11*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>323314.31400171207</v>
+        <v>330773.58422112133</v>
       </c>
       <c r="R81" s="90">
         <f>($I$8*$U$9)*$U$11*$U$14</f>
@@ -16065,11 +16186,11 @@
       </c>
       <c r="R83" s="94">
         <f>-IF(I19=1,(I8*I12)+(AB16*I29*I8)+U33, (I8*I12)+(AB16*I29*I8))</f>
-        <v>-425632.6335</v>
+        <v>-405832.6335</v>
       </c>
       <c r="S83" s="94">
         <f>-IF(I19=1, ((I8*I12)+U51)+(U33), ((I8*I12)+U51))</f>
-        <v>-420473.71350000001</v>
+        <v>-409715.571</v>
       </c>
       <c r="T83" s="94">
         <f>-IF(I19 = 1, (I8*(I12-I54))+(U33), (I8*(I12-I54)))</f>
@@ -16103,15 +16224,15 @@
       </c>
       <c r="Q84" s="90">
         <f t="shared" si="15"/>
-        <v>55138.572309009673</v>
+        <v>62597.842528418929</v>
       </c>
       <c r="R84" s="90">
         <f t="shared" si="15"/>
-        <v>-33275.741692702402</v>
+        <v>-13475.741692702402</v>
       </c>
       <c r="S84" s="90">
         <f t="shared" si="15"/>
-        <v>-28116.821692702419</v>
+        <v>-17358.679192702402</v>
       </c>
       <c r="T84" s="90">
         <f t="shared" si="15"/>
@@ -16166,7 +16287,7 @@
       </c>
       <c r="Q85" s="95">
         <f t="shared" si="16"/>
-        <v>17313.511705029036</v>
+        <v>19655.722553923544</v>
       </c>
       <c r="R85" s="95">
         <f t="shared" si="16"/>
@@ -16235,15 +16356,15 @@
       </c>
       <c r="Q86" s="97">
         <f t="shared" si="18"/>
-        <v>37825.060603980637</v>
+        <v>42942.119974495385</v>
       </c>
       <c r="R86" s="97">
         <f t="shared" si="18"/>
-        <v>-33275.741692702402</v>
+        <v>-13475.741692702402</v>
       </c>
       <c r="S86" s="97">
         <f t="shared" si="18"/>
-        <v>-28116.821692702419</v>
+        <v>-17358.679192702402</v>
       </c>
       <c r="T86" s="97">
         <f t="shared" si="18"/>
@@ -16264,15 +16385,15 @@
       </c>
       <c r="Z86" s="148">
         <f t="shared" si="19"/>
-        <v>55138.572309009673</v>
+        <v>62597.842528418929</v>
       </c>
       <c r="AA86" s="148">
         <f t="shared" si="19"/>
-        <v>-33275.741692702402</v>
+        <v>-13475.741692702402</v>
       </c>
       <c r="AB86" s="148">
         <f t="shared" si="19"/>
-        <v>-28116.821692702419</v>
+        <v>-17358.679192702402</v>
       </c>
       <c r="AC86" s="148">
         <f t="shared" si="19"/>
@@ -16330,15 +16451,15 @@
       </c>
       <c r="Z87" s="148">
         <f t="shared" si="20"/>
-        <v>31140.179757549762</v>
+        <v>31204.142999681197</v>
       </c>
       <c r="AA87" s="148">
         <f t="shared" si="20"/>
-        <v>28504.443289974348</v>
+        <v>29791.443289974348</v>
       </c>
       <c r="AB87" s="148">
         <f t="shared" si="20"/>
-        <v>28839.773089974347</v>
+        <v>29539.052352474348</v>
       </c>
       <c r="AC87" s="148">
         <f t="shared" si="20"/>
@@ -16395,15 +16516,15 @@
       </c>
       <c r="Z88" s="148">
         <f>Q114</f>
-        <v>31407.20679897075</v>
+        <v>31471.718525903463</v>
       </c>
       <c r="AA88" s="148">
         <f>R114</f>
-        <v>29775.456416274305</v>
+        <v>30754.381355052752</v>
       </c>
       <c r="AB88" s="148">
         <f>S114</f>
-        <v>30125.738572056303</v>
+        <v>30703.680384013693</v>
       </c>
       <c r="AC88" s="148">
         <f>T114</f>
@@ -16447,15 +16568,15 @@
       </c>
       <c r="Z89" s="148">
         <f>Q128</f>
-        <v>31676.523597271924</v>
+        <v>31741.588512263086</v>
       </c>
       <c r="AA89" s="148">
         <f>R128</f>
-        <v>30751.169868822304</v>
+        <v>31018.100175172331</v>
       </c>
       <c r="AB89" s="148">
         <f>S128</f>
-        <v>30821.535491343137</v>
+        <v>30966.96444330661</v>
       </c>
       <c r="AC89" s="148">
         <f>T128</f>
@@ -16517,15 +16638,15 @@
       </c>
       <c r="Z90" s="148">
         <f>Q142</f>
-        <v>31948.149787118531</v>
+        <v>32013.77263375574</v>
       </c>
       <c r="AA90" s="148">
         <f>R142</f>
-        <v>31014.861150447457</v>
+        <v>31284.080384174435</v>
       </c>
       <c r="AB90" s="148">
         <f>S142</f>
-        <v>31085.830158181405</v>
+        <v>31232.506163407961</v>
       </c>
       <c r="AC90" s="148">
         <f>T142</f>
@@ -16558,15 +16679,15 @@
       </c>
       <c r="Q91" s="87">
         <f t="shared" ref="Q91:U91" si="25">Q86+Q87-Q88</f>
-        <v>37825.060603980637</v>
+        <v>42942.119974495385</v>
       </c>
       <c r="R91" s="87">
         <f t="shared" si="25"/>
-        <v>-33275.741692702402</v>
+        <v>-13475.741692702402</v>
       </c>
       <c r="S91" s="87">
         <f t="shared" si="25"/>
-        <v>-28116.821692702419</v>
+        <v>-17358.679192702402</v>
       </c>
       <c r="T91" s="87">
         <f t="shared" si="25"/>
@@ -16600,15 +16721,15 @@
       </c>
       <c r="Q92" s="265">
         <f>SUM(Q90:Q91)</f>
-        <v>547825.06060398067</v>
+        <v>552942.11997449538</v>
       </c>
       <c r="R92" s="265">
         <f>SUM(R90:R91)</f>
-        <v>476724.2583072976</v>
+        <v>496524.2583072976</v>
       </c>
       <c r="S92" s="265">
         <f t="shared" ref="S92" si="26">SUM(S90:S91)</f>
-        <v>481883.17830729758</v>
+        <v>492641.3208072976</v>
       </c>
       <c r="T92" s="265">
         <f>SUM(T90:T91)</f>
@@ -16813,15 +16934,15 @@
       </c>
       <c r="Q98" s="94">
         <f t="shared" si="28"/>
-        <v>472.81325754975796</v>
+        <v>536.77649968119238</v>
       </c>
       <c r="R98" s="94">
         <f t="shared" si="28"/>
-        <v>-2162.9232100256563</v>
+        <v>-875.9232100256562</v>
       </c>
       <c r="S98" s="94">
         <f t="shared" si="28"/>
-        <v>-1827.5934100256572</v>
+        <v>-1128.3141475256562</v>
       </c>
       <c r="T98" s="94">
         <f t="shared" si="28"/>
@@ -16855,15 +16976,15 @@
       </c>
       <c r="Q99" s="90">
         <f t="shared" si="29"/>
-        <v>31140.179757549762</v>
+        <v>31204.142999681197</v>
       </c>
       <c r="R99" s="90">
         <f t="shared" si="29"/>
-        <v>28504.443289974348</v>
+        <v>29791.443289974348</v>
       </c>
       <c r="S99" s="90">
         <f t="shared" si="29"/>
-        <v>28839.773089974347</v>
+        <v>29539.052352474348</v>
       </c>
       <c r="T99" s="90">
         <f t="shared" si="29"/>
@@ -16897,15 +17018,15 @@
       </c>
       <c r="Q100" s="95">
         <f t="shared" si="30"/>
-        <v>9778.0164438706252</v>
+        <v>9798.1009018998957</v>
       </c>
       <c r="R100" s="95">
         <f t="shared" si="30"/>
-        <v>8950.3951930519452</v>
+        <v>9354.5131930519456</v>
       </c>
       <c r="S100" s="95">
         <f t="shared" si="30"/>
-        <v>9055.6887502519457</v>
+        <v>9275.2624386769457</v>
       </c>
       <c r="T100" s="95">
         <f t="shared" si="30"/>
@@ -16939,15 +17060,15 @@
       </c>
       <c r="Q101" s="97">
         <f>Q99-Q100</f>
-        <v>21362.163313679135</v>
+        <v>21406.042097781301</v>
       </c>
       <c r="R101" s="97">
         <f t="shared" ref="R101:S101" si="31">R99-R100</f>
-        <v>19554.048096922401</v>
+        <v>20436.930096922402</v>
       </c>
       <c r="S101" s="102">
         <f t="shared" si="31"/>
-        <v>19784.084339722402</v>
+        <v>20263.789913797402</v>
       </c>
       <c r="T101" s="97">
         <f>T99-T100</f>
@@ -17106,15 +17227,15 @@
       </c>
       <c r="Q106" s="103">
         <f>Q91+Q101</f>
-        <v>59187.223917659772</v>
+        <v>64348.162072276682</v>
       </c>
       <c r="R106" s="103">
         <f>R91+R101</f>
-        <v>-13721.693595780001</v>
+        <v>6961.1884042199999</v>
       </c>
       <c r="S106" s="103">
         <f>S91+S101</f>
-        <v>-8332.737352980017</v>
+        <v>2905.1107210949995</v>
       </c>
       <c r="T106" s="103">
         <f>T91+T101-T102</f>
@@ -17148,15 +17269,15 @@
       </c>
       <c r="Q107" s="310">
         <f>SUM(Q105:Q106)</f>
-        <v>569187.22391765972</v>
+        <v>574348.1620722767</v>
       </c>
       <c r="R107" s="310">
         <f t="shared" ref="R107:S107" si="33">SUM(R105:R106)</f>
-        <v>496278.30640422</v>
+        <v>516961.18840421998</v>
       </c>
       <c r="S107" s="310">
         <f t="shared" si="33"/>
-        <v>501667.26264701999</v>
+        <v>512905.110721095</v>
       </c>
       <c r="T107" s="310">
         <f>SUM(T105:T106)</f>
@@ -17361,15 +17482,15 @@
       </c>
       <c r="Q113" s="94">
         <f t="shared" si="34"/>
-        <v>739.8402989707472</v>
+        <v>804.35202590345853</v>
       </c>
       <c r="R113" s="94">
         <f t="shared" si="34"/>
-        <v>-891.91008372570013</v>
+        <v>87.014855052750008</v>
       </c>
       <c r="S113" s="94">
         <f t="shared" si="34"/>
-        <v>-541.62792794370114</v>
+        <v>36.313884013687492</v>
       </c>
       <c r="T113" s="94">
         <f t="shared" si="34"/>
@@ -17403,15 +17524,15 @@
       </c>
       <c r="Q114" s="90">
         <f>SUM(Q110:Q113)</f>
-        <v>31407.20679897075</v>
+        <v>31471.718525903463</v>
       </c>
       <c r="R114" s="90">
         <f>SUM(R110:R113)</f>
-        <v>29775.456416274305</v>
+        <v>30754.381355052752</v>
       </c>
       <c r="S114" s="90">
         <f>SUM(S110:S113)</f>
-        <v>30125.738572056303</v>
+        <v>30703.680384013693</v>
       </c>
       <c r="T114" s="90">
         <f>SUM(T110:T113)</f>
@@ -17445,15 +17566,15 @@
       </c>
       <c r="Q115" s="95">
         <f>IF(Q114&gt;0,Q114*(0.124+0.15+0.04),0)</f>
-        <v>9861.8629348768154</v>
+        <v>9882.1196171336869</v>
       </c>
       <c r="R115" s="95">
         <f>IF(R114&gt;0,R114*(0.124+0.15+0.04),0)</f>
-        <v>9349.493314710131</v>
+        <v>9656.8757454865645</v>
       </c>
       <c r="S115" s="95">
         <f>IF(S114&gt;0,S114*(0.124+0.15+0.04),0)</f>
-        <v>9459.4819116256785</v>
+        <v>9640.9556405802996</v>
       </c>
       <c r="T115" s="95">
         <f>IF(T114&gt;0,T114*(0.124+0.15+0.04),0)</f>
@@ -17487,15 +17608,15 @@
       </c>
       <c r="Q116" s="97">
         <f t="shared" si="37"/>
-        <v>21545.343864093935</v>
+        <v>21589.598908769774</v>
       </c>
       <c r="R116" s="97">
         <f t="shared" si="37"/>
-        <v>20425.963101564172</v>
+        <v>21097.505609566186</v>
       </c>
       <c r="S116" s="97">
         <f t="shared" si="37"/>
-        <v>20666.256660430627</v>
+        <v>21062.724743433391</v>
       </c>
       <c r="T116" s="97">
         <f t="shared" si="37"/>
@@ -17632,15 +17753,15 @@
       </c>
       <c r="Q120" s="103">
         <f>Q106+Q116-Q117</f>
-        <v>80732.567781753707</v>
+        <v>85937.760981046449</v>
       </c>
       <c r="R120" s="103">
         <f>R106+R116-R117</f>
-        <v>6704.2695057841702</v>
+        <v>28058.694013786186</v>
       </c>
       <c r="S120" s="103">
         <f>S106+S116-S117</f>
-        <v>12333.51930745061</v>
+        <v>23967.835464528391</v>
       </c>
       <c r="T120" s="103">
         <f>T106+T116-T117</f>
@@ -17674,15 +17795,15 @@
       </c>
       <c r="Q121" s="310">
         <f t="shared" si="40"/>
-        <v>590732.56778175372</v>
+        <v>595937.76098104648</v>
       </c>
       <c r="R121" s="310">
         <f t="shared" si="40"/>
-        <v>516704.26950578415</v>
+        <v>538058.69401378615</v>
       </c>
       <c r="S121" s="310">
         <f t="shared" si="40"/>
-        <v>522333.51930745062</v>
+        <v>533967.83546452841</v>
       </c>
       <c r="T121" s="310">
         <f t="shared" si="40"/>
@@ -17887,15 +18008,15 @@
       </c>
       <c r="Q127" s="94">
         <f>IF(Q120&gt;0,Q120*$I$16,Q120*$I$15)</f>
-        <v>1009.1570972719214</v>
+        <v>1074.2220122630806</v>
       </c>
       <c r="R127" s="94">
         <f>IF(R120&gt;0,R120*$I$16,R120*$I$15)</f>
-        <v>83.803368822302133</v>
+        <v>350.73367517232737</v>
       </c>
       <c r="S127" s="94">
         <f>IF(S120&gt;0,S120*$I$16,S120*$I$15)</f>
-        <v>154.16899134313263</v>
+        <v>299.59794330660492</v>
       </c>
       <c r="T127" s="94">
         <f>IF(T120&gt;0,T120*$I$16,T120*$I$15)</f>
@@ -17929,15 +18050,15 @@
       </c>
       <c r="Q128" s="90">
         <f>SUM(Q124:Q127)</f>
-        <v>31676.523597271924</v>
+        <v>31741.588512263086</v>
       </c>
       <c r="R128" s="90">
         <f>SUM(R124:R127)</f>
-        <v>30751.169868822304</v>
+        <v>31018.100175172331</v>
       </c>
       <c r="S128" s="90">
         <f>SUM(S124:S127)</f>
-        <v>30821.535491343137</v>
+        <v>30966.96444330661</v>
       </c>
       <c r="T128" s="90">
         <f>SUM(T124:T127)</f>
@@ -17971,15 +18092,15 @@
       </c>
       <c r="Q129" s="95">
         <f>IF(Q128&gt;0,Q128*(0.124+0.15+0.04),0)</f>
-        <v>9946.428409543385</v>
+        <v>9966.8587928506095</v>
       </c>
       <c r="R129" s="95">
         <f>IF(R128&gt;0,R128*(0.124+0.15+0.04),0)</f>
-        <v>9655.8673388102034</v>
+        <v>9739.6834550041112</v>
       </c>
       <c r="S129" s="95">
         <f>IF(S128&gt;0,S128*(0.124+0.15+0.04),0)</f>
-        <v>9677.9621442817443</v>
+        <v>9723.6268351982762</v>
       </c>
       <c r="T129" s="95">
         <f>IF(T128&gt;0,T128*(0.124+0.15+0.04),0)</f>
@@ -18013,15 +18134,15 @@
       </c>
       <c r="Q130" s="97">
         <f t="shared" si="44"/>
-        <v>21730.095187728541</v>
+        <v>21774.729719412477</v>
       </c>
       <c r="R130" s="97">
         <f t="shared" si="44"/>
-        <v>21095.302530012101</v>
+        <v>21278.416720168221</v>
       </c>
       <c r="S130" s="97">
         <f t="shared" si="44"/>
-        <v>21143.573347061392</v>
+        <v>21243.337608108333</v>
       </c>
       <c r="T130" s="97">
         <f t="shared" si="44"/>
@@ -18158,15 +18279,15 @@
       </c>
       <c r="Q134" s="103">
         <f>Q120+Q130-Q131</f>
-        <v>102462.66296948225</v>
+        <v>107712.49070045893</v>
       </c>
       <c r="R134" s="103">
         <f>R120+R130-R131</f>
-        <v>27799.572035796271</v>
+        <v>49337.110733954411</v>
       </c>
       <c r="S134" s="103">
         <f>S120+S130-S131</f>
-        <v>33477.092654512002</v>
+        <v>45211.173072636724</v>
       </c>
       <c r="T134" s="103">
         <f>T120+T130-T131</f>
@@ -18200,15 +18321,15 @@
       </c>
       <c r="Q135" s="310">
         <f t="shared" si="47"/>
-        <v>612462.66296948225</v>
+        <v>617712.49070045887</v>
       </c>
       <c r="R135" s="310">
         <f t="shared" si="47"/>
-        <v>537799.57203579624</v>
+        <v>559337.11073395447</v>
       </c>
       <c r="S135" s="310">
         <f t="shared" si="47"/>
-        <v>543477.09265451203</v>
+        <v>555211.17307263671</v>
       </c>
       <c r="T135" s="310">
         <f t="shared" si="47"/>
@@ -18411,15 +18532,15 @@
       </c>
       <c r="Q141" s="94">
         <f>IF(Q134&gt;0,Q134*$I$16,Q134*$I$15)</f>
-        <v>1280.7832871185283</v>
+        <v>1346.4061337557368</v>
       </c>
       <c r="R141" s="94">
         <f>IF(R134&gt;0,R134*$I$16,R134*$I$15)</f>
-        <v>347.49465044745341</v>
+        <v>616.71388417443018</v>
       </c>
       <c r="S141" s="94">
         <f>IF(S134&gt;0,S134*$I$16,S134*$I$15)</f>
-        <v>418.46365818140004</v>
+        <v>565.13966340795912</v>
       </c>
       <c r="T141" s="94">
         <f>IF(T134&gt;0,T134*$I$16,T134*$I$15)</f>
@@ -18452,15 +18573,15 @@
       </c>
       <c r="Q142" s="90">
         <f>SUM(Q138:Q141)</f>
-        <v>31948.149787118531</v>
+        <v>32013.77263375574</v>
       </c>
       <c r="R142" s="90">
         <f>SUM(R138:R141)</f>
-        <v>31014.861150447457</v>
+        <v>31284.080384174435</v>
       </c>
       <c r="S142" s="90">
         <f>SUM(S138:S141)</f>
-        <v>31085.830158181405</v>
+        <v>31232.506163407961</v>
       </c>
       <c r="T142" s="90">
         <f>SUM(T138:T141)</f>
@@ -18493,15 +18614,15 @@
       </c>
       <c r="Q143" s="95">
         <f>IF(Q142&gt;0,Q142*(0.124+0.15+0.04),0)</f>
-        <v>10031.719033155219</v>
+        <v>10052.324606999302</v>
       </c>
       <c r="R143" s="95">
         <f>IF(R142&gt;0,R142*(0.124+0.15+0.04),0)</f>
-        <v>9738.6664012405017</v>
+        <v>9823.2012406307731</v>
       </c>
       <c r="S143" s="95">
         <f>IF(S142&gt;0,S142*(0.124+0.15+0.04),0)</f>
-        <v>9760.9506696689605</v>
+        <v>9807.0069353101007</v>
       </c>
       <c r="T143" s="95">
         <f>IF(T142&gt;0,T142*(0.124+0.15+0.04),0)</f>
@@ -18534,15 +18655,15 @@
       </c>
       <c r="Q144" s="97">
         <f t="shared" si="51"/>
-        <v>21916.430753963312</v>
+        <v>21961.448026756436</v>
       </c>
       <c r="R144" s="97">
         <f t="shared" si="51"/>
-        <v>21276.194749206956</v>
+        <v>21460.879143543661</v>
       </c>
       <c r="S144" s="97">
         <f t="shared" si="51"/>
-        <v>21324.879488512444</v>
+        <v>21425.499228097862</v>
       </c>
       <c r="T144" s="97">
         <f t="shared" si="51"/>
@@ -18675,15 +18796,15 @@
       </c>
       <c r="Q148" s="103">
         <f>Q134+Q144-Q145</f>
-        <v>124379.09372344556</v>
+        <v>129673.93872721537</v>
       </c>
       <c r="R148" s="103">
         <f>R134+R144-R145</f>
-        <v>49075.76678500323</v>
+        <v>70797.989877498068</v>
       </c>
       <c r="S148" s="103">
         <f>S134+S144-S145</f>
-        <v>54801.972143024446</v>
+        <v>66636.672300734586</v>
       </c>
       <c r="T148" s="103">
         <f>T134+T144-T145</f>
@@ -18716,15 +18837,15 @@
       </c>
       <c r="Q149" s="310">
         <f t="shared" ref="Q149:U149" si="54">SUM(Q147:Q148)</f>
-        <v>634379.09372344555</v>
+        <v>639673.9387272154</v>
       </c>
       <c r="R149" s="310">
         <f t="shared" si="54"/>
-        <v>559075.76678500324</v>
+        <v>580797.98987749801</v>
       </c>
       <c r="S149" s="310">
         <f t="shared" si="54"/>
-        <v>564801.97214302444</v>
+        <v>576636.67230073456</v>
       </c>
       <c r="T149" s="310">
         <f t="shared" si="54"/>
@@ -18801,15 +18922,15 @@
       </c>
       <c r="Q152" s="322">
         <f t="shared" si="55"/>
-        <v>119691.59372344555</v>
+        <v>124986.4387272154</v>
       </c>
       <c r="R152" s="322">
         <f t="shared" si="55"/>
-        <v>44388.266785003245</v>
+        <v>66110.48987749801</v>
       </c>
       <c r="S152" s="322">
         <f t="shared" si="55"/>
-        <v>50114.472143024439</v>
+        <v>61949.172300734557</v>
       </c>
       <c r="T152" s="322">
         <f t="shared" si="55"/>
@@ -18842,15 +18963,15 @@
       </c>
       <c r="Q153" s="320">
         <f t="shared" si="56"/>
-        <v>199.48598953907592</v>
+        <v>208.31073121202567</v>
       </c>
       <c r="R153" s="320">
         <f t="shared" si="56"/>
-        <v>73.980444641672079</v>
+        <v>110.18414979583002</v>
       </c>
       <c r="S153" s="320">
         <f t="shared" si="56"/>
-        <v>83.524120238374067</v>
+        <v>103.24862050122427</v>
       </c>
       <c r="T153" s="320">
         <f t="shared" si="56"/>
@@ -19178,7 +19299,7 @@
       </c>
       <c r="Q164" s="89">
         <f>IF($I$22=E163,($I$8*$U$9)*$V$11*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>323314.31400171207</v>
+        <v>330773.58422112133</v>
       </c>
       <c r="R164" s="90">
         <f>($I$8*$U$9)*$U$11*$U$14</f>
@@ -19265,11 +19386,11 @@
       </c>
       <c r="R166" s="94">
         <f>-IF(I19=1, (I8*I12)+(AB16*I29*I8),(I8*I12)+(AB16*I29*I8)+U33)</f>
-        <v>-418800</v>
+        <v>-399000</v>
       </c>
       <c r="S166" s="94">
         <f>-IF(I19=1, ((I8*I12)+U51), ((I8*I12)+U51)+(U33))</f>
-        <v>-413641.08</v>
+        <v>-402882.9375</v>
       </c>
       <c r="T166" s="94">
         <f>-IF(I19 = 1, (I8*(I12-I54)), (I8*(I12-I54))+(U33))</f>
@@ -19303,15 +19424,15 @@
       </c>
       <c r="Q167" s="90">
         <f t="shared" si="61"/>
-        <v>23314.314001712075</v>
+        <v>30773.584221121331</v>
       </c>
       <c r="R167" s="90">
         <f t="shared" si="61"/>
-        <v>-65100</v>
+        <v>-45300</v>
       </c>
       <c r="S167" s="90">
         <f t="shared" si="61"/>
-        <v>-59941.080000000016</v>
+        <v>-49182.9375</v>
       </c>
       <c r="T167" s="90">
         <f t="shared" si="61"/>
@@ -19345,7 +19466,7 @@
       </c>
       <c r="Q168" s="95">
         <f t="shared" si="62"/>
-        <v>7320.6945965375917</v>
+        <v>9662.9054454320976</v>
       </c>
       <c r="R168" s="95">
         <f t="shared" si="62"/>
@@ -19385,15 +19506,15 @@
       </c>
       <c r="Q169" s="97">
         <f t="shared" si="63"/>
-        <v>15993.619405174482</v>
+        <v>21110.678775689234</v>
       </c>
       <c r="R169" s="97">
         <f t="shared" si="63"/>
-        <v>-65100</v>
+        <v>-45300</v>
       </c>
       <c r="S169" s="97">
         <f t="shared" si="63"/>
-        <v>-59941.080000000016</v>
+        <v>-49182.9375</v>
       </c>
       <c r="T169" s="97">
         <f t="shared" si="63"/>
@@ -19558,15 +19679,15 @@
       </c>
       <c r="Q174" s="424">
         <f t="shared" ref="Q174:U174" si="65">Q169+Q170-Q171</f>
-        <v>15993.619405174482</v>
+        <v>21110.678775689234</v>
       </c>
       <c r="R174" s="424">
         <f t="shared" si="65"/>
-        <v>-65100</v>
+        <v>-45300</v>
       </c>
       <c r="S174" s="424">
         <f t="shared" si="65"/>
-        <v>-59941.080000000016</v>
+        <v>-49182.9375</v>
       </c>
       <c r="T174" s="424">
         <f t="shared" si="65"/>
@@ -19598,15 +19719,15 @@
       </c>
       <c r="Q175" s="265">
         <f>SUM(Q173:Q174)</f>
-        <v>525993.61940517451</v>
+        <v>531110.67877568922</v>
       </c>
       <c r="R175" s="265">
         <f>SUM(R173:R174)</f>
-        <v>444900</v>
+        <v>464700</v>
       </c>
       <c r="S175" s="265">
         <f t="shared" ref="S175" si="66">SUM(S173:S174)</f>
-        <v>450058.92</v>
+        <v>460817.0625</v>
       </c>
       <c r="T175" s="265">
         <f>SUM(T173:T174)</f>
@@ -19797,15 +19918,15 @@
       </c>
       <c r="Q181" s="94">
         <f t="shared" si="68"/>
-        <v>199.92024256468105</v>
+        <v>263.88348469611543</v>
       </c>
       <c r="R181" s="94">
         <f t="shared" si="68"/>
-        <v>-4231.5</v>
+        <v>-2944.5</v>
       </c>
       <c r="S181" s="94">
         <f t="shared" si="68"/>
-        <v>-3896.1702000000014</v>
+        <v>-3196.8909375000003</v>
       </c>
       <c r="T181" s="94">
         <f t="shared" si="68"/>
@@ -19836,15 +19957,15 @@
       </c>
       <c r="Q182" s="90">
         <f t="shared" si="69"/>
-        <v>37699.92024256468</v>
+        <v>37763.883484696118</v>
       </c>
       <c r="R182" s="90">
         <f t="shared" si="69"/>
-        <v>33268.5</v>
+        <v>34555.5</v>
       </c>
       <c r="S182" s="90">
         <f t="shared" si="69"/>
-        <v>33603.8298</v>
+        <v>34303.1090625</v>
       </c>
       <c r="T182" s="90">
         <f t="shared" si="69"/>
@@ -19875,15 +19996,15 @@
       </c>
       <c r="Q183" s="95">
         <f t="shared" si="70"/>
-        <v>11837.774956165309</v>
+        <v>11857.859414194581</v>
       </c>
       <c r="R183" s="95">
         <f t="shared" si="70"/>
-        <v>10446.308999999999</v>
+        <v>10850.427</v>
       </c>
       <c r="S183" s="95">
         <f t="shared" si="70"/>
-        <v>10551.6025572</v>
+        <v>10771.176245625</v>
       </c>
       <c r="T183" s="95">
         <f t="shared" si="70"/>
@@ -19914,15 +20035,15 @@
       </c>
       <c r="Q184" s="97">
         <f>Q182-Q183</f>
-        <v>25862.145286399369</v>
+        <v>25906.024070501539</v>
       </c>
       <c r="R184" s="97">
         <f t="shared" ref="R184:S184" si="71">R182-R183</f>
-        <v>22822.190999999999</v>
+        <v>23705.073</v>
       </c>
       <c r="S184" s="102">
         <f t="shared" si="71"/>
-        <v>23052.2272428</v>
+        <v>23531.932816875</v>
       </c>
       <c r="T184" s="97">
         <f>T182-T183</f>
@@ -20066,15 +20187,15 @@
       </c>
       <c r="Q189" s="430">
         <f>Q174+Q184</f>
-        <v>41855.764691573851</v>
+        <v>47016.702846190776</v>
       </c>
       <c r="R189" s="430">
         <f>R174+R184</f>
-        <v>-42277.809000000001</v>
+        <v>-21594.927</v>
       </c>
       <c r="S189" s="430">
         <f>S174+S184</f>
-        <v>-36888.852757200017</v>
+        <v>-25651.004683125</v>
       </c>
       <c r="T189" s="430">
         <f>T174+T184-T185</f>
@@ -20105,15 +20226,15 @@
       </c>
       <c r="Q190" s="310">
         <f>SUM(Q188:Q189)</f>
-        <v>551855.7646915738</v>
+        <v>557016.70284619078</v>
       </c>
       <c r="R190" s="310">
         <f t="shared" ref="R190:S190" si="73">SUM(R188:R189)</f>
-        <v>467722.19099999999</v>
+        <v>488405.07299999997</v>
       </c>
       <c r="S190" s="310">
         <f t="shared" si="73"/>
-        <v>473111.14724279998</v>
+        <v>484348.99531687499</v>
       </c>
       <c r="T190" s="310">
         <f>SUM(T188:T189)</f>
@@ -20300,15 +20421,15 @@
       </c>
       <c r="Q196" s="94">
         <f t="shared" si="74"/>
-        <v>523.19705864467312</v>
+        <v>587.70878557738467</v>
       </c>
       <c r="R196" s="94">
         <f t="shared" si="74"/>
-        <v>-2748.057585</v>
+        <v>-1403.670255</v>
       </c>
       <c r="S196" s="94">
         <f t="shared" si="74"/>
-        <v>-2397.7754292180011</v>
+        <v>-1667.3153044031251</v>
       </c>
       <c r="T196" s="94">
         <f t="shared" si="74"/>
@@ -20339,15 +20460,15 @@
       </c>
       <c r="Q197" s="90">
         <f>SUM(Q193:Q196)</f>
-        <v>38023.19705864467</v>
+        <v>38087.708785577386</v>
       </c>
       <c r="R197" s="90">
         <f>SUM(R193:R196)</f>
-        <v>34751.942414999998</v>
+        <v>36096.329745000003</v>
       </c>
       <c r="S197" s="90">
         <f>SUM(S193:S196)</f>
-        <v>35102.224570781997</v>
+        <v>35832.684695596872</v>
       </c>
       <c r="T197" s="90">
         <f>SUM(T193:T196)</f>
@@ -20378,15 +20499,15 @@
       </c>
       <c r="Q198" s="95">
         <f>IF(Q197&gt;0,Q197*(0.124+0.15+0.04),0)</f>
-        <v>11939.283876414427</v>
+        <v>11959.540558671299</v>
       </c>
       <c r="R198" s="95">
         <f>IF(R197&gt;0,R197*(0.124+0.15+0.04),0)</f>
-        <v>10912.10991831</v>
+        <v>11334.24753993</v>
       </c>
       <c r="S198" s="95">
         <f>IF(S197&gt;0,S197*(0.124+0.15+0.04),0)</f>
-        <v>11022.098515225547</v>
+        <v>11251.462994417418</v>
       </c>
       <c r="T198" s="95">
         <f>IF(T197&gt;0,T197*(0.124+0.15+0.04),0)</f>
@@ -20417,15 +20538,15 @@
       </c>
       <c r="Q199" s="97">
         <f t="shared" si="77"/>
-        <v>26083.913182230244</v>
+        <v>26128.168226906088</v>
       </c>
       <c r="R199" s="97">
         <f t="shared" si="77"/>
-        <v>23839.832496689996</v>
+        <v>24762.082205070001</v>
       </c>
       <c r="S199" s="97">
         <f t="shared" si="77"/>
-        <v>24080.126055556451</v>
+        <v>24581.221701179456</v>
       </c>
       <c r="T199" s="97">
         <f t="shared" si="77"/>
@@ -20550,15 +20671,15 @@
       </c>
       <c r="Q203" s="430">
         <f>Q189+Q199-Q200</f>
-        <v>67939.677873804088</v>
+        <v>73144.87107309686</v>
       </c>
       <c r="R203" s="430">
         <f>R189+R199-R200</f>
-        <v>-18437.976503310005</v>
+        <v>3167.1552050700011</v>
       </c>
       <c r="S203" s="430">
         <f>S189+S199-S200</f>
-        <v>-12808.726701643565</v>
+        <v>-1069.7829819455437</v>
       </c>
       <c r="T203" s="430">
         <f>T189+T199-T200</f>
@@ -20589,15 +20710,15 @@
       </c>
       <c r="Q204" s="310">
         <f t="shared" si="80"/>
-        <v>577939.67787380412</v>
+        <v>583144.87107309687</v>
       </c>
       <c r="R204" s="310">
         <f t="shared" si="80"/>
-        <v>491562.02349668997</v>
+        <v>513167.15520506998</v>
       </c>
       <c r="S204" s="310">
         <f t="shared" si="80"/>
-        <v>497191.27329835645</v>
+        <v>508930.21701805445</v>
       </c>
       <c r="T204" s="310">
         <f t="shared" si="80"/>
@@ -20784,15 +20905,15 @@
       </c>
       <c r="Q210" s="94">
         <f>IF(Q203&gt;0,Q203*$I$16,Q203*$I$15)</f>
-        <v>849.24597342255117</v>
+        <v>914.31088841371081</v>
       </c>
       <c r="R210" s="94">
         <f>IF(R203&gt;0,R203*$I$16,R203*$I$15)</f>
-        <v>-1198.4684727151503</v>
+        <v>39.589440063375015</v>
       </c>
       <c r="S210" s="94">
         <f>IF(S203&gt;0,S203*$I$16,S203*$I$15)</f>
-        <v>-832.56723560683179</v>
+        <v>-69.535893826460338</v>
       </c>
       <c r="T210" s="94">
         <f>IF(T203&gt;0,T203*$I$16,T203*$I$15)</f>
@@ -20823,15 +20944,15 @@
       </c>
       <c r="Q211" s="90">
         <f>SUM(Q207:Q210)</f>
-        <v>38349.245973422549</v>
+        <v>38414.310888413711</v>
       </c>
       <c r="R211" s="90">
         <f>SUM(R207:R210)</f>
-        <v>36301.531527284853</v>
+        <v>37539.589440063377</v>
       </c>
       <c r="S211" s="90">
         <f>SUM(S207:S210)</f>
-        <v>36667.432764393168</v>
+        <v>37430.464106173538</v>
       </c>
       <c r="T211" s="90">
         <f>SUM(T207:T210)</f>
@@ -20862,15 +20983,15 @@
       </c>
       <c r="Q212" s="95">
         <f>IF(Q211&gt;0,Q211*(0.124+0.15+0.04),0)</f>
-        <v>12041.66323565468</v>
+        <v>12062.093618961906</v>
       </c>
       <c r="R212" s="95">
         <f>IF(R211&gt;0,R211*(0.124+0.15+0.04),0)</f>
-        <v>11398.680899567444</v>
+        <v>11787.4310841799</v>
       </c>
       <c r="S212" s="95">
         <f>IF(S211&gt;0,S211*(0.124+0.15+0.04),0)</f>
-        <v>11513.573888019455</v>
+        <v>11753.165729338491</v>
       </c>
       <c r="T212" s="95">
         <f>IF(T211&gt;0,T211*(0.124+0.15+0.04),0)</f>
@@ -20901,15 +21022,15 @@
       </c>
       <c r="Q213" s="97">
         <f t="shared" si="84"/>
-        <v>26307.582737767869</v>
+        <v>26352.217269451805</v>
       </c>
       <c r="R213" s="97">
         <f t="shared" si="84"/>
-        <v>24902.850627717409</v>
+        <v>25752.158355883475</v>
       </c>
       <c r="S213" s="97">
         <f t="shared" si="84"/>
-        <v>25153.858876373713</v>
+        <v>25677.298376835046</v>
       </c>
       <c r="T213" s="97">
         <f t="shared" si="84"/>
@@ -21034,15 +21155,15 @@
       </c>
       <c r="Q217" s="430">
         <f>Q203+Q213-Q214</f>
-        <v>94247.260611571954</v>
+        <v>99497.088342548668</v>
       </c>
       <c r="R217" s="430">
         <f>R203+R213-R214</f>
-        <v>6464.8741244074045</v>
+        <v>28919.313560953477</v>
       </c>
       <c r="S217" s="430">
         <f>S203+S213-S214</f>
-        <v>12345.132174730148</v>
+        <v>24607.515394889502</v>
       </c>
       <c r="T217" s="430">
         <f>T203+T213-T214</f>
@@ -21073,15 +21194,15 @@
       </c>
       <c r="Q218" s="310">
         <f t="shared" si="87"/>
-        <v>604247.26061157195</v>
+        <v>609497.0883425487</v>
       </c>
       <c r="R218" s="310">
         <f t="shared" si="87"/>
-        <v>516464.87412440742</v>
+        <v>538919.31356095348</v>
       </c>
       <c r="S218" s="310">
         <f t="shared" si="87"/>
-        <v>522345.13217473013</v>
+        <v>534607.51539488952</v>
       </c>
       <c r="T218" s="310">
         <f t="shared" si="87"/>
@@ -21268,15 +21389,15 @@
       </c>
       <c r="Q224" s="94">
         <f>IF(Q217&gt;0,Q217*$I$16,Q217*$I$15)</f>
-        <v>1178.0907576446496</v>
+        <v>1243.7136042818584</v>
       </c>
       <c r="R224" s="94">
         <f>IF(R217&gt;0,R217*$I$16,R217*$I$15)</f>
-        <v>80.810926555092564</v>
+        <v>361.49141951191848</v>
       </c>
       <c r="S224" s="94">
         <f>IF(S217&gt;0,S217*$I$16,S217*$I$15)</f>
-        <v>154.31415218412687</v>
+        <v>307.59394243611882</v>
       </c>
       <c r="T224" s="94">
         <f>IF(T217&gt;0,T217*$I$16,T217*$I$15)</f>
@@ -21307,15 +21428,15 @@
       </c>
       <c r="Q225" s="90">
         <f>SUM(Q221:Q224)</f>
-        <v>38678.090757644648</v>
+        <v>38743.71360428186</v>
       </c>
       <c r="R225" s="90">
         <f>SUM(R221:R224)</f>
-        <v>37580.810926555096</v>
+        <v>37861.49141951192</v>
       </c>
       <c r="S225" s="90">
         <f>SUM(S221:S224)</f>
-        <v>37654.314152184124</v>
+        <v>37807.59394243612</v>
       </c>
       <c r="T225" s="90">
         <f>SUM(T221:T224)</f>
@@ -21346,15 +21467,15 @@
       </c>
       <c r="Q226" s="95">
         <f>IF(Q225&gt;0,Q225*(0.124+0.15+0.04),0)</f>
-        <v>12144.920497900419</v>
+        <v>12165.526071744503</v>
       </c>
       <c r="R226" s="95">
         <f>IF(R225&gt;0,R225*(0.124+0.15+0.04),0)</f>
-        <v>11800.3746309383</v>
+        <v>11888.508305726742</v>
       </c>
       <c r="S226" s="95">
         <f>IF(S225&gt;0,S225*(0.124+0.15+0.04),0)</f>
-        <v>11823.454643785815</v>
+        <v>11871.584497924941</v>
       </c>
       <c r="T226" s="95">
         <f>IF(T225&gt;0,T225*(0.124+0.15+0.04),0)</f>
@@ -21385,15 +21506,15 @@
       </c>
       <c r="Q227" s="97">
         <f t="shared" si="91"/>
-        <v>26533.170259744227</v>
+        <v>26578.187532537355</v>
       </c>
       <c r="R227" s="97">
         <f t="shared" si="91"/>
-        <v>25780.436295616797</v>
+        <v>25972.98311378518</v>
       </c>
       <c r="S227" s="97">
         <f t="shared" si="91"/>
-        <v>25830.859508398309</v>
+        <v>25936.009444511179</v>
       </c>
       <c r="T227" s="97">
         <f t="shared" si="91"/>
@@ -21518,15 +21639,15 @@
       </c>
       <c r="Q231" s="430">
         <f>Q217+Q227-Q228</f>
-        <v>120780.43087131617</v>
+        <v>126075.27587508602</v>
       </c>
       <c r="R231" s="430">
         <f>R217+R227-R228</f>
-        <v>32245.310420024201</v>
+        <v>54892.296674738653</v>
       </c>
       <c r="S231" s="430">
         <f>S217+S227-S228</f>
-        <v>38175.991683128457</v>
+        <v>50543.524839400678</v>
       </c>
       <c r="T231" s="430">
         <f>T217+T227-T228</f>
@@ -21557,15 +21678,15 @@
       </c>
       <c r="Q232" s="310">
         <f t="shared" ref="Q232:U232" si="94">SUM(Q230:Q231)</f>
-        <v>630780.43087131623</v>
+        <v>636075.27587508596</v>
       </c>
       <c r="R232" s="310">
         <f t="shared" si="94"/>
-        <v>542245.31042002421</v>
+        <v>564892.29667473864</v>
       </c>
       <c r="S232" s="310">
         <f t="shared" si="94"/>
-        <v>548175.99168312841</v>
+        <v>560543.52483940066</v>
       </c>
       <c r="T232" s="310">
         <f t="shared" si="94"/>
@@ -21636,15 +21757,15 @@
       </c>
       <c r="Q235" s="322">
         <f t="shared" si="95"/>
-        <v>116092.93087131623</v>
+        <v>121387.77587508596</v>
       </c>
       <c r="R235" s="322">
         <f t="shared" si="95"/>
-        <v>27557.810420024209</v>
+        <v>50204.796674738638</v>
       </c>
       <c r="S235" s="322">
         <f t="shared" si="95"/>
-        <v>33488.491683128406</v>
+        <v>45856.024839400663</v>
       </c>
       <c r="T235" s="322">
         <f t="shared" si="95"/>
@@ -21675,15 +21796,15 @@
       </c>
       <c r="Q236" s="320">
         <f t="shared" si="96"/>
-        <v>193.48821811886037</v>
+        <v>202.31295979180993</v>
       </c>
       <c r="R236" s="320">
         <f t="shared" si="96"/>
-        <v>45.929684033373682</v>
+        <v>83.674661124564395</v>
       </c>
       <c r="S236" s="320">
         <f t="shared" si="96"/>
-        <v>55.814152805214007</v>
+        <v>76.426708065667768</v>
       </c>
       <c r="T236" s="320">
         <f t="shared" si="96"/>

--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ucbfiles.colorado.edu\erlb\Users\wtravis\Documents\GitHub\drought_decision_model\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trsh4998/Projects/drought_decision_model/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14745" tabRatio="653" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="16080" yWindow="460" windowWidth="31260" windowHeight="23060" tabRatio="653" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -107,8 +107,11 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -123,7 +126,7 @@
     <author>Jeffrey E. Tranel</author>
   </authors>
   <commentList>
-    <comment ref="AA16" authorId="0" shapeId="0">
+    <comment ref="AA16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1" shapeId="0">
+    <comment ref="C26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -3264,7 +3267,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3284,10 +3287,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12613013600572701"/>
-          <c:y val="3.0036249279815599E-2"/>
-          <c:w val="0.55191418821807403"/>
-          <c:h val="0.78511739005185299"/>
+          <c:x val="0.126130136005727"/>
+          <c:y val="0.0300362492798156"/>
+          <c:w val="0.551914188218074"/>
+          <c:h val="0.785117390051853"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3335,28 +3338,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.254167737505</c:v>
+                  <c:v>31069.2541677375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.673022225852</c:v>
+                  <c:v>31335.67302222585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.376418391439</c:v>
+                  <c:v>31604.37641839144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.383946179147</c:v>
+                  <c:v>31875.38394617915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9789-49F5-B99C-58455B98FCCE}"/>
             </c:ext>
@@ -3404,28 +3407,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62597.842528418929</c:v>
+                  <c:v>55138.57230900967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31204.142999681197</c:v>
+                  <c:v>31140.17975754976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31471.718525903463</c:v>
+                  <c:v>31407.20679897075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31741.588512263086</c:v>
+                  <c:v>31676.52359727192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32013.77263375574</c:v>
+                  <c:v>31948.14978711853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9789-49F5-B99C-58455B98FCCE}"/>
             </c:ext>
@@ -3473,28 +3476,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13475.741692702402</c:v>
+                  <c:v>-33275.7416927024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29791.443289974348</c:v>
+                  <c:v>28504.44328997435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30754.381355052752</c:v>
+                  <c:v>29775.4564162743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31018.100175172331</c:v>
+                  <c:v>30751.1698688223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31284.080384174435</c:v>
+                  <c:v>31014.86115044746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9789-49F5-B99C-58455B98FCCE}"/>
             </c:ext>
@@ -3542,28 +3545,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17358.679192702402</c:v>
+                  <c:v>-28067.820596812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29539.052352474348</c:v>
+                  <c:v>28842.95816120723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30703.680384013693</c:v>
+                  <c:v>30129.06566561545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30966.96444330661</c:v>
+                  <c:v>30822.20384685486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30966.96444330661</c:v>
+                  <c:v>30822.20384685486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9789-49F5-B99C-58455B98FCCE}"/>
             </c:ext>
@@ -3611,28 +3614,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.6311399850765</c:v>
+                  <c:v>2219.631139985076</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37906.03097701045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.075192638316</c:v>
+                  <c:v>38231.07519263832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.906662415189</c:v>
+                  <c:v>38558.90666241519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9789-49F5-B99C-58455B98FCCE}"/>
             </c:ext>
@@ -3680,28 +3683,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.3811399850765</c:v>
+                  <c:v>1263.381139985077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.2146332604489</c:v>
+                  <c:v>1274.214633260449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.1410237406571</c:v>
+                  <c:v>1285.141023740657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.1611080192333</c:v>
+                  <c:v>1296.161108019233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9789-49F5-B99C-58455B98FCCE}"/>
             </c:ext>
@@ -3716,11 +3719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="469290368"/>
-        <c:axId val="469290760"/>
+        <c:axId val="-2011521856"/>
+        <c:axId val="-2086891456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469290368"/>
+        <c:axId val="-2011521856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3749,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37471199931530302"/>
+              <c:x val="0.374711999315303"/>
               <c:y val="0.882226810063376"/>
             </c:manualLayout>
           </c:layout>
@@ -3766,7 +3769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469290760"/>
+        <c:crossAx val="-2086891456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,11 +3777,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469290760"/>
+        <c:axId val="-2086891456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150000"/>
-          <c:min val="-150000"/>
+          <c:max val="150000.0"/>
+          <c:min val="-150000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3806,7 +3809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469290368"/>
+        <c:crossAx val="-2011521856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3817,9 +3820,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71928446671438795"/>
-          <c:y val="0.24009530439792601"/>
-          <c:w val="0.23622018715051901"/>
+          <c:x val="0.719284466714388"/>
+          <c:y val="0.240095304397926"/>
+          <c:w val="0.236220187150519"/>
           <c:h val="0.367370366813904"/>
         </c:manualLayout>
       </c:layout>
@@ -3838,14 +3841,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3909,25 +3912,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.01341899997</c:v>
+                  <c:v>542151.013419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.52177806792</c:v>
+                  <c:v>563464.5217780679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.79347131483</c:v>
+                  <c:v>584960.7934713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.39569433138</c:v>
+                  <c:v>606641.3956943313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.90908141027</c:v>
+                  <c:v>628507.9090814102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
             </c:ext>
@@ -3978,25 +3981,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552942.11997449538</c:v>
+                  <c:v>547825.0606039806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574348.1620722767</c:v>
+                  <c:v>569187.2239176597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>595937.76098104648</c:v>
+                  <c:v>590732.5677817537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617712.49070045887</c:v>
+                  <c:v>612462.6629694822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>639673.9387272154</c:v>
+                  <c:v>634379.0937234455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
             </c:ext>
@@ -4047,25 +4050,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>496524.2583072976</c:v>
+                  <c:v>476724.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>516961.18840421998</c:v>
+                  <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538058.69401378615</c:v>
+                  <c:v>516704.2695057841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559337.11073395447</c:v>
+                  <c:v>537799.5720357962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580797.98987749801</c:v>
+                  <c:v>559075.7667850032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
             </c:ext>
@@ -4116,25 +4119,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>492641.3208072976</c:v>
+                  <c:v>481932.179403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512905.110721095</c:v>
+                  <c:v>501718.4487017762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>533967.83546452841</c:v>
+                  <c:v>522386.9877483884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555211.17307263671</c:v>
+                  <c:v>543531.0195873307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>576636.67230073456</c:v>
+                  <c:v>564856.3614992921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
             </c:ext>
@@ -4185,25 +4188,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.49119880609</c:v>
+                  <c:v>577570.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.15816083585</c:v>
+                  <c:v>579093.1581608358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.69541106501</c:v>
+                  <c:v>605096.695411065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.21299321484</c:v>
+                  <c:v>631323.2129932148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.62296363164</c:v>
+                  <c:v>657774.6229636316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
             </c:ext>
@@ -4254,25 +4257,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.49119880609</c:v>
+                  <c:v>501070.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.17066083587</c:v>
+                  <c:v>501937.1706608359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.28189925256</c:v>
+                  <c:v>502811.2818992526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.88864153862</c:v>
+                  <c:v>503692.8886415386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.05516163982</c:v>
+                  <c:v>504582.0551616398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EFDE-4C3E-BC22-32B29CF6C3AA}"/>
             </c:ext>
@@ -4287,11 +4290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="469292720"/>
-        <c:axId val="469293112"/>
+        <c:axId val="-2033789392"/>
+        <c:axId val="-2034230640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469292720"/>
+        <c:axId val="-2033789392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,8 +4320,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39784415862044398"/>
-              <c:y val="0.85194383834550802"/>
+              <c:x val="0.397844158620444"/>
+              <c:y val="0.851943838345508"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4337,7 +4340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469293112"/>
+        <c:crossAx val="-2034230640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4345,10 +4348,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469293112"/>
+        <c:axId val="-2034230640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="350000"/>
+          <c:min val="350000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4378,8 +4381,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.49824348879467E-2"/>
-              <c:y val="0.25444608321240803"/>
+              <c:x val="0.0149824348879467"/>
+              <c:y val="0.254446083212408"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4388,13 +4391,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469292720"/>
+        <c:crossAx val="-2033789392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -4410,14 +4414,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4450,8 +4454,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63469334001094402"/>
-          <c:y val="3.2786894650802402E-2"/>
+          <c:x val="0.634693340010944"/>
+          <c:y val="0.0327868946508024"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4463,10 +4467,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14828264841453101"/>
-          <c:y val="5.3330766986723802E-2"/>
-          <c:w val="0.48929735057496698"/>
-          <c:h val="0.73024847761814005"/>
+          <c:x val="0.148282648414531"/>
+          <c:y val="0.0533307669867238"/>
+          <c:w val="0.489297350574967"/>
+          <c:h val="0.73024847761814"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4517,25 +4521,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.01341899997</c:v>
+                  <c:v>542151.013419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.52177806792</c:v>
+                  <c:v>563464.5217780679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.79347131483</c:v>
+                  <c:v>584960.7934713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.39569433138</c:v>
+                  <c:v>606641.3956943313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.90908141027</c:v>
+                  <c:v>628507.9090814102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-845E-4902-B526-06FF0A5A4F77}"/>
             </c:ext>
@@ -4595,25 +4599,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552942.11997449538</c:v>
+                  <c:v>547825.0606039806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574348.1620722767</c:v>
+                  <c:v>569187.2239176597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>595937.76098104648</c:v>
+                  <c:v>590732.5677817537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617712.49070045887</c:v>
+                  <c:v>612462.6629694822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>639673.9387272154</c:v>
+                  <c:v>634379.0937234455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-845E-4902-B526-06FF0A5A4F77}"/>
             </c:ext>
@@ -4673,25 +4677,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>496524.2583072976</c:v>
+                  <c:v>476724.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>516961.18840421998</c:v>
+                  <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538058.69401378615</c:v>
+                  <c:v>516704.2695057841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559337.11073395447</c:v>
+                  <c:v>537799.5720357962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580797.98987749801</c:v>
+                  <c:v>559075.7667850032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-845E-4902-B526-06FF0A5A4F77}"/>
             </c:ext>
@@ -4751,25 +4755,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>492641.3208072976</c:v>
+                  <c:v>481932.179403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512905.110721095</c:v>
+                  <c:v>501718.4487017762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>533967.83546452841</c:v>
+                  <c:v>522386.9877483884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555211.17307263671</c:v>
+                  <c:v>543531.0195873307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>576636.67230073456</c:v>
+                  <c:v>564856.3614992921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-845E-4902-B526-06FF0A5A4F77}"/>
             </c:ext>
@@ -4829,25 +4833,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.49119880609</c:v>
+                  <c:v>577570.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.15816083585</c:v>
+                  <c:v>579093.1581608358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.69541106501</c:v>
+                  <c:v>605096.695411065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.21299321484</c:v>
+                  <c:v>631323.2129932148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.62296363164</c:v>
+                  <c:v>657774.6229636316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-845E-4902-B526-06FF0A5A4F77}"/>
             </c:ext>
@@ -4907,25 +4911,25 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.49119880609</c:v>
+                  <c:v>501070.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.17066083587</c:v>
+                  <c:v>501937.1706608359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.28189925256</c:v>
+                  <c:v>502811.2818992526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.88864153862</c:v>
+                  <c:v>503692.8886415386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.05516163982</c:v>
+                  <c:v>504582.0551616398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-845E-4902-B526-06FF0A5A4F77}"/>
             </c:ext>
@@ -4940,11 +4944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="469291544"/>
-        <c:axId val="468861592"/>
+        <c:axId val="-2034847792"/>
+        <c:axId val="-2076521936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469291544"/>
+        <c:axId val="-2034847792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4970,8 +4974,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36129349626400797"/>
-              <c:y val="0.87384040314306299"/>
+              <c:x val="0.361293496264008"/>
+              <c:y val="0.873840403143063"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4990,7 +4994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468861592"/>
+        <c:crossAx val="-2076521936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4998,11 +5002,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468861592"/>
+        <c:axId val="-2076521936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700000"/>
-          <c:min val="0"/>
+          <c:max val="700000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5023,19 +5027,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469291544"/>
+        <c:crossAx val="-2034847792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5051,7 +5057,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5084,8 +5090,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63119376035442398"/>
-          <c:y val="4.29477728029002E-2"/>
+          <c:x val="0.631193760354424"/>
+          <c:y val="0.0429477728029002"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5149,28 +5155,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.254167737505</c:v>
+                  <c:v>31069.2541677375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.673022225852</c:v>
+                  <c:v>31335.67302222585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.376418391439</c:v>
+                  <c:v>31604.37641839144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.383946179147</c:v>
+                  <c:v>31875.38394617915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-99FE-41E1-95D2-A3D5A1653148}"/>
             </c:ext>
@@ -5227,28 +5233,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62597.842528418929</c:v>
+                  <c:v>55138.57230900967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31204.142999681197</c:v>
+                  <c:v>31140.17975754976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31471.718525903463</c:v>
+                  <c:v>31407.20679897075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31741.588512263086</c:v>
+                  <c:v>31676.52359727192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32013.77263375574</c:v>
+                  <c:v>31948.14978711853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-99FE-41E1-95D2-A3D5A1653148}"/>
             </c:ext>
@@ -5296,28 +5302,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13475.741692702402</c:v>
+                  <c:v>-33275.7416927024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29791.443289974348</c:v>
+                  <c:v>28504.44328997435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30754.381355052752</c:v>
+                  <c:v>29775.4564162743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31018.100175172331</c:v>
+                  <c:v>30751.1698688223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31284.080384174435</c:v>
+                  <c:v>31014.86115044746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-99FE-41E1-95D2-A3D5A1653148}"/>
             </c:ext>
@@ -5365,28 +5371,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17358.679192702402</c:v>
+                  <c:v>-28067.820596812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29539.052352474348</c:v>
+                  <c:v>28842.95816120723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30703.680384013693</c:v>
+                  <c:v>30129.06566561545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30966.96444330661</c:v>
+                  <c:v>30822.20384685486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31232.506163407961</c:v>
+                  <c:v>31086.50424484164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-99FE-41E1-95D2-A3D5A1653148}"/>
             </c:ext>
@@ -5443,28 +5449,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.6311399850765</c:v>
+                  <c:v>2219.631139985076</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37906.03097701045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.075192638316</c:v>
+                  <c:v>38231.07519263832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.906662415189</c:v>
+                  <c:v>38558.90666241519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-99FE-41E1-95D2-A3D5A1653148}"/>
             </c:ext>
@@ -5521,28 +5527,28 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.3811399850765</c:v>
+                  <c:v>1263.381139985077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.2146332604489</c:v>
+                  <c:v>1274.214633260449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.1410237406571</c:v>
+                  <c:v>1285.141023740657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.1611080192333</c:v>
+                  <c:v>1296.161108019233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-99FE-41E1-95D2-A3D5A1653148}"/>
             </c:ext>
@@ -5557,11 +5563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="383747336"/>
-        <c:axId val="466085776"/>
+        <c:axId val="-2086921216"/>
+        <c:axId val="-2086901984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383747336"/>
+        <c:axId val="-2086921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,7 +5577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="466085776"/>
+        <c:crossAx val="-2086901984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5579,10 +5585,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466085776"/>
+        <c:axId val="-2086901984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-150000"/>
+          <c:min val="-150000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5607,8 +5613,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6548463356973998E-2"/>
-              <c:y val="0.28159074615376101"/>
+              <c:x val="0.016548463356974"/>
+              <c:y val="0.281590746153761"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5617,7 +5623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383747336"/>
+        <c:crossAx val="-2086921216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5628,10 +5634,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64421571334932604"/>
-          <c:y val="0.13354527833281199"/>
-          <c:w val="0.27549734317760599"/>
-          <c:h val="0.42357206300667599"/>
+          <c:x val="0.644215713349326"/>
+          <c:y val="0.133545278332812"/>
+          <c:w val="0.275497343177606"/>
+          <c:h val="0.423572063006676"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5824,9 +5830,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -5859,9 +5865,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -6065,17 +6071,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="18.7109375" customWidth="1"/>
+    <col min="1" max="26" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -6146,16 +6152,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.15">
       <c r="E2" s="148">
         <f>'Ranch Strategies'!$Q$149</f>
-        <v>639673.9387272154</v>
+        <v>634379.09372344555</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6252,7 +6258,7 @@
       </c>
       <c r="E5" s="160">
         <f>'Ranch Strategies'!$I$13</f>
-        <v>0.82714981978038837</v>
+        <v>0.77091180097417411</v>
       </c>
       <c r="F5" t="s">
         <v>143</v>
@@ -6383,37 +6389,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:CK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:89" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="455" t="s">
         <v>295</v>
       </c>
@@ -6431,7 +6432,7 @@
       <c r="M3" s="404"/>
       <c r="N3" s="405"/>
     </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B4" s="441"/>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -6445,7 +6446,7 @@
       <c r="M4" s="407"/>
       <c r="N4" s="408"/>
     </row>
-    <row r="5" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B5" s="441"/>
       <c r="C5" s="437"/>
       <c r="D5" s="437"/>
@@ -6463,7 +6464,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:89" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="441"/>
       <c r="C6" s="376" t="s">
         <v>271</v>
@@ -6481,7 +6482,7 @@
       <c r="M6" s="407"/>
       <c r="N6" s="408"/>
     </row>
-    <row r="7" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B7" s="441"/>
       <c r="C7" s="378"/>
       <c r="D7" s="391"/>
@@ -6503,7 +6504,7 @@
         <v>53700</v>
       </c>
     </row>
-    <row r="8" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B8" s="441"/>
       <c r="C8" s="378" t="s">
         <v>173</v>
@@ -6522,14 +6523,14 @@
       <c r="L8" s="407"/>
       <c r="M8" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!Q84,'Ranch Strategies'!Q167)</f>
-        <v>62597.842528418929</v>
+        <v>55138.572309009673</v>
       </c>
       <c r="N8" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!Q167,'Ranch Strategies'!Q84)</f>
-        <v>30773.584221121331</v>
-      </c>
-    </row>
-    <row r="9" spans="2:89" x14ac:dyDescent="0.2">
+        <v>23314.314001712075</v>
+      </c>
+    </row>
+    <row r="9" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B9" s="441"/>
       <c r="C9" s="378" t="s">
         <v>305</v>
@@ -6537,7 +6538,7 @@
       <c r="D9" s="391"/>
       <c r="E9" s="391"/>
       <c r="F9" s="380">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="437"/>
       <c r="H9" s="442"/>
@@ -6548,16 +6549,16 @@
       <c r="L9" s="407"/>
       <c r="M9" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!R84,'Ranch Strategies'!R167)</f>
-        <v>-13475.741692702402</v>
+        <v>-33275.741692702402</v>
       </c>
       <c r="N9" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!R167,'Ranch Strategies'!R84)</f>
-        <v>-45300</v>
+        <v>-65100</v>
       </c>
       <c r="CJ9" s="363"/>
       <c r="CK9" s="357"/>
     </row>
-    <row r="10" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B10" s="441"/>
       <c r="C10" s="378" t="s">
         <v>281</v>
@@ -6565,7 +6566,7 @@
       <c r="D10" s="391"/>
       <c r="E10" s="391"/>
       <c r="F10" s="380">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="437"/>
       <c r="H10" s="442"/>
@@ -6576,16 +6577,16 @@
       <c r="L10" s="407"/>
       <c r="M10" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!S84,'Ranch Strategies'!S167)</f>
-        <v>-17358.679192702402</v>
+        <v>-28067.820596812002</v>
       </c>
       <c r="N10" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!S167,'Ranch Strategies'!S84)</f>
-        <v>-49182.9375</v>
+        <v>-59892.0789041096</v>
       </c>
       <c r="CJ10" s="363"/>
       <c r="CK10" s="357"/>
     </row>
-    <row r="11" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B11" s="441"/>
       <c r="C11" s="378" t="s">
         <v>306</v>
@@ -6615,7 +6616,7 @@
       </c>
       <c r="CK11" s="357"/>
     </row>
-    <row r="12" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B12" s="441"/>
       <c r="C12" s="378" t="s">
         <v>307</v>
@@ -6645,7 +6646,7 @@
       </c>
       <c r="CK12" s="357"/>
     </row>
-    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="441"/>
       <c r="C13" s="381" t="s">
         <v>303</v>
@@ -6693,7 +6694,7 @@
       </c>
       <c r="CK13" s="357"/>
     </row>
-    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="441"/>
       <c r="C14" s="437"/>
       <c r="D14" s="437"/>
@@ -6749,7 +6750,7 @@
       </c>
       <c r="CK14" s="357"/>
     </row>
-    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="441"/>
       <c r="C15" s="437"/>
       <c r="D15" s="437"/>
@@ -6764,11 +6765,11 @@
       <c r="L15" s="407"/>
       <c r="M15" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q99,'Ranch Strategies'!Q182)</f>
-        <v>31204.142999681197</v>
+        <v>31140.179757549762</v>
       </c>
       <c r="N15" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q182,'Ranch Strategies'!Q99)</f>
-        <v>37763.883484696118</v>
+        <v>37699.92024256468</v>
       </c>
       <c r="P15" s="149">
         <f>'Ranch Strategies'!E80</f>
@@ -6780,15 +6781,15 @@
       </c>
       <c r="R15" s="148">
         <f>'Ranch Strategies'!Q92</f>
-        <v>552942.11997449538</v>
+        <v>547825.06060398067</v>
       </c>
       <c r="S15" s="148">
         <f>'Ranch Strategies'!R92</f>
-        <v>496524.2583072976</v>
+        <v>476724.2583072976</v>
       </c>
       <c r="T15" s="148">
         <f>'Ranch Strategies'!S92</f>
-        <v>492641.3208072976</v>
+        <v>481932.179403188</v>
       </c>
       <c r="U15" s="148">
         <f>'Ranch Strategies'!T92</f>
@@ -6806,7 +6807,7 @@
       </c>
       <c r="CK15" s="357"/>
     </row>
-    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="441"/>
       <c r="C16" s="366" t="s">
         <v>0</v>
@@ -6823,11 +6824,11 @@
       <c r="L16" s="407"/>
       <c r="M16" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R99,'Ranch Strategies'!R182)</f>
-        <v>29791.443289974348</v>
+        <v>28504.443289974348</v>
       </c>
       <c r="N16" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R182,'Ranch Strategies'!R99)</f>
-        <v>34555.5</v>
+        <v>33268.5</v>
       </c>
       <c r="P16" s="149">
         <f>'Ranch Strategies'!E94</f>
@@ -6839,15 +6840,15 @@
       </c>
       <c r="R16" s="148">
         <f>'Ranch Strategies'!Q107</f>
-        <v>574348.1620722767</v>
+        <v>569187.22391765972</v>
       </c>
       <c r="S16" s="148">
         <f>'Ranch Strategies'!R107</f>
-        <v>516961.18840421998</v>
+        <v>496278.30640422</v>
       </c>
       <c r="T16" s="148">
         <f>'Ranch Strategies'!S107</f>
-        <v>512905.110721095</v>
+        <v>501718.44870177616</v>
       </c>
       <c r="U16" s="148">
         <f>'Ranch Strategies'!T107</f>
@@ -6861,7 +6862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="441"/>
       <c r="C17" s="369"/>
       <c r="D17" s="370"/>
@@ -6876,11 +6877,11 @@
       <c r="L17" s="407"/>
       <c r="M17" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S99,'Ranch Strategies'!S182)</f>
-        <v>29539.052352474348</v>
+        <v>28842.958161207225</v>
       </c>
       <c r="N17" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S182,'Ranch Strategies'!S99)</f>
-        <v>34303.1090625</v>
+        <v>33607.014871232874</v>
       </c>
       <c r="P17" s="149">
         <f>'Ranch Strategies'!E109</f>
@@ -6892,15 +6893,15 @@
       </c>
       <c r="R17" s="148">
         <f>'Ranch Strategies'!Q121</f>
-        <v>595937.76098104648</v>
+        <v>590732.56778175372</v>
       </c>
       <c r="S17" s="148">
         <f>'Ranch Strategies'!R121</f>
-        <v>538058.69401378615</v>
+        <v>516704.26950578415</v>
       </c>
       <c r="T17" s="148">
         <f>'Ranch Strategies'!S121</f>
-        <v>533967.83546452841</v>
+        <v>522386.98774838838</v>
       </c>
       <c r="U17" s="148">
         <f>'Ranch Strategies'!T121</f>
@@ -6914,7 +6915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="441"/>
       <c r="C18" s="369" t="s">
         <v>272</v>
@@ -6949,15 +6950,15 @@
       </c>
       <c r="R18" s="148">
         <f>'Ranch Strategies'!Q135</f>
-        <v>617712.49070045887</v>
+        <v>612462.66296948225</v>
       </c>
       <c r="S18" s="148">
         <f>'Ranch Strategies'!R135</f>
-        <v>559337.11073395447</v>
+        <v>537799.57203579624</v>
       </c>
       <c r="T18" s="148">
         <f>'Ranch Strategies'!S135</f>
-        <v>555211.17307263671</v>
+        <v>543531.01958733075</v>
       </c>
       <c r="U18" s="148">
         <f>'Ranch Strategies'!T135</f>
@@ -6971,7 +6972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="441"/>
       <c r="C19" s="369" t="s">
         <v>273</v>
@@ -7006,15 +7007,15 @@
       </c>
       <c r="R19" s="148">
         <f>'Ranch Strategies'!Q149</f>
-        <v>639673.9387272154</v>
+        <v>634379.09372344555</v>
       </c>
       <c r="S19" s="148">
         <f>'Ranch Strategies'!R149</f>
-        <v>580797.98987749801</v>
+        <v>559075.76678500324</v>
       </c>
       <c r="T19" s="148">
         <f>'Ranch Strategies'!S149</f>
-        <v>576636.67230073456</v>
+        <v>564856.36149929219</v>
       </c>
       <c r="U19" s="148">
         <f>'Ranch Strategies'!T149</f>
@@ -7028,7 +7029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="441"/>
       <c r="C20" s="369" t="s">
         <v>3</v>
@@ -7051,7 +7052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="441"/>
       <c r="C21" s="369" t="s">
         <v>53</v>
@@ -7080,7 +7081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="441"/>
       <c r="C22" s="372" t="s">
         <v>45</v>
@@ -7099,17 +7100,17 @@
       <c r="L22" s="407"/>
       <c r="M22" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q114,'Ranch Strategies'!Q197)</f>
-        <v>31471.718525903463</v>
+        <v>31407.20679897075</v>
       </c>
       <c r="N22" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q197,'Ranch Strategies'!Q114)</f>
-        <v>38087.708785577386</v>
+        <v>38023.19705864467</v>
       </c>
       <c r="CH22" s="468">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="441"/>
       <c r="C23" s="437"/>
       <c r="D23" s="437"/>
@@ -7124,17 +7125,17 @@
       <c r="L23" s="407"/>
       <c r="M23" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R114,'Ranch Strategies'!R197)</f>
-        <v>30754.381355052752</v>
+        <v>29775.456416274305</v>
       </c>
       <c r="N23" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R197,'Ranch Strategies'!R114)</f>
-        <v>36096.329745000003</v>
+        <v>34751.942414999998</v>
       </c>
       <c r="CH23" s="468">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="441"/>
       <c r="C24" s="437"/>
       <c r="D24" s="437"/>
@@ -7149,17 +7150,17 @@
       <c r="L24" s="407"/>
       <c r="M24" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S114,'Ranch Strategies'!S197)</f>
-        <v>30703.680384013693</v>
+        <v>30129.065665615453</v>
       </c>
       <c r="N24" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S197,'Ranch Strategies'!S114)</f>
-        <v>35832.684695596872</v>
+        <v>35105.551664341147</v>
       </c>
       <c r="CH24" s="468">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="441"/>
       <c r="C25" s="366" t="s">
         <v>2</v>
@@ -7186,7 +7187,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:86" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="441"/>
       <c r="C26" s="374"/>
       <c r="D26" s="370"/>
@@ -7208,7 +7209,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B27" s="441"/>
       <c r="C27" s="369" t="s">
         <v>70</v>
@@ -7228,7 +7229,7 @@
       <c r="M27" s="407"/>
       <c r="N27" s="408"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B28" s="441"/>
       <c r="C28" s="369" t="s">
         <v>71</v>
@@ -7254,7 +7255,7 @@
         <v>38614.29094676087</v>
       </c>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B29" s="441"/>
       <c r="C29" s="369" t="s">
         <v>30</v>
@@ -7273,14 +7274,14 @@
       <c r="L29" s="407"/>
       <c r="M29" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q128,'Ranch Strategies'!Q211)</f>
-        <v>31741.588512263086</v>
+        <v>31676.523597271924</v>
       </c>
       <c r="N29" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q211,'Ranch Strategies'!Q128)</f>
-        <v>38414.310888413711</v>
-      </c>
-    </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
+        <v>38349.245973422549</v>
+      </c>
+    </row>
+    <row r="30" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B30" s="441"/>
       <c r="C30" s="369" t="s">
         <v>31</v>
@@ -7299,14 +7300,14 @@
       <c r="L30" s="407"/>
       <c r="M30" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R128,'Ranch Strategies'!R211)</f>
-        <v>31018.100175172331</v>
+        <v>30751.169868822304</v>
       </c>
       <c r="N30" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!R211,'Ranch Strategies'!R128)</f>
-        <v>37539.589440063377</v>
-      </c>
-    </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
+        <v>36301.531527284853</v>
+      </c>
+    </row>
+    <row r="31" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B31" s="441"/>
       <c r="C31" s="369"/>
       <c r="D31" s="370"/>
@@ -7321,14 +7322,14 @@
       <c r="L31" s="407"/>
       <c r="M31" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S128,'Ranch Strategies'!S211)</f>
-        <v>30966.96444330661</v>
+        <v>30822.20384685486</v>
       </c>
       <c r="N31" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S211,'Ranch Strategies'!S128)</f>
-        <v>37430.464106173538</v>
-      </c>
-    </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
+        <v>36670.908213054121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B32" s="441"/>
       <c r="C32" s="375" t="s">
         <v>298</v>
@@ -7352,7 +7353,7 @@
         <v>44844.705328714794</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B33" s="441"/>
       <c r="C33" s="369" t="s">
         <v>43</v>
@@ -7378,7 +7379,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B34" s="441"/>
       <c r="C34" s="369" t="s">
         <v>274</v>
@@ -7398,7 +7399,7 @@
       <c r="M34" s="407"/>
       <c r="N34" s="408"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B35" s="441"/>
       <c r="C35" s="369" t="s">
         <v>275</v>
@@ -7424,7 +7425,7 @@
         <v>38945.40849162935</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="441"/>
       <c r="C36" s="372" t="s">
         <v>276</v>
@@ -7443,11 +7444,11 @@
       <c r="L36" s="407"/>
       <c r="M36" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q142,'Ranch Strategies'!Q225)</f>
-        <v>32013.77263375574</v>
+        <v>31948.149787118531</v>
       </c>
       <c r="N36" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q225, 'Ranch Strategies'!Q142)</f>
-        <v>38743.71360428186</v>
+        <v>38678.090757644648</v>
       </c>
       <c r="P36" s="403"/>
       <c r="Q36" s="432" t="s">
@@ -7462,7 +7463,7 @@
       <c r="X36" s="404"/>
       <c r="Y36" s="405"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B37" s="441"/>
       <c r="C37" s="437"/>
       <c r="D37" s="437"/>
@@ -7477,11 +7478,11 @@
       <c r="L37" s="407"/>
       <c r="M37" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R142,'Ranch Strategies'!R225)</f>
-        <v>31284.080384174435</v>
+        <v>31014.861150447457</v>
       </c>
       <c r="N37" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R225, 'Ranch Strategies'!R142)</f>
-        <v>37861.49141951192</v>
+        <v>37580.810926555096</v>
       </c>
       <c r="P37" s="406"/>
       <c r="Q37" s="407"/>
@@ -7494,7 +7495,7 @@
       <c r="X37" s="407"/>
       <c r="Y37" s="408"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B38" s="441"/>
       <c r="C38" s="437"/>
       <c r="D38" s="437"/>
@@ -7509,11 +7510,11 @@
       <c r="L38" s="407"/>
       <c r="M38" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S142,'Ranch Strategies'!S225)</f>
-        <v>31232.506163407961</v>
+        <v>31086.504244841639</v>
       </c>
       <c r="N38" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S225, 'Ranch Strategies'!S142)</f>
-        <v>37807.59394243612</v>
+        <v>37655.012309668113</v>
       </c>
       <c r="P38" s="406"/>
       <c r="Q38" s="407" t="s">
@@ -7538,7 +7539,7 @@
       </c>
       <c r="Y38" s="408"/>
     </row>
-    <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="441"/>
       <c r="C39" s="366" t="s">
         <v>277</v>
@@ -7570,16 +7571,16 @@
       </c>
       <c r="R39" s="457">
         <f>IF($G$51=1, 'Ranch Strategies'!Q152,'Ranch Strategies'!Q235)</f>
-        <v>124986.4387272154</v>
+        <v>119691.59372344555</v>
       </c>
       <c r="S39" s="458"/>
       <c r="T39" s="436">
         <f>IF($G$51=1, 'Ranch Strategies'!R152, 'Ranch Strategies'!R235)</f>
-        <v>66110.48987749801</v>
+        <v>44388.266785003245</v>
       </c>
       <c r="U39" s="436">
         <f>IF($G$51=1, 'Ranch Strategies'!S152, 'Ranch Strategies'!S235)</f>
-        <v>61949.172300734557</v>
+        <v>50168.861499292194</v>
       </c>
       <c r="V39" s="459">
         <f>IF($G$51=1, 'Ranch Strategies'!T152,'Ranch Strategies'!T235)</f>
@@ -7592,7 +7593,7 @@
       </c>
       <c r="Y39" s="458"/>
     </row>
-    <row r="40" spans="2:25" s="402" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" s="402" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="441"/>
       <c r="C40" s="374"/>
       <c r="D40" s="370"/>
@@ -7622,16 +7623,16 @@
       </c>
       <c r="R40" s="462">
         <f>IF($G$51=1, 'Ranch Strategies'!Q235,'Ranch Strategies'!Q152)</f>
-        <v>121387.77587508596</v>
+        <v>116092.93087131623</v>
       </c>
       <c r="S40" s="463"/>
       <c r="T40" s="464">
         <f>IF($G$51=1, 'Ranch Strategies'!R235,'Ranch Strategies'!R152)</f>
-        <v>50204.796674738638</v>
+        <v>27557.810420024209</v>
       </c>
       <c r="U40" s="464">
         <f>IF($G$51=1, 'Ranch Strategies'!S235,'Ranch Strategies'!S152)</f>
-        <v>45856.024839400663</v>
+        <v>33544.823217881611</v>
       </c>
       <c r="V40" s="462">
         <f>IF($G$51=1, 'Ranch Strategies'!T235,'Ranch Strategies'!T152)</f>
@@ -7644,7 +7645,7 @@
       </c>
       <c r="Y40" s="463"/>
     </row>
-    <row r="41" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="441"/>
       <c r="C41" s="465" t="s">
         <v>301</v>
@@ -7657,7 +7658,7 @@
       </c>
       <c r="H41" s="442"/>
     </row>
-    <row r="42" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="441"/>
       <c r="C42" s="369" t="s">
         <v>21</v>
@@ -7670,7 +7671,7 @@
       </c>
       <c r="H42" s="442"/>
     </row>
-    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="441"/>
       <c r="C43" s="369" t="s">
         <v>51</v>
@@ -7690,7 +7691,7 @@
       <c r="M43" s="404"/>
       <c r="N43" s="405"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B44" s="441"/>
       <c r="C44" s="369" t="s">
         <v>52</v>
@@ -7708,7 +7709,7 @@
       <c r="M44" s="407"/>
       <c r="N44" s="408"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B45" s="441"/>
       <c r="C45" s="369" t="s">
         <v>36</v>
@@ -7730,7 +7731,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B46" s="441"/>
       <c r="C46" s="372" t="s">
         <v>278</v>
@@ -7750,7 +7751,7 @@
       <c r="M46" s="407"/>
       <c r="N46" s="408"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B47" s="441"/>
       <c r="C47" s="437"/>
       <c r="D47" s="437"/>
@@ -7772,7 +7773,7 @@
         <v>546838.19999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B48" s="441"/>
       <c r="C48" s="437"/>
       <c r="D48" s="437"/>
@@ -7787,14 +7788,14 @@
       <c r="L48" s="407"/>
       <c r="M48" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q92,'Ranch Strategies'!Q175)</f>
-        <v>552942.11997449538</v>
+        <v>547825.06060398067</v>
       </c>
       <c r="N48" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q175,'Ranch Strategies'!Q92)</f>
-        <v>531110.67877568922</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+        <v>525993.61940517451</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="441"/>
       <c r="C49" s="382" t="s">
         <v>279</v>
@@ -7811,14 +7812,14 @@
       <c r="L49" s="407"/>
       <c r="M49" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R92,'Ranch Strategies'!R175)</f>
-        <v>496524.2583072976</v>
+        <v>476724.2583072976</v>
       </c>
       <c r="N49" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!R175,'Ranch Strategies'!R92)</f>
-        <v>464700</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+        <v>444900</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="441"/>
       <c r="C50" s="385"/>
       <c r="D50" s="386"/>
@@ -7833,14 +7834,14 @@
       <c r="L50" s="407"/>
       <c r="M50" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S92,'Ranch Strategies'!S175)</f>
-        <v>492641.3208072976</v>
+        <v>481932.179403188</v>
       </c>
       <c r="N50" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S175,'Ranch Strategies'!S92)</f>
-        <v>460817.0625</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+        <v>450107.9210958904</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B51" s="441"/>
       <c r="C51" s="385" t="s">
         <v>280</v>
@@ -7866,7 +7867,7 @@
         <v>555739.05000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B52" s="441"/>
       <c r="C52" s="385" t="s">
         <v>227</v>
@@ -7885,14 +7886,14 @@
       <c r="L52" s="407"/>
       <c r="M52" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R92,'Ranch Strategies'!R175)</f>
-        <v>496524.2583072976</v>
+        <v>476724.2583072976</v>
       </c>
       <c r="N52" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!U175,'Ranch Strategies'!U92)</f>
         <v>479239.05000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B53" s="441"/>
       <c r="C53" s="385" t="s">
         <v>205</v>
@@ -7912,7 +7913,7 @@
       <c r="M53" s="407"/>
       <c r="N53" s="408"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B54" s="441"/>
       <c r="C54" s="385" t="s">
         <v>228</v>
@@ -7938,7 +7939,7 @@
         <v>572879.08756499994</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B55" s="441"/>
       <c r="C55" s="388" t="s">
         <v>229</v>
@@ -7957,14 +7958,14 @@
       <c r="L55" s="407"/>
       <c r="M55" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q107,'Ranch Strategies'!Q190)</f>
-        <v>574348.1620722767</v>
+        <v>569187.22391765972</v>
       </c>
       <c r="N55" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q190,'Ranch Strategies'!Q107)</f>
-        <v>557016.70284619078</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+        <v>551855.7646915738</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B56" s="441"/>
       <c r="C56" s="437"/>
       <c r="D56" s="437"/>
@@ -7979,14 +7980,14 @@
       <c r="L56" s="407"/>
       <c r="M56" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R107,'Ranch Strategies'!R190)</f>
-        <v>516961.18840421998</v>
+        <v>496278.30640422</v>
       </c>
       <c r="N56" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R190,'Ranch Strategies'!R107)</f>
-        <v>488405.07299999997</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+        <v>467722.19099999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B57" s="452"/>
       <c r="C57" s="453"/>
       <c r="D57" s="453"/>
@@ -8001,11 +8002,11 @@
       <c r="L57" s="407"/>
       <c r="M57" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S107,'Ranch Strategies'!S190)</f>
-        <v>512905.110721095</v>
+        <v>501718.44870177616</v>
       </c>
       <c r="N57" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S190,'Ranch Strategies'!S107)</f>
-        <v>484348.99531687499</v>
+        <v>473162.33329755615</v>
       </c>
       <c r="Q57" s="155" t="s">
         <v>115</v>
@@ -8029,7 +8030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J58" s="406"/>
       <c r="K58" s="407" t="s">
         <v>284</v>
@@ -8071,7 +8072,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J59" s="406"/>
       <c r="K59" s="407" t="s">
         <v>285</v>
@@ -8095,15 +8096,15 @@
       </c>
       <c r="S59" s="148">
         <f>'Ranch Strategies'!Q84</f>
-        <v>62597.842528418929</v>
+        <v>55138.572309009673</v>
       </c>
       <c r="T59" s="148">
         <f>'Ranch Strategies'!R84</f>
-        <v>-13475.741692702402</v>
+        <v>-33275.741692702402</v>
       </c>
       <c r="U59" s="148">
         <f>'Ranch Strategies'!S84</f>
-        <v>-17358.679192702402</v>
+        <v>-28067.820596812002</v>
       </c>
       <c r="V59" s="148">
         <f>'Ranch Strategies'!T84</f>
@@ -8114,7 +8115,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J60" s="409" t="s">
         <v>289</v>
       </c>
@@ -8132,15 +8133,15 @@
       </c>
       <c r="S60" s="148">
         <f>'Ranch Strategies'!Q99</f>
-        <v>31204.142999681197</v>
+        <v>31140.179757549762</v>
       </c>
       <c r="T60" s="148">
         <f>'Ranch Strategies'!R99</f>
-        <v>29791.443289974348</v>
+        <v>28504.443289974348</v>
       </c>
       <c r="U60" s="148">
         <f>'Ranch Strategies'!S99</f>
-        <v>29539.052352474348</v>
+        <v>28842.958161207225</v>
       </c>
       <c r="V60" s="148">
         <f>'Ranch Strategies'!T99</f>
@@ -8151,7 +8152,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J61" s="406"/>
       <c r="K61" s="407" t="s">
         <v>300</v>
@@ -8175,15 +8176,15 @@
       </c>
       <c r="S61" s="148">
         <f>'Ranch Strategies'!Q114</f>
-        <v>31471.718525903463</v>
+        <v>31407.20679897075</v>
       </c>
       <c r="T61" s="148">
         <f>'Ranch Strategies'!R114</f>
-        <v>30754.381355052752</v>
+        <v>29775.456416274305</v>
       </c>
       <c r="U61" s="148">
         <f>'Ranch Strategies'!S114</f>
-        <v>30703.680384013693</v>
+        <v>30129.065665615453</v>
       </c>
       <c r="V61" s="148">
         <f>'Ranch Strategies'!T114</f>
@@ -8194,7 +8195,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J62" s="406"/>
       <c r="K62" s="407" t="s">
         <v>282</v>
@@ -8202,11 +8203,11 @@
       <c r="L62" s="407"/>
       <c r="M62" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q121,'Ranch Strategies'!Q204)</f>
-        <v>595937.76098104648</v>
+        <v>590732.56778175372</v>
       </c>
       <c r="N62" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q204,'Ranch Strategies'!Q121)</f>
-        <v>583144.87107309687</v>
+        <v>577939.67787380412</v>
       </c>
       <c r="Q62" s="149">
         <f>'Ranch Strategies'!E123</f>
@@ -8218,15 +8219,15 @@
       </c>
       <c r="S62" s="148">
         <f>'Ranch Strategies'!Q128</f>
-        <v>31741.588512263086</v>
+        <v>31676.523597271924</v>
       </c>
       <c r="T62" s="148">
         <f>'Ranch Strategies'!R128</f>
-        <v>31018.100175172331</v>
+        <v>30751.169868822304</v>
       </c>
       <c r="U62" s="148">
         <f>'Ranch Strategies'!S128</f>
-        <v>30966.96444330661</v>
+        <v>30822.20384685486</v>
       </c>
       <c r="V62" s="148">
         <f>'Ranch Strategies'!T128</f>
@@ -8237,7 +8238,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J63" s="406"/>
       <c r="K63" s="407" t="s">
         <v>283</v>
@@ -8245,11 +8246,11 @@
       <c r="L63" s="407"/>
       <c r="M63" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R121,'Ranch Strategies'!R204)</f>
-        <v>538058.69401378615</v>
+        <v>516704.26950578415</v>
       </c>
       <c r="N63" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R204,'Ranch Strategies'!R121)</f>
-        <v>513167.15520506998</v>
+        <v>491562.02349668997</v>
       </c>
       <c r="Q63" s="149">
         <f>'Ranch Strategies'!E137</f>
@@ -8261,15 +8262,15 @@
       </c>
       <c r="S63" s="148">
         <f>'Ranch Strategies'!Q142</f>
-        <v>32013.77263375574</v>
+        <v>31948.149787118531</v>
       </c>
       <c r="T63" s="148">
         <f>'Ranch Strategies'!R142</f>
-        <v>31284.080384174435</v>
+        <v>31014.861150447457</v>
       </c>
       <c r="U63" s="148">
         <f>'Ranch Strategies'!S128</f>
-        <v>30966.96444330661</v>
+        <v>30822.20384685486</v>
       </c>
       <c r="V63" s="148">
         <f>'Ranch Strategies'!T142</f>
@@ -8280,7 +8281,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J64" s="406"/>
       <c r="K64" s="407" t="s">
         <v>261</v>
@@ -8288,14 +8289,14 @@
       <c r="L64" s="407"/>
       <c r="M64" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S121,'Ranch Strategies'!S204)</f>
-        <v>533967.83546452841</v>
+        <v>522386.98774838838</v>
       </c>
       <c r="N64" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S204,'Ranch Strategies'!S121)</f>
-        <v>508930.21701805445</v>
-      </c>
-    </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.2">
+        <v>497244.7417392942</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J65" s="406"/>
       <c r="K65" s="407" t="s">
         <v>284</v>
@@ -8310,7 +8311,7 @@
         <v>587576.4262971835</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J66" s="406"/>
       <c r="K66" s="407" t="s">
         <v>285</v>
@@ -8325,7 +8326,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J67" s="409" t="s">
         <v>290</v>
       </c>
@@ -8334,7 +8335,7 @@
       <c r="M67" s="407"/>
       <c r="N67" s="408"/>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J68" s="406"/>
       <c r="K68" s="407" t="s">
         <v>300</v>
@@ -8349,7 +8350,7 @@
         <v>625632.6793303478</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J69" s="406"/>
       <c r="K69" s="407" t="s">
         <v>282</v>
@@ -8357,14 +8358,14 @@
       <c r="L69" s="407"/>
       <c r="M69" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q135,'Ranch Strategies'!Q218)</f>
-        <v>617712.49070045887</v>
+        <v>612462.66296948225</v>
       </c>
       <c r="N69" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q218,'Ranch Strategies'!Q135)</f>
-        <v>609497.0883425487</v>
-      </c>
-    </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.2">
+        <v>604247.26061157195</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J70" s="406"/>
       <c r="K70" s="407" t="s">
         <v>283</v>
@@ -8372,14 +8373,14 @@
       <c r="L70" s="407"/>
       <c r="M70" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!R135,'Ranch Strategies'!R218)</f>
-        <v>559337.11073395447</v>
+        <v>537799.57203579624</v>
       </c>
       <c r="N70" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!R218,'Ranch Strategies'!R135)</f>
-        <v>538919.31356095348</v>
-      </c>
-    </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.2">
+        <v>516464.87412440742</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J71" s="406"/>
       <c r="K71" s="407" t="s">
         <v>261</v>
@@ -8387,14 +8388,14 @@
       <c r="L71" s="407"/>
       <c r="M71" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S135,'Ranch Strategies'!S218)</f>
-        <v>555211.17307263671</v>
+        <v>543531.01958733075</v>
       </c>
       <c r="N71" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S218,'Ranch Strategies'!S135)</f>
-        <v>534607.51539488952</v>
-      </c>
-    </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.2">
+        <v>522400.98477344931</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J72" s="406"/>
       <c r="K72" s="407" t="s">
         <v>284</v>
@@ -8409,7 +8410,7 @@
         <v>618339.89415268181</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J73" s="406"/>
       <c r="K73" s="407" t="s">
         <v>285</v>
@@ -8424,7 +8425,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J74" s="409" t="s">
         <v>291</v>
       </c>
@@ -8433,7 +8434,7 @@
       <c r="M74" s="407"/>
       <c r="N74" s="408"/>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J75" s="406"/>
       <c r="K75" s="407" t="s">
         <v>300</v>
@@ -8448,7 +8449,7 @@
         <v>652349.22955560556</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J76" s="406"/>
       <c r="K76" s="407" t="s">
         <v>282</v>
@@ -8456,14 +8457,14 @@
       <c r="L76" s="407"/>
       <c r="M76" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q149,'Ranch Strategies'!Q232)</f>
-        <v>639673.9387272154</v>
+        <v>634379.09372344555</v>
       </c>
       <c r="N76" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q232,'Ranch Strategies'!Q149)</f>
-        <v>636075.27587508596</v>
-      </c>
-    </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.2">
+        <v>630780.43087131623</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J77" s="406"/>
       <c r="K77" s="407" t="s">
         <v>283</v>
@@ -8471,14 +8472,14 @@
       <c r="L77" s="407"/>
       <c r="M77" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!R149,'Ranch Strategies'!R232)</f>
-        <v>580797.98987749801</v>
+        <v>559075.76678500324</v>
       </c>
       <c r="N77" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!R232,'Ranch Strategies'!R149)</f>
-        <v>564892.29667473864</v>
-      </c>
-    </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.2">
+        <v>542245.31042002421</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J78" s="406"/>
       <c r="K78" s="407" t="s">
         <v>261</v>
@@ -8486,14 +8487,14 @@
       <c r="L78" s="407"/>
       <c r="M78" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S149,'Ranch Strategies'!S232)</f>
-        <v>576636.67230073456</v>
+        <v>564856.36149929219</v>
       </c>
       <c r="N78" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S232,'Ranch Strategies'!S149)</f>
-        <v>560543.52483940066</v>
-      </c>
-    </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.2">
+        <v>548232.32321788161</v>
+      </c>
+    </row>
+    <row r="79" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J79" s="406"/>
       <c r="K79" s="407" t="s">
         <v>284</v>
@@ -8508,7 +8509,7 @@
         <v>649367.158745041</v>
       </c>
     </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J80" s="410"/>
       <c r="K80" s="411" t="s">
         <v>285</v>
@@ -8538,41 +8539,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="172" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="172"/>
-    <col min="5" max="5" width="9.140625" style="172" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="172"/>
-    <col min="9" max="10" width="9.140625" style="172" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="172"/>
+    <col min="1" max="1" width="13.5" style="172" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" style="172"/>
+    <col min="5" max="5" width="9.1640625" style="172" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" style="172"/>
+    <col min="9" max="10" width="9.1640625" style="172" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -8591,7 +8587,7 @@
       <c r="H2" s="225"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="174" t="s">
         <v>187</v>
       </c>
@@ -8599,30 +8595,30 @@
       <c r="C3"/>
       <c r="D3">
         <f>SUM(D16:O16)</f>
-        <v>0.52236121052680584</v>
+        <v>0.52506122115640519</v>
       </c>
       <c r="E3" s="172">
         <f>SUM(D17:O17)</f>
-        <v>0.91934720965481176</v>
+        <v>0.86285919084859752</v>
       </c>
       <c r="F3" s="172">
         <f>SUM(D18:O18)</f>
-        <v>0.82714981978038837</v>
+        <v>0.77091180097417411</v>
       </c>
       <c r="G3" s="172">
         <f>SUM(D19:O19)</f>
-        <v>0.76114290573656729</v>
+        <v>0.74817432356158775</v>
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="268"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="181" t="s">
@@ -8663,7 +8659,7 @@
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="225" t="s">
         <v>250</v>
       </c>
@@ -8706,7 +8702,7 @@
       <c r="P7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="225" t="s">
         <v>186</v>
       </c>
@@ -8730,9 +8726,9 @@
         <f>IF($H$7&lt;$C$9,('CPER Precip'!F81),"#N/A")</f>
         <v>2.2273684210526317</v>
       </c>
-      <c r="I8" s="173">
+      <c r="I8" s="173" t="str">
         <f>IF($I$7&lt;$C$9,('CPER Precip'!G81),"#N/A")</f>
-        <v>2.2528947368421059</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" s="173" t="str">
         <f>IF($J$7&lt;$C$9,('CPER Precip'!H81),"#N/A")</f>
@@ -8764,7 +8760,7 @@
       </c>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="225" t="s">
         <v>173</v>
       </c>
@@ -8774,7 +8770,7 @@
       </c>
       <c r="C9" s="226">
         <f>UI!F9</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="172">
         <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,D7+1)</f>
@@ -8796,9 +8792,9 @@
         <f>IF($H$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,H7+1)),"#N/A")</f>
         <v>1.27</v>
       </c>
-      <c r="I9" s="172">
+      <c r="I9" s="172" t="str">
         <f>IF($I$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,I7+1)),"#N/A")</f>
-        <v>1.1200000000000001</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="172" t="str">
         <f>IF($J$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,J7+1)),"#N/A")</f>
@@ -8830,7 +8826,7 @@
       </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="225" t="s">
         <v>204</v>
       </c>
@@ -8854,9 +8850,9 @@
         <f>IF($H$7&lt;$C$9,(H9/H8),"#N/A")</f>
         <v>0.57017958412098302</v>
       </c>
-      <c r="I10" s="172">
+      <c r="I10" s="172" t="str">
         <f>IF($I$7&lt;$C$9,(I9/I8), "#N/A")</f>
-        <v>0.49713818479149624</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="172" t="str">
         <f>IF($J$7&lt;$C$9,(J9/J8),"#N/A")</f>
@@ -8885,7 +8881,7 @@
       <c r="P10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="225" t="s">
         <v>251</v>
       </c>
@@ -8932,7 +8928,7 @@
       <c r="R11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="225" t="s">
         <v>252</v>
       </c>
@@ -8979,7 +8975,7 @@
       <c r="R12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="225" t="s">
         <v>253</v>
       </c>
@@ -9023,7 +9019,7 @@
       <c r="R13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="225" t="s">
         <v>254</v>
       </c>
@@ -9067,7 +9063,7 @@
       <c r="R14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="225"/>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
@@ -9083,7 +9079,7 @@
       <c r="O15" s="228"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="348" t="s">
         <v>264</v>
       </c>
@@ -9109,7 +9105,7 @@
       </c>
       <c r="I16" s="172">
         <f>IF($I$7&lt;$C$9,(I11*I$10),IF($Q$9&gt;$I$7,0.049431,0.086547))</f>
-        <v>4.6730989370400648E-2</v>
+        <v>4.9431000000000003E-2</v>
       </c>
       <c r="J16" s="172">
         <f>IF($J$7&lt;$C$9,(J11*J$10), 0)</f>
@@ -9137,7 +9133,7 @@
       </c>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="348" t="s">
         <v>265</v>
       </c>
@@ -9163,7 +9159,7 @@
       </c>
       <c r="I17" s="172">
         <f>IF($I$7&lt;$C$9,(I12*I$10), IF($Q$9&gt;$I$7,0.047911,0.118421))</f>
-        <v>0.1043990188062142</v>
+        <v>4.7911000000000002E-2</v>
       </c>
       <c r="J17" s="172">
         <f>IF($J$7&lt;$C$9,(J12*J$10), IF($Q$9&gt;$J$7,0.047911,0.118421))</f>
@@ -9191,7 +9187,7 @@
       </c>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="348" t="s">
         <v>266</v>
       </c>
@@ -9217,7 +9213,7 @@
       </c>
       <c r="I18" s="172">
         <f>IF($I$7&lt;$C$9,(I13*I$10), IF($Q$9&gt;$I$7, 0.048161,0.099464))</f>
-        <v>0.1043990188062142</v>
+        <v>4.8161000000000002E-2</v>
       </c>
       <c r="J18" s="172">
         <f>IF($J$7&lt;$C$9,(J13*J$10),IF($Q$9&gt;$J$7,0.048161,0.099464))</f>
@@ -9245,7 +9241,7 @@
       </c>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="348" t="s">
         <v>267</v>
       </c>
@@ -9271,7 +9267,7 @@
       </c>
       <c r="I19" s="172">
         <f>IF($I$7&lt;$C$9,(I14*I$10),IF($Q$9&gt;$I$7, 0.046688,0.109621))</f>
-        <v>5.9656582174979544E-2</v>
+        <v>4.6688E-2</v>
       </c>
       <c r="J19" s="172">
         <f>IF($J$7&lt;$C$9,(J14*J$10),IF($Q$9&gt;$J$7, 0.046688,0.109621))</f>
@@ -9299,10 +9295,10 @@
       </c>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9320,7 +9316,7 @@
       <c r="O21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9337,7 +9333,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9354,7 +9350,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9371,7 +9367,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9388,7 +9384,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9405,7 +9401,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9422,7 +9418,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9439,7 +9435,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9456,7 +9452,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -9473,7 +9469,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9490,7 +9486,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -9507,7 +9503,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9524,7 +9520,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9544,32 +9540,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="175" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="175" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="175" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="175"/>
+    <col min="1" max="1" width="12.5" style="175" customWidth="1"/>
+    <col min="2" max="13" width="5.6640625" style="175" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="175" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="175"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="175" t="s">
         <v>188</v>
       </c>
@@ -9583,7 +9574,7 @@
       <c r="I1" s="473"/>
       <c r="J1" s="473"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="175" t="s">
         <v>173</v>
       </c>
@@ -9627,7 +9618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="175">
         <v>1939</v>
       </c>
@@ -9672,7 +9663,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="175">
         <v>1940</v>
       </c>
@@ -9717,7 +9708,7 @@
         <v>14.810000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="175">
         <v>1941</v>
       </c>
@@ -9762,7 +9753,7 @@
         <v>19.809999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="175">
         <v>1942</v>
       </c>
@@ -9807,7 +9798,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="175">
         <v>1943</v>
       </c>
@@ -9856,7 +9847,7 @@
       </c>
       <c r="P7" s="178"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="175">
         <v>1944</v>
       </c>
@@ -9901,7 +9892,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="175">
         <v>1945</v>
       </c>
@@ -9946,7 +9937,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="175">
         <v>1946</v>
       </c>
@@ -9991,7 +9982,7 @@
         <v>11.790000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="175">
         <v>1947</v>
       </c>
@@ -10036,7 +10027,7 @@
         <v>15.429999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="175">
         <v>1948</v>
       </c>
@@ -10081,7 +10072,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="175">
         <v>1949</v>
       </c>
@@ -10126,7 +10117,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="175">
         <v>1950</v>
       </c>
@@ -10171,7 +10162,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="175">
         <v>1951</v>
       </c>
@@ -10216,7 +10207,7 @@
         <v>13.110000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="175">
         <v>1952</v>
       </c>
@@ -10261,7 +10252,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="175">
         <v>1953</v>
       </c>
@@ -10306,7 +10297,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="175">
         <v>1954</v>
       </c>
@@ -10351,7 +10342,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="175">
         <v>1955</v>
       </c>
@@ -10396,7 +10387,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="175">
         <v>1956</v>
       </c>
@@ -10441,7 +10432,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="175">
         <v>1957</v>
       </c>
@@ -10486,7 +10477,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="175">
         <v>1958</v>
       </c>
@@ -10531,7 +10522,7 @@
         <v>13.270000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="175">
         <v>1959</v>
       </c>
@@ -10576,7 +10567,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="175">
         <v>1960</v>
       </c>
@@ -10621,7 +10612,7 @@
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="175">
         <v>1961</v>
       </c>
@@ -10666,7 +10657,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="175">
         <v>1962</v>
       </c>
@@ -10711,7 +10702,7 @@
         <v>15.879999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="175">
         <v>1963</v>
       </c>
@@ -10756,7 +10747,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="175">
         <v>1964</v>
       </c>
@@ -10801,7 +10792,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="175">
         <v>1965</v>
       </c>
@@ -10846,7 +10837,7 @@
         <v>14.839999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="175">
         <v>1966</v>
       </c>
@@ -10891,7 +10882,7 @@
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="175">
         <v>1967</v>
       </c>
@@ -10936,7 +10927,7 @@
         <v>22.88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="175">
         <v>1968</v>
       </c>
@@ -10981,7 +10972,7 @@
         <v>13.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="175">
         <v>1969</v>
       </c>
@@ -11026,7 +11017,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="175">
         <v>1970</v>
       </c>
@@ -11071,7 +11062,7 @@
         <v>9.5400000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="175">
         <v>1971</v>
       </c>
@@ -11116,7 +11107,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="175">
         <v>1972</v>
       </c>
@@ -11161,7 +11152,7 @@
         <v>14.719999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="175">
         <v>1973</v>
       </c>
@@ -11206,7 +11197,7 @@
         <v>10.829999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="175">
         <v>1974</v>
       </c>
@@ -11251,7 +11242,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="175">
         <v>1975</v>
       </c>
@@ -11296,7 +11287,7 @@
         <v>12.040000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="175">
         <v>1976</v>
       </c>
@@ -11341,7 +11332,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="175">
         <v>1977</v>
       </c>
@@ -11386,7 +11377,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="175">
         <v>1978</v>
       </c>
@@ -11431,7 +11422,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="175">
         <v>1979</v>
       </c>
@@ -11476,7 +11467,7 @@
         <v>19.429999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="175">
         <v>1980</v>
       </c>
@@ -11521,7 +11512,7 @@
         <v>14.180000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="175">
         <v>1981</v>
       </c>
@@ -11566,7 +11557,7 @@
         <v>15.629999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="175">
         <v>1982</v>
       </c>
@@ -11611,7 +11602,7 @@
         <v>18.689999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="175">
         <v>1983</v>
       </c>
@@ -11656,7 +11647,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="175">
         <v>1984</v>
       </c>
@@ -11701,7 +11692,7 @@
         <v>18.919999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="175">
         <v>1985</v>
       </c>
@@ -11746,7 +11737,7 @@
         <v>12.130000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="175">
         <v>1986</v>
       </c>
@@ -11791,7 +11782,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="175">
         <v>1987</v>
       </c>
@@ -11836,7 +11827,7 @@
         <v>17.439999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="175">
         <v>1988</v>
       </c>
@@ -11881,7 +11872,7 @@
         <v>10.959999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="175">
         <v>1989</v>
       </c>
@@ -11926,7 +11917,7 @@
         <v>14.419999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="175">
         <v>1990</v>
       </c>
@@ -11971,7 +11962,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="175">
         <v>1991</v>
       </c>
@@ -12016,7 +12007,7 @@
         <v>16.689999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="175">
         <v>1992</v>
       </c>
@@ -12061,7 +12052,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="175">
         <v>1993</v>
       </c>
@@ -12106,7 +12097,7 @@
         <v>16.960000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="175">
         <v>1994</v>
       </c>
@@ -12151,7 +12142,7 @@
         <v>11.979999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="175">
         <v>1995</v>
       </c>
@@ -12196,7 +12187,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="175">
         <v>1996</v>
       </c>
@@ -12241,7 +12232,7 @@
         <v>15.240000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="175">
         <v>1997</v>
       </c>
@@ -12286,7 +12277,7 @@
         <v>22.250000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="175">
         <v>1998</v>
       </c>
@@ -12331,7 +12322,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="175">
         <v>1999</v>
       </c>
@@ -12376,7 +12367,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="175">
         <v>2000</v>
       </c>
@@ -12421,7 +12412,7 @@
         <v>12.250000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65" s="175">
         <v>2001</v>
       </c>
@@ -12466,7 +12457,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66" s="175">
         <v>2002</v>
       </c>
@@ -12511,7 +12502,7 @@
         <v>9.5599999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" s="175">
         <v>2003</v>
       </c>
@@ -12556,7 +12547,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" s="175">
         <v>2004</v>
       </c>
@@ -12601,7 +12592,7 @@
         <v>11.550000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" s="175">
         <v>2005</v>
       </c>
@@ -12646,7 +12637,7 @@
         <v>14.569999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="175">
         <v>2006</v>
       </c>
@@ -12691,7 +12682,7 @@
         <v>11.840000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="175">
         <v>2007</v>
       </c>
@@ -12736,7 +12727,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="175">
         <v>2008</v>
       </c>
@@ -12781,7 +12772,7 @@
         <v>13.020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="175">
         <v>2009</v>
       </c>
@@ -12826,7 +12817,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" s="175">
         <v>2010</v>
       </c>
@@ -12871,7 +12862,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A75" s="175">
         <v>2011</v>
       </c>
@@ -12916,7 +12907,7 @@
         <v>14.030000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" s="175">
         <v>2012</v>
       </c>
@@ -12991,7 +12982,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A77" s="175">
         <v>2013</v>
       </c>
@@ -13036,7 +13027,7 @@
         <v>15.989999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" s="175">
         <v>2014</v>
       </c>
@@ -13081,7 +13072,7 @@
         <v>14.559999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="175">
         <v>2015</v>
       </c>
@@ -13126,7 +13117,7 @@
         <v>14.979999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A80" s="175">
         <v>2016</v>
       </c>
@@ -13156,7 +13147,7 @@
       <c r="M80" s="179"/>
       <c r="N80" s="179"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="175" t="s">
         <v>202</v>
       </c>
@@ -13213,7 +13204,7 @@
         <v>13.457922077922078</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B82" s="177" t="s">
         <v>201</v>
       </c>
@@ -13229,7 +13220,7 @@
       <c r="L82" s="177"/>
       <c r="M82" s="177"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="180" t="s">
         <v>203</v>
       </c>
@@ -13293,45 +13284,40 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="14" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="0.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="13" width="0.85546875" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="0.85546875" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" customWidth="1"/>
-    <col min="25" max="28" width="10.7109375" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="0.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="13" width="0.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="0.83203125" customWidth="1"/>
+    <col min="16" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="25" max="28" width="10.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13354,7 +13340,7 @@
       <c r="U1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="C2" s="347" t="s">
         <v>311</v>
@@ -13379,7 +13365,7 @@
       <c r="U2" s="170"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -13402,7 +13388,7 @@
       <c r="U3" s="170"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -13427,7 +13413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="168" t="s">
         <v>263</v>
@@ -13467,7 +13453,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="483" t="s">
         <v>270</v>
@@ -13492,7 +13478,7 @@
       <c r="U6" s="170"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67"/>
       <c r="C7" s="68" t="s">
         <v>41</v>
@@ -13519,7 +13505,7 @@
       <c r="U7" s="67"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="67"/>
       <c r="C8" s="15" t="s">
         <v>1</v>
@@ -13565,7 +13551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>72</v>
@@ -13598,7 +13584,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="C10" s="16" t="s">
         <v>3</v>
@@ -13634,7 +13620,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67"/>
       <c r="C11" s="69" t="s">
         <v>53</v>
@@ -13667,7 +13653,7 @@
       </c>
       <c r="V11" s="470">
         <f>(($U$11-$U$10)*$I$13)+$U$10</f>
-        <v>561.10870945058741</v>
+        <v>548.45515521918924</v>
       </c>
       <c r="AH11" s="363"/>
       <c r="AI11" s="357"/>
@@ -13675,7 +13661,7 @@
       <c r="AK11" s="357"/>
       <c r="AM11" s="357"/>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
       <c r="C12" s="16" t="s">
         <v>45</v>
@@ -13712,7 +13698,7 @@
       <c r="AK12" s="357"/>
       <c r="AM12" s="357"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
       <c r="C13" s="490" t="s">
         <v>309</v>
@@ -13724,7 +13710,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="186">
         <f>'Drought Calculator'!F3</f>
-        <v>0.82714981978038837</v>
+        <v>0.77091180097417411</v>
       </c>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -13752,7 +13738,7 @@
       <c r="AK13" s="357"/>
       <c r="AM13" s="357"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="67"/>
       <c r="C14" s="68" t="s">
         <v>44</v>
@@ -13789,7 +13775,7 @@
       <c r="AK14" s="357"/>
       <c r="AM14" s="357"/>
     </row>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
@@ -13839,7 +13825,7 @@
       <c r="AK15" s="357"/>
       <c r="AM15" s="357"/>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="67"/>
       <c r="C16" s="16" t="s">
         <v>52</v>
@@ -13881,18 +13867,18 @@
       <c r="Z16" s="273"/>
       <c r="AA16" s="273">
         <f>IF($U$19&lt;2, $U$18-I21, 12-I21)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB16" s="274">
         <f>AA16*30</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AH16" s="363"/>
       <c r="AJ16" s="357"/>
       <c r="AK16" s="357"/>
       <c r="AM16" s="357"/>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67"/>
       <c r="C17" s="69" t="s">
         <v>36</v>
@@ -13937,7 +13923,7 @@
       <c r="AK17" s="357"/>
       <c r="AM17" s="357"/>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67"/>
       <c r="C18" s="15" t="s">
         <v>29</v>
@@ -13989,7 +13975,7 @@
       <c r="AK18" s="357"/>
       <c r="AM18" s="357"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67"/>
       <c r="C19" s="15" t="s">
         <v>214</v>
@@ -14034,7 +14020,7 @@
       <c r="AK19" s="357"/>
       <c r="AM19" s="357"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
@@ -14067,14 +14053,14 @@
       <c r="AK20" s="357"/>
       <c r="AM20" s="357"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67"/>
       <c r="C21" s="164" t="s">
         <v>170</v>
       </c>
       <c r="I21" s="157">
         <f>UI!F10</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
@@ -14092,11 +14078,11 @@
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
         <f>SUM(AA16:AA20)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="276">
         <f>SUM(AB16:AB20)</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AH21" s="363"/>
       <c r="AI21" s="357"/>
@@ -14104,7 +14090,7 @@
       <c r="AK21" s="357"/>
       <c r="AM21" s="357"/>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67"/>
       <c r="C22" s="163" t="s">
         <v>248</v>
@@ -14135,7 +14121,7 @@
       <c r="AK22" s="357"/>
       <c r="AM22" s="357"/>
     </row>
-    <row r="23" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -14163,7 +14149,7 @@
       <c r="AK23" s="357"/>
       <c r="AM23" s="357"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="67"/>
       <c r="C24" s="46" t="s">
         <v>4</v>
@@ -14192,7 +14178,7 @@
       <c r="AJ24" s="357"/>
       <c r="AK24" s="357"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="67"/>
       <c r="C25" s="18"/>
       <c r="D25" s="32"/>
@@ -14216,7 +14202,7 @@
       <c r="U25" s="485"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
@@ -14246,7 +14232,7 @@
       </c>
       <c r="W26" s="13"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67"/>
       <c r="C27" s="281" t="s">
         <v>14</v>
@@ -14265,22 +14251,22 @@
       <c r="N27" s="13"/>
       <c r="P27" s="326">
         <f>AB16</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="253">
         <f>I29*P27</f>
-        <v>165</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="U27" s="254">
         <f>T27*I8</f>
-        <v>99000</v>
+        <v>118800.00000000001</v>
       </c>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="67"/>
       <c r="C28" s="282" t="s">
         <v>15</v>
@@ -14313,7 +14299,7 @@
       </c>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="67"/>
       <c r="C29" s="282" t="s">
         <v>46</v>
@@ -14330,22 +14316,22 @@
       <c r="N29" s="13"/>
       <c r="P29" s="328">
         <f>AB21</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="255">
         <f>I29*P29</f>
-        <v>165</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="U29" s="256">
         <f>T29*I8</f>
-        <v>99000</v>
+        <v>118800.00000000001</v>
       </c>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="1:39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="67"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -14363,7 +14349,7 @@
       <c r="U30" s="13"/>
       <c r="W30" s="13"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="67"/>
       <c r="C31" s="61" t="s">
         <v>215</v>
@@ -14376,7 +14362,7 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="67"/>
       <c r="C32" s="283" t="s">
         <v>227</v>
@@ -14415,7 +14401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67"/>
       <c r="C33" s="284" t="s">
         <v>205</v>
@@ -14454,7 +14440,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
       <c r="C34" s="284" t="s">
         <v>228</v>
@@ -14491,7 +14477,7 @@
       </c>
       <c r="AC34" s="121"/>
     </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="67"/>
       <c r="C35" s="284" t="s">
         <v>229</v>
@@ -14528,7 +14514,7 @@
       </c>
       <c r="AC35" s="121"/>
     </row>
-    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
       <c r="C36" s="284" t="s">
         <v>230</v>
@@ -14563,7 +14549,7 @@
       </c>
       <c r="AC36" s="121"/>
     </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
       <c r="C37" s="284" t="s">
         <v>238</v>
@@ -14600,7 +14586,7 @@
       </c>
       <c r="AC37" s="121"/>
     </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="C38" s="285"/>
       <c r="D38" s="192"/>
@@ -14632,7 +14618,7 @@
       </c>
       <c r="AC38" s="121"/>
     </row>
-    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="C39" s="286"/>
       <c r="D39" s="195"/>
@@ -14664,7 +14650,7 @@
       </c>
       <c r="AC39" s="121"/>
     </row>
-    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="C40" s="287"/>
       <c r="D40" s="196"/>
@@ -14696,14 +14682,14 @@
       </c>
       <c r="AC40" s="133"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="45"/>
       <c r="W41" s="29"/>
     </row>
-    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="C42" s="61" t="s">
         <v>38</v>
@@ -14724,7 +14710,7 @@
       <c r="U42" s="13"/>
       <c r="W42" s="29"/>
     </row>
-    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="C43" s="288" t="s">
         <v>17</v>
@@ -14757,7 +14743,7 @@
         <v>353700</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="C44" s="289" t="s">
         <v>19</v>
@@ -14792,7 +14778,7 @@
         <v>306675</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="C45" s="289" t="s">
         <v>21</v>
@@ -14830,7 +14816,7 @@
         <v>47025</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="C46" s="289" t="s">
         <v>92</v>
@@ -14842,7 +14828,7 @@
       <c r="H46" s="79"/>
       <c r="I46" s="9">
         <f>AB16</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N46" s="13"/>
       <c r="P46" s="135" t="s">
@@ -14865,7 +14851,7 @@
       <c r="AB46" s="114"/>
       <c r="AC46" s="121"/>
     </row>
-    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="C47" s="289" t="s">
         <v>93</v>
@@ -14887,11 +14873,11 @@
       <c r="S47" s="21"/>
       <c r="T47" s="63">
         <f>U47/$I$8</f>
-        <v>82.449999999999989</v>
+        <v>98.94</v>
       </c>
       <c r="U47" s="238">
         <f>(I45/30)*I46*I8</f>
-        <v>49469.999999999993</v>
+        <v>59364</v>
       </c>
       <c r="Y47" s="54" t="s">
         <v>75</v>
@@ -14904,7 +14890,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="C48" s="289" t="s">
         <v>94</v>
@@ -14943,7 +14929,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="C49" s="290" t="s">
         <v>39</v>
@@ -14983,7 +14969,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="C50" s="291" t="s">
         <v>98</v>
@@ -14995,7 +14981,7 @@
       <c r="H50" s="145"/>
       <c r="I50" s="297">
         <f>AB21</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N50" s="13"/>
       <c r="P50" s="331" t="s">
@@ -15006,11 +14992,11 @@
       <c r="S50" s="22"/>
       <c r="T50" s="64">
         <f t="shared" si="3"/>
-        <v>4.5215625000000008</v>
+        <v>5.8801315068493141</v>
       </c>
       <c r="U50" s="242">
-        <f>(U45+U46+U47+U48)*((I15/360)*I46)</f>
-        <v>2712.9375000000005</v>
+        <f>(U45+U46+U47+U48)*((I15/365)*I46)</f>
+        <v>3528.0789041095886</v>
       </c>
       <c r="W50" s="13"/>
       <c r="Y50" s="54"/>
@@ -15019,7 +15005,7 @@
       <c r="AB50" s="114"/>
       <c r="AC50" s="121"/>
     </row>
-    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="C51" s="292" t="s">
         <v>99</v>
@@ -15031,7 +15017,7 @@
       <c r="H51" s="146"/>
       <c r="I51" s="298">
         <f>AA21</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51" s="13"/>
       <c r="P51" s="332" t="s">
@@ -15042,11 +15028,11 @@
       <c r="S51" s="110"/>
       <c r="T51" s="111">
         <f>SUM(T45:T48, T50)</f>
-        <v>171.47156249999998</v>
+        <v>189.32013150684932</v>
       </c>
       <c r="U51" s="243">
         <f>SUM(U45:U48, U50)</f>
-        <v>102882.9375</v>
+        <v>113592.07890410958</v>
       </c>
       <c r="W51" s="29"/>
       <c r="Y51" s="122" t="s">
@@ -15060,7 +15046,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -15085,10 +15071,10 @@
       <c r="AB52" s="114"/>
       <c r="AC52" s="124">
         <f>AC51*AB16*(I16/360)</f>
-        <v>2656.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3187.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="C53" s="61" t="s">
         <v>100</v>
@@ -15116,10 +15102,10 @@
       <c r="AB53" s="114"/>
       <c r="AC53" s="124">
         <f>(AC51+AC52)*I16</f>
-        <v>6408.203125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6414.84375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="C54" s="293" t="s">
         <v>105</v>
@@ -15150,10 +15136,10 @@
       <c r="AB54" s="116"/>
       <c r="AC54" s="128">
         <f>(AC51+AC52+AC53)*I16</f>
-        <v>6488.3056640625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6495.029296875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="C55" s="294" t="s">
         <v>104</v>
@@ -15179,7 +15165,7 @@
       </c>
       <c r="W55" s="13"/>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="C56" s="294" t="s">
         <v>103</v>
@@ -15230,7 +15216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="C57" s="295" t="s">
         <v>78</v>
@@ -15287,7 +15273,7 @@
         <v>514687.5</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="C58" s="296" t="s">
         <v>40</v>
@@ -15326,15 +15312,15 @@
       </c>
       <c r="Z58" s="148">
         <f t="shared" ref="Z58:AD58" si="5">Q92</f>
-        <v>552942.11997449538</v>
+        <v>547825.06060398067</v>
       </c>
       <c r="AA58" s="148">
         <f t="shared" si="5"/>
-        <v>496524.2583072976</v>
+        <v>476724.2583072976</v>
       </c>
       <c r="AB58" s="148">
         <f t="shared" si="5"/>
-        <v>492641.3208072976</v>
+        <v>481932.179403188</v>
       </c>
       <c r="AC58" s="148">
         <f t="shared" si="5"/>
@@ -15345,7 +15331,7 @@
         <v>501070.49119880609</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="C59" s="474" t="s">
         <v>96</v>
@@ -15365,11 +15351,11 @@
       <c r="S59" s="139"/>
       <c r="T59" s="25">
         <f>U59/I8</f>
-        <v>-4.427083333333333</v>
+        <v>-5.3125</v>
       </c>
       <c r="U59" s="247">
         <f>-(AC49*AB16*(I16/360))</f>
-        <v>-2656.25</v>
+        <v>-3187.5</v>
       </c>
       <c r="W59" s="13"/>
       <c r="X59" s="149">
@@ -15382,15 +15368,15 @@
       </c>
       <c r="Z59" s="148">
         <f t="shared" ref="Z59:AD59" si="6">Q107</f>
-        <v>574348.1620722767</v>
+        <v>569187.22391765972</v>
       </c>
       <c r="AA59" s="148">
         <f t="shared" si="6"/>
-        <v>516961.18840421998</v>
+        <v>496278.30640422</v>
       </c>
       <c r="AB59" s="148">
         <f t="shared" si="6"/>
-        <v>512905.110721095</v>
+        <v>501718.44870177616</v>
       </c>
       <c r="AC59" s="148">
         <f t="shared" si="6"/>
@@ -15401,7 +15387,7 @@
         <v>501937.17066083587</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="C60" s="477"/>
       <c r="D60" s="478"/>
@@ -15419,11 +15405,11 @@
       <c r="S60" s="140"/>
       <c r="T60" s="141">
         <f>SUM(T56:T59)</f>
-        <v>193.94791666666666</v>
+        <v>193.0625</v>
       </c>
       <c r="U60" s="248">
         <f>SUM(U56:U59)</f>
-        <v>116368.75</v>
+        <v>115837.5</v>
       </c>
       <c r="W60" s="13"/>
       <c r="X60" s="149">
@@ -15436,15 +15422,15 @@
       </c>
       <c r="Z60" s="148">
         <f>Q121</f>
-        <v>595937.76098104648</v>
+        <v>590732.56778175372</v>
       </c>
       <c r="AA60" s="148">
         <f>R121</f>
-        <v>538058.69401378615</v>
+        <v>516704.26950578415</v>
       </c>
       <c r="AB60" s="148">
         <f>S121</f>
-        <v>533967.83546452841</v>
+        <v>522386.98774838838</v>
       </c>
       <c r="AC60" s="148">
         <f>T121</f>
@@ -15455,7 +15441,7 @@
         <v>502811.28189925256</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="C61" s="477"/>
       <c r="D61" s="478"/>
@@ -15490,15 +15476,15 @@
       </c>
       <c r="Z61" s="148">
         <f>Q135</f>
-        <v>617712.49070045887</v>
+        <v>612462.66296948225</v>
       </c>
       <c r="AA61" s="148">
         <f>R135</f>
-        <v>559337.11073395447</v>
+        <v>537799.57203579624</v>
       </c>
       <c r="AB61" s="148">
         <f>S135</f>
-        <v>555211.17307263671</v>
+        <v>543531.01958733075</v>
       </c>
       <c r="AC61" s="148">
         <f>T135</f>
@@ -15509,7 +15495,7 @@
         <v>503692.88864153862</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="C62" s="477"/>
       <c r="D62" s="478"/>
@@ -15527,11 +15513,11 @@
       <c r="S62" s="23"/>
       <c r="T62" s="24">
         <f>U62/I8</f>
-        <v>-25.9212646484375</v>
+        <v>-26.828955078124999</v>
       </c>
       <c r="U62" s="246">
         <f>-(AC52+AC53+AC54)</f>
-        <v>-15552.7587890625</v>
+        <v>-16097.373046875</v>
       </c>
       <c r="W62" s="13"/>
       <c r="X62" s="149">
@@ -15544,15 +15530,15 @@
       </c>
       <c r="Z62" s="148">
         <f>Q149</f>
-        <v>639673.9387272154</v>
+        <v>634379.09372344555</v>
       </c>
       <c r="AA62" s="148">
         <f>R149</f>
-        <v>580797.98987749801</v>
+        <v>559075.76678500324</v>
       </c>
       <c r="AB62" s="148">
         <f>S149</f>
-        <v>576636.67230073456</v>
+        <v>564856.36149929219</v>
       </c>
       <c r="AC62" s="148">
         <f>T149</f>
@@ -15563,7 +15549,7 @@
         <v>504582.05516163982</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="C63" s="480"/>
       <c r="D63" s="481"/>
@@ -15589,7 +15575,7 @@
       </c>
       <c r="W63" s="13"/>
     </row>
-    <row r="64" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -15616,7 +15602,7 @@
       </c>
       <c r="W64" s="13"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -15643,7 +15629,7 @@
       </c>
       <c r="W65" s="13"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -15662,15 +15648,15 @@
       <c r="S66" s="23"/>
       <c r="T66" s="24">
         <f>SUM(T61:T65)</f>
-        <v>136.99540201822913</v>
+        <v>136.08771158854165</v>
       </c>
       <c r="U66" s="246">
         <f>SUM(U61:U65)</f>
-        <v>82197.2412109375</v>
+        <v>81652.626953125</v>
       </c>
       <c r="W66" s="13"/>
     </row>
-    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -15689,15 +15675,15 @@
       <c r="S67" s="142"/>
       <c r="T67" s="143">
         <f>T60+T66</f>
-        <v>330.94331868489576</v>
+        <v>329.15021158854165</v>
       </c>
       <c r="U67" s="249">
         <f>U60+U66</f>
-        <v>198565.9912109375</v>
+        <v>197490.126953125</v>
       </c>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -15710,7 +15696,7 @@
       <c r="N68" s="13"/>
       <c r="W68" s="13"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -15730,7 +15716,7 @@
       <c r="U69" s="17"/>
       <c r="W69" s="13"/>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -15753,7 +15739,7 @@
       <c r="U70" s="340"/>
       <c r="W70" s="13"/>
     </row>
-    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15776,7 +15762,7 @@
       <c r="U71" s="29"/>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15813,7 +15799,7 @@
       </c>
       <c r="W72" s="13"/>
     </row>
-    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -15836,7 +15822,7 @@
       <c r="U73" s="67"/>
       <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="C74" s="17"/>
       <c r="E74" s="305" t="s">
@@ -15860,7 +15846,7 @@
       <c r="U74" s="109"/>
       <c r="W74" s="13"/>
     </row>
-    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="C75" s="17"/>
       <c r="E75" s="306" t="s">
@@ -15902,7 +15888,7 @@
       </c>
       <c r="W75" s="13"/>
     </row>
-    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="C76" s="17"/>
       <c r="E76" s="306" t="s">
@@ -15944,7 +15930,7 @@
       </c>
       <c r="W76" s="13"/>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="C77" s="17"/>
       <c r="E77" s="306" t="s">
@@ -15986,7 +15972,7 @@
       </c>
       <c r="W77" s="13"/>
     </row>
-    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="13"/>
       <c r="C78" s="70"/>
       <c r="E78" s="307" t="s">
@@ -16028,7 +16014,7 @@
       </c>
       <c r="W78" s="13"/>
     </row>
-    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="C79" s="17"/>
       <c r="E79" s="67"/>
@@ -16050,7 +16036,7 @@
       <c r="U79" s="67"/>
       <c r="W79" s="13"/>
     </row>
-    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="C80" s="17"/>
       <c r="E80" s="108">
@@ -16075,7 +16061,7 @@
       <c r="U80" s="67"/>
       <c r="W80" s="13"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="C81" s="17"/>
       <c r="E81" s="16" t="s">
@@ -16097,7 +16083,7 @@
       </c>
       <c r="Q81" s="89">
         <f>IF($I$22=E80,($I$8*$U$9)*$V$11*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>330773.58422112133</v>
+        <v>323314.31400171207</v>
       </c>
       <c r="R81" s="90">
         <f>($I$8*$U$9)*$U$11*$U$14</f>
@@ -16118,7 +16104,7 @@
       <c r="W81" s="13"/>
       <c r="AC81" s="150"/>
     </row>
-    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="C82" s="17"/>
       <c r="E82" s="16" t="s">
@@ -16160,7 +16146,7 @@
       <c r="W82" s="13"/>
       <c r="AC82" s="150"/>
     </row>
-    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="C83" s="17"/>
       <c r="E83" s="91" t="s">
@@ -16186,11 +16172,11 @@
       </c>
       <c r="R83" s="94">
         <f>-IF(I19=1,(I8*I12)+(AB16*I29*I8)+U33, (I8*I12)+(AB16*I29*I8))</f>
-        <v>-405832.6335</v>
+        <v>-425632.6335</v>
       </c>
       <c r="S83" s="94">
         <f>-IF(I19=1, ((I8*I12)+U51)+(U33), ((I8*I12)+U51))</f>
-        <v>-409715.571</v>
+        <v>-420424.7124041096</v>
       </c>
       <c r="T83" s="94">
         <f>-IF(I19 = 1, (I8*(I12-I54))+(U33), (I8*(I12-I54)))</f>
@@ -16202,7 +16188,7 @@
       </c>
       <c r="W83" s="13"/>
     </row>
-    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="C84" s="17"/>
       <c r="E84" s="235" t="s">
@@ -16224,15 +16210,15 @@
       </c>
       <c r="Q84" s="90">
         <f t="shared" si="15"/>
-        <v>62597.842528418929</v>
+        <v>55138.572309009673</v>
       </c>
       <c r="R84" s="90">
         <f t="shared" si="15"/>
-        <v>-13475.741692702402</v>
+        <v>-33275.741692702402</v>
       </c>
       <c r="S84" s="90">
         <f t="shared" si="15"/>
-        <v>-17358.679192702402</v>
+        <v>-28067.820596812002</v>
       </c>
       <c r="T84" s="90">
         <f t="shared" si="15"/>
@@ -16265,7 +16251,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="C85" s="17"/>
       <c r="E85" s="91" t="s">
@@ -16287,7 +16273,7 @@
       </c>
       <c r="Q85" s="95">
         <f t="shared" si="16"/>
-        <v>19655.722553923544</v>
+        <v>17313.511705029036</v>
       </c>
       <c r="R85" s="95">
         <f t="shared" si="16"/>
@@ -16334,7 +16320,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="C86" s="17"/>
       <c r="E86" s="96" t="s">
@@ -16356,15 +16342,15 @@
       </c>
       <c r="Q86" s="97">
         <f t="shared" si="18"/>
-        <v>42942.119974495385</v>
+        <v>37825.060603980637</v>
       </c>
       <c r="R86" s="97">
         <f t="shared" si="18"/>
-        <v>-13475.741692702402</v>
+        <v>-33275.741692702402</v>
       </c>
       <c r="S86" s="97">
         <f t="shared" si="18"/>
-        <v>-17358.679192702402</v>
+        <v>-28067.820596812002</v>
       </c>
       <c r="T86" s="97">
         <f t="shared" si="18"/>
@@ -16385,15 +16371,15 @@
       </c>
       <c r="Z86" s="148">
         <f t="shared" si="19"/>
-        <v>62597.842528418929</v>
+        <v>55138.572309009673</v>
       </c>
       <c r="AA86" s="148">
         <f t="shared" si="19"/>
-        <v>-13475.741692702402</v>
+        <v>-33275.741692702402</v>
       </c>
       <c r="AB86" s="148">
         <f t="shared" si="19"/>
-        <v>-17358.679192702402</v>
+        <v>-28067.820596812002</v>
       </c>
       <c r="AC86" s="148">
         <f t="shared" si="19"/>
@@ -16404,7 +16390,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="13"/>
       <c r="C87" s="17"/>
       <c r="E87" s="98" t="s">
@@ -16451,15 +16437,15 @@
       </c>
       <c r="Z87" s="148">
         <f t="shared" si="20"/>
-        <v>31204.142999681197</v>
+        <v>31140.179757549762</v>
       </c>
       <c r="AA87" s="148">
         <f t="shared" si="20"/>
-        <v>29791.443289974348</v>
+        <v>28504.443289974348</v>
       </c>
       <c r="AB87" s="148">
         <f t="shared" si="20"/>
-        <v>29539.052352474348</v>
+        <v>28842.958161207225</v>
       </c>
       <c r="AC87" s="148">
         <f t="shared" si="20"/>
@@ -16470,7 +16456,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="C88" s="17"/>
       <c r="E88" s="101" t="s">
@@ -16516,15 +16502,15 @@
       </c>
       <c r="Z88" s="148">
         <f>Q114</f>
-        <v>31471.718525903463</v>
+        <v>31407.20679897075</v>
       </c>
       <c r="AA88" s="148">
         <f>R114</f>
-        <v>30754.381355052752</v>
+        <v>29775.456416274305</v>
       </c>
       <c r="AB88" s="148">
         <f>S114</f>
-        <v>30703.680384013693</v>
+        <v>30129.065665615453</v>
       </c>
       <c r="AC88" s="148">
         <f>T114</f>
@@ -16535,7 +16521,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="C89" s="17"/>
       <c r="E89" s="305" t="s">
@@ -16568,15 +16554,15 @@
       </c>
       <c r="Z89" s="148">
         <f>Q128</f>
-        <v>31741.588512263086</v>
+        <v>31676.523597271924</v>
       </c>
       <c r="AA89" s="148">
         <f>R128</f>
-        <v>31018.100175172331</v>
+        <v>30751.169868822304</v>
       </c>
       <c r="AB89" s="148">
         <f>S128</f>
-        <v>30966.96444330661</v>
+        <v>30822.20384685486</v>
       </c>
       <c r="AC89" s="148">
         <f>T128</f>
@@ -16587,7 +16573,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="C90" s="17"/>
       <c r="E90" s="308" t="s">
@@ -16638,15 +16624,15 @@
       </c>
       <c r="Z90" s="148">
         <f>Q142</f>
-        <v>32013.77263375574</v>
+        <v>31948.149787118531</v>
       </c>
       <c r="AA90" s="148">
         <f>R142</f>
-        <v>31284.080384174435</v>
+        <v>31014.861150447457</v>
       </c>
       <c r="AB90" s="148">
         <f>S142</f>
-        <v>31232.506163407961</v>
+        <v>31086.504244841639</v>
       </c>
       <c r="AC90" s="148">
         <f>T142</f>
@@ -16657,7 +16643,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
       <c r="C91" s="17"/>
       <c r="E91" s="309" t="s">
@@ -16679,15 +16665,15 @@
       </c>
       <c r="Q91" s="87">
         <f t="shared" ref="Q91:U91" si="25">Q86+Q87-Q88</f>
-        <v>42942.119974495385</v>
+        <v>37825.060603980637</v>
       </c>
       <c r="R91" s="87">
         <f t="shared" si="25"/>
-        <v>-13475.741692702402</v>
+        <v>-33275.741692702402</v>
       </c>
       <c r="S91" s="87">
         <f t="shared" si="25"/>
-        <v>-17358.679192702402</v>
+        <v>-28067.820596812002</v>
       </c>
       <c r="T91" s="87">
         <f t="shared" si="25"/>
@@ -16699,7 +16685,7 @@
       </c>
       <c r="W91" s="17"/>
     </row>
-    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="C92" s="17"/>
       <c r="E92" s="307" t="s">
@@ -16721,15 +16707,15 @@
       </c>
       <c r="Q92" s="265">
         <f>SUM(Q90:Q91)</f>
-        <v>552942.11997449538</v>
+        <v>547825.06060398067</v>
       </c>
       <c r="R92" s="265">
         <f>SUM(R90:R91)</f>
-        <v>496524.2583072976</v>
+        <v>476724.2583072976</v>
       </c>
       <c r="S92" s="265">
         <f t="shared" ref="S92" si="26">SUM(S90:S91)</f>
-        <v>492641.3208072976</v>
+        <v>481932.179403188</v>
       </c>
       <c r="T92" s="265">
         <f>SUM(T90:T91)</f>
@@ -16741,7 +16727,7 @@
       </c>
       <c r="W92" s="17"/>
     </row>
-    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="C93" s="17"/>
       <c r="E93" s="67"/>
@@ -16763,7 +16749,7 @@
       <c r="U93" s="67"/>
       <c r="W93" s="17"/>
     </row>
-    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="C94" s="17"/>
       <c r="E94" s="108">
@@ -16788,7 +16774,7 @@
       <c r="U94" s="67"/>
       <c r="W94" s="17"/>
     </row>
-    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="C95" s="17"/>
       <c r="E95" s="98" t="s">
@@ -16829,7 +16815,7 @@
       </c>
       <c r="W95" s="17"/>
     </row>
-    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="C96" s="17"/>
       <c r="E96" s="98" t="s">
@@ -16870,7 +16856,7 @@
       </c>
       <c r="W96" s="17"/>
     </row>
-    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="C97" s="17"/>
       <c r="E97" s="16" t="s">
@@ -16912,7 +16898,7 @@
       </c>
       <c r="W97" s="17"/>
     </row>
-    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="C98" s="17"/>
       <c r="E98" s="91" t="s">
@@ -16934,15 +16920,15 @@
       </c>
       <c r="Q98" s="94">
         <f t="shared" si="28"/>
-        <v>536.77649968119238</v>
+        <v>472.81325754975796</v>
       </c>
       <c r="R98" s="94">
         <f t="shared" si="28"/>
-        <v>-875.9232100256562</v>
+        <v>-2162.9232100256563</v>
       </c>
       <c r="S98" s="94">
         <f t="shared" si="28"/>
-        <v>-1128.3141475256562</v>
+        <v>-1824.4083387927801</v>
       </c>
       <c r="T98" s="94">
         <f t="shared" si="28"/>
@@ -16954,7 +16940,7 @@
       </c>
       <c r="W98" s="17"/>
     </row>
-    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="C99" s="17"/>
       <c r="E99" s="235" t="s">
@@ -16976,15 +16962,15 @@
       </c>
       <c r="Q99" s="90">
         <f t="shared" si="29"/>
-        <v>31204.142999681197</v>
+        <v>31140.179757549762</v>
       </c>
       <c r="R99" s="90">
         <f t="shared" si="29"/>
-        <v>29791.443289974348</v>
+        <v>28504.443289974348</v>
       </c>
       <c r="S99" s="90">
         <f t="shared" si="29"/>
-        <v>29539.052352474348</v>
+        <v>28842.958161207225</v>
       </c>
       <c r="T99" s="90">
         <f t="shared" si="29"/>
@@ -16996,7 +16982,7 @@
       </c>
       <c r="W99" s="17"/>
     </row>
-    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="C100" s="17"/>
       <c r="E100" s="91" t="s">
@@ -17018,15 +17004,15 @@
       </c>
       <c r="Q100" s="95">
         <f t="shared" si="30"/>
-        <v>9798.1009018998957</v>
+        <v>9778.0164438706252</v>
       </c>
       <c r="R100" s="95">
         <f t="shared" si="30"/>
-        <v>9354.5131930519456</v>
+        <v>8950.3951930519452</v>
       </c>
       <c r="S100" s="95">
         <f t="shared" si="30"/>
-        <v>9275.2624386769457</v>
+        <v>9056.6888626190685</v>
       </c>
       <c r="T100" s="95">
         <f t="shared" si="30"/>
@@ -17038,7 +17024,7 @@
       </c>
       <c r="W100" s="17"/>
     </row>
-    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="C101" s="17"/>
       <c r="E101" s="96" t="s">
@@ -17060,15 +17046,15 @@
       </c>
       <c r="Q101" s="97">
         <f>Q99-Q100</f>
-        <v>21406.042097781301</v>
+        <v>21362.163313679135</v>
       </c>
       <c r="R101" s="97">
         <f t="shared" ref="R101:S101" si="31">R99-R100</f>
-        <v>20436.930096922402</v>
+        <v>19554.048096922401</v>
       </c>
       <c r="S101" s="102">
         <f t="shared" si="31"/>
-        <v>20263.789913797402</v>
+        <v>19786.269298588159</v>
       </c>
       <c r="T101" s="97">
         <f>T99-T100</f>
@@ -17080,7 +17066,7 @@
       </c>
       <c r="W101" s="17"/>
     </row>
-    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="C102" s="17"/>
       <c r="E102" s="96" t="s">
@@ -17117,7 +17103,7 @@
       </c>
       <c r="W102" s="17"/>
     </row>
-    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="C103" s="17"/>
       <c r="E103" s="96"/>
@@ -17139,7 +17125,7 @@
       <c r="U103" s="90"/>
       <c r="W103" s="17"/>
     </row>
-    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="C104" s="17"/>
       <c r="E104" s="305" t="s">
@@ -17163,7 +17149,7 @@
       <c r="U104" s="70"/>
       <c r="W104" s="17"/>
     </row>
-    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="C105" s="17"/>
       <c r="E105" s="308" t="s">
@@ -17205,7 +17191,7 @@
       </c>
       <c r="W105" s="17"/>
     </row>
-    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="C106" s="17"/>
       <c r="E106" s="309" t="s">
@@ -17227,15 +17213,15 @@
       </c>
       <c r="Q106" s="103">
         <f>Q91+Q101</f>
-        <v>64348.162072276682</v>
+        <v>59187.223917659772</v>
       </c>
       <c r="R106" s="103">
         <f>R91+R101</f>
-        <v>6961.1884042199999</v>
+        <v>-13721.693595780001</v>
       </c>
       <c r="S106" s="103">
         <f>S91+S101</f>
-        <v>2905.1107210949995</v>
+        <v>-8281.5512982238433</v>
       </c>
       <c r="T106" s="103">
         <f>T91+T101-T102</f>
@@ -17247,7 +17233,7 @@
       </c>
       <c r="W106" s="17"/>
     </row>
-    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="C107" s="17"/>
       <c r="E107" s="307" t="s">
@@ -17269,15 +17255,15 @@
       </c>
       <c r="Q107" s="310">
         <f>SUM(Q105:Q106)</f>
-        <v>574348.1620722767</v>
+        <v>569187.22391765972</v>
       </c>
       <c r="R107" s="310">
         <f t="shared" ref="R107:S107" si="33">SUM(R105:R106)</f>
-        <v>516961.18840421998</v>
+        <v>496278.30640422</v>
       </c>
       <c r="S107" s="310">
         <f t="shared" si="33"/>
-        <v>512905.110721095</v>
+        <v>501718.44870177616</v>
       </c>
       <c r="T107" s="310">
         <f>SUM(T105:T106)</f>
@@ -17289,7 +17275,7 @@
       </c>
       <c r="W107" s="17"/>
     </row>
-    <row r="108" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="C108" s="17"/>
       <c r="E108" s="104"/>
@@ -17311,7 +17297,7 @@
       <c r="U108" s="30"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="C109" s="17"/>
       <c r="E109" s="108">
@@ -17336,7 +17322,7 @@
       <c r="U109" s="30"/>
       <c r="W109" s="17"/>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="C110" s="17"/>
       <c r="E110" s="98" t="s">
@@ -17377,7 +17363,7 @@
       </c>
       <c r="W110" s="17"/>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="C111" s="17"/>
       <c r="E111" s="98" t="s">
@@ -17418,7 +17404,7 @@
       </c>
       <c r="W111" s="17"/>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="C112" s="17"/>
       <c r="E112" s="16" t="s">
@@ -17460,7 +17446,7 @@
       </c>
       <c r="W112" s="17"/>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="C113" s="17"/>
       <c r="E113" s="91" t="s">
@@ -17482,15 +17468,15 @@
       </c>
       <c r="Q113" s="94">
         <f t="shared" si="34"/>
-        <v>804.35202590345853</v>
+        <v>739.8402989707472</v>
       </c>
       <c r="R113" s="94">
         <f t="shared" si="34"/>
-        <v>87.014855052750008</v>
+        <v>-891.91008372570013</v>
       </c>
       <c r="S113" s="94">
         <f t="shared" si="34"/>
-        <v>36.313884013687492</v>
+        <v>-538.30083438454983</v>
       </c>
       <c r="T113" s="94">
         <f t="shared" si="34"/>
@@ -17502,7 +17488,7 @@
       </c>
       <c r="W113" s="17"/>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="C114" s="17"/>
       <c r="E114" s="235" t="s">
@@ -17524,15 +17510,15 @@
       </c>
       <c r="Q114" s="90">
         <f>SUM(Q110:Q113)</f>
-        <v>31471.718525903463</v>
+        <v>31407.20679897075</v>
       </c>
       <c r="R114" s="90">
         <f>SUM(R110:R113)</f>
-        <v>30754.381355052752</v>
+        <v>29775.456416274305</v>
       </c>
       <c r="S114" s="90">
         <f>SUM(S110:S113)</f>
-        <v>30703.680384013693</v>
+        <v>30129.065665615453</v>
       </c>
       <c r="T114" s="90">
         <f>SUM(T110:T113)</f>
@@ -17544,7 +17530,7 @@
       </c>
       <c r="W114" s="17"/>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="C115" s="17"/>
       <c r="E115" s="91" t="s">
@@ -17566,15 +17552,15 @@
       </c>
       <c r="Q115" s="95">
         <f>IF(Q114&gt;0,Q114*(0.124+0.15+0.04),0)</f>
-        <v>9882.1196171336869</v>
+        <v>9861.8629348768154</v>
       </c>
       <c r="R115" s="95">
         <f>IF(R114&gt;0,R114*(0.124+0.15+0.04),0)</f>
-        <v>9656.8757454865645</v>
+        <v>9349.493314710131</v>
       </c>
       <c r="S115" s="95">
         <f>IF(S114&gt;0,S114*(0.124+0.15+0.04),0)</f>
-        <v>9640.9556405802996</v>
+        <v>9460.5266190032526</v>
       </c>
       <c r="T115" s="95">
         <f>IF(T114&gt;0,T114*(0.124+0.15+0.04),0)</f>
@@ -17586,7 +17572,7 @@
       </c>
       <c r="W115" s="17"/>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="C116" s="17"/>
       <c r="E116" s="96" t="s">
@@ -17608,15 +17594,15 @@
       </c>
       <c r="Q116" s="97">
         <f t="shared" si="37"/>
-        <v>21589.598908769774</v>
+        <v>21545.343864093935</v>
       </c>
       <c r="R116" s="97">
         <f t="shared" si="37"/>
-        <v>21097.505609566186</v>
+        <v>20425.963101564172</v>
       </c>
       <c r="S116" s="97">
         <f t="shared" si="37"/>
-        <v>21062.724743433391</v>
+        <v>20668.539046612201</v>
       </c>
       <c r="T116" s="97">
         <f t="shared" si="37"/>
@@ -17628,7 +17614,7 @@
       </c>
       <c r="W116" s="17"/>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="C117" s="17"/>
       <c r="E117" s="96" t="s">
@@ -17665,7 +17651,7 @@
       </c>
       <c r="W117" s="17"/>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="C118" s="17"/>
       <c r="E118" s="305" t="s">
@@ -17689,7 +17675,7 @@
       <c r="U118" s="70"/>
       <c r="W118" s="17"/>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="C119" s="17"/>
       <c r="E119" s="308" t="s">
@@ -17731,7 +17717,7 @@
       </c>
       <c r="W119" s="17"/>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="C120" s="17"/>
       <c r="E120" s="309" t="s">
@@ -17753,15 +17739,15 @@
       </c>
       <c r="Q120" s="103">
         <f>Q106+Q116-Q117</f>
-        <v>85937.760981046449</v>
+        <v>80732.567781753707</v>
       </c>
       <c r="R120" s="103">
         <f>R106+R116-R117</f>
-        <v>28058.694013786186</v>
+        <v>6704.2695057841702</v>
       </c>
       <c r="S120" s="103">
         <f>S106+S116-S117</f>
-        <v>23967.835464528391</v>
+        <v>12386.987748388357</v>
       </c>
       <c r="T120" s="103">
         <f>T106+T116-T117</f>
@@ -17773,7 +17759,7 @@
       </c>
       <c r="W120" s="17"/>
     </row>
-    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="C121" s="17"/>
       <c r="E121" s="307" t="s">
@@ -17795,15 +17781,15 @@
       </c>
       <c r="Q121" s="310">
         <f t="shared" si="40"/>
-        <v>595937.76098104648</v>
+        <v>590732.56778175372</v>
       </c>
       <c r="R121" s="310">
         <f t="shared" si="40"/>
-        <v>538058.69401378615</v>
+        <v>516704.26950578415</v>
       </c>
       <c r="S121" s="310">
         <f t="shared" si="40"/>
-        <v>533967.83546452841</v>
+        <v>522386.98774838838</v>
       </c>
       <c r="T121" s="310">
         <f t="shared" si="40"/>
@@ -17815,7 +17801,7 @@
       </c>
       <c r="W121" s="17"/>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="C122" s="17"/>
       <c r="E122" s="67"/>
@@ -17837,7 +17823,7 @@
       <c r="U122" s="67"/>
       <c r="W122" s="17"/>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="C123" s="17"/>
       <c r="E123" s="108">
@@ -17862,7 +17848,7 @@
       <c r="U123" s="30"/>
       <c r="W123" s="17"/>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="C124" s="17"/>
       <c r="E124" s="98" t="s">
@@ -17903,7 +17889,7 @@
       </c>
       <c r="W124" s="17"/>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="C125" s="17"/>
       <c r="E125" s="98" t="s">
@@ -17944,7 +17930,7 @@
       </c>
       <c r="W125" s="17"/>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="C126" s="17"/>
       <c r="E126" s="16" t="s">
@@ -17986,7 +17972,7 @@
       </c>
       <c r="W126" s="17"/>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="C127" s="17"/>
       <c r="E127" s="91" t="s">
@@ -18008,15 +17994,15 @@
       </c>
       <c r="Q127" s="94">
         <f>IF(Q120&gt;0,Q120*$I$16,Q120*$I$15)</f>
-        <v>1074.2220122630806</v>
+        <v>1009.1570972719214</v>
       </c>
       <c r="R127" s="94">
         <f>IF(R120&gt;0,R120*$I$16,R120*$I$15)</f>
-        <v>350.73367517232737</v>
+        <v>83.803368822302133</v>
       </c>
       <c r="S127" s="94">
         <f>IF(S120&gt;0,S120*$I$16,S120*$I$15)</f>
-        <v>299.59794330660492</v>
+        <v>154.83734685485447</v>
       </c>
       <c r="T127" s="94">
         <f>IF(T120&gt;0,T120*$I$16,T120*$I$15)</f>
@@ -18028,7 +18014,7 @@
       </c>
       <c r="W127" s="17"/>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="C128" s="17"/>
       <c r="E128" s="235" t="s">
@@ -18050,15 +18036,15 @@
       </c>
       <c r="Q128" s="90">
         <f>SUM(Q124:Q127)</f>
-        <v>31741.588512263086</v>
+        <v>31676.523597271924</v>
       </c>
       <c r="R128" s="90">
         <f>SUM(R124:R127)</f>
-        <v>31018.100175172331</v>
+        <v>30751.169868822304</v>
       </c>
       <c r="S128" s="90">
         <f>SUM(S124:S127)</f>
-        <v>30966.96444330661</v>
+        <v>30822.20384685486</v>
       </c>
       <c r="T128" s="90">
         <f>SUM(T124:T127)</f>
@@ -18070,7 +18056,7 @@
       </c>
       <c r="W128" s="17"/>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
       <c r="C129" s="17"/>
       <c r="E129" s="91" t="s">
@@ -18092,15 +18078,15 @@
       </c>
       <c r="Q129" s="95">
         <f>IF(Q128&gt;0,Q128*(0.124+0.15+0.04),0)</f>
-        <v>9966.8587928506095</v>
+        <v>9946.428409543385</v>
       </c>
       <c r="R129" s="95">
         <f>IF(R128&gt;0,R128*(0.124+0.15+0.04),0)</f>
-        <v>9739.6834550041112</v>
+        <v>9655.8673388102034</v>
       </c>
       <c r="S129" s="95">
         <f>IF(S128&gt;0,S128*(0.124+0.15+0.04),0)</f>
-        <v>9723.6268351982762</v>
+        <v>9678.1720079124261</v>
       </c>
       <c r="T129" s="95">
         <f>IF(T128&gt;0,T128*(0.124+0.15+0.04),0)</f>
@@ -18112,7 +18098,7 @@
       </c>
       <c r="W129" s="17"/>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
       <c r="C130" s="17"/>
       <c r="E130" s="96" t="s">
@@ -18134,15 +18120,15 @@
       </c>
       <c r="Q130" s="97">
         <f t="shared" si="44"/>
-        <v>21774.729719412477</v>
+        <v>21730.095187728541</v>
       </c>
       <c r="R130" s="97">
         <f t="shared" si="44"/>
-        <v>21278.416720168221</v>
+        <v>21095.302530012101</v>
       </c>
       <c r="S130" s="97">
         <f t="shared" si="44"/>
-        <v>21243.337608108333</v>
+        <v>21144.031838942436</v>
       </c>
       <c r="T130" s="97">
         <f t="shared" si="44"/>
@@ -18154,7 +18140,7 @@
       </c>
       <c r="W130" s="17"/>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="C131" s="17"/>
       <c r="E131" s="96" t="s">
@@ -18191,7 +18177,7 @@
       </c>
       <c r="W131" s="17"/>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
       <c r="C132" s="17"/>
       <c r="E132" s="305" t="s">
@@ -18215,7 +18201,7 @@
       <c r="U132" s="70"/>
       <c r="W132" s="17"/>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
       <c r="C133" s="17"/>
       <c r="E133" s="308" t="s">
@@ -18257,7 +18243,7 @@
       </c>
       <c r="W133" s="17"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="C134" s="17"/>
       <c r="E134" s="309" t="s">
@@ -18279,15 +18265,15 @@
       </c>
       <c r="Q134" s="103">
         <f>Q120+Q130-Q131</f>
-        <v>107712.49070045893</v>
+        <v>102462.66296948225</v>
       </c>
       <c r="R134" s="103">
         <f>R120+R130-R131</f>
-        <v>49337.110733954411</v>
+        <v>27799.572035796271</v>
       </c>
       <c r="S134" s="103">
         <f>S120+S130-S131</f>
-        <v>45211.173072636724</v>
+        <v>33531.019587330797</v>
       </c>
       <c r="T134" s="103">
         <f>T120+T130-T131</f>
@@ -18299,7 +18285,7 @@
       </c>
       <c r="W134" s="17"/>
     </row>
-    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
       <c r="C135" s="17"/>
       <c r="E135" s="307" t="s">
@@ -18321,15 +18307,15 @@
       </c>
       <c r="Q135" s="310">
         <f t="shared" si="47"/>
-        <v>617712.49070045887</v>
+        <v>612462.66296948225</v>
       </c>
       <c r="R135" s="310">
         <f t="shared" si="47"/>
-        <v>559337.11073395447</v>
+        <v>537799.57203579624</v>
       </c>
       <c r="S135" s="310">
         <f t="shared" si="47"/>
-        <v>555211.17307263671</v>
+        <v>543531.01958733075</v>
       </c>
       <c r="T135" s="310">
         <f t="shared" si="47"/>
@@ -18341,7 +18327,7 @@
       </c>
       <c r="W135" s="17"/>
     </row>
-    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
       <c r="C136" s="17"/>
       <c r="E136" s="67"/>
@@ -18363,7 +18349,7 @@
       <c r="U136" s="67"/>
       <c r="W136" s="17"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="C137" s="17"/>
       <c r="E137" s="108">
@@ -18388,7 +18374,7 @@
       <c r="U137" s="30"/>
       <c r="W137" s="17"/>
     </row>
-    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="C138" s="17"/>
       <c r="E138" s="98" t="s">
@@ -18429,7 +18415,7 @@
       </c>
       <c r="W138" s="17"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13"/>
       <c r="C139" s="17"/>
       <c r="E139" s="98" t="s">
@@ -18470,7 +18456,7 @@
       </c>
       <c r="W139" s="17"/>
     </row>
-    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C140" s="17"/>
       <c r="E140" s="16" t="s">
         <v>54</v>
@@ -18511,7 +18497,7 @@
       </c>
       <c r="W140" s="17"/>
     </row>
-    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C141" s="17"/>
       <c r="E141" s="91" t="s">
         <v>58</v>
@@ -18532,15 +18518,15 @@
       </c>
       <c r="Q141" s="94">
         <f>IF(Q134&gt;0,Q134*$I$16,Q134*$I$15)</f>
-        <v>1346.4061337557368</v>
+        <v>1280.7832871185283</v>
       </c>
       <c r="R141" s="94">
         <f>IF(R134&gt;0,R134*$I$16,R134*$I$15)</f>
-        <v>616.71388417443018</v>
+        <v>347.49465044745341</v>
       </c>
       <c r="S141" s="94">
         <f>IF(S134&gt;0,S134*$I$16,S134*$I$15)</f>
-        <v>565.13966340795912</v>
+        <v>419.13774484163497</v>
       </c>
       <c r="T141" s="94">
         <f>IF(T134&gt;0,T134*$I$16,T134*$I$15)</f>
@@ -18552,7 +18538,7 @@
       </c>
       <c r="W141" s="17"/>
     </row>
-    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C142" s="17"/>
       <c r="E142" s="235" t="s">
         <v>49</v>
@@ -18573,15 +18559,15 @@
       </c>
       <c r="Q142" s="90">
         <f>SUM(Q138:Q141)</f>
-        <v>32013.77263375574</v>
+        <v>31948.149787118531</v>
       </c>
       <c r="R142" s="90">
         <f>SUM(R138:R141)</f>
-        <v>31284.080384174435</v>
+        <v>31014.861150447457</v>
       </c>
       <c r="S142" s="90">
         <f>SUM(S138:S141)</f>
-        <v>31232.506163407961</v>
+        <v>31086.504244841639</v>
       </c>
       <c r="T142" s="90">
         <f>SUM(T138:T141)</f>
@@ -18593,7 +18579,7 @@
       </c>
       <c r="W142" s="17"/>
     </row>
-    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C143" s="17"/>
       <c r="E143" s="91" t="s">
         <v>33</v>
@@ -18614,15 +18600,15 @@
       </c>
       <c r="Q143" s="95">
         <f>IF(Q142&gt;0,Q142*(0.124+0.15+0.04),0)</f>
-        <v>10052.324606999302</v>
+        <v>10031.719033155219</v>
       </c>
       <c r="R143" s="95">
         <f>IF(R142&gt;0,R142*(0.124+0.15+0.04),0)</f>
-        <v>9823.2012406307731</v>
+        <v>9738.6664012405017</v>
       </c>
       <c r="S143" s="95">
         <f>IF(S142&gt;0,S142*(0.124+0.15+0.04),0)</f>
-        <v>9807.0069353101007</v>
+        <v>9761.1623328802743</v>
       </c>
       <c r="T143" s="95">
         <f>IF(T142&gt;0,T142*(0.124+0.15+0.04),0)</f>
@@ -18634,7 +18620,7 @@
       </c>
       <c r="W143" s="17"/>
     </row>
-    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C144" s="17"/>
       <c r="E144" s="96" t="s">
         <v>34</v>
@@ -18655,15 +18641,15 @@
       </c>
       <c r="Q144" s="97">
         <f t="shared" si="51"/>
-        <v>21961.448026756436</v>
+        <v>21916.430753963312</v>
       </c>
       <c r="R144" s="97">
         <f t="shared" si="51"/>
-        <v>21460.879143543661</v>
+        <v>21276.194749206956</v>
       </c>
       <c r="S144" s="97">
         <f t="shared" si="51"/>
-        <v>21425.499228097862</v>
+        <v>21325.341911961365</v>
       </c>
       <c r="T144" s="97">
         <f t="shared" si="51"/>
@@ -18675,7 +18661,7 @@
       </c>
       <c r="W144" s="17"/>
     </row>
-    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C145" s="17"/>
       <c r="E145" s="96" t="s">
         <v>55</v>
@@ -18711,7 +18697,7 @@
       </c>
       <c r="W145" s="17"/>
     </row>
-    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C146" s="17"/>
       <c r="E146" s="305" t="s">
         <v>59</v>
@@ -18734,7 +18720,7 @@
       <c r="U146" s="70"/>
       <c r="W146" s="17"/>
     </row>
-    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C147" s="17"/>
       <c r="E147" s="308" t="s">
         <v>0</v>
@@ -18775,7 +18761,7 @@
       </c>
       <c r="W147" s="17"/>
     </row>
-    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C148" s="17"/>
       <c r="E148" s="309" t="s">
         <v>47</v>
@@ -18796,15 +18782,15 @@
       </c>
       <c r="Q148" s="103">
         <f>Q134+Q144-Q145</f>
-        <v>129673.93872721537</v>
+        <v>124379.09372344556</v>
       </c>
       <c r="R148" s="103">
         <f>R134+R144-R145</f>
-        <v>70797.989877498068</v>
+        <v>49075.76678500323</v>
       </c>
       <c r="S148" s="103">
         <f>S134+S144-S145</f>
-        <v>66636.672300734586</v>
+        <v>54856.361499292165</v>
       </c>
       <c r="T148" s="103">
         <f>T134+T144-T145</f>
@@ -18816,7 +18802,7 @@
       </c>
       <c r="W148" s="17"/>
     </row>
-    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C149" s="17"/>
       <c r="E149" s="307" t="s">
         <v>16</v>
@@ -18837,15 +18823,15 @@
       </c>
       <c r="Q149" s="310">
         <f t="shared" ref="Q149:U149" si="54">SUM(Q147:Q148)</f>
-        <v>639673.9387272154</v>
+        <v>634379.09372344555</v>
       </c>
       <c r="R149" s="310">
         <f t="shared" si="54"/>
-        <v>580797.98987749801</v>
+        <v>559075.76678500324</v>
       </c>
       <c r="S149" s="310">
         <f t="shared" si="54"/>
-        <v>576636.67230073456</v>
+        <v>564856.36149929219</v>
       </c>
       <c r="T149" s="310">
         <f t="shared" si="54"/>
@@ -18857,7 +18843,7 @@
       </c>
       <c r="W149" s="17"/>
     </row>
-    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C150" s="29"/>
       <c r="E150" s="67"/>
       <c r="F150" s="13"/>
@@ -18878,7 +18864,7 @@
       <c r="U150" s="67"/>
       <c r="W150" s="17"/>
     </row>
-    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C151" s="29"/>
       <c r="E151" s="317" t="s">
         <v>106</v>
@@ -18901,7 +18887,7 @@
       <c r="U151" s="70"/>
       <c r="W151" s="17"/>
     </row>
-    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C152" s="29"/>
       <c r="E152" s="314" t="s">
         <v>56</v>
@@ -18922,15 +18908,15 @@
       </c>
       <c r="Q152" s="322">
         <f t="shared" si="55"/>
-        <v>124986.4387272154</v>
+        <v>119691.59372344555</v>
       </c>
       <c r="R152" s="322">
         <f t="shared" si="55"/>
-        <v>66110.48987749801</v>
+        <v>44388.266785003245</v>
       </c>
       <c r="S152" s="322">
         <f t="shared" si="55"/>
-        <v>61949.172300734557</v>
+        <v>50168.861499292194</v>
       </c>
       <c r="T152" s="322">
         <f t="shared" si="55"/>
@@ -18942,7 +18928,7 @@
       </c>
       <c r="W152" s="17"/>
     </row>
-    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C153" s="29"/>
       <c r="E153" s="315" t="s">
         <v>57</v>
@@ -18963,15 +18949,15 @@
       </c>
       <c r="Q153" s="320">
         <f t="shared" si="56"/>
-        <v>208.31073121202567</v>
+        <v>199.48598953907592</v>
       </c>
       <c r="R153" s="320">
         <f t="shared" si="56"/>
-        <v>110.18414979583002</v>
+        <v>73.980444641672079</v>
       </c>
       <c r="S153" s="320">
         <f t="shared" si="56"/>
-        <v>103.24862050122427</v>
+        <v>83.61476916548699</v>
       </c>
       <c r="T153" s="320">
         <f t="shared" si="56"/>
@@ -18983,7 +18969,7 @@
       </c>
       <c r="W153" s="17"/>
     </row>
-    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C154" s="29"/>
       <c r="D154" s="17"/>
       <c r="E154" s="136"/>
@@ -19005,7 +18991,7 @@
       <c r="U154" s="138"/>
       <c r="W154" s="17"/>
     </row>
-    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
         <v>201</v>
@@ -19027,7 +19013,7 @@
       <c r="U155" s="58"/>
       <c r="W155" s="17"/>
     </row>
-    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="65"/>
@@ -19038,7 +19024,7 @@
       <c r="U156" s="58"/>
       <c r="W156" s="17"/>
     </row>
-    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="419" t="s">
@@ -19062,7 +19048,7 @@
       <c r="U157" s="109"/>
       <c r="W157" s="17"/>
     </row>
-    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="421" t="s">
@@ -19104,7 +19090,7 @@
       </c>
       <c r="W158" s="17"/>
     </row>
-    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="421" t="s">
@@ -19146,7 +19132,7 @@
       </c>
       <c r="W159" s="17"/>
     </row>
-    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="421" t="s">
@@ -19188,7 +19174,7 @@
       </c>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="307" t="s">
@@ -19230,7 +19216,7 @@
       </c>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
       <c r="E162" s="67"/>
@@ -19252,7 +19238,7 @@
       <c r="U162" s="67"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="108">
@@ -19277,7 +19263,7 @@
       <c r="U163" s="67"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="16" t="s">
@@ -19299,7 +19285,7 @@
       </c>
       <c r="Q164" s="89">
         <f>IF($I$22=E163,($I$8*$U$9)*$V$11*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>330773.58422112133</v>
+        <v>323314.31400171207</v>
       </c>
       <c r="R164" s="90">
         <f>($I$8*$U$9)*$U$11*$U$14</f>
@@ -19319,7 +19305,7 @@
       </c>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="16" t="s">
@@ -19360,7 +19346,7 @@
       </c>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
       <c r="E166" s="91" t="s">
@@ -19386,11 +19372,11 @@
       </c>
       <c r="R166" s="94">
         <f>-IF(I19=1, (I8*I12)+(AB16*I29*I8),(I8*I12)+(AB16*I29*I8)+U33)</f>
-        <v>-399000</v>
+        <v>-418800</v>
       </c>
       <c r="S166" s="94">
         <f>-IF(I19=1, ((I8*I12)+U51), ((I8*I12)+U51)+(U33))</f>
-        <v>-402882.9375</v>
+        <v>-413592.0789041096</v>
       </c>
       <c r="T166" s="94">
         <f>-IF(I19 = 1, (I8*(I12-I54)), (I8*(I12-I54))+(U33))</f>
@@ -19402,7 +19388,7 @@
       </c>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
       <c r="E167" s="235" t="s">
@@ -19424,15 +19410,15 @@
       </c>
       <c r="Q167" s="90">
         <f t="shared" si="61"/>
-        <v>30773.584221121331</v>
+        <v>23314.314001712075</v>
       </c>
       <c r="R167" s="90">
         <f t="shared" si="61"/>
-        <v>-45300</v>
+        <v>-65100</v>
       </c>
       <c r="S167" s="90">
         <f t="shared" si="61"/>
-        <v>-49182.9375</v>
+        <v>-59892.0789041096</v>
       </c>
       <c r="T167" s="90">
         <f t="shared" si="61"/>
@@ -19444,7 +19430,7 @@
       </c>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="91" t="s">
@@ -19466,7 +19452,7 @@
       </c>
       <c r="Q168" s="95">
         <f t="shared" si="62"/>
-        <v>9662.9054454320976</v>
+        <v>7320.6945965375917</v>
       </c>
       <c r="R168" s="95">
         <f t="shared" si="62"/>
@@ -19486,7 +19472,7 @@
       </c>
       <c r="W168" s="29"/>
     </row>
-    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E169" s="96" t="s">
         <v>34</v>
       </c>
@@ -19506,15 +19492,15 @@
       </c>
       <c r="Q169" s="97">
         <f t="shared" si="63"/>
-        <v>21110.678775689234</v>
+        <v>15993.619405174482</v>
       </c>
       <c r="R169" s="97">
         <f t="shared" si="63"/>
-        <v>-45300</v>
+        <v>-65100</v>
       </c>
       <c r="S169" s="97">
         <f t="shared" si="63"/>
-        <v>-49182.9375</v>
+        <v>-59892.0789041096</v>
       </c>
       <c r="T169" s="97">
         <f t="shared" si="63"/>
@@ -19526,7 +19512,7 @@
       </c>
       <c r="W169" s="29"/>
     </row>
-    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E170" s="98" t="s">
         <v>50</v>
       </c>
@@ -19562,7 +19548,7 @@
       </c>
       <c r="W170" s="29"/>
     </row>
-    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E171" s="101" t="s">
         <v>37</v>
       </c>
@@ -19597,7 +19583,7 @@
       </c>
       <c r="W171" s="29"/>
     </row>
-    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E172" s="419" t="s">
         <v>59</v>
       </c>
@@ -19619,7 +19605,7 @@
       <c r="U172" s="70"/>
       <c r="W172" s="29"/>
     </row>
-    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E173" s="426" t="s">
         <v>0</v>
       </c>
@@ -19659,7 +19645,7 @@
       </c>
       <c r="W173" s="29"/>
     </row>
-    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E174" s="427" t="s">
         <v>47</v>
       </c>
@@ -19679,15 +19665,15 @@
       </c>
       <c r="Q174" s="424">
         <f t="shared" ref="Q174:U174" si="65">Q169+Q170-Q171</f>
-        <v>21110.678775689234</v>
+        <v>15993.619405174482</v>
       </c>
       <c r="R174" s="424">
         <f t="shared" si="65"/>
-        <v>-45300</v>
+        <v>-65100</v>
       </c>
       <c r="S174" s="424">
         <f t="shared" si="65"/>
-        <v>-49182.9375</v>
+        <v>-59892.0789041096</v>
       </c>
       <c r="T174" s="424">
         <f t="shared" si="65"/>
@@ -19699,7 +19685,7 @@
       </c>
       <c r="W174" s="29"/>
     </row>
-    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E175" s="307" t="s">
         <v>16</v>
       </c>
@@ -19719,15 +19705,15 @@
       </c>
       <c r="Q175" s="265">
         <f>SUM(Q173:Q174)</f>
-        <v>531110.67877568922</v>
+        <v>525993.61940517451</v>
       </c>
       <c r="R175" s="265">
         <f>SUM(R173:R174)</f>
-        <v>464700</v>
+        <v>444900</v>
       </c>
       <c r="S175" s="265">
         <f t="shared" ref="S175" si="66">SUM(S173:S174)</f>
-        <v>460817.0625</v>
+        <v>450107.9210958904</v>
       </c>
       <c r="T175" s="265">
         <f>SUM(T173:T174)</f>
@@ -19739,7 +19725,7 @@
       </c>
       <c r="W175" s="29"/>
     </row>
-    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E176" s="67"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -19759,7 +19745,7 @@
       <c r="U176" s="67"/>
       <c r="W176" s="29"/>
     </row>
-    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E177" s="108">
         <f>E163+1</f>
         <v>2</v>
@@ -19782,7 +19768,7 @@
       <c r="U177" s="67"/>
       <c r="W177" s="29"/>
     </row>
-    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E178" s="98" t="s">
         <v>48</v>
       </c>
@@ -19821,7 +19807,7 @@
       </c>
       <c r="W178" s="29"/>
     </row>
-    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E179" s="98" t="s">
         <v>207</v>
       </c>
@@ -19859,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E180" s="16" t="s">
         <v>54</v>
       </c>
@@ -19898,7 +19884,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E181" s="91" t="s">
         <v>58</v>
       </c>
@@ -19918,15 +19904,15 @@
       </c>
       <c r="Q181" s="94">
         <f t="shared" si="68"/>
-        <v>263.88348469611543</v>
+        <v>199.92024256468105</v>
       </c>
       <c r="R181" s="94">
         <f t="shared" si="68"/>
-        <v>-2944.5</v>
+        <v>-4231.5</v>
       </c>
       <c r="S181" s="94">
         <f t="shared" si="68"/>
-        <v>-3196.8909375000003</v>
+        <v>-3892.985128767124</v>
       </c>
       <c r="T181" s="94">
         <f t="shared" si="68"/>
@@ -19937,7 +19923,7 @@
         <v>5990.4881250000008</v>
       </c>
     </row>
-    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E182" s="235" t="s">
         <v>49</v>
       </c>
@@ -19957,15 +19943,15 @@
       </c>
       <c r="Q182" s="90">
         <f t="shared" si="69"/>
-        <v>37763.883484696118</v>
+        <v>37699.92024256468</v>
       </c>
       <c r="R182" s="90">
         <f t="shared" si="69"/>
-        <v>34555.5</v>
+        <v>33268.5</v>
       </c>
       <c r="S182" s="90">
         <f t="shared" si="69"/>
-        <v>34303.1090625</v>
+        <v>33607.014871232874</v>
       </c>
       <c r="T182" s="90">
         <f t="shared" si="69"/>
@@ -19976,7 +19962,7 @@
         <v>990.48812500000076</v>
       </c>
     </row>
-    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E183" s="91" t="s">
         <v>33</v>
       </c>
@@ -19996,15 +19982,15 @@
       </c>
       <c r="Q183" s="95">
         <f t="shared" si="70"/>
-        <v>11857.859414194581</v>
+        <v>11837.774956165309</v>
       </c>
       <c r="R183" s="95">
         <f t="shared" si="70"/>
-        <v>10850.427</v>
+        <v>10446.308999999999</v>
       </c>
       <c r="S183" s="95">
         <f t="shared" si="70"/>
-        <v>10771.176245625</v>
+        <v>10552.602669567123</v>
       </c>
       <c r="T183" s="95">
         <f t="shared" si="70"/>
@@ -20015,7 +20001,7 @@
         <v>311.01327125000023</v>
       </c>
     </row>
-    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E184" s="96" t="s">
         <v>34</v>
       </c>
@@ -20035,15 +20021,15 @@
       </c>
       <c r="Q184" s="97">
         <f>Q182-Q183</f>
-        <v>25906.024070501539</v>
+        <v>25862.145286399369</v>
       </c>
       <c r="R184" s="97">
         <f t="shared" ref="R184:S184" si="71">R182-R183</f>
-        <v>23705.073</v>
+        <v>22822.190999999999</v>
       </c>
       <c r="S184" s="102">
         <f t="shared" si="71"/>
-        <v>23531.932816875</v>
+        <v>23054.412201665749</v>
       </c>
       <c r="T184" s="97">
         <f>T182-T183</f>
@@ -20054,7 +20040,7 @@
         <v>679.47485375000053</v>
       </c>
     </row>
-    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E185" s="96" t="s">
         <v>55</v>
       </c>
@@ -20088,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E186" s="96"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
@@ -20107,7 +20093,7 @@
       <c r="T186" s="90"/>
       <c r="U186" s="90"/>
     </row>
-    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E187" s="419" t="s">
         <v>59</v>
       </c>
@@ -20128,7 +20114,7 @@
       <c r="T187" s="70"/>
       <c r="U187" s="70"/>
     </row>
-    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E188" s="426" t="s">
         <v>0</v>
       </c>
@@ -20167,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E189" s="427" t="s">
         <v>47</v>
       </c>
@@ -20187,15 +20173,15 @@
       </c>
       <c r="Q189" s="430">
         <f>Q174+Q184</f>
-        <v>47016.702846190776</v>
+        <v>41855.764691573851</v>
       </c>
       <c r="R189" s="430">
         <f>R174+R184</f>
-        <v>-21594.927</v>
+        <v>-42277.809000000001</v>
       </c>
       <c r="S189" s="430">
         <f>S174+S184</f>
-        <v>-25651.004683125</v>
+        <v>-36837.66670244385</v>
       </c>
       <c r="T189" s="430">
         <f>T174+T184-T185</f>
@@ -20206,7 +20192,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E190" s="307" t="s">
         <v>16</v>
       </c>
@@ -20226,15 +20212,15 @@
       </c>
       <c r="Q190" s="310">
         <f>SUM(Q188:Q189)</f>
-        <v>557016.70284619078</v>
+        <v>551855.7646915738</v>
       </c>
       <c r="R190" s="310">
         <f t="shared" ref="R190:S190" si="73">SUM(R188:R189)</f>
-        <v>488405.07299999997</v>
+        <v>467722.19099999999</v>
       </c>
       <c r="S190" s="310">
         <f t="shared" si="73"/>
-        <v>484348.99531687499</v>
+        <v>473162.33329755615</v>
       </c>
       <c r="T190" s="310">
         <f>SUM(T188:T189)</f>
@@ -20245,7 +20231,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E191" s="104"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
@@ -20264,7 +20250,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E192" s="108">
         <f>E177+1</f>
         <v>3</v>
@@ -20286,7 +20272,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E193" s="98" t="s">
         <v>48</v>
       </c>
@@ -20324,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E194" s="98" t="s">
         <v>207</v>
       </c>
@@ -20362,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E195" s="16" t="s">
         <v>54</v>
       </c>
@@ -20401,7 +20387,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E196" s="91" t="s">
         <v>58</v>
       </c>
@@ -20421,15 +20407,15 @@
       </c>
       <c r="Q196" s="94">
         <f t="shared" si="74"/>
-        <v>587.70878557738467</v>
+        <v>523.19705864467312</v>
       </c>
       <c r="R196" s="94">
         <f t="shared" si="74"/>
-        <v>-1403.670255</v>
+        <v>-2748.057585</v>
       </c>
       <c r="S196" s="94">
         <f t="shared" si="74"/>
-        <v>-1667.3153044031251</v>
+        <v>-2394.4483356588503</v>
       </c>
       <c r="T196" s="94">
         <f t="shared" si="74"/>
@@ -20440,7 +20426,7 @@
         <v>5998.9815606718767</v>
       </c>
     </row>
-    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E197" s="235" t="s">
         <v>49</v>
       </c>
@@ -20460,15 +20446,15 @@
       </c>
       <c r="Q197" s="90">
         <f>SUM(Q193:Q196)</f>
-        <v>38087.708785577386</v>
+        <v>38023.19705864467</v>
       </c>
       <c r="R197" s="90">
         <f>SUM(R193:R196)</f>
-        <v>36096.329745000003</v>
+        <v>34751.942414999998</v>
       </c>
       <c r="S197" s="90">
         <f>SUM(S193:S196)</f>
-        <v>35832.684695596872</v>
+        <v>35105.551664341147</v>
       </c>
       <c r="T197" s="90">
         <f>SUM(T193:T196)</f>
@@ -20479,7 +20465,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E198" s="91" t="s">
         <v>33</v>
       </c>
@@ -20499,15 +20485,15 @@
       </c>
       <c r="Q198" s="95">
         <f>IF(Q197&gt;0,Q197*(0.124+0.15+0.04),0)</f>
-        <v>11959.540558671299</v>
+        <v>11939.283876414427</v>
       </c>
       <c r="R198" s="95">
         <f>IF(R197&gt;0,R197*(0.124+0.15+0.04),0)</f>
-        <v>11334.24753993</v>
+        <v>10912.10991831</v>
       </c>
       <c r="S198" s="95">
         <f>IF(S197&gt;0,S197*(0.124+0.15+0.04),0)</f>
-        <v>11251.462994417418</v>
+        <v>11023.143222603119</v>
       </c>
       <c r="T198" s="95">
         <f>IF(T197&gt;0,T197*(0.124+0.15+0.04),0)</f>
@@ -20518,7 +20504,7 @@
         <v>313.68021005096927</v>
       </c>
     </row>
-    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E199" s="96" t="s">
         <v>34</v>
       </c>
@@ -20538,15 +20524,15 @@
       </c>
       <c r="Q199" s="97">
         <f t="shared" si="77"/>
-        <v>26128.168226906088</v>
+        <v>26083.913182230244</v>
       </c>
       <c r="R199" s="97">
         <f t="shared" si="77"/>
-        <v>24762.082205070001</v>
+        <v>23839.832496689996</v>
       </c>
       <c r="S199" s="97">
         <f t="shared" si="77"/>
-        <v>24581.221701179456</v>
+        <v>24082.408441738029</v>
       </c>
       <c r="T199" s="97">
         <f t="shared" si="77"/>
@@ -20557,7 +20543,7 @@
         <v>685.30135062090744</v>
       </c>
     </row>
-    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E200" s="96" t="s">
         <v>55</v>
       </c>
@@ -20591,7 +20577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E201" s="419" t="s">
         <v>59</v>
       </c>
@@ -20612,7 +20598,7 @@
       <c r="T201" s="70"/>
       <c r="U201" s="70"/>
     </row>
-    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E202" s="426" t="s">
         <v>0</v>
       </c>
@@ -20651,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E203" s="427" t="s">
         <v>47</v>
       </c>
@@ -20671,15 +20657,15 @@
       </c>
       <c r="Q203" s="430">
         <f>Q189+Q199-Q200</f>
-        <v>73144.87107309686</v>
+        <v>67939.677873804088</v>
       </c>
       <c r="R203" s="430">
         <f>R189+R199-R200</f>
-        <v>3167.1552050700011</v>
+        <v>-18437.976503310005</v>
       </c>
       <c r="S203" s="430">
         <f>S189+S199-S200</f>
-        <v>-1069.7829819455437</v>
+        <v>-12755.258260705821</v>
       </c>
       <c r="T203" s="430">
         <f>T189+T199-T200</f>
@@ -20690,7 +20676,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E204" s="307" t="s">
         <v>16</v>
       </c>
@@ -20710,15 +20696,15 @@
       </c>
       <c r="Q204" s="310">
         <f t="shared" si="80"/>
-        <v>583144.87107309687</v>
+        <v>577939.67787380412</v>
       </c>
       <c r="R204" s="310">
         <f t="shared" si="80"/>
-        <v>513167.15520506998</v>
+        <v>491562.02349668997</v>
       </c>
       <c r="S204" s="310">
         <f t="shared" si="80"/>
-        <v>508930.21701805445</v>
+        <v>497244.7417392942</v>
       </c>
       <c r="T204" s="310">
         <f t="shared" si="80"/>
@@ -20729,7 +20715,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E205" s="67"/>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
@@ -20748,7 +20734,7 @@
       <c r="T205" s="67"/>
       <c r="U205" s="67"/>
     </row>
-    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E206" s="108">
         <f>E192+1</f>
         <v>4</v>
@@ -20770,7 +20756,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E207" s="98" t="s">
         <v>48</v>
       </c>
@@ -20808,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E208" s="98" t="s">
         <v>207</v>
       </c>
@@ -20846,7 +20832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E209" s="16" t="s">
         <v>54</v>
       </c>
@@ -20885,7 +20871,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E210" s="91" t="s">
         <v>58</v>
       </c>
@@ -20905,15 +20891,15 @@
       </c>
       <c r="Q210" s="94">
         <f>IF(Q203&gt;0,Q203*$I$16,Q203*$I$15)</f>
-        <v>914.31088841371081</v>
+        <v>849.24597342255117</v>
       </c>
       <c r="R210" s="94">
         <f>IF(R203&gt;0,R203*$I$16,R203*$I$15)</f>
-        <v>39.589440063375015</v>
+        <v>-1198.4684727151503</v>
       </c>
       <c r="S210" s="94">
         <f>IF(S203&gt;0,S203*$I$16,S203*$I$15)</f>
-        <v>-69.535893826460338</v>
+        <v>-829.09178694587843</v>
       </c>
       <c r="T210" s="94">
         <f>IF(T203&gt;0,T203*$I$16,T203*$I$15)</f>
@@ -20924,7 +20910,7 @@
         <v>6007.5478275546375</v>
       </c>
     </row>
-    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E211" s="235" t="s">
         <v>49</v>
       </c>
@@ -20944,15 +20930,15 @@
       </c>
       <c r="Q211" s="90">
         <f>SUM(Q207:Q210)</f>
-        <v>38414.310888413711</v>
+        <v>38349.245973422549</v>
       </c>
       <c r="R211" s="90">
         <f>SUM(R207:R210)</f>
-        <v>37539.589440063377</v>
+        <v>36301.531527284853</v>
       </c>
       <c r="S211" s="90">
         <f>SUM(S207:S210)</f>
-        <v>37430.464106173538</v>
+        <v>36670.908213054121</v>
       </c>
       <c r="T211" s="90">
         <f>SUM(T207:T210)</f>
@@ -20963,7 +20949,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E212" s="91" t="s">
         <v>33</v>
       </c>
@@ -20983,15 +20969,15 @@
       </c>
       <c r="Q212" s="95">
         <f>IF(Q211&gt;0,Q211*(0.124+0.15+0.04),0)</f>
-        <v>12062.093618961906</v>
+        <v>12041.66323565468</v>
       </c>
       <c r="R212" s="95">
         <f>IF(R211&gt;0,R211*(0.124+0.15+0.04),0)</f>
-        <v>11787.4310841799</v>
+        <v>11398.680899567444</v>
       </c>
       <c r="S212" s="95">
         <f>IF(S211&gt;0,S211*(0.124+0.15+0.04),0)</f>
-        <v>11753.165729338491</v>
+        <v>11514.665178898995</v>
       </c>
       <c r="T212" s="95">
         <f>IF(T211&gt;0,T211*(0.124+0.15+0.04),0)</f>
@@ -21002,7 +20988,7 @@
         <v>316.3700178521562</v>
       </c>
     </row>
-    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E213" s="96" t="s">
         <v>34</v>
       </c>
@@ -21022,15 +21008,15 @@
       </c>
       <c r="Q213" s="97">
         <f t="shared" si="84"/>
-        <v>26352.217269451805</v>
+        <v>26307.582737767869</v>
       </c>
       <c r="R213" s="97">
         <f t="shared" si="84"/>
-        <v>25752.158355883475</v>
+        <v>24902.850627717409</v>
       </c>
       <c r="S213" s="97">
         <f t="shared" si="84"/>
-        <v>25677.298376835046</v>
+        <v>25156.243034155126</v>
       </c>
       <c r="T213" s="97">
         <f t="shared" si="84"/>
@@ -21041,7 +21027,7 @@
         <v>691.17780970248123</v>
       </c>
     </row>
-    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E214" s="96" t="s">
         <v>55</v>
       </c>
@@ -21075,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E215" s="419" t="s">
         <v>59</v>
       </c>
@@ -21096,7 +21082,7 @@
       <c r="T215" s="70"/>
       <c r="U215" s="70"/>
     </row>
-    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E216" s="426" t="s">
         <v>0</v>
       </c>
@@ -21135,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E217" s="427" t="s">
         <v>47</v>
       </c>
@@ -21155,15 +21141,15 @@
       </c>
       <c r="Q217" s="430">
         <f>Q203+Q213-Q214</f>
-        <v>99497.088342548668</v>
+        <v>94247.260611571954</v>
       </c>
       <c r="R217" s="430">
         <f>R203+R213-R214</f>
-        <v>28919.313560953477</v>
+        <v>6464.8741244074045</v>
       </c>
       <c r="S217" s="430">
         <f>S203+S213-S214</f>
-        <v>24607.515394889502</v>
+        <v>12400.984773449305</v>
       </c>
       <c r="T217" s="430">
         <f>T203+T213-T214</f>
@@ -21174,7 +21160,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E218" s="307" t="s">
         <v>16</v>
       </c>
@@ -21194,15 +21180,15 @@
       </c>
       <c r="Q218" s="310">
         <f t="shared" si="87"/>
-        <v>609497.0883425487</v>
+        <v>604247.26061157195</v>
       </c>
       <c r="R218" s="310">
         <f t="shared" si="87"/>
-        <v>538919.31356095348</v>
+        <v>516464.87412440742</v>
       </c>
       <c r="S218" s="310">
         <f t="shared" si="87"/>
-        <v>534607.51539488952</v>
+        <v>522400.98477344931</v>
       </c>
       <c r="T218" s="310">
         <f t="shared" si="87"/>
@@ -21213,7 +21199,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E219" s="67"/>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
@@ -21232,7 +21218,7 @@
       <c r="T219" s="67"/>
       <c r="U219" s="67"/>
     </row>
-    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E220" s="108">
         <f>E206+1</f>
         <v>5</v>
@@ -21254,7 +21240,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E221" s="98" t="s">
         <v>48</v>
       </c>
@@ -21292,7 +21278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E222" s="98" t="s">
         <v>207</v>
       </c>
@@ -21330,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E223" s="16" t="s">
         <v>54</v>
       </c>
@@ -21369,7 +21355,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E224" s="91" t="s">
         <v>58</v>
       </c>
@@ -21389,15 +21375,15 @@
       </c>
       <c r="Q224" s="94">
         <f>IF(Q217&gt;0,Q217*$I$16,Q217*$I$15)</f>
-        <v>1243.7136042818584</v>
+        <v>1178.0907576446496</v>
       </c>
       <c r="R224" s="94">
         <f>IF(R217&gt;0,R217*$I$16,R217*$I$15)</f>
-        <v>361.49141951191848</v>
+        <v>80.810926555092564</v>
       </c>
       <c r="S224" s="94">
         <f>IF(S217&gt;0,S217*$I$16,S217*$I$15)</f>
-        <v>307.59394243611882</v>
+        <v>155.01230966811633</v>
       </c>
       <c r="T224" s="94">
         <f>IF(T217&gt;0,T217*$I$16,T217*$I$15)</f>
@@ -21408,7 +21394,7 @@
         <v>6016.1875501759187</v>
       </c>
     </row>
-    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E225" s="235" t="s">
         <v>49</v>
       </c>
@@ -21428,15 +21414,15 @@
       </c>
       <c r="Q225" s="90">
         <f>SUM(Q221:Q224)</f>
-        <v>38743.71360428186</v>
+        <v>38678.090757644648</v>
       </c>
       <c r="R225" s="90">
         <f>SUM(R221:R224)</f>
-        <v>37861.49141951192</v>
+        <v>37580.810926555096</v>
       </c>
       <c r="S225" s="90">
         <f>SUM(S221:S224)</f>
-        <v>37807.59394243612</v>
+        <v>37655.012309668113</v>
       </c>
       <c r="T225" s="90">
         <f>SUM(T221:T224)</f>
@@ -21447,7 +21433,7 @@
         <v>1016.1875501759187</v>
       </c>
     </row>
-    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E226" s="91" t="s">
         <v>33</v>
       </c>
@@ -21467,15 +21453,15 @@
       </c>
       <c r="Q226" s="95">
         <f>IF(Q225&gt;0,Q225*(0.124+0.15+0.04),0)</f>
-        <v>12165.526071744503</v>
+        <v>12144.920497900419</v>
       </c>
       <c r="R226" s="95">
         <f>IF(R225&gt;0,R225*(0.124+0.15+0.04),0)</f>
-        <v>11888.508305726742</v>
+        <v>11800.3746309383</v>
       </c>
       <c r="S226" s="95">
         <f>IF(S225&gt;0,S225*(0.124+0.15+0.04),0)</f>
-        <v>11871.584497924941</v>
+        <v>11823.673865235787</v>
       </c>
       <c r="T226" s="95">
         <f>IF(T225&gt;0,T225*(0.124+0.15+0.04),0)</f>
@@ -21486,7 +21472,7 @@
         <v>319.08289075523845</v>
       </c>
     </row>
-    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E227" s="96" t="s">
         <v>34</v>
       </c>
@@ -21506,15 +21492,15 @@
       </c>
       <c r="Q227" s="97">
         <f t="shared" si="91"/>
-        <v>26578.187532537355</v>
+        <v>26533.170259744227</v>
       </c>
       <c r="R227" s="97">
         <f t="shared" si="91"/>
-        <v>25972.98311378518</v>
+        <v>25780.436295616797</v>
       </c>
       <c r="S227" s="97">
         <f t="shared" si="91"/>
-        <v>25936.009444511179</v>
+        <v>25831.338444432324</v>
       </c>
       <c r="T227" s="97">
         <f t="shared" si="91"/>
@@ -21525,7 +21511,7 @@
         <v>697.10465942068026</v>
       </c>
     </row>
-    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E228" s="96" t="s">
         <v>55</v>
       </c>
@@ -21559,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E229" s="419" t="s">
         <v>59</v>
       </c>
@@ -21580,7 +21566,7 @@
       <c r="T229" s="70"/>
       <c r="U229" s="70"/>
     </row>
-    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E230" s="426" t="s">
         <v>0</v>
       </c>
@@ -21619,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E231" s="427" t="s">
         <v>47</v>
       </c>
@@ -21639,15 +21625,15 @@
       </c>
       <c r="Q231" s="430">
         <f>Q217+Q227-Q228</f>
-        <v>126075.27587508602</v>
+        <v>120780.43087131617</v>
       </c>
       <c r="R231" s="430">
         <f>R217+R227-R228</f>
-        <v>54892.296674738653</v>
+        <v>32245.310420024201</v>
       </c>
       <c r="S231" s="430">
         <f>S217+S227-S228</f>
-        <v>50543.524839400678</v>
+        <v>38232.323217881625</v>
       </c>
       <c r="T231" s="430">
         <f>T217+T227-T228</f>
@@ -21658,7 +21644,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E232" s="307" t="s">
         <v>16</v>
       </c>
@@ -21678,15 +21664,15 @@
       </c>
       <c r="Q232" s="310">
         <f t="shared" ref="Q232:U232" si="94">SUM(Q230:Q231)</f>
-        <v>636075.27587508596</v>
+        <v>630780.43087131623</v>
       </c>
       <c r="R232" s="310">
         <f t="shared" si="94"/>
-        <v>564892.29667473864</v>
+        <v>542245.31042002421</v>
       </c>
       <c r="S232" s="310">
         <f t="shared" si="94"/>
-        <v>560543.52483940066</v>
+        <v>548232.32321788161</v>
       </c>
       <c r="T232" s="310">
         <f t="shared" si="94"/>
@@ -21697,7 +21683,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E233" s="67"/>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
@@ -21716,7 +21702,7 @@
       <c r="T233" s="67"/>
       <c r="U233" s="67"/>
     </row>
-    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E234" s="317" t="s">
         <v>106</v>
       </c>
@@ -21737,7 +21723,7 @@
       <c r="T234" s="70"/>
       <c r="U234" s="70"/>
     </row>
-    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E235" s="314" t="s">
         <v>56</v>
       </c>
@@ -21757,15 +21743,15 @@
       </c>
       <c r="Q235" s="322">
         <f t="shared" si="95"/>
-        <v>121387.77587508596</v>
+        <v>116092.93087131623</v>
       </c>
       <c r="R235" s="322">
         <f t="shared" si="95"/>
-        <v>50204.796674738638</v>
+        <v>27557.810420024209</v>
       </c>
       <c r="S235" s="322">
         <f t="shared" si="95"/>
-        <v>45856.024839400663</v>
+        <v>33544.823217881611</v>
       </c>
       <c r="T235" s="322">
         <f t="shared" si="95"/>
@@ -21776,7 +21762,7 @@
         <v>-32695.391326505865</v>
       </c>
     </row>
-    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E236" s="315" t="s">
         <v>57</v>
       </c>
@@ -21796,15 +21782,15 @@
       </c>
       <c r="Q236" s="320">
         <f t="shared" si="96"/>
-        <v>202.31295979180993</v>
+        <v>193.48821811886037</v>
       </c>
       <c r="R236" s="320">
         <f t="shared" si="96"/>
-        <v>83.674661124564395</v>
+        <v>45.929684033373682</v>
       </c>
       <c r="S236" s="320">
         <f t="shared" si="96"/>
-        <v>76.426708065667768</v>
+        <v>55.908038696469355</v>
       </c>
       <c r="T236" s="320">
         <f t="shared" si="96"/>
@@ -21867,17 +21853,12 @@
   </rowBreaks>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z60"/>
@@ -21886,35 +21867,35 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="182" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="172" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="184" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="182" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="183" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="172" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="183" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="172" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="172"/>
-    <col min="14" max="14" width="11.42578125" style="183" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="172"/>
-    <col min="16" max="16" width="10.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="172" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="172" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="172"/>
+    <col min="3" max="3" width="11.5" style="172" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="184" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="182" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="183" customWidth="1"/>
+    <col min="7" max="9" width="11.5" style="172" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="183" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="172" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="172"/>
+    <col min="14" max="14" width="11.5" style="183" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="172"/>
+    <col min="16" max="16" width="10.1640625" style="172" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="172" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="172" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="172" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J2" s="172"/>
       <c r="N2" s="172"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J3" s="172"/>
       <c r="N3" s="172"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="349"/>
       <c r="B4" s="233"/>
       <c r="C4" s="197"/>
@@ -21944,7 +21925,7 @@
       <c r="L4" s="206"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="351" t="s">
         <v>260</v>
       </c>
@@ -21981,7 +21962,7 @@
       <c r="L5" s="200"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="352" t="s">
         <v>216</v>
       </c>
@@ -22023,7 +22004,7 @@
       <c r="N6" s="172"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="353" t="s">
         <v>217</v>
       </c>
@@ -22065,7 +22046,7 @@
       <c r="N7" s="172"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="353" t="s">
         <v>218</v>
       </c>
@@ -22109,7 +22090,7 @@
       <c r="N8" s="172"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="353" t="s">
         <v>219</v>
       </c>
@@ -22151,7 +22132,7 @@
       <c r="N9" s="172"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="353" t="s">
         <v>220</v>
       </c>
@@ -22195,7 +22176,7 @@
       <c r="N10" s="172"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="353" t="s">
         <v>221</v>
       </c>
@@ -22237,7 +22218,7 @@
       <c r="N11" s="172"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="353" t="s">
         <v>222</v>
       </c>
@@ -22279,7 +22260,7 @@
       <c r="N12" s="172"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="353" t="s">
         <v>223</v>
       </c>
@@ -22321,7 +22302,7 @@
       <c r="N13" s="172"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="353" t="s">
         <v>224</v>
       </c>
@@ -22363,7 +22344,7 @@
       <c r="N14" s="172"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="353" t="s">
         <v>225</v>
       </c>
@@ -22405,7 +22386,7 @@
       <c r="N15" s="172"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="354" t="s">
         <v>226</v>
       </c>
@@ -22447,7 +22428,7 @@
       <c r="N16" s="172"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="172"/>
       <c r="B17" s="172"/>
       <c r="D17" s="172"/>
@@ -22456,7 +22437,7 @@
       <c r="J17" s="172"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="172"/>
       <c r="B18" s="172"/>
       <c r="D18" s="172"/>
@@ -22465,7 +22446,7 @@
       <c r="J18" s="172"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="172"/>
       <c r="B19" s="172"/>
       <c r="D19" s="172"/>
@@ -22474,7 +22455,7 @@
       <c r="J19" s="172"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="D20" s="172"/>
@@ -22483,7 +22464,7 @@
       <c r="J20" s="172"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="D21" s="172"/>
@@ -22491,7 +22472,7 @@
       <c r="J21" s="172"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="172"/>
       <c r="B22" s="172"/>
       <c r="D22" s="172"/>
@@ -22500,7 +22481,7 @@
       <c r="J22" s="172"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="D23" s="172"/>
@@ -22510,7 +22491,7 @@
       <c r="J23" s="172"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="D24" s="172"/>
@@ -22519,7 +22500,7 @@
       <c r="J24" s="172"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="D25" s="172"/>
@@ -22528,7 +22509,7 @@
       <c r="J25" s="172"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="172"/>
       <c r="B26" s="172"/>
       <c r="D26" s="172"/>
@@ -22537,7 +22518,7 @@
       <c r="J26" s="172"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="172"/>
       <c r="B27" s="172"/>
       <c r="D27" s="172"/>
@@ -22547,7 +22528,7 @@
       <c r="J27" s="172"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="172"/>
       <c r="B28" s="172"/>
       <c r="D28" s="172"/>
@@ -22557,7 +22538,7 @@
       <c r="J28" s="172"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="172"/>
       <c r="B29" s="172"/>
       <c r="D29" s="172"/>
@@ -22566,7 +22547,7 @@
       <c r="J29" s="172"/>
       <c r="N29" s="172"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="172"/>
       <c r="B30" s="172"/>
       <c r="D30" s="172"/>
@@ -22575,90 +22556,85 @@
       <c r="J30" s="172"/>
       <c r="N30" s="172"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
       <c r="J31" s="172"/>
       <c r="N31" s="172"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D32" s="172"/>
       <c r="E32" s="172"/>
       <c r="F32" s="172"/>
       <c r="J32" s="172"/>
       <c r="N32" s="172"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D33" s="172"/>
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
       <c r="J33" s="172"/>
       <c r="N33" s="172"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D34" s="172"/>
       <c r="E34" s="172"/>
       <c r="F34" s="172"/>
       <c r="J34" s="172"/>
       <c r="N34" s="172"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D35" s="172"/>
       <c r="E35" s="172"/>
       <c r="F35" s="172"/>
       <c r="J35" s="172"/>
       <c r="N35" s="172"/>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z54" s="183"/>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z55" s="183"/>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z56" s="183"/>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z57" s="183"/>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z58" s="183"/>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z59" s="183"/>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Y60" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="8.85546875" style="232"/>
-    <col min="14" max="14" width="8.85546875" style="232" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="232"/>
+    <col min="13" max="13" width="8.83203125" style="232"/>
+    <col min="14" max="14" width="8.83203125" style="232" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -22696,7 +22672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1948</v>
       </c>
@@ -22737,7 +22713,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1949</v>
       </c>
@@ -22775,7 +22751,7 @@
         <v>26.744649883485</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -22813,7 +22789,7 @@
         <v>82.3976439431285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1951</v>
       </c>
@@ -22851,7 +22827,7 @@
         <v>119.86075100011701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -22889,7 +22865,7 @@
         <v>103.8317861764</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1953</v>
       </c>
@@ -22927,7 +22903,7 @@
         <v>102.31199040246401</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1954</v>
       </c>
@@ -22965,7 +22941,7 @@
         <v>109.14097992220699</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1955</v>
       </c>
@@ -23003,7 +22979,7 @@
         <v>153.83773609233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1956</v>
       </c>
@@ -23041,7 +23017,7 @@
         <v>188.215488528641</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1957</v>
       </c>
@@ -23079,7 +23055,7 @@
         <v>58.910948991473703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -23117,7 +23093,7 @@
         <v>169.68893941527401</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -23155,7 +23131,7 @@
         <v>1.51177588074404</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1960</v>
       </c>
@@ -23193,7 +23169,7 @@
         <v>55.845242391120699</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1961</v>
       </c>
@@ -23231,7 +23207,7 @@
         <v>47.933784057507602</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1962</v>
       </c>
@@ -23269,7 +23245,7 @@
         <v>57.2462506324798</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1963</v>
       </c>
@@ -23307,7 +23283,7 @@
         <v>41.176404840271303</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1964</v>
       </c>
@@ -23345,7 +23321,7 @@
         <v>9.7091335926118791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1965</v>
       </c>
@@ -23383,7 +23359,7 @@
         <v>19.4817657046876</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -23421,7 +23397,7 @@
         <v>38.3175562144339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1967</v>
       </c>
@@ -23459,7 +23435,7 @@
         <v>87.966329851446702</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1968</v>
       </c>
@@ -23497,7 +23473,7 @@
         <v>62.7268214187106</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1969</v>
       </c>
@@ -23535,7 +23511,7 @@
         <v>21.244167883060101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1970</v>
       </c>
@@ -23573,7 +23549,7 @@
         <v>55.344402990449801</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1971</v>
       </c>
@@ -23611,7 +23587,7 @@
         <v>6.8948510452181599</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1972</v>
       </c>
@@ -23649,7 +23625,7 @@
         <v>149.41457106000999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1973</v>
       </c>
@@ -23687,7 +23663,7 @@
         <v>216.626025789648</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1974</v>
       </c>
@@ -23725,7 +23701,7 @@
         <v>42.033239563202002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1975</v>
       </c>
@@ -23763,7 +23739,7 @@
         <v>116.052640425951</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1976</v>
       </c>
@@ -23801,7 +23777,7 @@
         <v>17.195215301437401</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1977</v>
       </c>
@@ -23839,7 +23815,7 @@
         <v>38.191890055444198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1978</v>
       </c>
@@ -23877,7 +23853,7 @@
         <v>158.46371838925799</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1979</v>
       </c>
@@ -23915,7 +23891,7 @@
         <v>303.51896800302001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1980</v>
       </c>
@@ -23953,7 +23929,7 @@
         <v>36.730775148612402</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1981</v>
       </c>
@@ -23991,7 +23967,7 @@
         <v>50.165062666236302</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1982</v>
       </c>
@@ -24029,7 +24005,7 @@
         <v>75.031773969221305</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1983</v>
       </c>
@@ -24067,7 +24043,7 @@
         <v>174.77937601018601</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1984</v>
       </c>
@@ -24105,7 +24081,7 @@
         <v>35.0353282645627</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1985</v>
       </c>
@@ -24143,7 +24119,7 @@
         <v>211.74015426797001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1986</v>
       </c>
@@ -24181,7 +24157,7 @@
         <v>121.11527821163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1987</v>
       </c>
@@ -24219,7 +24195,7 @@
         <v>217.559087456246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1988</v>
       </c>
@@ -24257,7 +24233,7 @@
         <v>78.156397024875901</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1989</v>
       </c>
@@ -24295,7 +24271,7 @@
         <v>55.616847982418101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1990</v>
       </c>
@@ -24333,7 +24309,7 @@
         <v>94.207571659863703</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1991</v>
       </c>
@@ -24371,7 +24347,7 @@
         <v>136.926802434563</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1992</v>
       </c>
@@ -24409,7 +24385,7 @@
         <v>152.13244153303901</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -24447,7 +24423,7 @@
         <v>138.85518236750099</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1994</v>
       </c>
@@ -24485,7 +24461,7 @@
         <v>72.158887133900095</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -24523,7 +24499,7 @@
         <v>77.2776218922711</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1996</v>
       </c>
@@ -24561,7 +24537,7 @@
         <v>56.761122004347499</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1997</v>
       </c>
@@ -24599,7 +24575,7 @@
         <v>56.410364063708798</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1998</v>
       </c>
@@ -24637,7 +24613,7 @@
         <v>127.949558427176</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1999</v>
       </c>
@@ -24675,7 +24651,7 @@
         <v>32.956408196693403</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -24713,7 +24689,7 @@
         <v>94.902017279650195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2001</v>
       </c>
@@ -24751,7 +24727,7 @@
         <v>57.104443655591098</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -24789,7 +24765,7 @@
         <v>52.125295740467799</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2003</v>
       </c>
@@ -24827,7 +24803,7 @@
         <v>71.608814028954896</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -24865,7 +24841,7 @@
         <v>143.52897573657799</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -24903,7 +24879,7 @@
         <v>44.816531791766998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -24941,7 +24917,7 @@
         <v>135.21883314929201</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -24979,7 +24955,7 @@
         <v>136.81885662235601</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -25017,7 +24993,7 @@
         <v>96.545805036287106</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2009</v>
       </c>
@@ -25055,7 +25031,7 @@
         <v>167.739453717294</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -25093,7 +25069,7 @@
         <v>209.23408233309399</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -25131,7 +25107,7 @@
         <v>194.03938336230601</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2012</v>
       </c>
@@ -25169,7 +25145,7 @@
         <v>95.641943462574801</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -25207,7 +25183,7 @@
         <v>79.589355470485401</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -25245,7 +25221,7 @@
         <v>250.433376814659</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -25285,10 +25261,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="460" windowWidth="31260" windowHeight="23060" tabRatio="653" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="21580" yWindow="1100" windowWidth="31260" windowHeight="23060" tabRatio="653" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -13292,8 +13292,8 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
+      <selection activeCell="T166" sqref="T166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15070,8 +15070,8 @@
       <c r="AA52" s="126"/>
       <c r="AB52" s="114"/>
       <c r="AC52" s="124">
-        <f>AC51*AB16*(I16/360)</f>
-        <v>3187.5</v>
+        <f>AC51*AB16*(I16/365)</f>
+        <v>3143.8356164383567</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15102,7 +15102,7 @@
       <c r="AB53" s="114"/>
       <c r="AC53" s="124">
         <f>(AC51+AC52)*I16</f>
-        <v>6414.84375</v>
+        <v>6414.2979452054797</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15136,7 +15136,7 @@
       <c r="AB54" s="116"/>
       <c r="AC54" s="128">
         <f>(AC51+AC52+AC53)*I16</f>
-        <v>6495.029296875</v>
+        <v>6494.4766695205481</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15351,11 +15351,11 @@
       <c r="S59" s="139"/>
       <c r="T59" s="25">
         <f>U59/I8</f>
-        <v>-5.3125</v>
+        <v>-5.2397260273972615</v>
       </c>
       <c r="U59" s="247">
-        <f>-(AC49*AB16*(I16/360))</f>
-        <v>-3187.5</v>
+        <f>-(AC49*AB16*(I16/365))</f>
+        <v>-3143.8356164383567</v>
       </c>
       <c r="W59" s="13"/>
       <c r="X59" s="149">
@@ -15405,11 +15405,11 @@
       <c r="S60" s="140"/>
       <c r="T60" s="141">
         <f>SUM(T56:T59)</f>
-        <v>193.0625</v>
+        <v>193.13527397260273</v>
       </c>
       <c r="U60" s="248">
         <f>SUM(U56:U59)</f>
-        <v>115837.5</v>
+        <v>115881.16438356164</v>
       </c>
       <c r="W60" s="13"/>
       <c r="X60" s="149">
@@ -15513,11 +15513,11 @@
       <c r="S62" s="23"/>
       <c r="T62" s="24">
         <f>U62/I8</f>
-        <v>-26.828955078124999</v>
+        <v>-26.754350385273973</v>
       </c>
       <c r="U62" s="246">
         <f>-(AC52+AC53+AC54)</f>
-        <v>-16097.373046875</v>
+        <v>-16052.610231164384</v>
       </c>
       <c r="W62" s="13"/>
       <c r="X62" s="149">
@@ -15648,11 +15648,11 @@
       <c r="S66" s="23"/>
       <c r="T66" s="24">
         <f>SUM(T61:T65)</f>
-        <v>136.08771158854165</v>
+        <v>136.16231628139269</v>
       </c>
       <c r="U66" s="246">
         <f>SUM(U61:U65)</f>
-        <v>81652.626953125</v>
+        <v>81697.389768835623</v>
       </c>
       <c r="W66" s="13"/>
     </row>
@@ -15675,11 +15675,11 @@
       <c r="S67" s="142"/>
       <c r="T67" s="143">
         <f>T60+T66</f>
-        <v>329.15021158854165</v>
+        <v>329.29759025399539</v>
       </c>
       <c r="U67" s="249">
         <f>U60+U66</f>
-        <v>197490.126953125</v>
+        <v>197578.55415239726</v>
       </c>
       <c r="W67" s="13"/>
     </row>

--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trsh4998/Projects/drought_decision_model/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtravis\Desktop\drought_decision_model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="1100" windowWidth="31260" windowHeight="23060" tabRatio="653" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="16080" yWindow="465" windowWidth="31260" windowHeight="23055" tabRatio="653" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -107,11 +107,8 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -126,7 +123,7 @@
     <author>Jeffrey E. Tranel</author>
   </authors>
   <commentList>
-    <comment ref="AA16" authorId="0">
+    <comment ref="AA16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1">
+    <comment ref="C26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3287,10 +3284,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.126130136005727"/>
-          <c:y val="0.0300362492798156"/>
-          <c:w val="0.551914188218074"/>
-          <c:h val="0.785117390051853"/>
+          <c:x val="0.12613013600572701"/>
+          <c:y val="3.0036249279815599E-2"/>
+          <c:w val="0.55191418821807403"/>
+          <c:h val="0.78511739005185299"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3338,22 +3335,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.2541677375</c:v>
+                  <c:v>31069.254167737505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.67302222585</c:v>
+                  <c:v>31335.673022225852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.37641839144</c:v>
+                  <c:v>31604.376418391439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.38394617915</c:v>
+                  <c:v>31875.383946179147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3407,22 +3404,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55138.57230900967</c:v>
+                  <c:v>46912.835948011139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31140.17975754976</c:v>
+                  <c:v>31069.644068254198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31407.20679897075</c:v>
+                  <c:v>31336.066266139478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31676.52359727192</c:v>
+                  <c:v>31604.773034371625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31948.14978711853</c:v>
+                  <c:v>31875.783963141363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,22 +3473,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.7416927024</c:v>
+                  <c:v>-33275.741692702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.44328997435</c:v>
+                  <c:v>28504.443289974348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.4564162743</c:v>
+                  <c:v>29775.456416274305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.1698688223</c:v>
+                  <c:v>30751.169868822304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.86115044746</c:v>
+                  <c:v>31014.861150447457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,16 +3542,16 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28067.820596812</c:v>
+                  <c:v>-28067.820596812002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28842.95816120723</c:v>
+                  <c:v>28842.958161207225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30129.06566561545</c:v>
+                  <c:v>30129.065665615453</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30822.20384685486</c:v>
@@ -3614,22 +3611,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.631139985076</c:v>
+                  <c:v>2219.6311399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37906.03097701045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.07519263832</c:v>
+                  <c:v>38231.075192638316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.90666241519</c:v>
+                  <c:v>38558.906662415189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,22 +3680,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.381139985077</c:v>
+                  <c:v>1263.3811399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.214633260449</c:v>
+                  <c:v>1274.2146332604489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.141023740657</c:v>
+                  <c:v>1285.1410237406571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.161108019233</c:v>
+                  <c:v>1296.1611080192333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,11 +3716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2011521856"/>
-        <c:axId val="-2086891456"/>
+        <c:axId val="403950336"/>
+        <c:axId val="403951904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2011521856"/>
+        <c:axId val="403950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,7 +3746,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.374711999315303"/>
+              <c:x val="0.37471199931530302"/>
               <c:y val="0.882226810063376"/>
             </c:manualLayout>
           </c:layout>
@@ -3769,7 +3766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086891456"/>
+        <c:crossAx val="403951904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3777,11 +3774,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086891456"/>
+        <c:axId val="403951904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150000.0"/>
-          <c:min val="-150000.0"/>
+          <c:max val="150000"/>
+          <c:min val="-150000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3802,14 +3799,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2011521856"/>
+        <c:crossAx val="403950336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3820,9 +3816,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.719284466714388"/>
-          <c:y val="0.240095304397926"/>
-          <c:w val="0.236220187150519"/>
+          <c:x val="0.71928446671438795"/>
+          <c:y val="0.24009530439792601"/>
+          <c:w val="0.23622018715051901"/>
           <c:h val="0.367370366813904"/>
         </c:manualLayout>
       </c:layout>
@@ -3841,7 +3837,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3912,19 +3908,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.013419</c:v>
+                  <c:v>542151.01341899997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.5217780679</c:v>
+                  <c:v>563464.52177806792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.7934713148</c:v>
+                  <c:v>584960.79347131483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.3956943313</c:v>
+                  <c:v>606641.39569433138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.9090814102</c:v>
+                  <c:v>628507.90908141027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,19 +3977,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547825.0606039806</c:v>
+                  <c:v>542182.20546033559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569187.2239176597</c:v>
+                  <c:v>563495.98129115801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590732.5677817537</c:v>
+                  <c:v>584992.52274972969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612462.6629694822</c:v>
+                  <c:v>606673.39705130865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>634379.0937234455</c:v>
+                  <c:v>628540.18485002359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4056,13 +4052,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.2695057841</c:v>
+                  <c:v>516704.26950578415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.5720357962</c:v>
+                  <c:v>537799.57203579624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.7667850032</c:v>
+                  <c:v>559075.76678500324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,16 +4118,16 @@
                   <c:v>481932.179403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501718.4487017762</c:v>
+                  <c:v>501718.44870177616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522386.9877483884</c:v>
+                  <c:v>522386.98774838838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543531.0195873307</c:v>
+                  <c:v>543531.01958733075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564856.3614992921</c:v>
+                  <c:v>564856.36149929219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,19 +4184,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.4911988061</c:v>
+                  <c:v>577570.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.1581608358</c:v>
+                  <c:v>579093.15816083585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.695411065</c:v>
+                  <c:v>605096.69541106501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.2129932148</c:v>
+                  <c:v>631323.21299321484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.6229636316</c:v>
+                  <c:v>657774.62296363164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4257,19 +4253,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.4911988061</c:v>
+                  <c:v>501070.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.1706608359</c:v>
+                  <c:v>501937.17066083587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.2818992526</c:v>
+                  <c:v>502811.28189925256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.8886415386</c:v>
+                  <c:v>503692.88864153862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.0551616398</c:v>
+                  <c:v>504582.05516163982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4290,11 +4286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2033789392"/>
-        <c:axId val="-2034230640"/>
+        <c:axId val="403949944"/>
+        <c:axId val="403949552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2033789392"/>
+        <c:axId val="403949944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,8 +4316,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.397844158620444"/>
-              <c:y val="0.851943838345508"/>
+              <c:x val="0.39784415862044398"/>
+              <c:y val="0.85194383834550802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4340,7 +4336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2034230640"/>
+        <c:crossAx val="403949552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4348,10 +4344,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2034230640"/>
+        <c:axId val="403949552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="350000.0"/>
+          <c:min val="350000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4381,8 +4377,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0149824348879467"/>
-              <c:y val="0.254446083212408"/>
+              <c:x val="1.49824348879467E-2"/>
+              <c:y val="0.25444608321240803"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4391,14 +4387,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2033789392"/>
+        <c:crossAx val="403949944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -4414,7 +4409,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4454,8 +4449,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.634693340010944"/>
-          <c:y val="0.0327868946508024"/>
+          <c:x val="0.63469334001094402"/>
+          <c:y val="3.2786894650802402E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4467,10 +4462,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.148282648414531"/>
-          <c:y val="0.0533307669867238"/>
-          <c:w val="0.489297350574967"/>
-          <c:h val="0.73024847761814"/>
+          <c:x val="0.14828264841453101"/>
+          <c:y val="5.3330766986723802E-2"/>
+          <c:w val="0.48929735057496698"/>
+          <c:h val="0.73024847761814005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4521,19 +4516,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.013419</c:v>
+                  <c:v>542151.01341899997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.5217780679</c:v>
+                  <c:v>563464.52177806792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.7934713148</c:v>
+                  <c:v>584960.79347131483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.3956943313</c:v>
+                  <c:v>606641.39569433138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.9090814102</c:v>
+                  <c:v>628507.90908141027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,19 +4594,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547825.0606039806</c:v>
+                  <c:v>542182.20546033559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569187.2239176597</c:v>
+                  <c:v>563495.98129115801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590732.5677817537</c:v>
+                  <c:v>584992.52274972969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612462.6629694822</c:v>
+                  <c:v>606673.39705130865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>634379.0937234455</c:v>
+                  <c:v>628540.18485002359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4683,13 +4678,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.2695057841</c:v>
+                  <c:v>516704.26950578415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.5720357962</c:v>
+                  <c:v>537799.57203579624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.7667850032</c:v>
+                  <c:v>559075.76678500324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4758,16 +4753,16 @@
                   <c:v>481932.179403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501718.4487017762</c:v>
+                  <c:v>501718.44870177616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522386.9877483884</c:v>
+                  <c:v>522386.98774838838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543531.0195873307</c:v>
+                  <c:v>543531.01958733075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564856.3614992921</c:v>
+                  <c:v>564856.36149929219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4833,19 +4828,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.4911988061</c:v>
+                  <c:v>577570.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.1581608358</c:v>
+                  <c:v>579093.15816083585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.695411065</c:v>
+                  <c:v>605096.69541106501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.2129932148</c:v>
+                  <c:v>631323.21299321484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.6229636316</c:v>
+                  <c:v>657774.62296363164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4911,19 +4906,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.4911988061</c:v>
+                  <c:v>501070.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.1706608359</c:v>
+                  <c:v>501937.17066083587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.2818992526</c:v>
+                  <c:v>502811.28189925256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.8886415386</c:v>
+                  <c:v>503692.88864153862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.0551616398</c:v>
+                  <c:v>504582.05516163982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,11 +4939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2034847792"/>
-        <c:axId val="-2076521936"/>
+        <c:axId val="335744008"/>
+        <c:axId val="106693864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2034847792"/>
+        <c:axId val="335744008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4974,8 +4969,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.361293496264008"/>
-              <c:y val="0.873840403143063"/>
+              <c:x val="0.36129349626400797"/>
+              <c:y val="0.87384040314306299"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4994,7 +4989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076521936"/>
+        <c:crossAx val="106693864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5002,11 +4997,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076521936"/>
+        <c:axId val="106693864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700000.0"/>
-          <c:min val="0.0"/>
+          <c:max val="700000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5034,7 +5029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2034847792"/>
+        <c:crossAx val="335744008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5090,8 +5085,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.631193760354424"/>
-          <c:y val="0.0429477728029002"/>
+          <c:x val="0.63119376035442398"/>
+          <c:y val="4.29477728029002E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5155,22 +5150,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.2541677375</c:v>
+                  <c:v>31069.254167737505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.67302222585</c:v>
+                  <c:v>31335.673022225852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.37641839144</c:v>
+                  <c:v>31604.376418391439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.38394617915</c:v>
+                  <c:v>31875.383946179147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,22 +5228,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55138.57230900967</c:v>
+                  <c:v>46912.835948011139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31140.17975754976</c:v>
+                  <c:v>31069.644068254198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31407.20679897075</c:v>
+                  <c:v>31336.066266139478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31676.52359727192</c:v>
+                  <c:v>31604.773034371625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31948.14978711853</c:v>
+                  <c:v>31875.783963141363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,22 +5297,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.7416927024</c:v>
+                  <c:v>-33275.741692702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.44328997435</c:v>
+                  <c:v>28504.443289974348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.4564162743</c:v>
+                  <c:v>29775.456416274305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.1698688223</c:v>
+                  <c:v>30751.169868822304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.86115044746</c:v>
+                  <c:v>31014.861150447457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,22 +5366,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28067.820596812</c:v>
+                  <c:v>-28067.820596812002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28842.95816120723</c:v>
+                  <c:v>28842.958161207225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30129.06566561545</c:v>
+                  <c:v>30129.065665615453</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30822.20384685486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31086.50424484164</c:v>
+                  <c:v>31086.504244841639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,22 +5444,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.631139985076</c:v>
+                  <c:v>2219.6311399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37906.03097701045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.07519263832</c:v>
+                  <c:v>38231.075192638316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.90666241519</c:v>
+                  <c:v>38558.906662415189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5527,22 +5522,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.381139985077</c:v>
+                  <c:v>1263.3811399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.214633260449</c:v>
+                  <c:v>1274.2146332604489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.141023740657</c:v>
+                  <c:v>1285.1410237406571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.161108019233</c:v>
+                  <c:v>1296.1611080192333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,11 +5558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2086921216"/>
-        <c:axId val="-2086901984"/>
+        <c:axId val="106691904"/>
+        <c:axId val="106693472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086921216"/>
+        <c:axId val="106691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,7 +5572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2086901984"/>
+        <c:crossAx val="106693472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5585,10 +5580,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086901984"/>
+        <c:axId val="106693472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-150000.0"/>
+          <c:min val="-150000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5613,8 +5608,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.016548463356974"/>
-              <c:y val="0.281590746153761"/>
+              <c:x val="1.6548463356973998E-2"/>
+              <c:y val="0.28159074615376101"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5623,7 +5618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086921216"/>
+        <c:crossAx val="106691904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5634,10 +5629,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.644215713349326"/>
-          <c:y val="0.133545278332812"/>
-          <c:w val="0.275497343177606"/>
-          <c:h val="0.423572063006676"/>
+          <c:x val="0.64421571334932604"/>
+          <c:y val="0.13354527833281199"/>
+          <c:w val="0.27549734317760599"/>
+          <c:h val="0.42357206300667599"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6071,17 +6066,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="18.6640625" customWidth="1"/>
+    <col min="1" max="26" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -6152,16 +6147,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="E2" s="148">
         <f>'Ranch Strategies'!$Q$149</f>
-        <v>634379.09372344555</v>
+        <v>628540.18485002359</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6172,7 +6167,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -6243,7 +6238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6258,7 +6253,7 @@
       </c>
       <c r="E5" s="160">
         <f>'Ranch Strategies'!$I$13</f>
-        <v>0.77091180097417411</v>
+        <v>0.70889512875856031</v>
       </c>
       <c r="F5" t="s">
         <v>143</v>
@@ -6394,27 +6389,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:CK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:89" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="455" t="s">
         <v>295</v>
       </c>
@@ -6432,7 +6427,7 @@
       <c r="M3" s="404"/>
       <c r="N3" s="405"/>
     </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B4" s="441"/>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -6446,7 +6441,7 @@
       <c r="M4" s="407"/>
       <c r="N4" s="408"/>
     </row>
-    <row r="5" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B5" s="441"/>
       <c r="C5" s="437"/>
       <c r="D5" s="437"/>
@@ -6464,7 +6459,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:89" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="441"/>
       <c r="C6" s="376" t="s">
         <v>271</v>
@@ -6482,7 +6477,7 @@
       <c r="M6" s="407"/>
       <c r="N6" s="408"/>
     </row>
-    <row r="7" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B7" s="441"/>
       <c r="C7" s="378"/>
       <c r="D7" s="391"/>
@@ -6504,7 +6499,7 @@
         <v>53700</v>
       </c>
     </row>
-    <row r="8" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B8" s="441"/>
       <c r="C8" s="378" t="s">
         <v>173</v>
@@ -6523,14 +6518,14 @@
       <c r="L8" s="407"/>
       <c r="M8" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!Q84,'Ranch Strategies'!Q167)</f>
-        <v>55138.572309009673</v>
+        <v>46912.835948011139</v>
       </c>
       <c r="N8" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!Q167,'Ranch Strategies'!Q84)</f>
-        <v>23314.314001712075</v>
-      </c>
-    </row>
-    <row r="9" spans="2:89" x14ac:dyDescent="0.15">
+        <v>15088.577640713542</v>
+      </c>
+    </row>
+    <row r="9" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B9" s="441"/>
       <c r="C9" s="378" t="s">
         <v>305</v>
@@ -6558,7 +6553,7 @@
       <c r="CJ9" s="363"/>
       <c r="CK9" s="357"/>
     </row>
-    <row r="10" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B10" s="441"/>
       <c r="C10" s="378" t="s">
         <v>281</v>
@@ -6586,7 +6581,7 @@
       <c r="CJ10" s="363"/>
       <c r="CK10" s="357"/>
     </row>
-    <row r="11" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B11" s="441"/>
       <c r="C11" s="378" t="s">
         <v>306</v>
@@ -6616,7 +6611,7 @@
       </c>
       <c r="CK11" s="357"/>
     </row>
-    <row r="12" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B12" s="441"/>
       <c r="C12" s="378" t="s">
         <v>307</v>
@@ -6646,7 +6641,7 @@
       </c>
       <c r="CK12" s="357"/>
     </row>
-    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="441"/>
       <c r="C13" s="381" t="s">
         <v>303</v>
@@ -6694,7 +6689,7 @@
       </c>
       <c r="CK13" s="357"/>
     </row>
-    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="441"/>
       <c r="C14" s="437"/>
       <c r="D14" s="437"/>
@@ -6750,7 +6745,7 @@
       </c>
       <c r="CK14" s="357"/>
     </row>
-    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="441"/>
       <c r="C15" s="437"/>
       <c r="D15" s="437"/>
@@ -6765,11 +6760,11 @@
       <c r="L15" s="407"/>
       <c r="M15" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q99,'Ranch Strategies'!Q182)</f>
-        <v>31140.179757549762</v>
+        <v>31069.644068254198</v>
       </c>
       <c r="N15" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q182,'Ranch Strategies'!Q99)</f>
-        <v>37699.92024256468</v>
+        <v>37629.384553269119</v>
       </c>
       <c r="P15" s="149">
         <f>'Ranch Strategies'!E80</f>
@@ -6781,7 +6776,7 @@
       </c>
       <c r="R15" s="148">
         <f>'Ranch Strategies'!Q92</f>
-        <v>547825.06060398067</v>
+        <v>542182.20546033559</v>
       </c>
       <c r="S15" s="148">
         <f>'Ranch Strategies'!R92</f>
@@ -6807,7 +6802,7 @@
       </c>
       <c r="CK15" s="357"/>
     </row>
-    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="441"/>
       <c r="C16" s="366" t="s">
         <v>0</v>
@@ -6840,7 +6835,7 @@
       </c>
       <c r="R16" s="148">
         <f>'Ranch Strategies'!Q107</f>
-        <v>569187.22391765972</v>
+        <v>563495.98129115801</v>
       </c>
       <c r="S16" s="148">
         <f>'Ranch Strategies'!R107</f>
@@ -6862,7 +6857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="441"/>
       <c r="C17" s="369"/>
       <c r="D17" s="370"/>
@@ -6893,7 +6888,7 @@
       </c>
       <c r="R17" s="148">
         <f>'Ranch Strategies'!Q121</f>
-        <v>590732.56778175372</v>
+        <v>584992.52274972969</v>
       </c>
       <c r="S17" s="148">
         <f>'Ranch Strategies'!R121</f>
@@ -6915,7 +6910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="441"/>
       <c r="C18" s="369" t="s">
         <v>272</v>
@@ -6950,7 +6945,7 @@
       </c>
       <c r="R18" s="148">
         <f>'Ranch Strategies'!Q135</f>
-        <v>612462.66296948225</v>
+        <v>606673.39705130865</v>
       </c>
       <c r="S18" s="148">
         <f>'Ranch Strategies'!R135</f>
@@ -6972,7 +6967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="441"/>
       <c r="C19" s="369" t="s">
         <v>273</v>
@@ -7007,7 +7002,7 @@
       </c>
       <c r="R19" s="148">
         <f>'Ranch Strategies'!Q149</f>
-        <v>634379.09372344555</v>
+        <v>628540.18485002359</v>
       </c>
       <c r="S19" s="148">
         <f>'Ranch Strategies'!R149</f>
@@ -7029,7 +7024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="441"/>
       <c r="C20" s="369" t="s">
         <v>3</v>
@@ -7052,7 +7047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="441"/>
       <c r="C21" s="369" t="s">
         <v>53</v>
@@ -7081,7 +7076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="441"/>
       <c r="C22" s="372" t="s">
         <v>45</v>
@@ -7100,17 +7095,17 @@
       <c r="L22" s="407"/>
       <c r="M22" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q114,'Ranch Strategies'!Q197)</f>
-        <v>31407.20679897075</v>
+        <v>31336.066266139478</v>
       </c>
       <c r="N22" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q197,'Ranch Strategies'!Q114)</f>
-        <v>38023.19705864467</v>
+        <v>37952.056525813401</v>
       </c>
       <c r="CH22" s="468">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="441"/>
       <c r="C23" s="437"/>
       <c r="D23" s="437"/>
@@ -7135,7 +7130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="441"/>
       <c r="C24" s="437"/>
       <c r="D24" s="437"/>
@@ -7160,7 +7155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="441"/>
       <c r="C25" s="366" t="s">
         <v>2</v>
@@ -7187,7 +7182,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="2:86" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="441"/>
       <c r="C26" s="374"/>
       <c r="D26" s="370"/>
@@ -7209,7 +7204,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B27" s="441"/>
       <c r="C27" s="369" t="s">
         <v>70</v>
@@ -7229,7 +7224,7 @@
       <c r="M27" s="407"/>
       <c r="N27" s="408"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B28" s="441"/>
       <c r="C28" s="369" t="s">
         <v>71</v>
@@ -7255,7 +7250,7 @@
         <v>38614.29094676087</v>
       </c>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B29" s="441"/>
       <c r="C29" s="369" t="s">
         <v>30</v>
@@ -7274,14 +7269,14 @@
       <c r="L29" s="407"/>
       <c r="M29" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q128,'Ranch Strategies'!Q211)</f>
-        <v>31676.523597271924</v>
+        <v>31604.773034371625</v>
       </c>
       <c r="N29" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q211,'Ranch Strategies'!Q128)</f>
-        <v>38349.245973422549</v>
-      </c>
-    </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.15">
+        <v>38277.49541052225</v>
+      </c>
+    </row>
+    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B30" s="441"/>
       <c r="C30" s="369" t="s">
         <v>31</v>
@@ -7307,7 +7302,7 @@
         <v>36301.531527284853</v>
       </c>
     </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B31" s="441"/>
       <c r="C31" s="369"/>
       <c r="D31" s="370"/>
@@ -7329,7 +7324,7 @@
         <v>36670.908213054121</v>
       </c>
     </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B32" s="441"/>
       <c r="C32" s="375" t="s">
         <v>298</v>
@@ -7353,7 +7348,7 @@
         <v>44844.705328714794</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="441"/>
       <c r="C33" s="369" t="s">
         <v>43</v>
@@ -7379,7 +7374,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="441"/>
       <c r="C34" s="369" t="s">
         <v>274</v>
@@ -7399,7 +7394,7 @@
       <c r="M34" s="407"/>
       <c r="N34" s="408"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="441"/>
       <c r="C35" s="369" t="s">
         <v>275</v>
@@ -7425,7 +7420,7 @@
         <v>38945.40849162935</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="441"/>
       <c r="C36" s="372" t="s">
         <v>276</v>
@@ -7444,11 +7439,11 @@
       <c r="L36" s="407"/>
       <c r="M36" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q142,'Ranch Strategies'!Q225)</f>
-        <v>31948.149787118531</v>
+        <v>31875.783963141363</v>
       </c>
       <c r="N36" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q225, 'Ranch Strategies'!Q142)</f>
-        <v>38678.090757644648</v>
+        <v>38605.724933667479</v>
       </c>
       <c r="P36" s="403"/>
       <c r="Q36" s="432" t="s">
@@ -7463,7 +7458,7 @@
       <c r="X36" s="404"/>
       <c r="Y36" s="405"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="441"/>
       <c r="C37" s="437"/>
       <c r="D37" s="437"/>
@@ -7495,7 +7490,7 @@
       <c r="X37" s="407"/>
       <c r="Y37" s="408"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="441"/>
       <c r="C38" s="437"/>
       <c r="D38" s="437"/>
@@ -7539,7 +7534,7 @@
       </c>
       <c r="Y38" s="408"/>
     </row>
-    <row r="39" spans="2:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="441"/>
       <c r="C39" s="366" t="s">
         <v>277</v>
@@ -7571,7 +7566,7 @@
       </c>
       <c r="R39" s="457">
         <f>IF($G$51=1, 'Ranch Strategies'!Q152,'Ranch Strategies'!Q235)</f>
-        <v>119691.59372344555</v>
+        <v>113852.68485002359</v>
       </c>
       <c r="S39" s="458"/>
       <c r="T39" s="436">
@@ -7593,7 +7588,7 @@
       </c>
       <c r="Y39" s="458"/>
     </row>
-    <row r="40" spans="2:25" s="402" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:25" s="402" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="441"/>
       <c r="C40" s="374"/>
       <c r="D40" s="370"/>
@@ -7623,7 +7618,7 @@
       </c>
       <c r="R40" s="462">
         <f>IF($G$51=1, 'Ranch Strategies'!Q235,'Ranch Strategies'!Q152)</f>
-        <v>116092.93087131623</v>
+        <v>110254.02199789428</v>
       </c>
       <c r="S40" s="463"/>
       <c r="T40" s="464">
@@ -7645,7 +7640,7 @@
       </c>
       <c r="Y40" s="463"/>
     </row>
-    <row r="41" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="441"/>
       <c r="C41" s="465" t="s">
         <v>301</v>
@@ -7658,7 +7653,7 @@
       </c>
       <c r="H41" s="442"/>
     </row>
-    <row r="42" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="441"/>
       <c r="C42" s="369" t="s">
         <v>21</v>
@@ -7671,7 +7666,7 @@
       </c>
       <c r="H42" s="442"/>
     </row>
-    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B43" s="441"/>
       <c r="C43" s="369" t="s">
         <v>51</v>
@@ -7691,7 +7686,7 @@
       <c r="M43" s="404"/>
       <c r="N43" s="405"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="441"/>
       <c r="C44" s="369" t="s">
         <v>52</v>
@@ -7709,7 +7704,7 @@
       <c r="M44" s="407"/>
       <c r="N44" s="408"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="441"/>
       <c r="C45" s="369" t="s">
         <v>36</v>
@@ -7731,7 +7726,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="441"/>
       <c r="C46" s="372" t="s">
         <v>278</v>
@@ -7751,7 +7746,7 @@
       <c r="M46" s="407"/>
       <c r="N46" s="408"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="441"/>
       <c r="C47" s="437"/>
       <c r="D47" s="437"/>
@@ -7773,7 +7768,7 @@
         <v>546838.19999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" s="441"/>
       <c r="C48" s="437"/>
       <c r="D48" s="437"/>
@@ -7788,14 +7783,14 @@
       <c r="L48" s="407"/>
       <c r="M48" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q92,'Ranch Strategies'!Q175)</f>
-        <v>547825.06060398067</v>
+        <v>542182.20546033559</v>
       </c>
       <c r="N48" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q175,'Ranch Strategies'!Q92)</f>
-        <v>525993.61940517451</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="14" x14ac:dyDescent="0.15">
+        <v>520350.76426152949</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="441"/>
       <c r="C49" s="382" t="s">
         <v>279</v>
@@ -7819,7 +7814,7 @@
         <v>444900</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="441"/>
       <c r="C50" s="385"/>
       <c r="D50" s="386"/>
@@ -7841,7 +7836,7 @@
         <v>450107.9210958904</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="441"/>
       <c r="C51" s="385" t="s">
         <v>280</v>
@@ -7867,7 +7862,7 @@
         <v>555739.05000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="441"/>
       <c r="C52" s="385" t="s">
         <v>227</v>
@@ -7893,7 +7888,7 @@
         <v>479239.05000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="441"/>
       <c r="C53" s="385" t="s">
         <v>205</v>
@@ -7913,7 +7908,7 @@
       <c r="M53" s="407"/>
       <c r="N53" s="408"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="441"/>
       <c r="C54" s="385" t="s">
         <v>228</v>
@@ -7939,7 +7934,7 @@
         <v>572879.08756499994</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="441"/>
       <c r="C55" s="388" t="s">
         <v>229</v>
@@ -7958,14 +7953,14 @@
       <c r="L55" s="407"/>
       <c r="M55" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q107,'Ranch Strategies'!Q190)</f>
-        <v>569187.22391765972</v>
+        <v>563495.98129115801</v>
       </c>
       <c r="N55" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q190,'Ranch Strategies'!Q107)</f>
-        <v>551855.7646915738</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
+        <v>546164.52206507209</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="441"/>
       <c r="C56" s="437"/>
       <c r="D56" s="437"/>
@@ -7987,7 +7982,7 @@
         <v>467722.19099999999</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="452"/>
       <c r="C57" s="453"/>
       <c r="D57" s="453"/>
@@ -8030,7 +8025,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J58" s="406"/>
       <c r="K58" s="407" t="s">
         <v>284</v>
@@ -8072,7 +8067,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J59" s="406"/>
       <c r="K59" s="407" t="s">
         <v>285</v>
@@ -8096,7 +8091,7 @@
       </c>
       <c r="S59" s="148">
         <f>'Ranch Strategies'!Q84</f>
-        <v>55138.572309009673</v>
+        <v>46912.835948011139</v>
       </c>
       <c r="T59" s="148">
         <f>'Ranch Strategies'!R84</f>
@@ -8115,7 +8110,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J60" s="409" t="s">
         <v>289</v>
       </c>
@@ -8133,7 +8128,7 @@
       </c>
       <c r="S60" s="148">
         <f>'Ranch Strategies'!Q99</f>
-        <v>31140.179757549762</v>
+        <v>31069.644068254198</v>
       </c>
       <c r="T60" s="148">
         <f>'Ranch Strategies'!R99</f>
@@ -8152,7 +8147,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J61" s="406"/>
       <c r="K61" s="407" t="s">
         <v>300</v>
@@ -8176,7 +8171,7 @@
       </c>
       <c r="S61" s="148">
         <f>'Ranch Strategies'!Q114</f>
-        <v>31407.20679897075</v>
+        <v>31336.066266139478</v>
       </c>
       <c r="T61" s="148">
         <f>'Ranch Strategies'!R114</f>
@@ -8195,7 +8190,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J62" s="406"/>
       <c r="K62" s="407" t="s">
         <v>282</v>
@@ -8203,11 +8198,11 @@
       <c r="L62" s="407"/>
       <c r="M62" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q121,'Ranch Strategies'!Q204)</f>
-        <v>590732.56778175372</v>
+        <v>584992.52274972969</v>
       </c>
       <c r="N62" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q204,'Ranch Strategies'!Q121)</f>
-        <v>577939.67787380412</v>
+        <v>572199.63284178008</v>
       </c>
       <c r="Q62" s="149">
         <f>'Ranch Strategies'!E123</f>
@@ -8219,7 +8214,7 @@
       </c>
       <c r="S62" s="148">
         <f>'Ranch Strategies'!Q128</f>
-        <v>31676.523597271924</v>
+        <v>31604.773034371625</v>
       </c>
       <c r="T62" s="148">
         <f>'Ranch Strategies'!R128</f>
@@ -8238,7 +8233,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J63" s="406"/>
       <c r="K63" s="407" t="s">
         <v>283</v>
@@ -8262,7 +8257,7 @@
       </c>
       <c r="S63" s="148">
         <f>'Ranch Strategies'!Q142</f>
-        <v>31948.149787118531</v>
+        <v>31875.783963141363</v>
       </c>
       <c r="T63" s="148">
         <f>'Ranch Strategies'!R142</f>
@@ -8281,7 +8276,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J64" s="406"/>
       <c r="K64" s="407" t="s">
         <v>261</v>
@@ -8296,7 +8291,7 @@
         <v>497244.7417392942</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J65" s="406"/>
       <c r="K65" s="407" t="s">
         <v>284</v>
@@ -8311,7 +8306,7 @@
         <v>587576.4262971835</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J66" s="406"/>
       <c r="K66" s="407" t="s">
         <v>285</v>
@@ -8326,7 +8321,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J67" s="409" t="s">
         <v>290</v>
       </c>
@@ -8335,7 +8330,7 @@
       <c r="M67" s="407"/>
       <c r="N67" s="408"/>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J68" s="406"/>
       <c r="K68" s="407" t="s">
         <v>300</v>
@@ -8350,7 +8345,7 @@
         <v>625632.6793303478</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J69" s="406"/>
       <c r="K69" s="407" t="s">
         <v>282</v>
@@ -8358,14 +8353,14 @@
       <c r="L69" s="407"/>
       <c r="M69" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!Q135,'Ranch Strategies'!Q218)</f>
-        <v>612462.66296948225</v>
+        <v>606673.39705130865</v>
       </c>
       <c r="N69" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!Q218,'Ranch Strategies'!Q135)</f>
-        <v>604247.26061157195</v>
-      </c>
-    </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.15">
+        <v>598457.99469339836</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J70" s="406"/>
       <c r="K70" s="407" t="s">
         <v>283</v>
@@ -8380,7 +8375,7 @@
         <v>516464.87412440742</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J71" s="406"/>
       <c r="K71" s="407" t="s">
         <v>261</v>
@@ -8395,7 +8390,7 @@
         <v>522400.98477344931</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J72" s="406"/>
       <c r="K72" s="407" t="s">
         <v>284</v>
@@ -8410,7 +8405,7 @@
         <v>618339.89415268181</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J73" s="406"/>
       <c r="K73" s="407" t="s">
         <v>285</v>
@@ -8425,7 +8420,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J74" s="409" t="s">
         <v>291</v>
       </c>
@@ -8434,7 +8429,7 @@
       <c r="M74" s="407"/>
       <c r="N74" s="408"/>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J75" s="406"/>
       <c r="K75" s="407" t="s">
         <v>300</v>
@@ -8449,7 +8444,7 @@
         <v>652349.22955560556</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J76" s="406"/>
       <c r="K76" s="407" t="s">
         <v>282</v>
@@ -8457,14 +8452,14 @@
       <c r="L76" s="407"/>
       <c r="M76" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!Q149,'Ranch Strategies'!Q232)</f>
-        <v>634379.09372344555</v>
+        <v>628540.18485002359</v>
       </c>
       <c r="N76" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!Q232,'Ranch Strategies'!Q149)</f>
-        <v>630780.43087131623</v>
-      </c>
-    </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.15">
+        <v>624941.52199789428</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J77" s="406"/>
       <c r="K77" s="407" t="s">
         <v>283</v>
@@ -8479,7 +8474,7 @@
         <v>542245.31042002421</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J78" s="406"/>
       <c r="K78" s="407" t="s">
         <v>261</v>
@@ -8494,7 +8489,7 @@
         <v>548232.32321788161</v>
       </c>
     </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J79" s="406"/>
       <c r="K79" s="407" t="s">
         <v>284</v>
@@ -8509,7 +8504,7 @@
         <v>649367.158745041</v>
       </c>
     </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J80" s="410"/>
       <c r="K80" s="411" t="s">
         <v>285</v>
@@ -8544,31 +8539,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="172" customWidth="1"/>
-    <col min="2" max="4" width="9.1640625" style="172"/>
-    <col min="5" max="5" width="9.1640625" style="172" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" style="172"/>
-    <col min="9" max="10" width="9.1640625" style="172" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="172"/>
+    <col min="1" max="1" width="13.42578125" style="172" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="172"/>
+    <col min="5" max="5" width="9.140625" style="172" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="172"/>
+    <col min="9" max="10" width="9.140625" style="172" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -8587,7 +8582,7 @@
       <c r="H2" s="225"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>187</v>
       </c>
@@ -8595,30 +8590,30 @@
       <c r="C3"/>
       <c r="D3">
         <f>SUM(D16:O16)</f>
-        <v>0.52506122115640519</v>
+        <v>0.52236121052680584</v>
       </c>
       <c r="E3" s="172">
         <f>SUM(D17:O17)</f>
-        <v>0.86285919084859752</v>
+        <v>0.69608894391079501</v>
       </c>
       <c r="F3" s="172">
         <f>SUM(D18:O18)</f>
-        <v>0.77091180097417411</v>
+        <v>0.70889512875856031</v>
       </c>
       <c r="G3" s="172">
         <f>SUM(D19:O19)</f>
-        <v>0.74817432356158775</v>
+        <v>0.7869009834157159</v>
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="181" t="s">
@@ -8659,7 +8654,7 @@
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="225" t="s">
         <v>250</v>
       </c>
@@ -8702,7 +8697,7 @@
       <c r="P7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="225" t="s">
         <v>186</v>
       </c>
@@ -8711,48 +8706,48 @@
         <v>0.29934210526315791</v>
       </c>
       <c r="E8" s="173">
-        <f>IF($E$7&lt;$C$9,('CPER Precip'!C81),"#N/A")</f>
+        <f>'CPER Precip'!C81</f>
         <v>0.27960526315789486</v>
       </c>
       <c r="F8" s="173">
-        <f>IF($F$7&lt;$C$9,('CPER Precip'!D81),"#N/A")</f>
+        <f>'CPER Precip'!D81</f>
         <v>0.72394736842105234</v>
       </c>
       <c r="G8" s="173">
-        <f>IF($G$7&lt;$C$9,('CPER Precip'!E81), "#N/A")</f>
+        <f>'CPER Precip'!E81</f>
         <v>1.2507894736842105</v>
       </c>
       <c r="H8" s="173">
-        <f>IF($H$7&lt;$C$9,('CPER Precip'!F81),"#N/A")</f>
+        <f>'CPER Precip'!F81</f>
         <v>2.2273684210526317</v>
       </c>
-      <c r="I8" s="173" t="str">
-        <f>IF($I$7&lt;$C$9,('CPER Precip'!G81),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="173" t="str">
-        <f>IF($J$7&lt;$C$9,('CPER Precip'!H81),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="173" t="str">
-        <f>IF($K$7&lt;$C$9,('CPER Precip'!I81),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="173" t="str">
-        <f>IF($L$7&lt;$C$9,('CPER Precip'!J81),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="173" t="str">
-        <f>IF($M$7&lt;$C$9,('CPER Precip'!K81),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="173" t="str">
-        <f>IF($N$7&lt;$C$9,('CPER Precip'!L81),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="173" t="str">
-        <f>IF($O$7&lt;$C$9,('CPER Precip'!M81),"#N/A")</f>
-        <v>#N/A</v>
+      <c r="I8" s="173">
+        <f>'CPER Precip'!G81</f>
+        <v>2.2528947368421059</v>
+      </c>
+      <c r="J8" s="173">
+        <f>'CPER Precip'!H81</f>
+        <v>2.0469736842105264</v>
+      </c>
+      <c r="K8" s="173">
+        <f>'CPER Precip'!I81</f>
+        <v>1.6693421052631578</v>
+      </c>
+      <c r="L8" s="173">
+        <f>'CPER Precip'!J81</f>
+        <v>1.2435064935064939</v>
+      </c>
+      <c r="M8" s="173">
+        <f>'CPER Precip'!K81</f>
+        <v>0.78220779220779235</v>
+      </c>
+      <c r="N8" s="173">
+        <f>'CPER Precip'!L81</f>
+        <v>0.39155844155844155</v>
+      </c>
+      <c r="O8" s="173">
+        <f>'CPER Precip'!M81</f>
+        <v>0.27376623376623377</v>
       </c>
       <c r="P8"/>
       <c r="Q8" s="348" t="s">
@@ -8760,7 +8755,7 @@
       </c>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="225" t="s">
         <v>173</v>
       </c>
@@ -8777,48 +8772,48 @@
         <v>0.23</v>
       </c>
       <c r="E9" s="172">
-        <f>IF($E$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,E7+1)), "#N/A")</f>
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,E7+1)</f>
         <v>0.26</v>
       </c>
       <c r="F9" s="172">
-        <f>IF($F$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,F7+1)), "#N/A")</f>
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,F7+1)</f>
         <v>0.69</v>
       </c>
       <c r="G9" s="172">
-        <f>IF($G$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,G7+1)),"#N/A")</f>
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,G7+1)</f>
         <v>0.32</v>
       </c>
       <c r="H9" s="172">
-        <f>IF($H$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,H7+1)),"#N/A")</f>
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,H7+1)</f>
         <v>1.27</v>
       </c>
-      <c r="I9" s="172" t="str">
-        <f>IF($I$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,I7+1)),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="172" t="str">
-        <f>IF($J$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,J7+1)),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="172" t="str">
-        <f>IF($K$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,K7+1)),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="172" t="str">
-        <f>IF($L$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,L7+1)),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="172" t="str">
-        <f>IF($M$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,M7+1)),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N9" s="172" t="str">
-        <f>IF($N$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,N7+1)),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="172" t="str">
-        <f>IF($O$7&lt;$C$9,(VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,O7+1)),"#N/A")</f>
-        <v>#N/A</v>
+      <c r="I9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,I7+1)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,J7+1)</f>
+        <v>1.75</v>
+      </c>
+      <c r="K9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,K7+1)</f>
+        <v>1.28</v>
+      </c>
+      <c r="L9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,L7+1)</f>
+        <v>1.46</v>
+      </c>
+      <c r="M9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,M7+1)</f>
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,N7+1)</f>
+        <v>0.45</v>
+      </c>
+      <c r="O9" s="172">
+        <f>VLOOKUP($B$9, 'CPER Precip'!$A$2:$M$81,O7+1)</f>
+        <v>0.03</v>
       </c>
       <c r="P9"/>
       <c r="Q9" s="226">
@@ -8826,7 +8821,7 @@
       </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="225" t="s">
         <v>204</v>
       </c>
@@ -8835,53 +8830,53 @@
         <v>0.76835164835164838</v>
       </c>
       <c r="E10" s="172">
-        <f>IF($E$7&lt;$C$9,(E9/E8), "#N/A")</f>
+        <f t="shared" ref="E10:O10" si="0">E9/E8</f>
         <v>0.92988235294117605</v>
       </c>
       <c r="F10" s="172">
-        <f>IF($F$7&lt;$C$9,(F9/F8), "#N/A")</f>
+        <f t="shared" si="0"/>
         <v>0.9531079607415488</v>
       </c>
       <c r="G10" s="172">
-        <f>IF($G$7&lt;$C$9,(G9/G8),"#N/A")</f>
+        <f t="shared" si="0"/>
         <v>0.25583841784136335</v>
       </c>
       <c r="H10" s="172">
-        <f>IF($H$7&lt;$C$9,(H9/H8),"#N/A")</f>
+        <f t="shared" si="0"/>
         <v>0.57017958412098302</v>
       </c>
-      <c r="I10" s="172" t="str">
-        <f>IF($I$7&lt;$C$9,(I9/I8), "#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="172" t="str">
-        <f>IF($J$7&lt;$C$9,(J9/J8),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" s="172" t="str">
-        <f>IF($K$7&lt;$C$9,(K9/K8),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="172" t="str">
-        <f>IF($L$7&lt;$C$9,(L9/L8),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="172" t="str">
-        <f>IF($M$7&lt;$C$9,(M9/M8),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" s="172" t="str">
-        <f>IF($N$7&lt;$C$9,(N9/N8),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="172" t="str">
-        <f>IF($O$7&lt;$C$9,(O9/O8),"#N/A")</f>
-        <v>#N/A</v>
+      <c r="I10" s="172">
+        <f t="shared" si="0"/>
+        <v>0.49713818479149624</v>
+      </c>
+      <c r="J10" s="172">
+        <f t="shared" si="0"/>
+        <v>0.85492061451436652</v>
+      </c>
+      <c r="K10" s="172">
+        <f t="shared" si="0"/>
+        <v>0.76676913375896594</v>
+      </c>
+      <c r="L10" s="172">
+        <f t="shared" si="0"/>
+        <v>1.1740992167101825</v>
+      </c>
+      <c r="M10" s="172">
+        <f t="shared" si="0"/>
+        <v>0.89490287232276255</v>
+      </c>
+      <c r="N10" s="172">
+        <f t="shared" si="0"/>
+        <v>1.1492537313432836</v>
+      </c>
+      <c r="O10" s="172">
+        <f t="shared" si="0"/>
+        <v>0.10958254269449715</v>
       </c>
       <c r="P10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="225" t="s">
         <v>251</v>
       </c>
@@ -8928,7 +8923,7 @@
       <c r="R11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="225" t="s">
         <v>252</v>
       </c>
@@ -8975,7 +8970,7 @@
       <c r="R12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="225" t="s">
         <v>253</v>
       </c>
@@ -9019,7 +9014,7 @@
       <c r="R13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="225" t="s">
         <v>254</v>
       </c>
@@ -9063,7 +9058,7 @@
       <c r="R14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="225"/>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
@@ -9079,7 +9074,7 @@
       <c r="O15" s="228"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="348" t="s">
         <v>264</v>
       </c>
@@ -9088,160 +9083,160 @@
         <v>0.12139956043956045</v>
       </c>
       <c r="E16" s="172">
-        <f>IF($E$7&lt;$C$9,(E11*E$10),0)</f>
+        <f t="shared" ref="E16:O16" si="1">E11*E$10</f>
         <v>0</v>
       </c>
       <c r="F16" s="172">
-        <f>IF($F$7&lt;$C$9,(F11*F$10),IF($Q$9&gt;$F$7,0.049431,0.086547))</f>
+        <f t="shared" si="1"/>
         <v>0.13152889858233374</v>
       </c>
       <c r="G16" s="172">
-        <f>IF($G$7&lt;$C$9,(G11*G$10),IF($Q$9&gt;$G$7,0.049431,0.086547))</f>
+        <f t="shared" si="1"/>
         <v>0.10182369030086262</v>
       </c>
       <c r="H16" s="172">
-        <f>IF($H$7&lt;$C$9,(H11*H$10),IF($Q$9&gt;$H$7,0.049431,0.086547))</f>
+        <f t="shared" si="1"/>
         <v>0.12087807183364839</v>
       </c>
       <c r="I16" s="172">
-        <f>IF($I$7&lt;$C$9,(I11*I$10),IF($Q$9&gt;$I$7,0.049431,0.086547))</f>
-        <v>4.9431000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.6730989370400648E-2</v>
       </c>
       <c r="J16" s="172">
-        <f>IF($J$7&lt;$C$9,(J11*J$10), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="172">
-        <f>IF($K$7&lt;$C$9,(K11*K$10),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="172">
-        <f>IF($L$7&lt;$C$9,(L11*L$10), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="172">
-        <f>IF($M$7&lt;$C$9,(M11*M$10), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="172">
-        <f>IF($N$7&lt;$C$9,(N11*N$10),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="172">
-        <f>IF($O$7&lt;$C$9,(O11*O$10), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="348" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="172">
-        <f>D12*D$10</f>
+        <f t="shared" ref="D17:O19" si="2">D12*D$10</f>
         <v>7.6835164835164843E-3</v>
       </c>
       <c r="E17" s="172">
-        <f>IF($E$7&lt;$C$9,(E12*E$10), IF($Q$9&gt;$E$7,0.047911,0.118421))</f>
+        <f t="shared" si="2"/>
         <v>9.2988235294117604E-3</v>
       </c>
       <c r="F17" s="172">
-        <f>IF($F$7&lt;$C$9,(F12*F$10), IF($Q$9&gt;$F$7,0.047911,0.118421))</f>
+        <f t="shared" si="2"/>
         <v>3.8578891413762105E-2</v>
       </c>
       <c r="G17" s="172">
-        <f>IF($G$7&lt;$C$9,(G12*G$10), IF($Q$9&gt;$G$7,0.047911,0.118421))</f>
+        <f t="shared" si="2"/>
         <v>2.814222596254997E-2</v>
       </c>
       <c r="H17" s="172">
-        <f>IF($H$7&lt;$C$9,(H12*H$10), IF($Q$9&gt;$H$7,0.047911,0.118421))</f>
+        <f t="shared" si="2"/>
         <v>9.1228733459357281E-2</v>
       </c>
       <c r="I17" s="172">
-        <f>IF($I$7&lt;$C$9,(I12*I$10), IF($Q$9&gt;$I$7,0.047911,0.118421))</f>
-        <v>4.7911000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.1043990188062142</v>
       </c>
       <c r="J17" s="172">
-        <f>IF($J$7&lt;$C$9,(J12*J$10), IF($Q$9&gt;$J$7,0.047911,0.118421))</f>
-        <v>4.7911000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.13678729832229863</v>
       </c>
       <c r="K17" s="172">
-        <f>IF($K$7&lt;$C$9,(K12*K$10), IF($Q$9&gt;$K$7,0.047911,0.118421))</f>
-        <v>0.118421</v>
+        <f t="shared" si="2"/>
+        <v>7.3621385293455785E-2</v>
       </c>
       <c r="L17" s="172">
-        <f>IF($L$7&lt;$C$9,(L12*L$10), IF($Q$9&gt;$L$7,0.047911,0.118421))</f>
-        <v>0.118421</v>
+        <f t="shared" si="2"/>
+        <v>0.12328041775456916</v>
       </c>
       <c r="M17" s="172">
-        <f>IF($M$7&lt;$C$9,(M12*M$10), IF($Q$9&gt;$M$7,0.047911,0.118421))</f>
-        <v>0.118421</v>
+        <f t="shared" si="2"/>
+        <v>7.0480270145281895E-2</v>
       </c>
       <c r="N17" s="172">
-        <f>IF($N$7&lt;$C$9,(N12*N$10), IF($Q$9&gt;$N$7,0.047911,0.118421))</f>
-        <v>0.118421</v>
+        <f t="shared" si="2"/>
+        <v>1.1492537313432836E-2</v>
       </c>
       <c r="O17" s="172">
-        <f>IF($O$7&lt;$C$9,(O12*O$10), IF($Q$9&gt;$O$7,0.047911,0.118421))</f>
-        <v>0.118421</v>
+        <f t="shared" si="2"/>
+        <v>1.0958254269449715E-3</v>
       </c>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="348" t="s">
         <v>266</v>
       </c>
       <c r="D18" s="172">
-        <f>D13*D$10</f>
+        <f t="shared" si="2"/>
         <v>7.6835164835164843E-3</v>
       </c>
       <c r="E18" s="172">
-        <f>IF($E$7&lt;$C$9,(E13*E$10), IF($Q$9&gt;$E$7, 0.048161,0.099464))</f>
+        <f t="shared" si="2"/>
         <v>9.2988235294117604E-3</v>
       </c>
       <c r="F18" s="172">
-        <f>IF($F$7&lt;$C$9,(F13*F$10), IF($Q$9&gt;$F$7, 0.048161,0.099464))</f>
+        <f t="shared" si="2"/>
         <v>4.2889858233369695E-2</v>
       </c>
       <c r="G18" s="172">
-        <f>IF($G$7&lt;$C$9,(G13*G$10), IF($Q$9&gt;$G$7, 0.048161,0.099464))</f>
+        <f t="shared" si="2"/>
         <v>2.0467073427309069E-2</v>
       </c>
       <c r="H18" s="172">
-        <f>IF($H$7&lt;$C$9,(H13*H$10), IF($Q$9&gt;$H$7, 0.048161,0.099464))</f>
+        <f t="shared" si="2"/>
         <v>9.6930529300567114E-2</v>
       </c>
       <c r="I18" s="172">
-        <f>IF($I$7&lt;$C$9,(I13*I$10), IF($Q$9&gt;$I$7, 0.048161,0.099464))</f>
-        <v>4.8161000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.1043990188062142</v>
       </c>
       <c r="J18" s="172">
-        <f>IF($J$7&lt;$C$9,(J13*J$10),IF($Q$9&gt;$J$7,0.048161,0.099464))</f>
-        <v>4.8161000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.14106190139487049</v>
       </c>
       <c r="K18" s="172">
-        <f>IF($K$7&lt;$C$9,(K13*K$10), IF($Q$9&gt;$K$7, 0.048161,0.099464))</f>
-        <v>9.9463999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.967998738866557E-2</v>
       </c>
       <c r="L18" s="172">
-        <f>IF($L$7&lt;$C$9,(L13*L$10),IF($Q$9&gt;$L$7,0.048161,0.099464))</f>
-        <v>9.9463999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12915091383812008</v>
       </c>
       <c r="M18" s="172">
-        <f>IF($M$7&lt;$C$9,(M13*M$10), IF($Q$9&gt;$M$7, 0.048161,0.099464))</f>
-        <v>9.9463999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.4745143616138128E-2</v>
       </c>
       <c r="N18" s="172">
-        <f>IF($N$7&lt;$C$9,(N13*N$10), IF($Q$9&gt;$N$7, 0.048161,0.099464))</f>
-        <v>9.9463999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1492537313432836E-2</v>
       </c>
       <c r="O18" s="172">
-        <f>IF($O$7&lt;$C$9,(O13*O$10), IF($Q$9&gt;$O$7, 0.048161,0.099464))</f>
-        <v>9.9463999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0958254269449715E-3</v>
       </c>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="348" t="s">
         <v>267</v>
       </c>
@@ -9250,55 +9245,55 @@
         <v>7.6835164835164843E-3</v>
       </c>
       <c r="E19" s="172">
-        <f>IF($E$7&lt;$C$9,(E14*E$10),IF($Q$9&gt;$E$7, 0.046688,0.109621))</f>
+        <f t="shared" ref="E19:O19" si="3">E14*E$10</f>
         <v>9.2988235294117604E-3</v>
       </c>
       <c r="F19" s="172">
-        <f>IF($F$7&lt;$C$9,(F14*F$10),IF($Q$9&gt;$F$7, 0.046688,0.109621))</f>
+        <f t="shared" si="3"/>
         <v>3.6189509269356608E-2</v>
       </c>
       <c r="G19" s="172">
-        <f>IF($G$7&lt;$C$9,(G14*G$10),IF($Q$9&gt;$G$7, 0.046688,0.109621))</f>
+        <f t="shared" si="3"/>
         <v>1.075800547022933E-2</v>
       </c>
       <c r="H19" s="172">
-        <f>IF($H$7&lt;$C$9,(H14*H$10),IF($Q$9&gt;$H$7, 0.046688,0.109621))</f>
+        <f t="shared" si="3"/>
         <v>4.2763468809073724E-2</v>
       </c>
       <c r="I19" s="172">
-        <f>IF($I$7&lt;$C$9,(I14*I$10),IF($Q$9&gt;$I$7, 0.046688,0.109621))</f>
-        <v>4.6688E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9656582174979544E-2</v>
       </c>
       <c r="J19" s="172">
-        <f>IF($J$7&lt;$C$9,(J14*J$10),IF($Q$9&gt;$J$7, 0.046688,0.109621))</f>
-        <v>4.6688E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.21373015362859163</v>
       </c>
       <c r="K19" s="172">
-        <f>IF($K$7&lt;$C$9,(K14*K$10),IF($Q$9&gt;$K$7, 0.046688,0.109621))</f>
-        <v>0.109621</v>
+        <f t="shared" si="3"/>
+        <v>0.18402459210215183</v>
       </c>
       <c r="L19" s="172">
-        <f>IF($L$7&lt;$C$9,(L14*L$10),IF($Q$9&gt;$L$7, 0.046688,0.109621))</f>
-        <v>0.109621</v>
+        <f t="shared" si="3"/>
+        <v>0.15024947676240205</v>
       </c>
       <c r="M19" s="172">
-        <f>IF($M$7&lt;$C$9,(M14*M$10),IF($Q$9&gt;$M$7, 0.046688,0.109621))</f>
-        <v>0.109621</v>
+        <f t="shared" si="3"/>
+        <v>5.9958492445625095E-2</v>
       </c>
       <c r="N19" s="172">
-        <f>IF($N$7&lt;$C$9,(N14*N$10),IF($Q$9&gt;$N$7, 0.046688,0.109621))</f>
-        <v>0.109621</v>
+        <f t="shared" si="3"/>
+        <v>1.1492537313432836E-2</v>
       </c>
       <c r="O19" s="172">
-        <f>IF($O$7&lt;$C$9,(O14*O$10),IF($Q$9&gt;$O$7, 0.046688,0.109621))</f>
-        <v>0.109621</v>
+        <f t="shared" si="3"/>
+        <v>1.0958254269449715E-3</v>
       </c>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9316,7 +9311,7 @@
       <c r="O21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9333,7 +9328,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9350,7 +9345,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9367,7 +9362,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9384,7 +9379,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9401,7 +9396,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9418,7 +9413,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9435,7 +9430,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9452,7 +9447,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -9469,7 +9464,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9486,7 +9481,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -9503,7 +9498,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9520,7 +9515,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9545,22 +9540,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="175" customWidth="1"/>
-    <col min="2" max="13" width="5.6640625" style="175" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="175" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="175"/>
+    <col min="1" max="1" width="12.42578125" style="175" customWidth="1"/>
+    <col min="2" max="13" width="5.7109375" style="175" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="175" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="175"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="175" t="s">
         <v>188</v>
       </c>
@@ -9574,7 +9569,7 @@
       <c r="I1" s="473"/>
       <c r="J1" s="473"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="175" t="s">
         <v>173</v>
       </c>
@@ -9618,7 +9613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="175">
         <v>1939</v>
       </c>
@@ -9663,7 +9658,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="175">
         <v>1940</v>
       </c>
@@ -9708,7 +9703,7 @@
         <v>14.810000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="175">
         <v>1941</v>
       </c>
@@ -9753,7 +9748,7 @@
         <v>19.809999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="175">
         <v>1942</v>
       </c>
@@ -9798,7 +9793,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="175">
         <v>1943</v>
       </c>
@@ -9847,7 +9842,7 @@
       </c>
       <c r="P7" s="178"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="175">
         <v>1944</v>
       </c>
@@ -9892,7 +9887,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="175">
         <v>1945</v>
       </c>
@@ -9937,7 +9932,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="175">
         <v>1946</v>
       </c>
@@ -9982,7 +9977,7 @@
         <v>11.790000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="175">
         <v>1947</v>
       </c>
@@ -10027,7 +10022,7 @@
         <v>15.429999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="175">
         <v>1948</v>
       </c>
@@ -10072,7 +10067,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="175">
         <v>1949</v>
       </c>
@@ -10117,7 +10112,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="175">
         <v>1950</v>
       </c>
@@ -10162,7 +10157,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="175">
         <v>1951</v>
       </c>
@@ -10207,7 +10202,7 @@
         <v>13.110000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="175">
         <v>1952</v>
       </c>
@@ -10252,7 +10247,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="175">
         <v>1953</v>
       </c>
@@ -10297,7 +10292,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="175">
         <v>1954</v>
       </c>
@@ -10342,7 +10337,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="175">
         <v>1955</v>
       </c>
@@ -10387,7 +10382,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="175">
         <v>1956</v>
       </c>
@@ -10432,7 +10427,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="175">
         <v>1957</v>
       </c>
@@ -10477,7 +10472,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="175">
         <v>1958</v>
       </c>
@@ -10522,7 +10517,7 @@
         <v>13.270000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="175">
         <v>1959</v>
       </c>
@@ -10567,7 +10562,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="175">
         <v>1960</v>
       </c>
@@ -10612,7 +10607,7 @@
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="175">
         <v>1961</v>
       </c>
@@ -10657,7 +10652,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="175">
         <v>1962</v>
       </c>
@@ -10702,7 +10697,7 @@
         <v>15.879999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="175">
         <v>1963</v>
       </c>
@@ -10747,7 +10742,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="175">
         <v>1964</v>
       </c>
@@ -10792,7 +10787,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="175">
         <v>1965</v>
       </c>
@@ -10837,7 +10832,7 @@
         <v>14.839999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="175">
         <v>1966</v>
       </c>
@@ -10882,7 +10877,7 @@
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="175">
         <v>1967</v>
       </c>
@@ -10927,7 +10922,7 @@
         <v>22.88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="175">
         <v>1968</v>
       </c>
@@ -10972,7 +10967,7 @@
         <v>13.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="175">
         <v>1969</v>
       </c>
@@ -11017,7 +11012,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="175">
         <v>1970</v>
       </c>
@@ -11062,7 +11057,7 @@
         <v>9.5400000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="175">
         <v>1971</v>
       </c>
@@ -11107,7 +11102,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="175">
         <v>1972</v>
       </c>
@@ -11152,7 +11147,7 @@
         <v>14.719999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="175">
         <v>1973</v>
       </c>
@@ -11197,7 +11192,7 @@
         <v>10.829999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="175">
         <v>1974</v>
       </c>
@@ -11242,7 +11237,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="175">
         <v>1975</v>
       </c>
@@ -11287,7 +11282,7 @@
         <v>12.040000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="175">
         <v>1976</v>
       </c>
@@ -11332,7 +11327,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="175">
         <v>1977</v>
       </c>
@@ -11377,7 +11372,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="175">
         <v>1978</v>
       </c>
@@ -11422,7 +11417,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="175">
         <v>1979</v>
       </c>
@@ -11467,7 +11462,7 @@
         <v>19.429999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="175">
         <v>1980</v>
       </c>
@@ -11512,7 +11507,7 @@
         <v>14.180000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="175">
         <v>1981</v>
       </c>
@@ -11557,7 +11552,7 @@
         <v>15.629999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="175">
         <v>1982</v>
       </c>
@@ -11602,7 +11597,7 @@
         <v>18.689999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="175">
         <v>1983</v>
       </c>
@@ -11647,7 +11642,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="175">
         <v>1984</v>
       </c>
@@ -11692,7 +11687,7 @@
         <v>18.919999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="175">
         <v>1985</v>
       </c>
@@ -11737,7 +11732,7 @@
         <v>12.130000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="175">
         <v>1986</v>
       </c>
@@ -11782,7 +11777,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="175">
         <v>1987</v>
       </c>
@@ -11827,7 +11822,7 @@
         <v>17.439999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="175">
         <v>1988</v>
       </c>
@@ -11872,7 +11867,7 @@
         <v>10.959999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="175">
         <v>1989</v>
       </c>
@@ -11917,7 +11912,7 @@
         <v>14.419999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="175">
         <v>1990</v>
       </c>
@@ -11962,7 +11957,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="175">
         <v>1991</v>
       </c>
@@ -12007,7 +12002,7 @@
         <v>16.689999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="175">
         <v>1992</v>
       </c>
@@ -12052,7 +12047,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="175">
         <v>1993</v>
       </c>
@@ -12097,7 +12092,7 @@
         <v>16.960000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="175">
         <v>1994</v>
       </c>
@@ -12142,7 +12137,7 @@
         <v>11.979999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="175">
         <v>1995</v>
       </c>
@@ -12187,7 +12182,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="175">
         <v>1996</v>
       </c>
@@ -12232,7 +12227,7 @@
         <v>15.240000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="175">
         <v>1997</v>
       </c>
@@ -12277,7 +12272,7 @@
         <v>22.250000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="175">
         <v>1998</v>
       </c>
@@ -12322,7 +12317,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="175">
         <v>1999</v>
       </c>
@@ -12367,7 +12362,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="175">
         <v>2000</v>
       </c>
@@ -12412,7 +12407,7 @@
         <v>12.250000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="175">
         <v>2001</v>
       </c>
@@ -12457,7 +12452,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="175">
         <v>2002</v>
       </c>
@@ -12502,7 +12497,7 @@
         <v>9.5599999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="175">
         <v>2003</v>
       </c>
@@ -12547,7 +12542,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="175">
         <v>2004</v>
       </c>
@@ -12592,7 +12587,7 @@
         <v>11.550000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="175">
         <v>2005</v>
       </c>
@@ -12637,7 +12632,7 @@
         <v>14.569999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="175">
         <v>2006</v>
       </c>
@@ -12682,7 +12677,7 @@
         <v>11.840000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="175">
         <v>2007</v>
       </c>
@@ -12727,7 +12722,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="175">
         <v>2008</v>
       </c>
@@ -12772,7 +12767,7 @@
         <v>13.020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="175">
         <v>2009</v>
       </c>
@@ -12817,7 +12812,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="175">
         <v>2010</v>
       </c>
@@ -12862,7 +12857,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="175">
         <v>2011</v>
       </c>
@@ -12907,7 +12902,7 @@
         <v>14.030000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="175">
         <v>2012</v>
       </c>
@@ -12982,7 +12977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="175">
         <v>2013</v>
       </c>
@@ -13027,7 +13022,7 @@
         <v>15.989999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="175">
         <v>2014</v>
       </c>
@@ -13072,7 +13067,7 @@
         <v>14.559999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="175">
         <v>2015</v>
       </c>
@@ -13117,7 +13112,7 @@
         <v>14.979999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="175">
         <v>2016</v>
       </c>
@@ -13147,7 +13142,7 @@
       <c r="M80" s="179"/>
       <c r="N80" s="179"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="175" t="s">
         <v>202</v>
       </c>
@@ -13204,7 +13199,7 @@
         <v>13.457922077922078</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B82" s="177" t="s">
         <v>201</v>
       </c>
@@ -13220,7 +13215,7 @@
       <c r="L82" s="177"/>
       <c r="M82" s="177"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="180" t="s">
         <v>203</v>
       </c>
@@ -13289,35 +13284,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
-      <selection activeCell="T166" sqref="T166"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="158" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="0.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="0.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="0.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="13" width="0.83203125" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" customWidth="1"/>
-    <col min="15" max="15" width="0.83203125" customWidth="1"/>
-    <col min="16" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
-    <col min="25" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="13" width="0.85546875" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="0.85546875" customWidth="1"/>
+    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="25" max="28" width="10.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13340,7 +13335,7 @@
       <c r="U1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="C2" s="347" t="s">
         <v>311</v>
@@ -13365,7 +13360,7 @@
       <c r="U2" s="170"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -13388,7 +13383,7 @@
       <c r="U3" s="170"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -13413,7 +13408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="C5" s="168" t="s">
         <v>263</v>
@@ -13453,7 +13448,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="C6" s="483" t="s">
         <v>270</v>
@@ -13478,7 +13473,7 @@
       <c r="U6" s="170"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
       <c r="C7" s="68" t="s">
         <v>41</v>
@@ -13505,7 +13500,7 @@
       <c r="U7" s="67"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="C8" s="15" t="s">
         <v>1</v>
@@ -13551,7 +13546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>72</v>
@@ -13584,7 +13579,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
       <c r="C10" s="16" t="s">
         <v>3</v>
@@ -13620,7 +13615,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
       <c r="C11" s="69" t="s">
         <v>53</v>
@@ -13653,7 +13648,7 @@
       </c>
       <c r="V11" s="470">
         <f>(($U$11-$U$10)*$I$13)+$U$10</f>
-        <v>548.45515521918924</v>
+        <v>534.50140397067605</v>
       </c>
       <c r="AH11" s="363"/>
       <c r="AI11" s="357"/>
@@ -13661,7 +13656,7 @@
       <c r="AK11" s="357"/>
       <c r="AM11" s="357"/>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67"/>
       <c r="C12" s="16" t="s">
         <v>45</v>
@@ -13698,7 +13693,7 @@
       <c r="AK12" s="357"/>
       <c r="AM12" s="357"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67"/>
       <c r="C13" s="490" t="s">
         <v>309</v>
@@ -13710,7 +13705,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="186">
         <f>'Drought Calculator'!F3</f>
-        <v>0.77091180097417411</v>
+        <v>0.70889512875856031</v>
       </c>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -13738,7 +13733,7 @@
       <c r="AK13" s="357"/>
       <c r="AM13" s="357"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
       <c r="C14" s="68" t="s">
         <v>44</v>
@@ -13775,7 +13770,7 @@
       <c r="AK14" s="357"/>
       <c r="AM14" s="357"/>
     </row>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
@@ -13825,7 +13820,7 @@
       <c r="AK15" s="357"/>
       <c r="AM15" s="357"/>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="C16" s="16" t="s">
         <v>52</v>
@@ -13878,7 +13873,7 @@
       <c r="AK16" s="357"/>
       <c r="AM16" s="357"/>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
       <c r="C17" s="69" t="s">
         <v>36</v>
@@ -13923,7 +13918,7 @@
       <c r="AK17" s="357"/>
       <c r="AM17" s="357"/>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
       <c r="C18" s="15" t="s">
         <v>29</v>
@@ -13975,7 +13970,7 @@
       <c r="AK18" s="357"/>
       <c r="AM18" s="357"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
       <c r="C19" s="15" t="s">
         <v>214</v>
@@ -14020,7 +14015,7 @@
       <c r="AK19" s="357"/>
       <c r="AM19" s="357"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
@@ -14053,7 +14048,7 @@
       <c r="AK20" s="357"/>
       <c r="AM20" s="357"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
       <c r="C21" s="164" t="s">
         <v>170</v>
@@ -14090,7 +14085,7 @@
       <c r="AK21" s="357"/>
       <c r="AM21" s="357"/>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
       <c r="C22" s="163" t="s">
         <v>248</v>
@@ -14121,7 +14116,7 @@
       <c r="AK22" s="357"/>
       <c r="AM22" s="357"/>
     </row>
-    <row r="23" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -14149,7 +14144,7 @@
       <c r="AK23" s="357"/>
       <c r="AM23" s="357"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
       <c r="C24" s="46" t="s">
         <v>4</v>
@@ -14178,7 +14173,7 @@
       <c r="AJ24" s="357"/>
       <c r="AK24" s="357"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
       <c r="C25" s="18"/>
       <c r="D25" s="32"/>
@@ -14202,7 +14197,7 @@
       <c r="U25" s="485"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
@@ -14232,7 +14227,7 @@
       </c>
       <c r="W26" s="13"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
       <c r="C27" s="281" t="s">
         <v>14</v>
@@ -14266,7 +14261,7 @@
       </c>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
       <c r="C28" s="282" t="s">
         <v>15</v>
@@ -14299,7 +14294,7 @@
       </c>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
       <c r="C29" s="282" t="s">
         <v>46</v>
@@ -14331,7 +14326,7 @@
       </c>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="1:39" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -14349,7 +14344,7 @@
       <c r="U30" s="13"/>
       <c r="W30" s="13"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
       <c r="C31" s="61" t="s">
         <v>215</v>
@@ -14362,7 +14357,7 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
       <c r="C32" s="283" t="s">
         <v>227</v>
@@ -14401,7 +14396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67"/>
       <c r="C33" s="284" t="s">
         <v>205</v>
@@ -14440,7 +14435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67"/>
       <c r="C34" s="284" t="s">
         <v>228</v>
@@ -14477,7 +14472,7 @@
       </c>
       <c r="AC34" s="121"/>
     </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67"/>
       <c r="C35" s="284" t="s">
         <v>229</v>
@@ -14514,7 +14509,7 @@
       </c>
       <c r="AC35" s="121"/>
     </row>
-    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
       <c r="C36" s="284" t="s">
         <v>230</v>
@@ -14549,7 +14544,7 @@
       </c>
       <c r="AC36" s="121"/>
     </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
       <c r="C37" s="284" t="s">
         <v>238</v>
@@ -14586,7 +14581,7 @@
       </c>
       <c r="AC37" s="121"/>
     </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
       <c r="C38" s="285"/>
       <c r="D38" s="192"/>
@@ -14618,7 +14613,7 @@
       </c>
       <c r="AC38" s="121"/>
     </row>
-    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="C39" s="286"/>
       <c r="D39" s="195"/>
@@ -14650,7 +14645,7 @@
       </c>
       <c r="AC39" s="121"/>
     </row>
-    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="C40" s="287"/>
       <c r="D40" s="196"/>
@@ -14682,14 +14677,14 @@
       </c>
       <c r="AC40" s="133"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="45"/>
       <c r="W41" s="29"/>
     </row>
-    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="C42" s="61" t="s">
         <v>38</v>
@@ -14710,7 +14705,7 @@
       <c r="U42" s="13"/>
       <c r="W42" s="29"/>
     </row>
-    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="C43" s="288" t="s">
         <v>17</v>
@@ -14743,7 +14738,7 @@
         <v>353700</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="C44" s="289" t="s">
         <v>19</v>
@@ -14778,7 +14773,7 @@
         <v>306675</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="C45" s="289" t="s">
         <v>21</v>
@@ -14816,7 +14811,7 @@
         <v>47025</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="C46" s="289" t="s">
         <v>92</v>
@@ -14851,7 +14846,7 @@
       <c r="AB46" s="114"/>
       <c r="AC46" s="121"/>
     </row>
-    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="C47" s="289" t="s">
         <v>93</v>
@@ -14890,7 +14885,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="C48" s="289" t="s">
         <v>94</v>
@@ -14929,7 +14924,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="C49" s="290" t="s">
         <v>39</v>
@@ -14969,7 +14964,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="C50" s="291" t="s">
         <v>98</v>
@@ -15005,7 +15000,7 @@
       <c r="AB50" s="114"/>
       <c r="AC50" s="121"/>
     </row>
-    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="C51" s="292" t="s">
         <v>99</v>
@@ -15046,7 +15041,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -15070,11 +15065,11 @@
       <c r="AA52" s="126"/>
       <c r="AB52" s="114"/>
       <c r="AC52" s="124">
-        <f>AC51*AB16*(I16/365)</f>
-        <v>3143.8356164383567</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f>AC51*AB16*(I16/360)</f>
+        <v>3187.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="C53" s="61" t="s">
         <v>100</v>
@@ -15102,10 +15097,10 @@
       <c r="AB53" s="114"/>
       <c r="AC53" s="124">
         <f>(AC51+AC52)*I16</f>
-        <v>6414.2979452054797</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6414.84375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="C54" s="293" t="s">
         <v>105</v>
@@ -15136,10 +15131,10 @@
       <c r="AB54" s="116"/>
       <c r="AC54" s="128">
         <f>(AC51+AC52+AC53)*I16</f>
-        <v>6494.4766695205481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6495.029296875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="C55" s="294" t="s">
         <v>104</v>
@@ -15165,7 +15160,7 @@
       </c>
       <c r="W55" s="13"/>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="C56" s="294" t="s">
         <v>103</v>
@@ -15216,7 +15211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="C57" s="295" t="s">
         <v>78</v>
@@ -15273,7 +15268,7 @@
         <v>514687.5</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="C58" s="296" t="s">
         <v>40</v>
@@ -15312,7 +15307,7 @@
       </c>
       <c r="Z58" s="148">
         <f t="shared" ref="Z58:AD58" si="5">Q92</f>
-        <v>547825.06060398067</v>
+        <v>542182.20546033559</v>
       </c>
       <c r="AA58" s="148">
         <f t="shared" si="5"/>
@@ -15331,7 +15326,7 @@
         <v>501070.49119880609</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="C59" s="474" t="s">
         <v>96</v>
@@ -15351,11 +15346,11 @@
       <c r="S59" s="139"/>
       <c r="T59" s="25">
         <f>U59/I8</f>
-        <v>-5.2397260273972615</v>
+        <v>-5.3125</v>
       </c>
       <c r="U59" s="247">
-        <f>-(AC49*AB16*(I16/365))</f>
-        <v>-3143.8356164383567</v>
+        <f>-(AC49*AB16*(I16/360))</f>
+        <v>-3187.5</v>
       </c>
       <c r="W59" s="13"/>
       <c r="X59" s="149">
@@ -15368,7 +15363,7 @@
       </c>
       <c r="Z59" s="148">
         <f t="shared" ref="Z59:AD59" si="6">Q107</f>
-        <v>569187.22391765972</v>
+        <v>563495.98129115801</v>
       </c>
       <c r="AA59" s="148">
         <f t="shared" si="6"/>
@@ -15387,7 +15382,7 @@
         <v>501937.17066083587</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="C60" s="477"/>
       <c r="D60" s="478"/>
@@ -15405,11 +15400,11 @@
       <c r="S60" s="140"/>
       <c r="T60" s="141">
         <f>SUM(T56:T59)</f>
-        <v>193.13527397260273</v>
+        <v>193.0625</v>
       </c>
       <c r="U60" s="248">
         <f>SUM(U56:U59)</f>
-        <v>115881.16438356164</v>
+        <v>115837.5</v>
       </c>
       <c r="W60" s="13"/>
       <c r="X60" s="149">
@@ -15422,7 +15417,7 @@
       </c>
       <c r="Z60" s="148">
         <f>Q121</f>
-        <v>590732.56778175372</v>
+        <v>584992.52274972969</v>
       </c>
       <c r="AA60" s="148">
         <f>R121</f>
@@ -15441,7 +15436,7 @@
         <v>502811.28189925256</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="C61" s="477"/>
       <c r="D61" s="478"/>
@@ -15476,7 +15471,7 @@
       </c>
       <c r="Z61" s="148">
         <f>Q135</f>
-        <v>612462.66296948225</v>
+        <v>606673.39705130865</v>
       </c>
       <c r="AA61" s="148">
         <f>R135</f>
@@ -15495,7 +15490,7 @@
         <v>503692.88864153862</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="C62" s="477"/>
       <c r="D62" s="478"/>
@@ -15513,11 +15508,11 @@
       <c r="S62" s="23"/>
       <c r="T62" s="24">
         <f>U62/I8</f>
-        <v>-26.754350385273973</v>
+        <v>-26.828955078124999</v>
       </c>
       <c r="U62" s="246">
         <f>-(AC52+AC53+AC54)</f>
-        <v>-16052.610231164384</v>
+        <v>-16097.373046875</v>
       </c>
       <c r="W62" s="13"/>
       <c r="X62" s="149">
@@ -15530,7 +15525,7 @@
       </c>
       <c r="Z62" s="148">
         <f>Q149</f>
-        <v>634379.09372344555</v>
+        <v>628540.18485002359</v>
       </c>
       <c r="AA62" s="148">
         <f>R149</f>
@@ -15549,7 +15544,7 @@
         <v>504582.05516163982</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="C63" s="480"/>
       <c r="D63" s="481"/>
@@ -15575,7 +15570,7 @@
       </c>
       <c r="W63" s="13"/>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -15602,7 +15597,7 @@
       </c>
       <c r="W64" s="13"/>
     </row>
-    <row r="65" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -15629,7 +15624,7 @@
       </c>
       <c r="W65" s="13"/>
     </row>
-    <row r="66" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -15648,15 +15643,15 @@
       <c r="S66" s="23"/>
       <c r="T66" s="24">
         <f>SUM(T61:T65)</f>
-        <v>136.16231628139269</v>
+        <v>136.08771158854165</v>
       </c>
       <c r="U66" s="246">
         <f>SUM(U61:U65)</f>
-        <v>81697.389768835623</v>
+        <v>81652.626953125</v>
       </c>
       <c r="W66" s="13"/>
     </row>
-    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -15675,15 +15670,15 @@
       <c r="S67" s="142"/>
       <c r="T67" s="143">
         <f>T60+T66</f>
-        <v>329.29759025399539</v>
+        <v>329.15021158854165</v>
       </c>
       <c r="U67" s="249">
         <f>U60+U66</f>
-        <v>197578.55415239726</v>
+        <v>197490.126953125</v>
       </c>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -15696,7 +15691,7 @@
       <c r="N68" s="13"/>
       <c r="W68" s="13"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -15716,7 +15711,7 @@
       <c r="U69" s="17"/>
       <c r="W69" s="13"/>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -15739,7 +15734,7 @@
       <c r="U70" s="340"/>
       <c r="W70" s="13"/>
     </row>
-    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15762,7 +15757,7 @@
       <c r="U71" s="29"/>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15799,7 +15794,7 @@
       </c>
       <c r="W72" s="13"/>
     </row>
-    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -15822,7 +15817,7 @@
       <c r="U73" s="67"/>
       <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="C74" s="17"/>
       <c r="E74" s="305" t="s">
@@ -15846,7 +15841,7 @@
       <c r="U74" s="109"/>
       <c r="W74" s="13"/>
     </row>
-    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="C75" s="17"/>
       <c r="E75" s="306" t="s">
@@ -15888,7 +15883,7 @@
       </c>
       <c r="W75" s="13"/>
     </row>
-    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="C76" s="17"/>
       <c r="E76" s="306" t="s">
@@ -15930,7 +15925,7 @@
       </c>
       <c r="W76" s="13"/>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="C77" s="17"/>
       <c r="E77" s="306" t="s">
@@ -15972,7 +15967,7 @@
       </c>
       <c r="W77" s="13"/>
     </row>
-    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="C78" s="70"/>
       <c r="E78" s="307" t="s">
@@ -16014,7 +16009,7 @@
       </c>
       <c r="W78" s="13"/>
     </row>
-    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="C79" s="17"/>
       <c r="E79" s="67"/>
@@ -16036,7 +16031,7 @@
       <c r="U79" s="67"/>
       <c r="W79" s="13"/>
     </row>
-    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="C80" s="17"/>
       <c r="E80" s="108">
@@ -16061,7 +16056,7 @@
       <c r="U80" s="67"/>
       <c r="W80" s="13"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="C81" s="17"/>
       <c r="E81" s="16" t="s">
@@ -16083,7 +16078,7 @@
       </c>
       <c r="Q81" s="89">
         <f>IF($I$22=E80,($I$8*$U$9)*$V$11*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>323314.31400171207</v>
+        <v>315088.57764071354</v>
       </c>
       <c r="R81" s="90">
         <f>($I$8*$U$9)*$U$11*$U$14</f>
@@ -16104,7 +16099,7 @@
       <c r="W81" s="13"/>
       <c r="AC81" s="150"/>
     </row>
-    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="C82" s="17"/>
       <c r="E82" s="16" t="s">
@@ -16146,7 +16141,7 @@
       <c r="W82" s="13"/>
       <c r="AC82" s="150"/>
     </row>
-    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="C83" s="17"/>
       <c r="E83" s="91" t="s">
@@ -16188,7 +16183,7 @@
       </c>
       <c r="W83" s="13"/>
     </row>
-    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="C84" s="17"/>
       <c r="E84" s="235" t="s">
@@ -16210,7 +16205,7 @@
       </c>
       <c r="Q84" s="90">
         <f t="shared" si="15"/>
-        <v>55138.572309009673</v>
+        <v>46912.835948011139</v>
       </c>
       <c r="R84" s="90">
         <f t="shared" si="15"/>
@@ -16251,7 +16246,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="C85" s="17"/>
       <c r="E85" s="91" t="s">
@@ -16273,7 +16268,7 @@
       </c>
       <c r="Q85" s="95">
         <f t="shared" si="16"/>
-        <v>17313.511705029036</v>
+        <v>14730.630487675498</v>
       </c>
       <c r="R85" s="95">
         <f t="shared" si="16"/>
@@ -16320,7 +16315,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="C86" s="17"/>
       <c r="E86" s="96" t="s">
@@ -16342,7 +16337,7 @@
       </c>
       <c r="Q86" s="97">
         <f t="shared" si="18"/>
-        <v>37825.060603980637</v>
+        <v>32182.205460335641</v>
       </c>
       <c r="R86" s="97">
         <f t="shared" si="18"/>
@@ -16371,7 +16366,7 @@
       </c>
       <c r="Z86" s="148">
         <f t="shared" si="19"/>
-        <v>55138.572309009673</v>
+        <v>46912.835948011139</v>
       </c>
       <c r="AA86" s="148">
         <f t="shared" si="19"/>
@@ -16390,7 +16385,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="C87" s="17"/>
       <c r="E87" s="98" t="s">
@@ -16437,7 +16432,7 @@
       </c>
       <c r="Z87" s="148">
         <f t="shared" si="20"/>
-        <v>31140.179757549762</v>
+        <v>31069.644068254198</v>
       </c>
       <c r="AA87" s="148">
         <f t="shared" si="20"/>
@@ -16456,7 +16451,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="C88" s="17"/>
       <c r="E88" s="101" t="s">
@@ -16502,7 +16497,7 @@
       </c>
       <c r="Z88" s="148">
         <f>Q114</f>
-        <v>31407.20679897075</v>
+        <v>31336.066266139478</v>
       </c>
       <c r="AA88" s="148">
         <f>R114</f>
@@ -16521,7 +16516,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="C89" s="17"/>
       <c r="E89" s="305" t="s">
@@ -16554,7 +16549,7 @@
       </c>
       <c r="Z89" s="148">
         <f>Q128</f>
-        <v>31676.523597271924</v>
+        <v>31604.773034371625</v>
       </c>
       <c r="AA89" s="148">
         <f>R128</f>
@@ -16573,7 +16568,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="C90" s="17"/>
       <c r="E90" s="308" t="s">
@@ -16624,7 +16619,7 @@
       </c>
       <c r="Z90" s="148">
         <f>Q142</f>
-        <v>31948.149787118531</v>
+        <v>31875.783963141363</v>
       </c>
       <c r="AA90" s="148">
         <f>R142</f>
@@ -16643,7 +16638,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="C91" s="17"/>
       <c r="E91" s="309" t="s">
@@ -16665,7 +16660,7 @@
       </c>
       <c r="Q91" s="87">
         <f t="shared" ref="Q91:U91" si="25">Q86+Q87-Q88</f>
-        <v>37825.060603980637</v>
+        <v>32182.205460335641</v>
       </c>
       <c r="R91" s="87">
         <f t="shared" si="25"/>
@@ -16685,7 +16680,7 @@
       </c>
       <c r="W91" s="17"/>
     </row>
-    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="C92" s="17"/>
       <c r="E92" s="307" t="s">
@@ -16707,7 +16702,7 @@
       </c>
       <c r="Q92" s="265">
         <f>SUM(Q90:Q91)</f>
-        <v>547825.06060398067</v>
+        <v>542182.20546033559</v>
       </c>
       <c r="R92" s="265">
         <f>SUM(R90:R91)</f>
@@ -16727,7 +16722,7 @@
       </c>
       <c r="W92" s="17"/>
     </row>
-    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="C93" s="17"/>
       <c r="E93" s="67"/>
@@ -16749,7 +16744,7 @@
       <c r="U93" s="67"/>
       <c r="W93" s="17"/>
     </row>
-    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="C94" s="17"/>
       <c r="E94" s="108">
@@ -16774,7 +16769,7 @@
       <c r="U94" s="67"/>
       <c r="W94" s="17"/>
     </row>
-    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="C95" s="17"/>
       <c r="E95" s="98" t="s">
@@ -16815,7 +16810,7 @@
       </c>
       <c r="W95" s="17"/>
     </row>
-    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="C96" s="17"/>
       <c r="E96" s="98" t="s">
@@ -16856,7 +16851,7 @@
       </c>
       <c r="W96" s="17"/>
     </row>
-    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="C97" s="17"/>
       <c r="E97" s="16" t="s">
@@ -16898,7 +16893,7 @@
       </c>
       <c r="W97" s="17"/>
     </row>
-    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="C98" s="17"/>
       <c r="E98" s="91" t="s">
@@ -16920,7 +16915,7 @@
       </c>
       <c r="Q98" s="94">
         <f t="shared" si="28"/>
-        <v>472.81325754975796</v>
+        <v>402.27756825419556</v>
       </c>
       <c r="R98" s="94">
         <f t="shared" si="28"/>
@@ -16940,7 +16935,7 @@
       </c>
       <c r="W98" s="17"/>
     </row>
-    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="C99" s="17"/>
       <c r="E99" s="235" t="s">
@@ -16962,7 +16957,7 @@
       </c>
       <c r="Q99" s="90">
         <f t="shared" si="29"/>
-        <v>31140.179757549762</v>
+        <v>31069.644068254198</v>
       </c>
       <c r="R99" s="90">
         <f t="shared" si="29"/>
@@ -16982,7 +16977,7 @@
       </c>
       <c r="W99" s="17"/>
     </row>
-    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="C100" s="17"/>
       <c r="E100" s="91" t="s">
@@ -17004,7 +16999,7 @@
       </c>
       <c r="Q100" s="95">
         <f t="shared" si="30"/>
-        <v>9778.0164438706252</v>
+        <v>9755.8682374318178</v>
       </c>
       <c r="R100" s="95">
         <f t="shared" si="30"/>
@@ -17024,7 +17019,7 @@
       </c>
       <c r="W100" s="17"/>
     </row>
-    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="C101" s="17"/>
       <c r="E101" s="96" t="s">
@@ -17046,7 +17041,7 @@
       </c>
       <c r="Q101" s="97">
         <f>Q99-Q100</f>
-        <v>21362.163313679135</v>
+        <v>21313.775830822378</v>
       </c>
       <c r="R101" s="97">
         <f t="shared" ref="R101:S101" si="31">R99-R100</f>
@@ -17066,7 +17061,7 @@
       </c>
       <c r="W101" s="17"/>
     </row>
-    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="C102" s="17"/>
       <c r="E102" s="96" t="s">
@@ -17103,7 +17098,7 @@
       </c>
       <c r="W102" s="17"/>
     </row>
-    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="C103" s="17"/>
       <c r="E103" s="96"/>
@@ -17125,7 +17120,7 @@
       <c r="U103" s="90"/>
       <c r="W103" s="17"/>
     </row>
-    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="C104" s="17"/>
       <c r="E104" s="305" t="s">
@@ -17149,7 +17144,7 @@
       <c r="U104" s="70"/>
       <c r="W104" s="17"/>
     </row>
-    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="C105" s="17"/>
       <c r="E105" s="308" t="s">
@@ -17191,7 +17186,7 @@
       </c>
       <c r="W105" s="17"/>
     </row>
-    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="C106" s="17"/>
       <c r="E106" s="309" t="s">
@@ -17213,7 +17208,7 @@
       </c>
       <c r="Q106" s="103">
         <f>Q91+Q101</f>
-        <v>59187.223917659772</v>
+        <v>53495.981291158023</v>
       </c>
       <c r="R106" s="103">
         <f>R91+R101</f>
@@ -17233,7 +17228,7 @@
       </c>
       <c r="W106" s="17"/>
     </row>
-    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="C107" s="17"/>
       <c r="E107" s="307" t="s">
@@ -17255,7 +17250,7 @@
       </c>
       <c r="Q107" s="310">
         <f>SUM(Q105:Q106)</f>
-        <v>569187.22391765972</v>
+        <v>563495.98129115801</v>
       </c>
       <c r="R107" s="310">
         <f t="shared" ref="R107:S107" si="33">SUM(R105:R106)</f>
@@ -17275,7 +17270,7 @@
       </c>
       <c r="W107" s="17"/>
     </row>
-    <row r="108" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="C108" s="17"/>
       <c r="E108" s="104"/>
@@ -17297,7 +17292,7 @@
       <c r="U108" s="30"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="C109" s="17"/>
       <c r="E109" s="108">
@@ -17322,7 +17317,7 @@
       <c r="U109" s="30"/>
       <c r="W109" s="17"/>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="C110" s="17"/>
       <c r="E110" s="98" t="s">
@@ -17363,7 +17358,7 @@
       </c>
       <c r="W110" s="17"/>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="C111" s="17"/>
       <c r="E111" s="98" t="s">
@@ -17404,7 +17399,7 @@
       </c>
       <c r="W111" s="17"/>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="C112" s="17"/>
       <c r="E112" s="16" t="s">
@@ -17446,7 +17441,7 @@
       </c>
       <c r="W112" s="17"/>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="C113" s="17"/>
       <c r="E113" s="91" t="s">
@@ -17468,7 +17463,7 @@
       </c>
       <c r="Q113" s="94">
         <f t="shared" si="34"/>
-        <v>739.8402989707472</v>
+        <v>668.69976613947529</v>
       </c>
       <c r="R113" s="94">
         <f t="shared" si="34"/>
@@ -17488,7 +17483,7 @@
       </c>
       <c r="W113" s="17"/>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="C114" s="17"/>
       <c r="E114" s="235" t="s">
@@ -17510,7 +17505,7 @@
       </c>
       <c r="Q114" s="90">
         <f>SUM(Q110:Q113)</f>
-        <v>31407.20679897075</v>
+        <v>31336.066266139478</v>
       </c>
       <c r="R114" s="90">
         <f>SUM(R110:R113)</f>
@@ -17530,7 +17525,7 @@
       </c>
       <c r="W114" s="17"/>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="C115" s="17"/>
       <c r="E115" s="91" t="s">
@@ -17552,7 +17547,7 @@
       </c>
       <c r="Q115" s="95">
         <f>IF(Q114&gt;0,Q114*(0.124+0.15+0.04),0)</f>
-        <v>9861.8629348768154</v>
+        <v>9839.5248075677955</v>
       </c>
       <c r="R115" s="95">
         <f>IF(R114&gt;0,R114*(0.124+0.15+0.04),0)</f>
@@ -17572,7 +17567,7 @@
       </c>
       <c r="W115" s="17"/>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="C116" s="17"/>
       <c r="E116" s="96" t="s">
@@ -17594,7 +17589,7 @@
       </c>
       <c r="Q116" s="97">
         <f t="shared" si="37"/>
-        <v>21545.343864093935</v>
+        <v>21496.541458571683</v>
       </c>
       <c r="R116" s="97">
         <f t="shared" si="37"/>
@@ -17614,7 +17609,7 @@
       </c>
       <c r="W116" s="17"/>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="C117" s="17"/>
       <c r="E117" s="96" t="s">
@@ -17651,7 +17646,7 @@
       </c>
       <c r="W117" s="17"/>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="C118" s="17"/>
       <c r="E118" s="305" t="s">
@@ -17675,7 +17670,7 @@
       <c r="U118" s="70"/>
       <c r="W118" s="17"/>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="C119" s="17"/>
       <c r="E119" s="308" t="s">
@@ -17717,7 +17712,7 @@
       </c>
       <c r="W119" s="17"/>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="C120" s="17"/>
       <c r="E120" s="309" t="s">
@@ -17739,7 +17734,7 @@
       </c>
       <c r="Q120" s="103">
         <f>Q106+Q116-Q117</f>
-        <v>80732.567781753707</v>
+        <v>74992.522749729702</v>
       </c>
       <c r="R120" s="103">
         <f>R106+R116-R117</f>
@@ -17759,7 +17754,7 @@
       </c>
       <c r="W120" s="17"/>
     </row>
-    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="C121" s="17"/>
       <c r="E121" s="307" t="s">
@@ -17781,7 +17776,7 @@
       </c>
       <c r="Q121" s="310">
         <f t="shared" si="40"/>
-        <v>590732.56778175372</v>
+        <v>584992.52274972969</v>
       </c>
       <c r="R121" s="310">
         <f t="shared" si="40"/>
@@ -17801,7 +17796,7 @@
       </c>
       <c r="W121" s="17"/>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="C122" s="17"/>
       <c r="E122" s="67"/>
@@ -17823,7 +17818,7 @@
       <c r="U122" s="67"/>
       <c r="W122" s="17"/>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="C123" s="17"/>
       <c r="E123" s="108">
@@ -17848,7 +17843,7 @@
       <c r="U123" s="30"/>
       <c r="W123" s="17"/>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="C124" s="17"/>
       <c r="E124" s="98" t="s">
@@ -17889,7 +17884,7 @@
       </c>
       <c r="W124" s="17"/>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="C125" s="17"/>
       <c r="E125" s="98" t="s">
@@ -17930,7 +17925,7 @@
       </c>
       <c r="W125" s="17"/>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="C126" s="17"/>
       <c r="E126" s="16" t="s">
@@ -17972,7 +17967,7 @@
       </c>
       <c r="W126" s="17"/>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="C127" s="17"/>
       <c r="E127" s="91" t="s">
@@ -17994,7 +17989,7 @@
       </c>
       <c r="Q127" s="94">
         <f>IF(Q120&gt;0,Q120*$I$16,Q120*$I$15)</f>
-        <v>1009.1570972719214</v>
+        <v>937.40653437162132</v>
       </c>
       <c r="R127" s="94">
         <f>IF(R120&gt;0,R120*$I$16,R120*$I$15)</f>
@@ -18014,7 +18009,7 @@
       </c>
       <c r="W127" s="17"/>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="C128" s="17"/>
       <c r="E128" s="235" t="s">
@@ -18036,7 +18031,7 @@
       </c>
       <c r="Q128" s="90">
         <f>SUM(Q124:Q127)</f>
-        <v>31676.523597271924</v>
+        <v>31604.773034371625</v>
       </c>
       <c r="R128" s="90">
         <f>SUM(R124:R127)</f>
@@ -18056,7 +18051,7 @@
       </c>
       <c r="W128" s="17"/>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="C129" s="17"/>
       <c r="E129" s="91" t="s">
@@ -18078,7 +18073,7 @@
       </c>
       <c r="Q129" s="95">
         <f>IF(Q128&gt;0,Q128*(0.124+0.15+0.04),0)</f>
-        <v>9946.428409543385</v>
+        <v>9923.8987327926898</v>
       </c>
       <c r="R129" s="95">
         <f>IF(R128&gt;0,R128*(0.124+0.15+0.04),0)</f>
@@ -18098,7 +18093,7 @@
       </c>
       <c r="W129" s="17"/>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="C130" s="17"/>
       <c r="E130" s="96" t="s">
@@ -18120,7 +18115,7 @@
       </c>
       <c r="Q130" s="97">
         <f t="shared" si="44"/>
-        <v>21730.095187728541</v>
+        <v>21680.874301578937</v>
       </c>
       <c r="R130" s="97">
         <f t="shared" si="44"/>
@@ -18140,7 +18135,7 @@
       </c>
       <c r="W130" s="17"/>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="C131" s="17"/>
       <c r="E131" s="96" t="s">
@@ -18177,7 +18172,7 @@
       </c>
       <c r="W131" s="17"/>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="C132" s="17"/>
       <c r="E132" s="305" t="s">
@@ -18201,7 +18196,7 @@
       <c r="U132" s="70"/>
       <c r="W132" s="17"/>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="C133" s="17"/>
       <c r="E133" s="308" t="s">
@@ -18243,7 +18238,7 @@
       </c>
       <c r="W133" s="17"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="C134" s="17"/>
       <c r="E134" s="309" t="s">
@@ -18265,7 +18260,7 @@
       </c>
       <c r="Q134" s="103">
         <f>Q120+Q130-Q131</f>
-        <v>102462.66296948225</v>
+        <v>96673.397051308639</v>
       </c>
       <c r="R134" s="103">
         <f>R120+R130-R131</f>
@@ -18285,7 +18280,7 @@
       </c>
       <c r="W134" s="17"/>
     </row>
-    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="C135" s="17"/>
       <c r="E135" s="307" t="s">
@@ -18307,7 +18302,7 @@
       </c>
       <c r="Q135" s="310">
         <f t="shared" si="47"/>
-        <v>612462.66296948225</v>
+        <v>606673.39705130865</v>
       </c>
       <c r="R135" s="310">
         <f t="shared" si="47"/>
@@ -18327,7 +18322,7 @@
       </c>
       <c r="W135" s="17"/>
     </row>
-    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="C136" s="17"/>
       <c r="E136" s="67"/>
@@ -18349,7 +18344,7 @@
       <c r="U136" s="67"/>
       <c r="W136" s="17"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="C137" s="17"/>
       <c r="E137" s="108">
@@ -18374,7 +18369,7 @@
       <c r="U137" s="30"/>
       <c r="W137" s="17"/>
     </row>
-    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="C138" s="17"/>
       <c r="E138" s="98" t="s">
@@ -18415,7 +18410,7 @@
       </c>
       <c r="W138" s="17"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="C139" s="17"/>
       <c r="E139" s="98" t="s">
@@ -18456,7 +18451,7 @@
       </c>
       <c r="W139" s="17"/>
     </row>
-    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C140" s="17"/>
       <c r="E140" s="16" t="s">
         <v>54</v>
@@ -18497,7 +18492,7 @@
       </c>
       <c r="W140" s="17"/>
     </row>
-    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C141" s="17"/>
       <c r="E141" s="91" t="s">
         <v>58</v>
@@ -18518,7 +18513,7 @@
       </c>
       <c r="Q141" s="94">
         <f>IF(Q134&gt;0,Q134*$I$16,Q134*$I$15)</f>
-        <v>1280.7832871185283</v>
+        <v>1208.417463141358</v>
       </c>
       <c r="R141" s="94">
         <f>IF(R134&gt;0,R134*$I$16,R134*$I$15)</f>
@@ -18538,7 +18533,7 @@
       </c>
       <c r="W141" s="17"/>
     </row>
-    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C142" s="17"/>
       <c r="E142" s="235" t="s">
         <v>49</v>
@@ -18559,7 +18554,7 @@
       </c>
       <c r="Q142" s="90">
         <f>SUM(Q138:Q141)</f>
-        <v>31948.149787118531</v>
+        <v>31875.783963141363</v>
       </c>
       <c r="R142" s="90">
         <f>SUM(R138:R141)</f>
@@ -18579,7 +18574,7 @@
       </c>
       <c r="W142" s="17"/>
     </row>
-    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C143" s="17"/>
       <c r="E143" s="91" t="s">
         <v>33</v>
@@ -18600,7 +18595,7 @@
       </c>
       <c r="Q143" s="95">
         <f>IF(Q142&gt;0,Q142*(0.124+0.15+0.04),0)</f>
-        <v>10031.719033155219</v>
+        <v>10008.996164426388</v>
       </c>
       <c r="R143" s="95">
         <f>IF(R142&gt;0,R142*(0.124+0.15+0.04),0)</f>
@@ -18620,7 +18615,7 @@
       </c>
       <c r="W143" s="17"/>
     </row>
-    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C144" s="17"/>
       <c r="E144" s="96" t="s">
         <v>34</v>
@@ -18641,7 +18636,7 @@
       </c>
       <c r="Q144" s="97">
         <f t="shared" si="51"/>
-        <v>21916.430753963312</v>
+        <v>21866.787798714977</v>
       </c>
       <c r="R144" s="97">
         <f t="shared" si="51"/>
@@ -18661,7 +18656,7 @@
       </c>
       <c r="W144" s="17"/>
     </row>
-    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C145" s="17"/>
       <c r="E145" s="96" t="s">
         <v>55</v>
@@ -18697,7 +18692,7 @@
       </c>
       <c r="W145" s="17"/>
     </row>
-    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C146" s="17"/>
       <c r="E146" s="305" t="s">
         <v>59</v>
@@ -18720,7 +18715,7 @@
       <c r="U146" s="70"/>
       <c r="W146" s="17"/>
     </row>
-    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C147" s="17"/>
       <c r="E147" s="308" t="s">
         <v>0</v>
@@ -18761,7 +18756,7 @@
       </c>
       <c r="W147" s="17"/>
     </row>
-    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C148" s="17"/>
       <c r="E148" s="309" t="s">
         <v>47</v>
@@ -18782,7 +18777,7 @@
       </c>
       <c r="Q148" s="103">
         <f>Q134+Q144-Q145</f>
-        <v>124379.09372344556</v>
+        <v>118540.18485002362</v>
       </c>
       <c r="R148" s="103">
         <f>R134+R144-R145</f>
@@ -18802,7 +18797,7 @@
       </c>
       <c r="W148" s="17"/>
     </row>
-    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C149" s="17"/>
       <c r="E149" s="307" t="s">
         <v>16</v>
@@ -18823,7 +18818,7 @@
       </c>
       <c r="Q149" s="310">
         <f t="shared" ref="Q149:U149" si="54">SUM(Q147:Q148)</f>
-        <v>634379.09372344555</v>
+        <v>628540.18485002359</v>
       </c>
       <c r="R149" s="310">
         <f t="shared" si="54"/>
@@ -18843,7 +18838,7 @@
       </c>
       <c r="W149" s="17"/>
     </row>
-    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C150" s="29"/>
       <c r="E150" s="67"/>
       <c r="F150" s="13"/>
@@ -18864,7 +18859,7 @@
       <c r="U150" s="67"/>
       <c r="W150" s="17"/>
     </row>
-    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C151" s="29"/>
       <c r="E151" s="317" t="s">
         <v>106</v>
@@ -18887,7 +18882,7 @@
       <c r="U151" s="70"/>
       <c r="W151" s="17"/>
     </row>
-    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C152" s="29"/>
       <c r="E152" s="314" t="s">
         <v>56</v>
@@ -18908,7 +18903,7 @@
       </c>
       <c r="Q152" s="322">
         <f t="shared" si="55"/>
-        <v>119691.59372344555</v>
+        <v>113852.68485002359</v>
       </c>
       <c r="R152" s="322">
         <f t="shared" si="55"/>
@@ -18928,7 +18923,7 @@
       </c>
       <c r="W152" s="17"/>
     </row>
-    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C153" s="29"/>
       <c r="E153" s="315" t="s">
         <v>57</v>
@@ -18949,7 +18944,7 @@
       </c>
       <c r="Q153" s="320">
         <f t="shared" si="56"/>
-        <v>199.48598953907592</v>
+        <v>189.75447475003932</v>
       </c>
       <c r="R153" s="320">
         <f t="shared" si="56"/>
@@ -18969,7 +18964,7 @@
       </c>
       <c r="W153" s="17"/>
     </row>
-    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C154" s="29"/>
       <c r="D154" s="17"/>
       <c r="E154" s="136"/>
@@ -18991,7 +18986,7 @@
       <c r="U154" s="138"/>
       <c r="W154" s="17"/>
     </row>
-    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
         <v>201</v>
@@ -19013,7 +19008,7 @@
       <c r="U155" s="58"/>
       <c r="W155" s="17"/>
     </row>
-    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="65"/>
@@ -19024,7 +19019,7 @@
       <c r="U156" s="58"/>
       <c r="W156" s="17"/>
     </row>
-    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="419" t="s">
@@ -19048,7 +19043,7 @@
       <c r="U157" s="109"/>
       <c r="W157" s="17"/>
     </row>
-    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="421" t="s">
@@ -19090,7 +19085,7 @@
       </c>
       <c r="W158" s="17"/>
     </row>
-    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="421" t="s">
@@ -19132,7 +19127,7 @@
       </c>
       <c r="W159" s="17"/>
     </row>
-    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="421" t="s">
@@ -19174,7 +19169,7 @@
       </c>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="307" t="s">
@@ -19216,7 +19211,7 @@
       </c>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
       <c r="E162" s="67"/>
@@ -19238,7 +19233,7 @@
       <c r="U162" s="67"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="108">
@@ -19263,7 +19258,7 @@
       <c r="U163" s="67"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="16" t="s">
@@ -19285,7 +19280,7 @@
       </c>
       <c r="Q164" s="89">
         <f>IF($I$22=E163,($I$8*$U$9)*$V$11*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>323314.31400171207</v>
+        <v>315088.57764071354</v>
       </c>
       <c r="R164" s="90">
         <f>($I$8*$U$9)*$U$11*$U$14</f>
@@ -19305,7 +19300,7 @@
       </c>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="16" t="s">
@@ -19346,7 +19341,7 @@
       </c>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
       <c r="E166" s="91" t="s">
@@ -19388,7 +19383,7 @@
       </c>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
       <c r="E167" s="235" t="s">
@@ -19410,7 +19405,7 @@
       </c>
       <c r="Q167" s="90">
         <f t="shared" si="61"/>
-        <v>23314.314001712075</v>
+        <v>15088.577640713542</v>
       </c>
       <c r="R167" s="90">
         <f t="shared" si="61"/>
@@ -19430,7 +19425,7 @@
       </c>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="91" t="s">
@@ -19452,7 +19447,7 @@
       </c>
       <c r="Q168" s="95">
         <f t="shared" si="62"/>
-        <v>7320.6945965375917</v>
+        <v>4737.8133791840519</v>
       </c>
       <c r="R168" s="95">
         <f t="shared" si="62"/>
@@ -19472,7 +19467,7 @@
       </c>
       <c r="W168" s="29"/>
     </row>
-    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E169" s="96" t="s">
         <v>34</v>
       </c>
@@ -19492,7 +19487,7 @@
       </c>
       <c r="Q169" s="97">
         <f t="shared" si="63"/>
-        <v>15993.619405174482</v>
+        <v>10350.76426152949</v>
       </c>
       <c r="R169" s="97">
         <f t="shared" si="63"/>
@@ -19512,7 +19507,7 @@
       </c>
       <c r="W169" s="29"/>
     </row>
-    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E170" s="98" t="s">
         <v>50</v>
       </c>
@@ -19548,7 +19543,7 @@
       </c>
       <c r="W170" s="29"/>
     </row>
-    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E171" s="101" t="s">
         <v>37</v>
       </c>
@@ -19583,7 +19578,7 @@
       </c>
       <c r="W171" s="29"/>
     </row>
-    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E172" s="419" t="s">
         <v>59</v>
       </c>
@@ -19605,7 +19600,7 @@
       <c r="U172" s="70"/>
       <c r="W172" s="29"/>
     </row>
-    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E173" s="426" t="s">
         <v>0</v>
       </c>
@@ -19645,7 +19640,7 @@
       </c>
       <c r="W173" s="29"/>
     </row>
-    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E174" s="427" t="s">
         <v>47</v>
       </c>
@@ -19665,7 +19660,7 @@
       </c>
       <c r="Q174" s="424">
         <f t="shared" ref="Q174:U174" si="65">Q169+Q170-Q171</f>
-        <v>15993.619405174482</v>
+        <v>10350.76426152949</v>
       </c>
       <c r="R174" s="424">
         <f t="shared" si="65"/>
@@ -19685,7 +19680,7 @@
       </c>
       <c r="W174" s="29"/>
     </row>
-    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E175" s="307" t="s">
         <v>16</v>
       </c>
@@ -19705,7 +19700,7 @@
       </c>
       <c r="Q175" s="265">
         <f>SUM(Q173:Q174)</f>
-        <v>525993.61940517451</v>
+        <v>520350.76426152949</v>
       </c>
       <c r="R175" s="265">
         <f>SUM(R173:R174)</f>
@@ -19725,7 +19720,7 @@
       </c>
       <c r="W175" s="29"/>
     </row>
-    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E176" s="67"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -19745,7 +19740,7 @@
       <c r="U176" s="67"/>
       <c r="W176" s="29"/>
     </row>
-    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E177" s="108">
         <f>E163+1</f>
         <v>2</v>
@@ -19768,7 +19763,7 @@
       <c r="U177" s="67"/>
       <c r="W177" s="29"/>
     </row>
-    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E178" s="98" t="s">
         <v>48</v>
       </c>
@@ -19807,7 +19802,7 @@
       </c>
       <c r="W178" s="29"/>
     </row>
-    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E179" s="98" t="s">
         <v>207</v>
       </c>
@@ -19845,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E180" s="16" t="s">
         <v>54</v>
       </c>
@@ -19884,7 +19879,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E181" s="91" t="s">
         <v>58</v>
       </c>
@@ -19904,7 +19899,7 @@
       </c>
       <c r="Q181" s="94">
         <f t="shared" si="68"/>
-        <v>199.92024256468105</v>
+        <v>129.38455326911864</v>
       </c>
       <c r="R181" s="94">
         <f t="shared" si="68"/>
@@ -19923,7 +19918,7 @@
         <v>5990.4881250000008</v>
       </c>
     </row>
-    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E182" s="235" t="s">
         <v>49</v>
       </c>
@@ -19943,7 +19938,7 @@
       </c>
       <c r="Q182" s="90">
         <f t="shared" si="69"/>
-        <v>37699.92024256468</v>
+        <v>37629.384553269119</v>
       </c>
       <c r="R182" s="90">
         <f t="shared" si="69"/>
@@ -19962,7 +19957,7 @@
         <v>990.48812500000076</v>
       </c>
     </row>
-    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E183" s="91" t="s">
         <v>33</v>
       </c>
@@ -19982,7 +19977,7 @@
       </c>
       <c r="Q183" s="95">
         <f t="shared" si="70"/>
-        <v>11837.774956165309</v>
+        <v>11815.626749726503</v>
       </c>
       <c r="R183" s="95">
         <f t="shared" si="70"/>
@@ -20001,7 +19996,7 @@
         <v>311.01327125000023</v>
       </c>
     </row>
-    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E184" s="96" t="s">
         <v>34</v>
       </c>
@@ -20021,7 +20016,7 @@
       </c>
       <c r="Q184" s="97">
         <f>Q182-Q183</f>
-        <v>25862.145286399369</v>
+        <v>25813.757803542616</v>
       </c>
       <c r="R184" s="97">
         <f t="shared" ref="R184:S184" si="71">R182-R183</f>
@@ -20040,7 +20035,7 @@
         <v>679.47485375000053</v>
       </c>
     </row>
-    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E185" s="96" t="s">
         <v>55</v>
       </c>
@@ -20074,7 +20069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E186" s="96"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
@@ -20093,7 +20088,7 @@
       <c r="T186" s="90"/>
       <c r="U186" s="90"/>
     </row>
-    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E187" s="419" t="s">
         <v>59</v>
       </c>
@@ -20114,7 +20109,7 @@
       <c r="T187" s="70"/>
       <c r="U187" s="70"/>
     </row>
-    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E188" s="426" t="s">
         <v>0</v>
       </c>
@@ -20153,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E189" s="427" t="s">
         <v>47</v>
       </c>
@@ -20173,7 +20168,7 @@
       </c>
       <c r="Q189" s="430">
         <f>Q174+Q184</f>
-        <v>41855.764691573851</v>
+        <v>36164.522065072102</v>
       </c>
       <c r="R189" s="430">
         <f>R174+R184</f>
@@ -20192,7 +20187,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E190" s="307" t="s">
         <v>16</v>
       </c>
@@ -20212,7 +20207,7 @@
       </c>
       <c r="Q190" s="310">
         <f>SUM(Q188:Q189)</f>
-        <v>551855.7646915738</v>
+        <v>546164.52206507209</v>
       </c>
       <c r="R190" s="310">
         <f t="shared" ref="R190:S190" si="73">SUM(R188:R189)</f>
@@ -20231,7 +20226,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E191" s="104"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
@@ -20250,7 +20245,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E192" s="108">
         <f>E177+1</f>
         <v>3</v>
@@ -20272,7 +20267,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E193" s="98" t="s">
         <v>48</v>
       </c>
@@ -20310,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E194" s="98" t="s">
         <v>207</v>
       </c>
@@ -20348,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E195" s="16" t="s">
         <v>54</v>
       </c>
@@ -20387,7 +20382,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E196" s="91" t="s">
         <v>58</v>
       </c>
@@ -20407,7 +20402,7 @@
       </c>
       <c r="Q196" s="94">
         <f t="shared" si="74"/>
-        <v>523.19705864467312</v>
+        <v>452.05652581340132</v>
       </c>
       <c r="R196" s="94">
         <f t="shared" si="74"/>
@@ -20426,7 +20421,7 @@
         <v>5998.9815606718767</v>
       </c>
     </row>
-    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E197" s="235" t="s">
         <v>49</v>
       </c>
@@ -20446,7 +20441,7 @@
       </c>
       <c r="Q197" s="90">
         <f>SUM(Q193:Q196)</f>
-        <v>38023.19705864467</v>
+        <v>37952.056525813401</v>
       </c>
       <c r="R197" s="90">
         <f>SUM(R193:R196)</f>
@@ -20465,7 +20460,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E198" s="91" t="s">
         <v>33</v>
       </c>
@@ -20485,7 +20480,7 @@
       </c>
       <c r="Q198" s="95">
         <f>IF(Q197&gt;0,Q197*(0.124+0.15+0.04),0)</f>
-        <v>11939.283876414427</v>
+        <v>11916.945749105407</v>
       </c>
       <c r="R198" s="95">
         <f>IF(R197&gt;0,R197*(0.124+0.15+0.04),0)</f>
@@ -20504,7 +20499,7 @@
         <v>313.68021005096927</v>
       </c>
     </row>
-    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E199" s="96" t="s">
         <v>34</v>
       </c>
@@ -20524,7 +20519,7 @@
       </c>
       <c r="Q199" s="97">
         <f t="shared" si="77"/>
-        <v>26083.913182230244</v>
+        <v>26035.110776707996</v>
       </c>
       <c r="R199" s="97">
         <f t="shared" si="77"/>
@@ -20543,7 +20538,7 @@
         <v>685.30135062090744</v>
       </c>
     </row>
-    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E200" s="96" t="s">
         <v>55</v>
       </c>
@@ -20577,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E201" s="419" t="s">
         <v>59</v>
       </c>
@@ -20598,7 +20593,7 @@
       <c r="T201" s="70"/>
       <c r="U201" s="70"/>
     </row>
-    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E202" s="426" t="s">
         <v>0</v>
       </c>
@@ -20637,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E203" s="427" t="s">
         <v>47</v>
       </c>
@@ -20657,7 +20652,7 @@
       </c>
       <c r="Q203" s="430">
         <f>Q189+Q199-Q200</f>
-        <v>67939.677873804088</v>
+        <v>62199.632841780098</v>
       </c>
       <c r="R203" s="430">
         <f>R189+R199-R200</f>
@@ -20676,7 +20671,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E204" s="307" t="s">
         <v>16</v>
       </c>
@@ -20696,7 +20691,7 @@
       </c>
       <c r="Q204" s="310">
         <f t="shared" si="80"/>
-        <v>577939.67787380412</v>
+        <v>572199.63284178008</v>
       </c>
       <c r="R204" s="310">
         <f t="shared" si="80"/>
@@ -20715,7 +20710,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E205" s="67"/>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
@@ -20734,7 +20729,7 @@
       <c r="T205" s="67"/>
       <c r="U205" s="67"/>
     </row>
-    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E206" s="108">
         <f>E192+1</f>
         <v>4</v>
@@ -20756,7 +20751,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E207" s="98" t="s">
         <v>48</v>
       </c>
@@ -20794,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E208" s="98" t="s">
         <v>207</v>
       </c>
@@ -20832,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E209" s="16" t="s">
         <v>54</v>
       </c>
@@ -20871,7 +20866,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E210" s="91" t="s">
         <v>58</v>
       </c>
@@ -20891,7 +20886,7 @@
       </c>
       <c r="Q210" s="94">
         <f>IF(Q203&gt;0,Q203*$I$16,Q203*$I$15)</f>
-        <v>849.24597342255117</v>
+        <v>777.49541052225129</v>
       </c>
       <c r="R210" s="94">
         <f>IF(R203&gt;0,R203*$I$16,R203*$I$15)</f>
@@ -20910,7 +20905,7 @@
         <v>6007.5478275546375</v>
       </c>
     </row>
-    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E211" s="235" t="s">
         <v>49</v>
       </c>
@@ -20930,7 +20925,7 @@
       </c>
       <c r="Q211" s="90">
         <f>SUM(Q207:Q210)</f>
-        <v>38349.245973422549</v>
+        <v>38277.49541052225</v>
       </c>
       <c r="R211" s="90">
         <f>SUM(R207:R210)</f>
@@ -20949,7 +20944,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E212" s="91" t="s">
         <v>33</v>
       </c>
@@ -20969,7 +20964,7 @@
       </c>
       <c r="Q212" s="95">
         <f>IF(Q211&gt;0,Q211*(0.124+0.15+0.04),0)</f>
-        <v>12041.66323565468</v>
+        <v>12019.133558903986</v>
       </c>
       <c r="R212" s="95">
         <f>IF(R211&gt;0,R211*(0.124+0.15+0.04),0)</f>
@@ -20988,7 +20983,7 @@
         <v>316.3700178521562</v>
       </c>
     </row>
-    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E213" s="96" t="s">
         <v>34</v>
       </c>
@@ -21008,7 +21003,7 @@
       </c>
       <c r="Q213" s="97">
         <f t="shared" si="84"/>
-        <v>26307.582737767869</v>
+        <v>26258.361851618261</v>
       </c>
       <c r="R213" s="97">
         <f t="shared" si="84"/>
@@ -21027,7 +21022,7 @@
         <v>691.17780970248123</v>
       </c>
     </row>
-    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E214" s="96" t="s">
         <v>55</v>
       </c>
@@ -21061,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E215" s="419" t="s">
         <v>59</v>
       </c>
@@ -21082,7 +21077,7 @@
       <c r="T215" s="70"/>
       <c r="U215" s="70"/>
     </row>
-    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E216" s="426" t="s">
         <v>0</v>
       </c>
@@ -21121,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E217" s="427" t="s">
         <v>47</v>
       </c>
@@ -21141,7 +21136,7 @@
       </c>
       <c r="Q217" s="430">
         <f>Q203+Q213-Q214</f>
-        <v>94247.260611571954</v>
+        <v>88457.994693398359</v>
       </c>
       <c r="R217" s="430">
         <f>R203+R213-R214</f>
@@ -21160,7 +21155,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E218" s="307" t="s">
         <v>16</v>
       </c>
@@ -21180,7 +21175,7 @@
       </c>
       <c r="Q218" s="310">
         <f t="shared" si="87"/>
-        <v>604247.26061157195</v>
+        <v>598457.99469339836</v>
       </c>
       <c r="R218" s="310">
         <f t="shared" si="87"/>
@@ -21199,7 +21194,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E219" s="67"/>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
@@ -21218,7 +21213,7 @@
       <c r="T219" s="67"/>
       <c r="U219" s="67"/>
     </row>
-    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E220" s="108">
         <f>E206+1</f>
         <v>5</v>
@@ -21240,7 +21235,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E221" s="98" t="s">
         <v>48</v>
       </c>
@@ -21278,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E222" s="98" t="s">
         <v>207</v>
       </c>
@@ -21316,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E223" s="16" t="s">
         <v>54</v>
       </c>
@@ -21355,7 +21350,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E224" s="91" t="s">
         <v>58</v>
       </c>
@@ -21375,7 +21370,7 @@
       </c>
       <c r="Q224" s="94">
         <f>IF(Q217&gt;0,Q217*$I$16,Q217*$I$15)</f>
-        <v>1178.0907576446496</v>
+        <v>1105.7249336674795</v>
       </c>
       <c r="R224" s="94">
         <f>IF(R217&gt;0,R217*$I$16,R217*$I$15)</f>
@@ -21394,7 +21389,7 @@
         <v>6016.1875501759187</v>
       </c>
     </row>
-    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E225" s="235" t="s">
         <v>49</v>
       </c>
@@ -21414,7 +21409,7 @@
       </c>
       <c r="Q225" s="90">
         <f>SUM(Q221:Q224)</f>
-        <v>38678.090757644648</v>
+        <v>38605.724933667479</v>
       </c>
       <c r="R225" s="90">
         <f>SUM(R221:R224)</f>
@@ -21433,7 +21428,7 @@
         <v>1016.1875501759187</v>
       </c>
     </row>
-    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E226" s="91" t="s">
         <v>33</v>
       </c>
@@ -21453,7 +21448,7 @@
       </c>
       <c r="Q226" s="95">
         <f>IF(Q225&gt;0,Q225*(0.124+0.15+0.04),0)</f>
-        <v>12144.920497900419</v>
+        <v>12122.197629171589</v>
       </c>
       <c r="R226" s="95">
         <f>IF(R225&gt;0,R225*(0.124+0.15+0.04),0)</f>
@@ -21472,7 +21467,7 @@
         <v>319.08289075523845</v>
       </c>
     </row>
-    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E227" s="96" t="s">
         <v>34</v>
       </c>
@@ -21492,7 +21487,7 @@
       </c>
       <c r="Q227" s="97">
         <f t="shared" si="91"/>
-        <v>26533.170259744227</v>
+        <v>26483.527304495889</v>
       </c>
       <c r="R227" s="97">
         <f t="shared" si="91"/>
@@ -21511,7 +21506,7 @@
         <v>697.10465942068026</v>
       </c>
     </row>
-    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E228" s="96" t="s">
         <v>55</v>
       </c>
@@ -21545,7 +21540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E229" s="419" t="s">
         <v>59</v>
       </c>
@@ -21566,7 +21561,7 @@
       <c r="T229" s="70"/>
       <c r="U229" s="70"/>
     </row>
-    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E230" s="426" t="s">
         <v>0</v>
       </c>
@@ -21605,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E231" s="427" t="s">
         <v>47</v>
       </c>
@@ -21625,7 +21620,7 @@
       </c>
       <c r="Q231" s="430">
         <f>Q217+Q227-Q228</f>
-        <v>120780.43087131617</v>
+        <v>114941.52199789425</v>
       </c>
       <c r="R231" s="430">
         <f>R217+R227-R228</f>
@@ -21644,7 +21639,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E232" s="307" t="s">
         <v>16</v>
       </c>
@@ -21664,7 +21659,7 @@
       </c>
       <c r="Q232" s="310">
         <f t="shared" ref="Q232:U232" si="94">SUM(Q230:Q231)</f>
-        <v>630780.43087131623</v>
+        <v>624941.52199789428</v>
       </c>
       <c r="R232" s="310">
         <f t="shared" si="94"/>
@@ -21683,7 +21678,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E233" s="67"/>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
@@ -21702,7 +21697,7 @@
       <c r="T233" s="67"/>
       <c r="U233" s="67"/>
     </row>
-    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E234" s="317" t="s">
         <v>106</v>
       </c>
@@ -21723,7 +21718,7 @@
       <c r="T234" s="70"/>
       <c r="U234" s="70"/>
     </row>
-    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E235" s="314" t="s">
         <v>56</v>
       </c>
@@ -21743,7 +21738,7 @@
       </c>
       <c r="Q235" s="322">
         <f t="shared" si="95"/>
-        <v>116092.93087131623</v>
+        <v>110254.02199789428</v>
       </c>
       <c r="R235" s="322">
         <f t="shared" si="95"/>
@@ -21762,7 +21757,7 @@
         <v>-32695.391326505865</v>
       </c>
     </row>
-    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E236" s="315" t="s">
         <v>57</v>
       </c>
@@ -21782,7 +21777,7 @@
       </c>
       <c r="Q236" s="320">
         <f t="shared" si="96"/>
-        <v>193.48821811886037</v>
+        <v>183.75670332982381</v>
       </c>
       <c r="R236" s="320">
         <f t="shared" si="96"/>
@@ -21858,7 +21853,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z60"/>
@@ -21867,35 +21862,35 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="182" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="172" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="184" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="182" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="183" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="172" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="183" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="172" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="172"/>
-    <col min="14" max="14" width="11.5" style="183" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="172"/>
-    <col min="16" max="16" width="10.1640625" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="172" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="172" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" style="172" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="172"/>
+    <col min="3" max="3" width="11.42578125" style="172" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="184" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="182" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="183" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="172" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="183" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="172" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="172"/>
+    <col min="14" max="14" width="11.42578125" style="183" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="172"/>
+    <col min="16" max="16" width="10.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="172" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="172" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="172"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2" s="172"/>
       <c r="N2" s="172"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J3" s="172"/>
       <c r="N3" s="172"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="349"/>
       <c r="B4" s="233"/>
       <c r="C4" s="197"/>
@@ -21925,7 +21920,7 @@
       <c r="L4" s="206"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="1:18" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="351" t="s">
         <v>260</v>
       </c>
@@ -21962,7 +21957,7 @@
       <c r="L5" s="200"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="352" t="s">
         <v>216</v>
       </c>
@@ -22004,7 +21999,7 @@
       <c r="N6" s="172"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="353" t="s">
         <v>217</v>
       </c>
@@ -22046,7 +22041,7 @@
       <c r="N7" s="172"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="353" t="s">
         <v>218</v>
       </c>
@@ -22090,7 +22085,7 @@
       <c r="N8" s="172"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="353" t="s">
         <v>219</v>
       </c>
@@ -22132,7 +22127,7 @@
       <c r="N9" s="172"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="353" t="s">
         <v>220</v>
       </c>
@@ -22176,7 +22171,7 @@
       <c r="N10" s="172"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="353" t="s">
         <v>221</v>
       </c>
@@ -22218,7 +22213,7 @@
       <c r="N11" s="172"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="353" t="s">
         <v>222</v>
       </c>
@@ -22260,7 +22255,7 @@
       <c r="N12" s="172"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="353" t="s">
         <v>223</v>
       </c>
@@ -22302,7 +22297,7 @@
       <c r="N13" s="172"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="353" t="s">
         <v>224</v>
       </c>
@@ -22344,7 +22339,7 @@
       <c r="N14" s="172"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="353" t="s">
         <v>225</v>
       </c>
@@ -22386,7 +22381,7 @@
       <c r="N15" s="172"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="354" t="s">
         <v>226</v>
       </c>
@@ -22428,7 +22423,7 @@
       <c r="N16" s="172"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="172"/>
       <c r="B17" s="172"/>
       <c r="D17" s="172"/>
@@ -22437,7 +22432,7 @@
       <c r="J17" s="172"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="172"/>
       <c r="B18" s="172"/>
       <c r="D18" s="172"/>
@@ -22446,7 +22441,7 @@
       <c r="J18" s="172"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="172"/>
       <c r="B19" s="172"/>
       <c r="D19" s="172"/>
@@ -22455,7 +22450,7 @@
       <c r="J19" s="172"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="D20" s="172"/>
@@ -22464,7 +22459,7 @@
       <c r="J20" s="172"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="D21" s="172"/>
@@ -22472,7 +22467,7 @@
       <c r="J21" s="172"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="172"/>
       <c r="B22" s="172"/>
       <c r="D22" s="172"/>
@@ -22481,7 +22476,7 @@
       <c r="J22" s="172"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="D23" s="172"/>
@@ -22491,7 +22486,7 @@
       <c r="J23" s="172"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="D24" s="172"/>
@@ -22500,7 +22495,7 @@
       <c r="J24" s="172"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="D25" s="172"/>
@@ -22509,7 +22504,7 @@
       <c r="J25" s="172"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="172"/>
       <c r="B26" s="172"/>
       <c r="D26" s="172"/>
@@ -22518,7 +22513,7 @@
       <c r="J26" s="172"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="172"/>
       <c r="B27" s="172"/>
       <c r="D27" s="172"/>
@@ -22528,7 +22523,7 @@
       <c r="J27" s="172"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="172"/>
       <c r="B28" s="172"/>
       <c r="D28" s="172"/>
@@ -22538,7 +22533,7 @@
       <c r="J28" s="172"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="172"/>
       <c r="B29" s="172"/>
       <c r="D29" s="172"/>
@@ -22547,7 +22542,7 @@
       <c r="J29" s="172"/>
       <c r="N29" s="172"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="172"/>
       <c r="B30" s="172"/>
       <c r="D30" s="172"/>
@@ -22556,60 +22551,60 @@
       <c r="J30" s="172"/>
       <c r="N30" s="172"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
       <c r="J31" s="172"/>
       <c r="N31" s="172"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" s="172"/>
       <c r="E32" s="172"/>
       <c r="F32" s="172"/>
       <c r="J32" s="172"/>
       <c r="N32" s="172"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="172"/>
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
       <c r="J33" s="172"/>
       <c r="N33" s="172"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" s="172"/>
       <c r="E34" s="172"/>
       <c r="F34" s="172"/>
       <c r="J34" s="172"/>
       <c r="N34" s="172"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="172"/>
       <c r="E35" s="172"/>
       <c r="F35" s="172"/>
       <c r="J35" s="172"/>
       <c r="N35" s="172"/>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z54" s="183"/>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z55" s="183"/>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z56" s="183"/>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z57" s="183"/>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z58" s="183"/>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z59" s="183"/>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Y60" s="183"/>
     </row>
   </sheetData>
@@ -22620,21 +22615,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="8.83203125" style="232"/>
-    <col min="14" max="14" width="8.83203125" style="232" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="232"/>
+    <col min="13" max="13" width="8.85546875" style="232"/>
+    <col min="14" max="14" width="8.85546875" style="232" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -22672,7 +22667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1948</v>
       </c>
@@ -22713,7 +22708,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1949</v>
       </c>
@@ -22751,7 +22746,7 @@
         <v>26.744649883485</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -22789,7 +22784,7 @@
         <v>82.3976439431285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1951</v>
       </c>
@@ -22827,7 +22822,7 @@
         <v>119.86075100011701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -22865,7 +22860,7 @@
         <v>103.8317861764</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1953</v>
       </c>
@@ -22903,7 +22898,7 @@
         <v>102.31199040246401</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1954</v>
       </c>
@@ -22941,7 +22936,7 @@
         <v>109.14097992220699</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1955</v>
       </c>
@@ -22979,7 +22974,7 @@
         <v>153.83773609233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1956</v>
       </c>
@@ -23017,7 +23012,7 @@
         <v>188.215488528641</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1957</v>
       </c>
@@ -23055,7 +23050,7 @@
         <v>58.910948991473703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -23093,7 +23088,7 @@
         <v>169.68893941527401</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -23131,7 +23126,7 @@
         <v>1.51177588074404</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1960</v>
       </c>
@@ -23169,7 +23164,7 @@
         <v>55.845242391120699</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1961</v>
       </c>
@@ -23207,7 +23202,7 @@
         <v>47.933784057507602</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1962</v>
       </c>
@@ -23245,7 +23240,7 @@
         <v>57.2462506324798</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1963</v>
       </c>
@@ -23283,7 +23278,7 @@
         <v>41.176404840271303</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1964</v>
       </c>
@@ -23321,7 +23316,7 @@
         <v>9.7091335926118791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1965</v>
       </c>
@@ -23359,7 +23354,7 @@
         <v>19.4817657046876</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -23397,7 +23392,7 @@
         <v>38.3175562144339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1967</v>
       </c>
@@ -23435,7 +23430,7 @@
         <v>87.966329851446702</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1968</v>
       </c>
@@ -23473,7 +23468,7 @@
         <v>62.7268214187106</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1969</v>
       </c>
@@ -23511,7 +23506,7 @@
         <v>21.244167883060101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1970</v>
       </c>
@@ -23549,7 +23544,7 @@
         <v>55.344402990449801</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1971</v>
       </c>
@@ -23587,7 +23582,7 @@
         <v>6.8948510452181599</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1972</v>
       </c>
@@ -23625,7 +23620,7 @@
         <v>149.41457106000999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1973</v>
       </c>
@@ -23663,7 +23658,7 @@
         <v>216.626025789648</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1974</v>
       </c>
@@ -23701,7 +23696,7 @@
         <v>42.033239563202002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1975</v>
       </c>
@@ -23739,7 +23734,7 @@
         <v>116.052640425951</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1976</v>
       </c>
@@ -23777,7 +23772,7 @@
         <v>17.195215301437401</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1977</v>
       </c>
@@ -23815,7 +23810,7 @@
         <v>38.191890055444198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1978</v>
       </c>
@@ -23853,7 +23848,7 @@
         <v>158.46371838925799</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1979</v>
       </c>
@@ -23891,7 +23886,7 @@
         <v>303.51896800302001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1980</v>
       </c>
@@ -23929,7 +23924,7 @@
         <v>36.730775148612402</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1981</v>
       </c>
@@ -23967,7 +23962,7 @@
         <v>50.165062666236302</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1982</v>
       </c>
@@ -24005,7 +24000,7 @@
         <v>75.031773969221305</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1983</v>
       </c>
@@ -24043,7 +24038,7 @@
         <v>174.77937601018601</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1984</v>
       </c>
@@ -24081,7 +24076,7 @@
         <v>35.0353282645627</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1985</v>
       </c>
@@ -24119,7 +24114,7 @@
         <v>211.74015426797001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1986</v>
       </c>
@@ -24157,7 +24152,7 @@
         <v>121.11527821163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1987</v>
       </c>
@@ -24195,7 +24190,7 @@
         <v>217.559087456246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1988</v>
       </c>
@@ -24233,7 +24228,7 @@
         <v>78.156397024875901</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1989</v>
       </c>
@@ -24271,7 +24266,7 @@
         <v>55.616847982418101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1990</v>
       </c>
@@ -24309,7 +24304,7 @@
         <v>94.207571659863703</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1991</v>
       </c>
@@ -24347,7 +24342,7 @@
         <v>136.926802434563</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1992</v>
       </c>
@@ -24385,7 +24380,7 @@
         <v>152.13244153303901</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -24423,7 +24418,7 @@
         <v>138.85518236750099</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1994</v>
       </c>
@@ -24461,7 +24456,7 @@
         <v>72.158887133900095</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -24499,7 +24494,7 @@
         <v>77.2776218922711</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1996</v>
       </c>
@@ -24537,7 +24532,7 @@
         <v>56.761122004347499</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1997</v>
       </c>
@@ -24575,7 +24570,7 @@
         <v>56.410364063708798</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1998</v>
       </c>
@@ -24613,7 +24608,7 @@
         <v>127.949558427176</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1999</v>
       </c>
@@ -24651,7 +24646,7 @@
         <v>32.956408196693403</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -24689,7 +24684,7 @@
         <v>94.902017279650195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2001</v>
       </c>
@@ -24727,7 +24722,7 @@
         <v>57.104443655591098</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -24765,7 +24760,7 @@
         <v>52.125295740467799</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2003</v>
       </c>
@@ -24803,7 +24798,7 @@
         <v>71.608814028954896</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -24841,7 +24836,7 @@
         <v>143.52897573657799</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -24879,7 +24874,7 @@
         <v>44.816531791766998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -24917,7 +24912,7 @@
         <v>135.21883314929201</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -24955,7 +24950,7 @@
         <v>136.81885662235601</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -24993,7 +24988,7 @@
         <v>96.545805036287106</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2009</v>
       </c>
@@ -25031,7 +25026,7 @@
         <v>167.739453717294</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -25069,7 +25064,7 @@
         <v>209.23408233309399</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -25107,7 +25102,7 @@
         <v>194.03938336230601</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2012</v>
       </c>
@@ -25145,7 +25140,7 @@
         <v>95.641943462574801</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -25183,7 +25178,7 @@
         <v>79.589355470485401</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -25221,7 +25216,7 @@
         <v>250.433376814659</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>

--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtravis\Desktop\drought_decision_model\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trsh4998/Projects/drought_decision_model/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="465" windowWidth="31260" windowHeight="23055" tabRatio="653" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="24160" yWindow="620" windowWidth="31260" windowHeight="23060" tabRatio="653" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -107,8 +107,11 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -123,7 +126,7 @@
     <author>Jeffrey E. Tranel</author>
   </authors>
   <commentList>
-    <comment ref="AA16" authorId="0" shapeId="0">
+    <comment ref="AA16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1" shapeId="0">
+    <comment ref="C26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -165,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="313">
   <si>
     <t>Cows</t>
   </si>
@@ -2255,7 +2258,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="491">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -3116,6 +3119,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="17" xfId="12" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
@@ -3284,10 +3288,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12613013600572701"/>
-          <c:y val="3.0036249279815599E-2"/>
-          <c:w val="0.55191418821807403"/>
-          <c:h val="0.78511739005185299"/>
+          <c:x val="0.126130136005727"/>
+          <c:y val="0.0300362492798156"/>
+          <c:w val="0.551914188218074"/>
+          <c:h val="0.785117390051853"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3335,22 +3339,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.254167737505</c:v>
+                  <c:v>31069.2541677375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.673022225852</c:v>
+                  <c:v>31335.67302222585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.376418391439</c:v>
+                  <c:v>31604.37641839144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.383946179147</c:v>
+                  <c:v>31875.38394617915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,22 +3408,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46912.835948011139</c:v>
+                  <c:v>46912.83594801114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.644068254198</c:v>
+                  <c:v>31069.6440682542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31336.066266139478</c:v>
+                  <c:v>31336.06626613948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.773034371625</c:v>
+                  <c:v>31604.77303437162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.783963141363</c:v>
+                  <c:v>31875.78396314136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3473,22 +3477,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.741692702402</c:v>
+                  <c:v>-33275.7416927024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.443289974348</c:v>
+                  <c:v>28504.44328997435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.456416274305</c:v>
+                  <c:v>29775.4564162743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.169868822304</c:v>
+                  <c:v>30751.1698688223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.861150447457</c:v>
+                  <c:v>31014.86115044746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,22 +3546,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28067.820596812002</c:v>
+                  <c:v>-64852.62059681199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28842.958161207225</c:v>
+                  <c:v>26451.94616120723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30129.065665615453</c:v>
+                  <c:v>27631.43844053545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30822.20384685486</c:v>
+                  <c:v>28863.52428059893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30822.20384685486</c:v>
+                  <c:v>28863.52428059893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3611,22 +3615,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.6311399850765</c:v>
+                  <c:v>2219.631139985076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37906.03097701045</c:v>
+                  <c:v>2238.664477010449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.075192638316</c:v>
+                  <c:v>31550.22752490082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.906662415189</c:v>
+                  <c:v>31820.77072592684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3680,22 +3684,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.3811399850765</c:v>
+                  <c:v>1263.381139985077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.2146332604489</c:v>
+                  <c:v>1274.214633260449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.1410237406571</c:v>
+                  <c:v>1285.141023740657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.1611080192333</c:v>
+                  <c:v>1296.161108019233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,11 +3720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="403950336"/>
-        <c:axId val="403951904"/>
+        <c:axId val="-2099341808"/>
+        <c:axId val="-2035090144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403950336"/>
+        <c:axId val="-2099341808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3750,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37471199931530302"/>
+              <c:x val="0.374711999315303"/>
               <c:y val="0.882226810063376"/>
             </c:manualLayout>
           </c:layout>
@@ -3766,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403951904"/>
+        <c:crossAx val="-2035090144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,11 +3778,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403951904"/>
+        <c:axId val="-2035090144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150000"/>
-          <c:min val="-150000"/>
+          <c:max val="150000.0"/>
+          <c:min val="-150000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3799,13 +3803,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403950336"/>
+        <c:crossAx val="-2099341808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3816,9 +3821,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71928446671438795"/>
-          <c:y val="0.24009530439792601"/>
-          <c:w val="0.23622018715051901"/>
+          <c:x val="0.719284466714388"/>
+          <c:y val="0.240095304397926"/>
+          <c:w val="0.236220187150519"/>
           <c:h val="0.367370366813904"/>
         </c:manualLayout>
       </c:layout>
@@ -3837,7 +3842,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3908,19 +3913,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.01341899997</c:v>
+                  <c:v>542151.013419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.52177806792</c:v>
+                  <c:v>563464.5217780679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.79347131483</c:v>
+                  <c:v>584960.7934713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.39569433138</c:v>
+                  <c:v>606641.3956943313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.90908141027</c:v>
+                  <c:v>628507.9090814102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,19 +3982,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542182.20546033559</c:v>
+                  <c:v>542182.2054603356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563495.98129115801</c:v>
+                  <c:v>563495.981291158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584992.52274972969</c:v>
+                  <c:v>584992.5227497297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606673.39705130865</c:v>
+                  <c:v>606673.3970513086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628540.18485002359</c:v>
+                  <c:v>628540.1848500236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4052,13 +4057,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.26950578415</c:v>
+                  <c:v>516704.2695057841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.57203579624</c:v>
+                  <c:v>537799.5720357962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.76678500324</c:v>
+                  <c:v>559075.7667850032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,19 +4120,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481932.179403188</c:v>
+                  <c:v>445147.379403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501718.44870177616</c:v>
+                  <c:v>463293.4144697761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522386.98774838838</c:v>
+                  <c:v>482248.5812399835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543531.01958733075</c:v>
+                  <c:v>502048.9588964743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564856.36149929219</c:v>
+                  <c:v>522732.2353926681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,19 +4189,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.49119880609</c:v>
+                  <c:v>577570.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.15816083585</c:v>
+                  <c:v>579093.1581608358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.69541106501</c:v>
+                  <c:v>580628.881992065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.21299321484</c:v>
+                  <c:v>602272.338074147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.62296363164</c:v>
+                  <c:v>624101.3867921327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4253,19 +4258,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.49119880609</c:v>
+                  <c:v>501070.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.17066083587</c:v>
+                  <c:v>501937.1706608359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.28189925256</c:v>
+                  <c:v>502811.2818992526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.88864153862</c:v>
+                  <c:v>503692.8886415386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.05516163982</c:v>
+                  <c:v>504582.0551616398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4286,11 +4291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="403949944"/>
-        <c:axId val="403949552"/>
+        <c:axId val="1833724336"/>
+        <c:axId val="1769676144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403949944"/>
+        <c:axId val="1833724336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4316,8 +4321,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39784415862044398"/>
-              <c:y val="0.85194383834550802"/>
+              <c:x val="0.397844158620444"/>
+              <c:y val="0.851943838345508"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4336,7 +4341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403949552"/>
+        <c:crossAx val="1769676144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4344,10 +4349,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403949552"/>
+        <c:axId val="1769676144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="350000"/>
+          <c:min val="350000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4377,8 +4382,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.49824348879467E-2"/>
-              <c:y val="0.25444608321240803"/>
+              <c:x val="0.0149824348879467"/>
+              <c:y val="0.254446083212408"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4387,13 +4392,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403949944"/>
+        <c:crossAx val="1833724336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -4409,7 +4415,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4449,8 +4455,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63469334001094402"/>
-          <c:y val="3.2786894650802402E-2"/>
+          <c:x val="0.634693340010944"/>
+          <c:y val="0.0327868946508024"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4462,10 +4468,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14828264841453101"/>
-          <c:y val="5.3330766986723802E-2"/>
-          <c:w val="0.48929735057496698"/>
-          <c:h val="0.73024847761814005"/>
+          <c:x val="0.148282648414531"/>
+          <c:y val="0.0533307669867238"/>
+          <c:w val="0.489297350574967"/>
+          <c:h val="0.73024847761814"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4516,19 +4522,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.01341899997</c:v>
+                  <c:v>542151.013419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.52177806792</c:v>
+                  <c:v>563464.5217780679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.79347131483</c:v>
+                  <c:v>584960.7934713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.39569433138</c:v>
+                  <c:v>606641.3956943313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.90908141027</c:v>
+                  <c:v>628507.9090814102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,19 +4600,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542182.20546033559</c:v>
+                  <c:v>542182.2054603356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563495.98129115801</c:v>
+                  <c:v>563495.981291158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584992.52274972969</c:v>
+                  <c:v>584992.5227497297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606673.39705130865</c:v>
+                  <c:v>606673.3970513086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628540.18485002359</c:v>
+                  <c:v>628540.1848500236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4678,13 +4684,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.26950578415</c:v>
+                  <c:v>516704.2695057841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.57203579624</c:v>
+                  <c:v>537799.5720357962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.76678500324</c:v>
+                  <c:v>559075.7667850032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,19 +4756,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481932.179403188</c:v>
+                  <c:v>445147.379403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501718.44870177616</c:v>
+                  <c:v>463293.4144697761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522386.98774838838</c:v>
+                  <c:v>482248.5812399835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543531.01958733075</c:v>
+                  <c:v>502048.9588964743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564856.36149929219</c:v>
+                  <c:v>522732.2353926681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,19 +4834,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.49119880609</c:v>
+                  <c:v>577570.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.15816083585</c:v>
+                  <c:v>579093.1581608358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.69541106501</c:v>
+                  <c:v>580628.881992065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.21299321484</c:v>
+                  <c:v>602272.338074147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.62296363164</c:v>
+                  <c:v>624101.3867921327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,19 +4912,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.49119880609</c:v>
+                  <c:v>501070.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.17066083587</c:v>
+                  <c:v>501937.1706608359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.28189925256</c:v>
+                  <c:v>502811.2818992526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.88864153862</c:v>
+                  <c:v>503692.8886415386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.05516163982</c:v>
+                  <c:v>504582.0551616398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4939,11 +4945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="335744008"/>
-        <c:axId val="106693864"/>
+        <c:axId val="-2012081424"/>
+        <c:axId val="-2011692576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335744008"/>
+        <c:axId val="-2012081424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,8 +4975,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36129349626400797"/>
-              <c:y val="0.87384040314306299"/>
+              <c:x val="0.361293496264008"/>
+              <c:y val="0.873840403143063"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4989,7 +4995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106693864"/>
+        <c:crossAx val="-2011692576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4997,11 +5003,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106693864"/>
+        <c:axId val="-2011692576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700000"/>
-          <c:min val="0"/>
+          <c:max val="700000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5029,7 +5035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335744008"/>
+        <c:crossAx val="-2012081424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5085,8 +5091,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63119376035442398"/>
-          <c:y val="4.29477728029002E-2"/>
+          <c:x val="0.631193760354424"/>
+          <c:y val="0.0429477728029002"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5150,22 +5156,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.254167737505</c:v>
+                  <c:v>31069.2541677375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.673022225852</c:v>
+                  <c:v>31335.67302222585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.376418391439</c:v>
+                  <c:v>31604.37641839144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.383946179147</c:v>
+                  <c:v>31875.38394617915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5228,22 +5234,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46912.835948011139</c:v>
+                  <c:v>46912.83594801114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.644068254198</c:v>
+                  <c:v>31069.6440682542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31336.066266139478</c:v>
+                  <c:v>31336.06626613948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.773034371625</c:v>
+                  <c:v>31604.77303437162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.783963141363</c:v>
+                  <c:v>31875.78396314136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,22 +5303,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.741692702402</c:v>
+                  <c:v>-33275.7416927024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.443289974348</c:v>
+                  <c:v>28504.44328997435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.456416274305</c:v>
+                  <c:v>29775.4564162743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.169868822304</c:v>
+                  <c:v>30751.1698688223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.861150447457</c:v>
+                  <c:v>31014.86115044746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5366,22 +5372,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28067.820596812002</c:v>
+                  <c:v>-64852.62059681199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28842.958161207225</c:v>
+                  <c:v>26451.94616120723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30129.065665615453</c:v>
+                  <c:v>27631.43844053545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30822.20384685486</c:v>
+                  <c:v>28863.52428059893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31086.504244841639</c:v>
+                  <c:v>30150.54882827084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5444,22 +5450,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.6311399850765</c:v>
+                  <c:v>2219.631139985076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37906.03097701045</c:v>
+                  <c:v>2238.664477010449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.075192638316</c:v>
+                  <c:v>31550.22752490082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.906662415189</c:v>
+                  <c:v>31820.77072592684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,22 +5528,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.3811399850765</c:v>
+                  <c:v>1263.381139985077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.2146332604489</c:v>
+                  <c:v>1274.214633260449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.1410237406571</c:v>
+                  <c:v>1285.141023740657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.1611080192333</c:v>
+                  <c:v>1296.161108019233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,11 +5564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106691904"/>
-        <c:axId val="106693472"/>
+        <c:axId val="-2011938832"/>
+        <c:axId val="-2119822688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106691904"/>
+        <c:axId val="-2011938832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="106693472"/>
+        <c:crossAx val="-2119822688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5580,10 +5586,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106693472"/>
+        <c:axId val="-2119822688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-150000"/>
+          <c:min val="-150000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5608,8 +5614,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6548463356973998E-2"/>
-              <c:y val="0.28159074615376101"/>
+              <c:x val="0.016548463356974"/>
+              <c:y val="0.281590746153761"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5618,7 +5624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106691904"/>
+        <c:crossAx val="-2011938832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5629,10 +5635,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64421571334932604"/>
-          <c:y val="0.13354527833281199"/>
-          <c:w val="0.27549734317760599"/>
-          <c:h val="0.42357206300667599"/>
+          <c:x val="0.644215713349326"/>
+          <c:y val="0.133545278332812"/>
+          <c:w val="0.275497343177606"/>
+          <c:h val="0.423572063006676"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6066,17 +6072,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="18.7109375" customWidth="1"/>
+    <col min="1" max="26" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.15">
       <c r="E2" s="148">
         <f>'Ranch Strategies'!$Q$149</f>
         <v>628540.18485002359</v>
@@ -6156,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6389,27 +6395,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:CK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:89" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="455" t="s">
         <v>295</v>
       </c>
@@ -6427,7 +6433,7 @@
       <c r="M3" s="404"/>
       <c r="N3" s="405"/>
     </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B4" s="441"/>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -6441,7 +6447,7 @@
       <c r="M4" s="407"/>
       <c r="N4" s="408"/>
     </row>
-    <row r="5" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B5" s="441"/>
       <c r="C5" s="437"/>
       <c r="D5" s="437"/>
@@ -6459,7 +6465,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:89" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="441"/>
       <c r="C6" s="376" t="s">
         <v>271</v>
@@ -6477,7 +6483,7 @@
       <c r="M6" s="407"/>
       <c r="N6" s="408"/>
     </row>
-    <row r="7" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B7" s="441"/>
       <c r="C7" s="378"/>
       <c r="D7" s="391"/>
@@ -6499,7 +6505,7 @@
         <v>53700</v>
       </c>
     </row>
-    <row r="8" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B8" s="441"/>
       <c r="C8" s="378" t="s">
         <v>173</v>
@@ -6525,7 +6531,7 @@
         <v>15088.577640713542</v>
       </c>
     </row>
-    <row r="9" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B9" s="441"/>
       <c r="C9" s="378" t="s">
         <v>305</v>
@@ -6553,7 +6559,7 @@
       <c r="CJ9" s="363"/>
       <c r="CK9" s="357"/>
     </row>
-    <row r="10" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B10" s="441"/>
       <c r="C10" s="378" t="s">
         <v>281</v>
@@ -6572,16 +6578,16 @@
       <c r="L10" s="407"/>
       <c r="M10" s="418">
         <f>IF($G$51=1,'Ranch Strategies'!S84,'Ranch Strategies'!S167)</f>
-        <v>-28067.820596812002</v>
+        <v>-64852.62059681199</v>
       </c>
       <c r="N10" s="456">
         <f>IF($G$51=1,'Ranch Strategies'!S167,'Ranch Strategies'!S84)</f>
-        <v>-59892.0789041096</v>
+        <v>-96676.878904109588</v>
       </c>
       <c r="CJ10" s="363"/>
       <c r="CK10" s="357"/>
     </row>
-    <row r="11" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B11" s="441"/>
       <c r="C11" s="378" t="s">
         <v>306</v>
@@ -6611,7 +6617,7 @@
       </c>
       <c r="CK11" s="357"/>
     </row>
-    <row r="12" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B12" s="441"/>
       <c r="C12" s="378" t="s">
         <v>307</v>
@@ -6641,7 +6647,7 @@
       </c>
       <c r="CK12" s="357"/>
     </row>
-    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="441"/>
       <c r="C13" s="381" t="s">
         <v>303</v>
@@ -6689,7 +6695,7 @@
       </c>
       <c r="CK13" s="357"/>
     </row>
-    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="441"/>
       <c r="C14" s="437"/>
       <c r="D14" s="437"/>
@@ -6745,7 +6751,7 @@
       </c>
       <c r="CK14" s="357"/>
     </row>
-    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="441"/>
       <c r="C15" s="437"/>
       <c r="D15" s="437"/>
@@ -6784,7 +6790,7 @@
       </c>
       <c r="T15" s="148">
         <f>'Ranch Strategies'!S92</f>
-        <v>481932.179403188</v>
+        <v>445147.37940318801</v>
       </c>
       <c r="U15" s="148">
         <f>'Ranch Strategies'!T92</f>
@@ -6802,7 +6808,7 @@
       </c>
       <c r="CK15" s="357"/>
     </row>
-    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="441"/>
       <c r="C16" s="366" t="s">
         <v>0</v>
@@ -6843,7 +6849,7 @@
       </c>
       <c r="T16" s="148">
         <f>'Ranch Strategies'!S107</f>
-        <v>501718.44870177616</v>
+        <v>463293.41446977615</v>
       </c>
       <c r="U16" s="148">
         <f>'Ranch Strategies'!T107</f>
@@ -6857,7 +6863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="441"/>
       <c r="C17" s="369"/>
       <c r="D17" s="370"/>
@@ -6872,11 +6878,11 @@
       <c r="L17" s="407"/>
       <c r="M17" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S99,'Ranch Strategies'!S182)</f>
-        <v>28842.958161207225</v>
+        <v>26451.946161207226</v>
       </c>
       <c r="N17" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S182,'Ranch Strategies'!S99)</f>
-        <v>33607.014871232874</v>
+        <v>31216.002871232879</v>
       </c>
       <c r="P17" s="149">
         <f>'Ranch Strategies'!E109</f>
@@ -6896,11 +6902,11 @@
       </c>
       <c r="T17" s="148">
         <f>'Ranch Strategies'!S121</f>
-        <v>522386.98774838838</v>
+        <v>482248.5812399835</v>
       </c>
       <c r="U17" s="148">
         <f>'Ranch Strategies'!T121</f>
-        <v>605096.69541106501</v>
+        <v>580628.881992065</v>
       </c>
       <c r="V17" s="148">
         <f>'Ranch Strategies'!U121</f>
@@ -6910,7 +6916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="441"/>
       <c r="C18" s="369" t="s">
         <v>272</v>
@@ -6953,11 +6959,11 @@
       </c>
       <c r="T18" s="148">
         <f>'Ranch Strategies'!S135</f>
-        <v>543531.01958733075</v>
+        <v>502048.95889647433</v>
       </c>
       <c r="U18" s="148">
         <f>'Ranch Strategies'!T135</f>
-        <v>631323.21299321484</v>
+        <v>602272.338074147</v>
       </c>
       <c r="V18" s="148">
         <f>'Ranch Strategies'!U135</f>
@@ -6967,7 +6973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="441"/>
       <c r="C19" s="369" t="s">
         <v>273</v>
@@ -7010,11 +7016,11 @@
       </c>
       <c r="T19" s="148">
         <f>'Ranch Strategies'!S149</f>
-        <v>564856.36149929219</v>
+        <v>522732.23539266817</v>
       </c>
       <c r="U19" s="148">
         <f>'Ranch Strategies'!T149</f>
-        <v>657774.62296363164</v>
+        <v>624101.38679213275</v>
       </c>
       <c r="V19" s="148">
         <f>'Ranch Strategies'!U149</f>
@@ -7024,7 +7030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="441"/>
       <c r="C20" s="369" t="s">
         <v>3</v>
@@ -7047,7 +7053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="441"/>
       <c r="C21" s="369" t="s">
         <v>53</v>
@@ -7076,7 +7082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="441"/>
       <c r="C22" s="372" t="s">
         <v>45</v>
@@ -7105,7 +7111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="441"/>
       <c r="C23" s="437"/>
       <c r="D23" s="437"/>
@@ -7130,7 +7136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="441"/>
       <c r="C24" s="437"/>
       <c r="D24" s="437"/>
@@ -7145,17 +7151,17 @@
       <c r="L24" s="407"/>
       <c r="M24" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S114,'Ranch Strategies'!S197)</f>
-        <v>30129.065665615453</v>
+        <v>27631.438440535454</v>
       </c>
       <c r="N24" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S197,'Ranch Strategies'!S114)</f>
-        <v>35105.551664341147</v>
+        <v>32607.924439261151</v>
       </c>
       <c r="CH24" s="468">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="441"/>
       <c r="C25" s="366" t="s">
         <v>2</v>
@@ -7172,17 +7178,17 @@
       <c r="L25" s="407"/>
       <c r="M25" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!T114,'Ranch Strategies'!T197)</f>
-        <v>37906.03097701045</v>
+        <v>2238.6644770104485</v>
       </c>
       <c r="N25" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!T197,'Ranch Strategies'!T114)</f>
-        <v>44463.431404421877</v>
+        <v>1963.4314044218763</v>
       </c>
       <c r="CH25" s="468" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:86" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="441"/>
       <c r="C26" s="374"/>
       <c r="D26" s="370"/>
@@ -7204,7 +7210,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B27" s="441"/>
       <c r="C27" s="369" t="s">
         <v>70</v>
@@ -7224,7 +7230,7 @@
       <c r="M27" s="407"/>
       <c r="N27" s="408"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B28" s="441"/>
       <c r="C28" s="369" t="s">
         <v>71</v>
@@ -7250,7 +7256,7 @@
         <v>38614.29094676087</v>
       </c>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B29" s="441"/>
       <c r="C29" s="369" t="s">
         <v>30</v>
@@ -7276,7 +7282,7 @@
         <v>38277.49541052225</v>
       </c>
     </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B30" s="441"/>
       <c r="C30" s="369" t="s">
         <v>31</v>
@@ -7302,7 +7308,7 @@
         <v>36301.531527284853</v>
       </c>
     </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B31" s="441"/>
       <c r="C31" s="369"/>
       <c r="D31" s="370"/>
@@ -7317,14 +7323,14 @@
       <c r="L31" s="407"/>
       <c r="M31" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S128,'Ranch Strategies'!S211)</f>
-        <v>30822.20384685486</v>
+        <v>28863.524280598929</v>
       </c>
       <c r="N31" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S211,'Ranch Strategies'!S128)</f>
-        <v>36670.908213054121</v>
-      </c>
-    </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
+        <v>34061.911790007805</v>
+      </c>
+    </row>
+    <row r="32" spans="2:86" x14ac:dyDescent="0.15">
       <c r="B32" s="441"/>
       <c r="C32" s="375" t="s">
         <v>298</v>
@@ -7341,14 +7347,14 @@
       <c r="L32" s="407"/>
       <c r="M32" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!T128,'Ranch Strategies'!T211)</f>
-        <v>38231.075192638316</v>
+        <v>31550.227524900816</v>
       </c>
       <c r="N32" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!T211,'Ranch Strategies'!T128)</f>
-        <v>44844.705328714794</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>38105.267828714794</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B33" s="441"/>
       <c r="C33" s="369" t="s">
         <v>43</v>
@@ -7374,7 +7380,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B34" s="441"/>
       <c r="C34" s="369" t="s">
         <v>274</v>
@@ -7394,7 +7400,7 @@
       <c r="M34" s="407"/>
       <c r="N34" s="408"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B35" s="441"/>
       <c r="C35" s="369" t="s">
         <v>275</v>
@@ -7420,7 +7426,7 @@
         <v>38945.40849162935</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="441"/>
       <c r="C36" s="372" t="s">
         <v>276</v>
@@ -7458,7 +7464,7 @@
       <c r="X36" s="404"/>
       <c r="Y36" s="405"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B37" s="441"/>
       <c r="C37" s="437"/>
       <c r="D37" s="437"/>
@@ -7490,7 +7496,7 @@
       <c r="X37" s="407"/>
       <c r="Y37" s="408"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B38" s="441"/>
       <c r="C38" s="437"/>
       <c r="D38" s="437"/>
@@ -7505,11 +7511,11 @@
       <c r="L38" s="407"/>
       <c r="M38" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S142,'Ranch Strategies'!S225)</f>
-        <v>31086.504244841639</v>
+        <v>30150.548828270836</v>
       </c>
       <c r="N38" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S225, 'Ranch Strategies'!S142)</f>
-        <v>37655.012309668113</v>
+        <v>35580.732436724255</v>
       </c>
       <c r="P38" s="406"/>
       <c r="Q38" s="407" t="s">
@@ -7534,7 +7540,7 @@
       </c>
       <c r="Y38" s="408"/>
     </row>
-    <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="441"/>
       <c r="C39" s="366" t="s">
         <v>277</v>
@@ -7551,11 +7557,11 @@
       <c r="L39" s="407"/>
       <c r="M39" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!T142,'Ranch Strategies'!T225)</f>
-        <v>38558.906662415189</v>
+        <v>31820.770725926839</v>
       </c>
       <c r="N39" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!T225, 'Ranch Strategies'!T142)</f>
-        <v>45229.248676908523</v>
+        <v>38432.020500346021</v>
       </c>
       <c r="P39" s="434" t="s">
         <v>279</v>
@@ -7575,11 +7581,11 @@
       </c>
       <c r="U39" s="436">
         <f>IF($G$51=1, 'Ranch Strategies'!S152, 'Ranch Strategies'!S235)</f>
-        <v>50168.861499292194</v>
+        <v>8044.7353926681681</v>
       </c>
       <c r="V39" s="459">
         <f>IF($G$51=1, 'Ranch Strategies'!T152,'Ranch Strategies'!T235)</f>
-        <v>143087.12296363164</v>
+        <v>109413.88679213275</v>
       </c>
       <c r="W39" s="460"/>
       <c r="X39" s="457">
@@ -7588,7 +7594,7 @@
       </c>
       <c r="Y39" s="458"/>
     </row>
-    <row r="40" spans="2:25" s="402" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" s="402" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="441"/>
       <c r="C40" s="374"/>
       <c r="D40" s="370"/>
@@ -7627,11 +7633,11 @@
       </c>
       <c r="U40" s="464">
         <f>IF($G$51=1, 'Ranch Strategies'!S235,'Ranch Strategies'!S152)</f>
-        <v>33544.823217881611</v>
+        <v>-9806.310829572496</v>
       </c>
       <c r="V40" s="462">
         <f>IF($G$51=1, 'Ranch Strategies'!T235,'Ranch Strategies'!T152)</f>
-        <v>134679.658745041</v>
+        <v>96238.506090919254</v>
       </c>
       <c r="W40" s="463"/>
       <c r="X40" s="462">
@@ -7640,7 +7646,7 @@
       </c>
       <c r="Y40" s="463"/>
     </row>
-    <row r="41" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="441"/>
       <c r="C41" s="465" t="s">
         <v>301</v>
@@ -7653,7 +7659,7 @@
       </c>
       <c r="H41" s="442"/>
     </row>
-    <row r="42" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="441"/>
       <c r="C42" s="369" t="s">
         <v>21</v>
@@ -7666,7 +7672,7 @@
       </c>
       <c r="H42" s="442"/>
     </row>
-    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="441"/>
       <c r="C43" s="369" t="s">
         <v>51</v>
@@ -7686,7 +7692,7 @@
       <c r="M43" s="404"/>
       <c r="N43" s="405"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B44" s="441"/>
       <c r="C44" s="369" t="s">
         <v>52</v>
@@ -7704,7 +7710,7 @@
       <c r="M44" s="407"/>
       <c r="N44" s="408"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B45" s="441"/>
       <c r="C45" s="369" t="s">
         <v>36</v>
@@ -7726,7 +7732,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B46" s="441"/>
       <c r="C46" s="372" t="s">
         <v>278</v>
@@ -7746,7 +7752,7 @@
       <c r="M46" s="407"/>
       <c r="N46" s="408"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B47" s="441"/>
       <c r="C47" s="437"/>
       <c r="D47" s="437"/>
@@ -7768,7 +7774,7 @@
         <v>546838.19999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B48" s="441"/>
       <c r="C48" s="437"/>
       <c r="D48" s="437"/>
@@ -7790,7 +7796,7 @@
         <v>520350.76426152949</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="441"/>
       <c r="C49" s="382" t="s">
         <v>279</v>
@@ -7814,7 +7820,7 @@
         <v>444900</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="441"/>
       <c r="C50" s="385"/>
       <c r="D50" s="386"/>
@@ -7829,14 +7835,14 @@
       <c r="L50" s="407"/>
       <c r="M50" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S92,'Ranch Strategies'!S175)</f>
-        <v>481932.179403188</v>
+        <v>445147.37940318801</v>
       </c>
       <c r="N50" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S175,'Ranch Strategies'!S92)</f>
-        <v>450107.9210958904</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+        <v>413323.12109589041</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B51" s="441"/>
       <c r="C51" s="385" t="s">
         <v>280</v>
@@ -7862,7 +7868,7 @@
         <v>555739.05000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B52" s="441"/>
       <c r="C52" s="385" t="s">
         <v>227</v>
@@ -7888,7 +7894,7 @@
         <v>479239.05000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B53" s="441"/>
       <c r="C53" s="385" t="s">
         <v>205</v>
@@ -7908,7 +7914,7 @@
       <c r="M53" s="407"/>
       <c r="N53" s="408"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B54" s="441"/>
       <c r="C54" s="385" t="s">
         <v>228</v>
@@ -7934,7 +7940,7 @@
         <v>572879.08756499994</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B55" s="441"/>
       <c r="C55" s="388" t="s">
         <v>229</v>
@@ -7960,7 +7966,7 @@
         <v>546164.52206507209</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B56" s="441"/>
       <c r="C56" s="437"/>
       <c r="D56" s="437"/>
@@ -7982,7 +7988,7 @@
         <v>467722.19099999999</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B57" s="452"/>
       <c r="C57" s="453"/>
       <c r="D57" s="453"/>
@@ -7997,11 +8003,11 @@
       <c r="L57" s="407"/>
       <c r="M57" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S107,'Ranch Strategies'!S190)</f>
-        <v>501718.44870177616</v>
+        <v>463293.41446977615</v>
       </c>
       <c r="N57" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S190,'Ranch Strategies'!S107)</f>
-        <v>473162.33329755615</v>
+        <v>434737.29906555614</v>
       </c>
       <c r="Q57" s="155" t="s">
         <v>115</v>
@@ -8025,7 +8031,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J58" s="406"/>
       <c r="K58" s="407" t="s">
         <v>284</v>
@@ -8067,7 +8073,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J59" s="406"/>
       <c r="K59" s="407" t="s">
         <v>285</v>
@@ -8099,7 +8105,7 @@
       </c>
       <c r="U59" s="148">
         <f>'Ranch Strategies'!S84</f>
-        <v>-28067.820596812002</v>
+        <v>-64852.62059681199</v>
       </c>
       <c r="V59" s="148">
         <f>'Ranch Strategies'!T84</f>
@@ -8110,7 +8116,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J60" s="409" t="s">
         <v>289</v>
       </c>
@@ -8136,7 +8142,7 @@
       </c>
       <c r="U60" s="148">
         <f>'Ranch Strategies'!S99</f>
-        <v>28842.958161207225</v>
+        <v>26451.946161207226</v>
       </c>
       <c r="V60" s="148">
         <f>'Ranch Strategies'!T99</f>
@@ -8147,7 +8153,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J61" s="406"/>
       <c r="K61" s="407" t="s">
         <v>300</v>
@@ -8179,18 +8185,18 @@
       </c>
       <c r="U61" s="148">
         <f>'Ranch Strategies'!S114</f>
-        <v>30129.065665615453</v>
+        <v>27631.438440535454</v>
       </c>
       <c r="V61" s="148">
         <f>'Ranch Strategies'!T114</f>
-        <v>37906.03097701045</v>
+        <v>2238.6644770104485</v>
       </c>
       <c r="W61" s="148">
         <f>'Ranch Strategies'!U114</f>
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J62" s="406"/>
       <c r="K62" s="407" t="s">
         <v>282</v>
@@ -8222,18 +8228,18 @@
       </c>
       <c r="U62" s="148">
         <f>'Ranch Strategies'!S128</f>
-        <v>30822.20384685486</v>
+        <v>28863.524280598929</v>
       </c>
       <c r="V62" s="148">
         <f>'Ranch Strategies'!T128</f>
-        <v>38231.075192638316</v>
+        <v>31550.227524900816</v>
       </c>
       <c r="W62" s="148">
         <f>'Ranch Strategies'!U128</f>
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J63" s="406"/>
       <c r="K63" s="407" t="s">
         <v>283</v>
@@ -8265,18 +8271,18 @@
       </c>
       <c r="U63" s="148">
         <f>'Ranch Strategies'!S128</f>
-        <v>30822.20384685486</v>
+        <v>28863.524280598929</v>
       </c>
       <c r="V63" s="148">
         <f>'Ranch Strategies'!T142</f>
-        <v>38558.906662415189</v>
+        <v>31820.770725926839</v>
       </c>
       <c r="W63" s="148">
         <f>'Ranch Strategies'!U142</f>
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
       <c r="J64" s="406"/>
       <c r="K64" s="407" t="s">
         <v>261</v>
@@ -8284,14 +8290,14 @@
       <c r="L64" s="407"/>
       <c r="M64" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S121,'Ranch Strategies'!S204)</f>
-        <v>522386.98774838838</v>
+        <v>482248.5812399835</v>
       </c>
       <c r="N64" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S204,'Ranch Strategies'!S121)</f>
-        <v>497244.7417392942</v>
-      </c>
-    </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.2">
+        <v>457106.33523088932</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J65" s="406"/>
       <c r="K65" s="407" t="s">
         <v>284</v>
@@ -8299,14 +8305,14 @@
       <c r="L65" s="407"/>
       <c r="M65" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!T121,'Ranch Strategies'!T204)</f>
-        <v>605096.69541106501</v>
+        <v>580628.881992065</v>
       </c>
       <c r="N65" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!T204,'Ranch Strategies'!T121)</f>
-        <v>587576.4262971835</v>
-      </c>
-    </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.2">
+        <v>558421.4262971835</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J66" s="406"/>
       <c r="K66" s="407" t="s">
         <v>285</v>
@@ -8321,7 +8327,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J67" s="409" t="s">
         <v>290</v>
       </c>
@@ -8330,7 +8336,7 @@
       <c r="M67" s="407"/>
       <c r="N67" s="408"/>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J68" s="406"/>
       <c r="K68" s="407" t="s">
         <v>300</v>
@@ -8345,7 +8351,7 @@
         <v>625632.6793303478</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J69" s="406"/>
       <c r="K69" s="407" t="s">
         <v>282</v>
@@ -8360,7 +8366,7 @@
         <v>598457.99469339836</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J70" s="406"/>
       <c r="K70" s="407" t="s">
         <v>283</v>
@@ -8375,7 +8381,7 @@
         <v>516464.87412440742</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J71" s="406"/>
       <c r="K71" s="407" t="s">
         <v>261</v>
@@ -8383,14 +8389,14 @@
       <c r="L71" s="407"/>
       <c r="M71" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!S135,'Ranch Strategies'!S218)</f>
-        <v>543531.01958733075</v>
+        <v>502048.95889647433</v>
       </c>
       <c r="N71" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!S218,'Ranch Strategies'!S135)</f>
-        <v>522400.98477344931</v>
-      </c>
-    </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.2">
+        <v>480472.80671883468</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J72" s="406"/>
       <c r="K72" s="407" t="s">
         <v>284</v>
@@ -8398,14 +8404,14 @@
       <c r="L72" s="407"/>
       <c r="M72" s="416">
         <f>IF($G$51=1, 'Ranch Strategies'!T135,'Ranch Strategies'!T218)</f>
-        <v>631323.21299321484</v>
+        <v>602272.338074147</v>
       </c>
       <c r="N72" s="417">
         <f>IF($G$51=1, 'Ranch Strategies'!T218,'Ranch Strategies'!T135)</f>
-        <v>618339.89415268181</v>
-      </c>
-    </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.2">
+        <v>584561.64002768183</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J73" s="406"/>
       <c r="K73" s="407" t="s">
         <v>285</v>
@@ -8420,7 +8426,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J74" s="409" t="s">
         <v>291</v>
       </c>
@@ -8429,7 +8435,7 @@
       <c r="M74" s="407"/>
       <c r="N74" s="408"/>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J75" s="406"/>
       <c r="K75" s="407" t="s">
         <v>300</v>
@@ -8444,7 +8450,7 @@
         <v>652349.22955560556</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J76" s="406"/>
       <c r="K76" s="407" t="s">
         <v>282</v>
@@ -8459,7 +8465,7 @@
         <v>624941.52199789428</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J77" s="406"/>
       <c r="K77" s="407" t="s">
         <v>283</v>
@@ -8474,7 +8480,7 @@
         <v>542245.31042002421</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J78" s="406"/>
       <c r="K78" s="407" t="s">
         <v>261</v>
@@ -8482,14 +8488,14 @@
       <c r="L78" s="407"/>
       <c r="M78" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!S149,'Ranch Strategies'!S232)</f>
-        <v>564856.36149929219</v>
+        <v>522732.23539266817</v>
       </c>
       <c r="N78" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!S232,'Ranch Strategies'!S149)</f>
-        <v>548232.32321788161</v>
-      </c>
-    </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.2">
+        <v>504881.1891704275</v>
+      </c>
+    </row>
+    <row r="79" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J79" s="406"/>
       <c r="K79" s="407" t="s">
         <v>284</v>
@@ -8497,14 +8503,14 @@
       <c r="L79" s="407"/>
       <c r="M79" s="416">
         <f>IF($G$51=1,'Ranch Strategies'!T149,'Ranch Strategies'!T232)</f>
-        <v>657774.62296363164</v>
+        <v>624101.38679213275</v>
       </c>
       <c r="N79" s="417">
         <f>IF($G$51=1,'Ranch Strategies'!T232,'Ranch Strategies'!T149)</f>
-        <v>649367.158745041</v>
-      </c>
-    </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.2">
+        <v>610926.00609091925</v>
+      </c>
+    </row>
+    <row r="80" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J80" s="410"/>
       <c r="K80" s="411" t="s">
         <v>285</v>
@@ -8539,31 +8545,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="P12" sqref="P10:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="172" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="172"/>
-    <col min="5" max="5" width="9.140625" style="172" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="172"/>
-    <col min="9" max="10" width="9.140625" style="172" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="172"/>
+    <col min="1" max="1" width="13.5" style="172" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" style="172"/>
+    <col min="5" max="5" width="9.1640625" style="172" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" style="172"/>
+    <col min="9" max="10" width="9.1640625" style="172" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -8582,7 +8588,7 @@
       <c r="H2" s="225"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="174" t="s">
         <v>187</v>
       </c>
@@ -8606,14 +8612,14 @@
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="268"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="181" t="s">
@@ -8654,7 +8660,7 @@
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="225" t="s">
         <v>250</v>
       </c>
@@ -8697,7 +8703,7 @@
       <c r="P7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="225" t="s">
         <v>186</v>
       </c>
@@ -8755,7 +8761,7 @@
       </c>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="225" t="s">
         <v>173</v>
       </c>
@@ -8821,7 +8827,7 @@
       </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="225" t="s">
         <v>204</v>
       </c>
@@ -8873,10 +8879,13 @@
         <f t="shared" si="0"/>
         <v>0.10958254269449715</v>
       </c>
-      <c r="P10"/>
+      <c r="P10" s="491">
+        <f t="shared" ref="P10:P11" si="1">SUM(D10:O10)</f>
+        <v>8.9240262601322726</v>
+      </c>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="225" t="s">
         <v>251</v>
       </c>
@@ -8918,12 +8927,15 @@
       <c r="O11" s="348">
         <v>0</v>
       </c>
-      <c r="P11"/>
+      <c r="P11" s="491">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="225" t="s">
         <v>252</v>
       </c>
@@ -8965,12 +8977,15 @@
       <c r="O12" s="359">
         <v>0.01</v>
       </c>
-      <c r="P12"/>
+      <c r="P12" s="491">
+        <f>SUM(D12:O12)</f>
+        <v>1.0002494508942579</v>
+      </c>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="225" t="s">
         <v>253</v>
       </c>
@@ -9009,12 +9024,16 @@
       </c>
       <c r="O13" s="361">
         <v>0.01</v>
+      </c>
+      <c r="P13" s="491">
+        <f t="shared" ref="P13:P19" si="2">SUM(D13:O13)</f>
+        <v>1</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="225" t="s">
         <v>254</v>
       </c>
@@ -9053,12 +9072,16 @@
       </c>
       <c r="O14" s="362">
         <v>0.01</v>
+      </c>
+      <c r="P14" s="491">
+        <f t="shared" si="2"/>
+        <v>0.99999000000000016</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="225"/>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
@@ -9072,9 +9095,13 @@
       <c r="M15" s="228"/>
       <c r="N15" s="228"/>
       <c r="O15" s="228"/>
+      <c r="P15" s="491">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="348" t="s">
         <v>264</v>
       </c>
@@ -9083,160 +9110,172 @@
         <v>0.12139956043956045</v>
       </c>
       <c r="E16" s="172">
-        <f t="shared" ref="E16:O16" si="1">E11*E$10</f>
+        <f t="shared" ref="E16:O16" si="3">E11*E$10</f>
         <v>0</v>
       </c>
       <c r="F16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13152889858233374</v>
       </c>
       <c r="G16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10182369030086262</v>
       </c>
       <c r="H16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12087807183364839</v>
       </c>
       <c r="I16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6730989370400648E-2</v>
       </c>
       <c r="J16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="172">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="491">
+        <f t="shared" si="2"/>
+        <v>0.52236121052680584</v>
       </c>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="348" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="172">
-        <f t="shared" ref="D17:O19" si="2">D12*D$10</f>
+        <f t="shared" ref="D17:O18" si="4">D12*D$10</f>
         <v>7.6835164835164843E-3</v>
       </c>
       <c r="E17" s="172">
+        <f t="shared" si="4"/>
+        <v>9.2988235294117604E-3</v>
+      </c>
+      <c r="F17" s="172">
+        <f t="shared" si="4"/>
+        <v>3.8578891413762105E-2</v>
+      </c>
+      <c r="G17" s="172">
+        <f t="shared" si="4"/>
+        <v>2.814222596254997E-2</v>
+      </c>
+      <c r="H17" s="172">
+        <f t="shared" si="4"/>
+        <v>9.1228733459357281E-2</v>
+      </c>
+      <c r="I17" s="172">
+        <f t="shared" si="4"/>
+        <v>0.1043990188062142</v>
+      </c>
+      <c r="J17" s="172">
+        <f t="shared" si="4"/>
+        <v>0.13678729832229863</v>
+      </c>
+      <c r="K17" s="172">
+        <f t="shared" si="4"/>
+        <v>7.3621385293455785E-2</v>
+      </c>
+      <c r="L17" s="172">
+        <f t="shared" si="4"/>
+        <v>0.12328041775456916</v>
+      </c>
+      <c r="M17" s="172">
+        <f t="shared" si="4"/>
+        <v>7.0480270145281895E-2</v>
+      </c>
+      <c r="N17" s="172">
+        <f t="shared" si="4"/>
+        <v>1.1492537313432836E-2</v>
+      </c>
+      <c r="O17" s="172">
+        <f t="shared" si="4"/>
+        <v>1.0958254269449715E-3</v>
+      </c>
+      <c r="P17" s="491">
         <f t="shared" si="2"/>
-        <v>9.2988235294117604E-3</v>
-      </c>
-      <c r="F17" s="172">
-        <f t="shared" si="2"/>
-        <v>3.8578891413762105E-2</v>
-      </c>
-      <c r="G17" s="172">
-        <f t="shared" si="2"/>
-        <v>2.814222596254997E-2</v>
-      </c>
-      <c r="H17" s="172">
-        <f t="shared" si="2"/>
-        <v>9.1228733459357281E-2</v>
-      </c>
-      <c r="I17" s="172">
-        <f t="shared" si="2"/>
-        <v>0.1043990188062142</v>
-      </c>
-      <c r="J17" s="172">
-        <f t="shared" si="2"/>
-        <v>0.13678729832229863</v>
-      </c>
-      <c r="K17" s="172">
-        <f t="shared" si="2"/>
-        <v>7.3621385293455785E-2</v>
-      </c>
-      <c r="L17" s="172">
-        <f t="shared" si="2"/>
-        <v>0.12328041775456916</v>
-      </c>
-      <c r="M17" s="172">
-        <f t="shared" si="2"/>
-        <v>7.0480270145281895E-2</v>
-      </c>
-      <c r="N17" s="172">
-        <f t="shared" si="2"/>
-        <v>1.1492537313432836E-2</v>
-      </c>
-      <c r="O17" s="172">
-        <f t="shared" si="2"/>
-        <v>1.0958254269449715E-3</v>
+        <v>0.69608894391079501</v>
       </c>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="348" t="s">
         <v>266</v>
       </c>
       <c r="D18" s="172">
+        <f t="shared" si="4"/>
+        <v>7.6835164835164843E-3</v>
+      </c>
+      <c r="E18" s="172">
+        <f t="shared" si="4"/>
+        <v>9.2988235294117604E-3</v>
+      </c>
+      <c r="F18" s="172">
+        <f t="shared" si="4"/>
+        <v>4.2889858233369695E-2</v>
+      </c>
+      <c r="G18" s="172">
+        <f t="shared" si="4"/>
+        <v>2.0467073427309069E-2</v>
+      </c>
+      <c r="H18" s="172">
+        <f t="shared" si="4"/>
+        <v>9.6930529300567114E-2</v>
+      </c>
+      <c r="I18" s="172">
+        <f t="shared" si="4"/>
+        <v>0.1043990188062142</v>
+      </c>
+      <c r="J18" s="172">
+        <f t="shared" si="4"/>
+        <v>0.14106190139487049</v>
+      </c>
+      <c r="K18" s="172">
+        <f t="shared" si="4"/>
+        <v>9.967998738866557E-2</v>
+      </c>
+      <c r="L18" s="172">
+        <f t="shared" si="4"/>
+        <v>0.12915091383812008</v>
+      </c>
+      <c r="M18" s="172">
+        <f t="shared" si="4"/>
+        <v>4.4745143616138128E-2</v>
+      </c>
+      <c r="N18" s="172">
+        <f t="shared" si="4"/>
+        <v>1.1492537313432836E-2</v>
+      </c>
+      <c r="O18" s="172">
+        <f t="shared" si="4"/>
+        <v>1.0958254269449715E-3</v>
+      </c>
+      <c r="P18" s="491">
         <f t="shared" si="2"/>
-        <v>7.6835164835164843E-3</v>
-      </c>
-      <c r="E18" s="172">
-        <f t="shared" si="2"/>
-        <v>9.2988235294117604E-3</v>
-      </c>
-      <c r="F18" s="172">
-        <f t="shared" si="2"/>
-        <v>4.2889858233369695E-2</v>
-      </c>
-      <c r="G18" s="172">
-        <f t="shared" si="2"/>
-        <v>2.0467073427309069E-2</v>
-      </c>
-      <c r="H18" s="172">
-        <f t="shared" si="2"/>
-        <v>9.6930529300567114E-2</v>
-      </c>
-      <c r="I18" s="172">
-        <f t="shared" si="2"/>
-        <v>0.1043990188062142</v>
-      </c>
-      <c r="J18" s="172">
-        <f t="shared" si="2"/>
-        <v>0.14106190139487049</v>
-      </c>
-      <c r="K18" s="172">
-        <f t="shared" si="2"/>
-        <v>9.967998738866557E-2</v>
-      </c>
-      <c r="L18" s="172">
-        <f t="shared" si="2"/>
-        <v>0.12915091383812008</v>
-      </c>
-      <c r="M18" s="172">
-        <f t="shared" si="2"/>
-        <v>4.4745143616138128E-2</v>
-      </c>
-      <c r="N18" s="172">
-        <f t="shared" si="2"/>
-        <v>1.1492537313432836E-2</v>
-      </c>
-      <c r="O18" s="172">
-        <f t="shared" si="2"/>
-        <v>1.0958254269449715E-3</v>
+        <v>0.70889512875856031</v>
       </c>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="348" t="s">
         <v>267</v>
       </c>
@@ -9245,55 +9284,59 @@
         <v>7.6835164835164843E-3</v>
       </c>
       <c r="E19" s="172">
-        <f t="shared" ref="E19:O19" si="3">E14*E$10</f>
+        <f t="shared" ref="E19:O19" si="5">E14*E$10</f>
         <v>9.2988235294117604E-3</v>
       </c>
       <c r="F19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6189509269356608E-2</v>
       </c>
       <c r="G19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.075800547022933E-2</v>
       </c>
       <c r="H19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2763468809073724E-2</v>
       </c>
       <c r="I19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9656582174979544E-2</v>
       </c>
       <c r="J19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21373015362859163</v>
       </c>
       <c r="K19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18402459210215183</v>
       </c>
       <c r="L19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15024947676240205</v>
       </c>
       <c r="M19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9958492445625095E-2</v>
       </c>
       <c r="N19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1492537313432836E-2</v>
       </c>
       <c r="O19" s="172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0958254269449715E-3</v>
       </c>
+      <c r="P19" s="491">
+        <f t="shared" si="2"/>
+        <v>0.7869009834157159</v>
+      </c>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9311,7 +9354,7 @@
       <c r="O21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9328,7 +9371,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9345,7 +9388,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9362,7 +9405,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9379,7 +9422,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9396,7 +9439,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9413,7 +9456,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9430,7 +9473,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9447,7 +9490,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -9464,7 +9507,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9481,7 +9524,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -9498,7 +9541,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9515,7 +9558,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9540,22 +9583,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="175" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="175" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="175" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="175"/>
+    <col min="1" max="1" width="12.5" style="175" customWidth="1"/>
+    <col min="2" max="13" width="5.6640625" style="175" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="175" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="175"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="175" t="s">
         <v>188</v>
       </c>
@@ -9569,7 +9612,7 @@
       <c r="I1" s="473"/>
       <c r="J1" s="473"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="175" t="s">
         <v>173</v>
       </c>
@@ -9613,7 +9656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="175">
         <v>1939</v>
       </c>
@@ -9658,7 +9701,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="175">
         <v>1940</v>
       </c>
@@ -9703,7 +9746,7 @@
         <v>14.810000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="175">
         <v>1941</v>
       </c>
@@ -9748,7 +9791,7 @@
         <v>19.809999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="175">
         <v>1942</v>
       </c>
@@ -9793,7 +9836,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="175">
         <v>1943</v>
       </c>
@@ -9842,7 +9885,7 @@
       </c>
       <c r="P7" s="178"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="175">
         <v>1944</v>
       </c>
@@ -9887,7 +9930,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="175">
         <v>1945</v>
       </c>
@@ -9932,7 +9975,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="175">
         <v>1946</v>
       </c>
@@ -9977,7 +10020,7 @@
         <v>11.790000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="175">
         <v>1947</v>
       </c>
@@ -10022,7 +10065,7 @@
         <v>15.429999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="175">
         <v>1948</v>
       </c>
@@ -10067,7 +10110,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="175">
         <v>1949</v>
       </c>
@@ -10112,7 +10155,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="175">
         <v>1950</v>
       </c>
@@ -10157,7 +10200,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="175">
         <v>1951</v>
       </c>
@@ -10202,7 +10245,7 @@
         <v>13.110000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="175">
         <v>1952</v>
       </c>
@@ -10247,7 +10290,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="175">
         <v>1953</v>
       </c>
@@ -10292,7 +10335,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="175">
         <v>1954</v>
       </c>
@@ -10337,7 +10380,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="175">
         <v>1955</v>
       </c>
@@ -10382,7 +10425,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="175">
         <v>1956</v>
       </c>
@@ -10427,7 +10470,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="175">
         <v>1957</v>
       </c>
@@ -10472,7 +10515,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="175">
         <v>1958</v>
       </c>
@@ -10517,7 +10560,7 @@
         <v>13.270000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="175">
         <v>1959</v>
       </c>
@@ -10562,7 +10605,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="175">
         <v>1960</v>
       </c>
@@ -10607,7 +10650,7 @@
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="175">
         <v>1961</v>
       </c>
@@ -10652,7 +10695,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="175">
         <v>1962</v>
       </c>
@@ -10697,7 +10740,7 @@
         <v>15.879999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="175">
         <v>1963</v>
       </c>
@@ -10742,7 +10785,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="175">
         <v>1964</v>
       </c>
@@ -10787,7 +10830,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="175">
         <v>1965</v>
       </c>
@@ -10832,7 +10875,7 @@
         <v>14.839999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="175">
         <v>1966</v>
       </c>
@@ -10877,7 +10920,7 @@
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="175">
         <v>1967</v>
       </c>
@@ -10922,7 +10965,7 @@
         <v>22.88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="175">
         <v>1968</v>
       </c>
@@ -10967,7 +11010,7 @@
         <v>13.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="175">
         <v>1969</v>
       </c>
@@ -11012,7 +11055,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="175">
         <v>1970</v>
       </c>
@@ -11057,7 +11100,7 @@
         <v>9.5400000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="175">
         <v>1971</v>
       </c>
@@ -11102,7 +11145,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="175">
         <v>1972</v>
       </c>
@@ -11147,7 +11190,7 @@
         <v>14.719999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="175">
         <v>1973</v>
       </c>
@@ -11192,7 +11235,7 @@
         <v>10.829999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="175">
         <v>1974</v>
       </c>
@@ -11237,7 +11280,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="175">
         <v>1975</v>
       </c>
@@ -11282,7 +11325,7 @@
         <v>12.040000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="175">
         <v>1976</v>
       </c>
@@ -11327,7 +11370,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="175">
         <v>1977</v>
       </c>
@@ -11372,7 +11415,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="175">
         <v>1978</v>
       </c>
@@ -11417,7 +11460,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="175">
         <v>1979</v>
       </c>
@@ -11462,7 +11505,7 @@
         <v>19.429999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="175">
         <v>1980</v>
       </c>
@@ -11507,7 +11550,7 @@
         <v>14.180000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="175">
         <v>1981</v>
       </c>
@@ -11552,7 +11595,7 @@
         <v>15.629999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="175">
         <v>1982</v>
       </c>
@@ -11597,7 +11640,7 @@
         <v>18.689999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="175">
         <v>1983</v>
       </c>
@@ -11642,7 +11685,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="175">
         <v>1984</v>
       </c>
@@ -11687,7 +11730,7 @@
         <v>18.919999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="175">
         <v>1985</v>
       </c>
@@ -11732,7 +11775,7 @@
         <v>12.130000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="175">
         <v>1986</v>
       </c>
@@ -11777,7 +11820,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="175">
         <v>1987</v>
       </c>
@@ -11822,7 +11865,7 @@
         <v>17.439999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="175">
         <v>1988</v>
       </c>
@@ -11867,7 +11910,7 @@
         <v>10.959999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="175">
         <v>1989</v>
       </c>
@@ -11912,7 +11955,7 @@
         <v>14.419999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="175">
         <v>1990</v>
       </c>
@@ -11957,7 +12000,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="175">
         <v>1991</v>
       </c>
@@ -12002,7 +12045,7 @@
         <v>16.689999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="175">
         <v>1992</v>
       </c>
@@ -12047,7 +12090,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="175">
         <v>1993</v>
       </c>
@@ -12092,7 +12135,7 @@
         <v>16.960000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="175">
         <v>1994</v>
       </c>
@@ -12137,7 +12180,7 @@
         <v>11.979999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="175">
         <v>1995</v>
       </c>
@@ -12182,7 +12225,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="175">
         <v>1996</v>
       </c>
@@ -12227,7 +12270,7 @@
         <v>15.240000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="175">
         <v>1997</v>
       </c>
@@ -12272,7 +12315,7 @@
         <v>22.250000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="175">
         <v>1998</v>
       </c>
@@ -12317,7 +12360,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="175">
         <v>1999</v>
       </c>
@@ -12362,7 +12405,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="175">
         <v>2000</v>
       </c>
@@ -12407,7 +12450,7 @@
         <v>12.250000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65" s="175">
         <v>2001</v>
       </c>
@@ -12452,7 +12495,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66" s="175">
         <v>2002</v>
       </c>
@@ -12497,7 +12540,7 @@
         <v>9.5599999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" s="175">
         <v>2003</v>
       </c>
@@ -12542,7 +12585,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" s="175">
         <v>2004</v>
       </c>
@@ -12587,7 +12630,7 @@
         <v>11.550000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" s="175">
         <v>2005</v>
       </c>
@@ -12632,7 +12675,7 @@
         <v>14.569999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="175">
         <v>2006</v>
       </c>
@@ -12677,7 +12720,7 @@
         <v>11.840000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="175">
         <v>2007</v>
       </c>
@@ -12722,7 +12765,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="175">
         <v>2008</v>
       </c>
@@ -12767,7 +12810,7 @@
         <v>13.020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="175">
         <v>2009</v>
       </c>
@@ -12812,7 +12855,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" s="175">
         <v>2010</v>
       </c>
@@ -12857,7 +12900,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A75" s="175">
         <v>2011</v>
       </c>
@@ -12902,7 +12945,7 @@
         <v>14.030000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" s="175">
         <v>2012</v>
       </c>
@@ -12977,7 +13020,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A77" s="175">
         <v>2013</v>
       </c>
@@ -13022,7 +13065,7 @@
         <v>15.989999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" s="175">
         <v>2014</v>
       </c>
@@ -13067,7 +13110,7 @@
         <v>14.559999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="175">
         <v>2015</v>
       </c>
@@ -13112,7 +13155,7 @@
         <v>14.979999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A80" s="175">
         <v>2016</v>
       </c>
@@ -13142,7 +13185,7 @@
       <c r="M80" s="179"/>
       <c r="N80" s="179"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="175" t="s">
         <v>202</v>
       </c>
@@ -13199,7 +13242,7 @@
         <v>13.457922077922078</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B82" s="177" t="s">
         <v>201</v>
       </c>
@@ -13215,7 +13258,7 @@
       <c r="L82" s="177"/>
       <c r="M82" s="177"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="180" t="s">
         <v>203</v>
       </c>
@@ -13284,35 +13327,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="158" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="0.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="13" width="0.85546875" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="0.85546875" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" customWidth="1"/>
-    <col min="25" max="28" width="10.7109375" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="0.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="13" width="0.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="0.83203125" customWidth="1"/>
+    <col min="16" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="25" max="28" width="10.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13335,7 +13378,7 @@
       <c r="U1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="C2" s="347" t="s">
         <v>311</v>
@@ -13360,7 +13403,7 @@
       <c r="U2" s="170"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -13383,7 +13426,7 @@
       <c r="U3" s="170"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -13408,7 +13451,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="168" t="s">
         <v>263</v>
@@ -13448,7 +13491,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="483" t="s">
         <v>270</v>
@@ -13473,7 +13516,7 @@
       <c r="U6" s="170"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67"/>
       <c r="C7" s="68" t="s">
         <v>41</v>
@@ -13500,7 +13543,7 @@
       <c r="U7" s="67"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="67"/>
       <c r="C8" s="15" t="s">
         <v>1</v>
@@ -13546,7 +13589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>72</v>
@@ -13579,7 +13622,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="C10" s="16" t="s">
         <v>3</v>
@@ -13615,7 +13658,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67"/>
       <c r="C11" s="69" t="s">
         <v>53</v>
@@ -13656,7 +13699,7 @@
       <c r="AK11" s="357"/>
       <c r="AM11" s="357"/>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
       <c r="C12" s="16" t="s">
         <v>45</v>
@@ -13693,7 +13736,7 @@
       <c r="AK12" s="357"/>
       <c r="AM12" s="357"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
       <c r="C13" s="490" t="s">
         <v>309</v>
@@ -13733,7 +13776,7 @@
       <c r="AK13" s="357"/>
       <c r="AM13" s="357"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="67"/>
       <c r="C14" s="68" t="s">
         <v>44</v>
@@ -13770,7 +13813,7 @@
       <c r="AK14" s="357"/>
       <c r="AM14" s="357"/>
     </row>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
@@ -13820,7 +13863,7 @@
       <c r="AK15" s="357"/>
       <c r="AM15" s="357"/>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="67"/>
       <c r="C16" s="16" t="s">
         <v>52</v>
@@ -13873,7 +13916,7 @@
       <c r="AK16" s="357"/>
       <c r="AM16" s="357"/>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67"/>
       <c r="C17" s="69" t="s">
         <v>36</v>
@@ -13918,7 +13961,7 @@
       <c r="AK17" s="357"/>
       <c r="AM17" s="357"/>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67"/>
       <c r="C18" s="15" t="s">
         <v>29</v>
@@ -13970,7 +14013,7 @@
       <c r="AK18" s="357"/>
       <c r="AM18" s="357"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67"/>
       <c r="C19" s="15" t="s">
         <v>214</v>
@@ -14015,7 +14058,7 @@
       <c r="AK19" s="357"/>
       <c r="AM19" s="357"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
@@ -14048,7 +14091,7 @@
       <c r="AK20" s="357"/>
       <c r="AM20" s="357"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67"/>
       <c r="C21" s="164" t="s">
         <v>170</v>
@@ -14085,7 +14128,7 @@
       <c r="AK21" s="357"/>
       <c r="AM21" s="357"/>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67"/>
       <c r="C22" s="163" t="s">
         <v>248</v>
@@ -14106,7 +14149,10 @@
       <c r="O22" s="67"/>
       <c r="P22" s="469"/>
       <c r="Q22" s="469"/>
-      <c r="R22" s="469"/>
+      <c r="R22" s="469">
+        <f>600-600*0.94*0.75</f>
+        <v>177</v>
+      </c>
       <c r="S22" s="469"/>
       <c r="T22" s="469"/>
       <c r="W22" s="13"/>
@@ -14116,7 +14162,7 @@
       <c r="AK22" s="357"/>
       <c r="AM22" s="357"/>
     </row>
-    <row r="23" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -14144,7 +14190,7 @@
       <c r="AK23" s="357"/>
       <c r="AM23" s="357"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="67"/>
       <c r="C24" s="46" t="s">
         <v>4</v>
@@ -14173,7 +14219,7 @@
       <c r="AJ24" s="357"/>
       <c r="AK24" s="357"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="67"/>
       <c r="C25" s="18"/>
       <c r="D25" s="32"/>
@@ -14197,7 +14243,7 @@
       <c r="U25" s="485"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
@@ -14227,7 +14273,7 @@
       </c>
       <c r="W26" s="13"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67"/>
       <c r="C27" s="281" t="s">
         <v>14</v>
@@ -14261,7 +14307,7 @@
       </c>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="67"/>
       <c r="C28" s="282" t="s">
         <v>15</v>
@@ -14294,7 +14340,7 @@
       </c>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="67"/>
       <c r="C29" s="282" t="s">
         <v>46</v>
@@ -14326,7 +14372,7 @@
       </c>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="1:39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="67"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -14344,7 +14390,7 @@
       <c r="U30" s="13"/>
       <c r="W30" s="13"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="67"/>
       <c r="C31" s="61" t="s">
         <v>215</v>
@@ -14357,7 +14403,7 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="67"/>
       <c r="C32" s="283" t="s">
         <v>227</v>
@@ -14396,7 +14442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67"/>
       <c r="C33" s="284" t="s">
         <v>205</v>
@@ -14435,7 +14481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
       <c r="C34" s="284" t="s">
         <v>228</v>
@@ -14472,7 +14518,7 @@
       </c>
       <c r="AC34" s="121"/>
     </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="67"/>
       <c r="C35" s="284" t="s">
         <v>229</v>
@@ -14509,7 +14555,7 @@
       </c>
       <c r="AC35" s="121"/>
     </row>
-    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
       <c r="C36" s="284" t="s">
         <v>230</v>
@@ -14544,7 +14590,7 @@
       </c>
       <c r="AC36" s="121"/>
     </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
       <c r="C37" s="284" t="s">
         <v>238</v>
@@ -14581,7 +14627,7 @@
       </c>
       <c r="AC37" s="121"/>
     </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="C38" s="285"/>
       <c r="D38" s="192"/>
@@ -14613,7 +14659,7 @@
       </c>
       <c r="AC38" s="121"/>
     </row>
-    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="C39" s="286"/>
       <c r="D39" s="195"/>
@@ -14645,7 +14691,7 @@
       </c>
       <c r="AC39" s="121"/>
     </row>
-    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="C40" s="287"/>
       <c r="D40" s="196"/>
@@ -14677,14 +14723,14 @@
       </c>
       <c r="AC40" s="133"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="45"/>
       <c r="W41" s="29"/>
     </row>
-    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="C42" s="61" t="s">
         <v>38</v>
@@ -14705,7 +14751,7 @@
       <c r="U42" s="13"/>
       <c r="W42" s="29"/>
     </row>
-    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="C43" s="288" t="s">
         <v>17</v>
@@ -14738,7 +14784,7 @@
         <v>353700</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="C44" s="289" t="s">
         <v>19</v>
@@ -14773,7 +14819,7 @@
         <v>306675</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="C45" s="289" t="s">
         <v>21</v>
@@ -14811,7 +14857,7 @@
         <v>47025</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="C46" s="289" t="s">
         <v>92</v>
@@ -14846,7 +14892,7 @@
       <c r="AB46" s="114"/>
       <c r="AC46" s="121"/>
     </row>
-    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="C47" s="289" t="s">
         <v>93</v>
@@ -14885,7 +14931,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="C48" s="289" t="s">
         <v>94</v>
@@ -14924,7 +14970,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="C49" s="290" t="s">
         <v>39</v>
@@ -14944,13 +14990,12 @@
       <c r="Q49" s="239"/>
       <c r="R49" s="240"/>
       <c r="S49" s="240"/>
-      <c r="T49" s="224">
+      <c r="T49" s="224" t="e">
         <f>U49/$I$8</f>
-        <v>61.307999999999979</v>
-      </c>
-      <c r="U49" s="241">
-        <f>AB36</f>
-        <v>36784.799999999988</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U49" s="241" t="s">
+        <v>119</v>
       </c>
       <c r="W49" s="13"/>
       <c r="Y49" s="54" t="s">
@@ -14964,7 +15009,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="C50" s="291" t="s">
         <v>98</v>
@@ -15000,7 +15045,7 @@
       <c r="AB50" s="114"/>
       <c r="AC50" s="121"/>
     </row>
-    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="C51" s="292" t="s">
         <v>99</v>
@@ -15041,7 +15086,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -15069,7 +15114,7 @@
         <v>3187.5</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="C53" s="61" t="s">
         <v>100</v>
@@ -15100,7 +15145,7 @@
         <v>6414.84375</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="C54" s="293" t="s">
         <v>105</v>
@@ -15134,7 +15179,7 @@
         <v>6495.029296875</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="C55" s="294" t="s">
         <v>104</v>
@@ -15160,7 +15205,7 @@
       </c>
       <c r="W55" s="13"/>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="C56" s="294" t="s">
         <v>103</v>
@@ -15211,7 +15256,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="C57" s="295" t="s">
         <v>78</v>
@@ -15268,7 +15313,7 @@
         <v>514687.5</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="C58" s="296" t="s">
         <v>40</v>
@@ -15315,7 +15360,7 @@
       </c>
       <c r="AB58" s="148">
         <f t="shared" si="5"/>
-        <v>481932.179403188</v>
+        <v>445147.37940318801</v>
       </c>
       <c r="AC58" s="148">
         <f t="shared" si="5"/>
@@ -15326,7 +15371,7 @@
         <v>501070.49119880609</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="C59" s="474" t="s">
         <v>96</v>
@@ -15371,7 +15416,7 @@
       </c>
       <c r="AB59" s="148">
         <f t="shared" si="6"/>
-        <v>501718.44870177616</v>
+        <v>463293.41446977615</v>
       </c>
       <c r="AC59" s="148">
         <f t="shared" si="6"/>
@@ -15382,7 +15427,7 @@
         <v>501937.17066083587</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="C60" s="477"/>
       <c r="D60" s="478"/>
@@ -15425,18 +15470,18 @@
       </c>
       <c r="AB60" s="148">
         <f>S121</f>
-        <v>522386.98774838838</v>
+        <v>482248.5812399835</v>
       </c>
       <c r="AC60" s="148">
         <f>T121</f>
-        <v>605096.69541106501</v>
+        <v>580628.881992065</v>
       </c>
       <c r="AD60" s="148">
         <f t="shared" ref="AD60" si="7">U121</f>
         <v>502811.28189925256</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="C61" s="477"/>
       <c r="D61" s="478"/>
@@ -15479,18 +15524,18 @@
       </c>
       <c r="AB61" s="148">
         <f>S135</f>
-        <v>543531.01958733075</v>
+        <v>502048.95889647433</v>
       </c>
       <c r="AC61" s="148">
         <f>T135</f>
-        <v>631323.21299321484</v>
+        <v>602272.338074147</v>
       </c>
       <c r="AD61" s="148">
         <f t="shared" ref="AD61" si="8">U135</f>
         <v>503692.88864153862</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="C62" s="477"/>
       <c r="D62" s="478"/>
@@ -15533,18 +15578,18 @@
       </c>
       <c r="AB62" s="148">
         <f>S149</f>
-        <v>564856.36149929219</v>
+        <v>522732.23539266817</v>
       </c>
       <c r="AC62" s="148">
         <f>T149</f>
-        <v>657774.62296363164</v>
+        <v>624101.38679213275</v>
       </c>
       <c r="AD62" s="148">
         <f t="shared" ref="AD62" si="9">U149</f>
         <v>504582.05516163982</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="C63" s="480"/>
       <c r="D63" s="481"/>
@@ -15570,7 +15615,7 @@
       </c>
       <c r="W63" s="13"/>
     </row>
-    <row r="64" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -15597,7 +15642,7 @@
       </c>
       <c r="W64" s="13"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -15624,7 +15669,7 @@
       </c>
       <c r="W65" s="13"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -15651,7 +15696,7 @@
       </c>
       <c r="W66" s="13"/>
     </row>
-    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -15678,7 +15723,7 @@
       </c>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -15691,7 +15736,7 @@
       <c r="N68" s="13"/>
       <c r="W68" s="13"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -15711,7 +15756,7 @@
       <c r="U69" s="17"/>
       <c r="W69" s="13"/>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -15734,7 +15779,7 @@
       <c r="U70" s="340"/>
       <c r="W70" s="13"/>
     </row>
-    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15757,7 +15802,7 @@
       <c r="U71" s="29"/>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15794,7 +15839,7 @@
       </c>
       <c r="W72" s="13"/>
     </row>
-    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -15817,7 +15862,7 @@
       <c r="U73" s="67"/>
       <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="C74" s="17"/>
       <c r="E74" s="305" t="s">
@@ -15841,7 +15886,7 @@
       <c r="U74" s="109"/>
       <c r="W74" s="13"/>
     </row>
-    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="C75" s="17"/>
       <c r="E75" s="306" t="s">
@@ -15883,7 +15928,7 @@
       </c>
       <c r="W75" s="13"/>
     </row>
-    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="C76" s="17"/>
       <c r="E76" s="306" t="s">
@@ -15925,7 +15970,7 @@
       </c>
       <c r="W76" s="13"/>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="C77" s="17"/>
       <c r="E77" s="306" t="s">
@@ -15967,7 +16012,7 @@
       </c>
       <c r="W77" s="13"/>
     </row>
-    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="13"/>
       <c r="C78" s="70"/>
       <c r="E78" s="307" t="s">
@@ -16009,7 +16054,7 @@
       </c>
       <c r="W78" s="13"/>
     </row>
-    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="C79" s="17"/>
       <c r="E79" s="67"/>
@@ -16031,7 +16076,7 @@
       <c r="U79" s="67"/>
       <c r="W79" s="13"/>
     </row>
-    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="C80" s="17"/>
       <c r="E80" s="108">
@@ -16056,7 +16101,7 @@
       <c r="U80" s="67"/>
       <c r="W80" s="13"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="C81" s="17"/>
       <c r="E81" s="16" t="s">
@@ -16085,8 +16130,8 @@
         <v>353700</v>
       </c>
       <c r="S81" s="90">
-        <f>IF(E80&lt;$U$19,(($I$8*$U$9)-$I$47)*($U$11*(1+$I$48))*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>353700</v>
+        <f>AB35</f>
+        <v>316915.20000000001</v>
       </c>
       <c r="T81" s="90">
         <f>AC44</f>
@@ -16099,7 +16144,7 @@
       <c r="W81" s="13"/>
       <c r="AC81" s="150"/>
     </row>
-    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="C82" s="17"/>
       <c r="E82" s="16" t="s">
@@ -16141,7 +16186,7 @@
       <c r="W82" s="13"/>
       <c r="AC82" s="150"/>
     </row>
-    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="C83" s="17"/>
       <c r="E83" s="91" t="s">
@@ -16183,7 +16228,7 @@
       </c>
       <c r="W83" s="13"/>
     </row>
-    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="C84" s="17"/>
       <c r="E84" s="235" t="s">
@@ -16213,7 +16258,7 @@
       </c>
       <c r="S84" s="90">
         <f t="shared" si="15"/>
-        <v>-28067.820596812002</v>
+        <v>-64852.62059681199</v>
       </c>
       <c r="T84" s="90">
         <f t="shared" si="15"/>
@@ -16246,7 +16291,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="C85" s="17"/>
       <c r="E85" s="91" t="s">
@@ -16263,11 +16308,11 @@
       <c r="N85" s="92"/>
       <c r="O85" s="92"/>
       <c r="P85" s="95">
-        <f t="shared" ref="P85:U85" si="16">IF(P84&gt;0,P84*(0.124+0.15+0.04),0)</f>
+        <f>IF(P84&gt;0,P84*(0.124+0.15+0.04),0)</f>
         <v>14716.353081000001</v>
       </c>
       <c r="Q85" s="95">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="P85:U85" si="16">IF(Q84&gt;0,Q84*(0.124+0.15+0.04),0)</f>
         <v>14730.630487675498</v>
       </c>
       <c r="R85" s="95">
@@ -16315,7 +16360,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="C86" s="17"/>
       <c r="E86" s="96" t="s">
@@ -16345,7 +16390,7 @@
       </c>
       <c r="S86" s="97">
         <f t="shared" si="18"/>
-        <v>-28067.820596812002</v>
+        <v>-64852.62059681199</v>
       </c>
       <c r="T86" s="97">
         <f t="shared" si="18"/>
@@ -16374,7 +16419,7 @@
       </c>
       <c r="AB86" s="148">
         <f t="shared" si="19"/>
-        <v>-28067.820596812002</v>
+        <v>-64852.62059681199</v>
       </c>
       <c r="AC86" s="148">
         <f t="shared" si="19"/>
@@ -16385,7 +16430,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="13"/>
       <c r="C87" s="17"/>
       <c r="E87" s="98" t="s">
@@ -16440,7 +16485,7 @@
       </c>
       <c r="AB87" s="148">
         <f t="shared" si="20"/>
-        <v>28842.958161207225</v>
+        <v>26451.946161207226</v>
       </c>
       <c r="AC87" s="148">
         <f t="shared" si="20"/>
@@ -16451,7 +16496,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="C88" s="17"/>
       <c r="E88" s="101" t="s">
@@ -16505,18 +16550,18 @@
       </c>
       <c r="AB88" s="148">
         <f>S114</f>
-        <v>30129.065665615453</v>
+        <v>27631.438440535454</v>
       </c>
       <c r="AC88" s="148">
         <f>T114</f>
-        <v>37906.03097701045</v>
+        <v>2238.6644770104485</v>
       </c>
       <c r="AD88" s="148">
         <f t="shared" ref="AD88" si="21">U114</f>
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="C89" s="17"/>
       <c r="E89" s="305" t="s">
@@ -16557,18 +16602,18 @@
       </c>
       <c r="AB89" s="148">
         <f>S128</f>
-        <v>30822.20384685486</v>
+        <v>28863.524280598929</v>
       </c>
       <c r="AC89" s="148">
         <f>T128</f>
-        <v>38231.075192638316</v>
+        <v>31550.227524900816</v>
       </c>
       <c r="AD89" s="148">
         <f t="shared" ref="AD89" si="22">U128</f>
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="C90" s="17"/>
       <c r="E90" s="308" t="s">
@@ -16627,18 +16672,18 @@
       </c>
       <c r="AB90" s="148">
         <f>S142</f>
-        <v>31086.504244841639</v>
+        <v>30150.548828270836</v>
       </c>
       <c r="AC90" s="148">
         <f>T142</f>
-        <v>38558.906662415189</v>
+        <v>31820.770725926839</v>
       </c>
       <c r="AD90" s="148">
         <f t="shared" ref="AD90" si="24">U142</f>
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
       <c r="C91" s="17"/>
       <c r="E91" s="309" t="s">
@@ -16668,7 +16713,7 @@
       </c>
       <c r="S91" s="87">
         <f t="shared" si="25"/>
-        <v>-28067.820596812002</v>
+        <v>-64852.62059681199</v>
       </c>
       <c r="T91" s="87">
         <f t="shared" si="25"/>
@@ -16680,7 +16725,7 @@
       </c>
       <c r="W91" s="17"/>
     </row>
-    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="C92" s="17"/>
       <c r="E92" s="307" t="s">
@@ -16710,7 +16755,7 @@
       </c>
       <c r="S92" s="265">
         <f t="shared" ref="S92" si="26">SUM(S90:S91)</f>
-        <v>481932.179403188</v>
+        <v>445147.37940318801</v>
       </c>
       <c r="T92" s="265">
         <f>SUM(T90:T91)</f>
@@ -16722,7 +16767,7 @@
       </c>
       <c r="W92" s="17"/>
     </row>
-    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="C93" s="17"/>
       <c r="E93" s="67"/>
@@ -16744,7 +16789,7 @@
       <c r="U93" s="67"/>
       <c r="W93" s="17"/>
     </row>
-    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="C94" s="17"/>
       <c r="E94" s="108">
@@ -16769,7 +16814,7 @@
       <c r="U94" s="67"/>
       <c r="W94" s="17"/>
     </row>
-    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="C95" s="17"/>
       <c r="E95" s="98" t="s">
@@ -16810,7 +16855,7 @@
       </c>
       <c r="W95" s="17"/>
     </row>
-    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="C96" s="17"/>
       <c r="E96" s="98" t="s">
@@ -16851,7 +16896,7 @@
       </c>
       <c r="W96" s="17"/>
     </row>
-    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="C97" s="17"/>
       <c r="E97" s="16" t="s">
@@ -16893,7 +16938,7 @@
       </c>
       <c r="W97" s="17"/>
     </row>
-    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="C98" s="17"/>
       <c r="E98" s="91" t="s">
@@ -16923,7 +16968,7 @@
       </c>
       <c r="S98" s="94">
         <f t="shared" si="28"/>
-        <v>-1824.4083387927801</v>
+        <v>-4215.4203387927791</v>
       </c>
       <c r="T98" s="94">
         <f t="shared" si="28"/>
@@ -16935,7 +16980,7 @@
       </c>
       <c r="W98" s="17"/>
     </row>
-    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="C99" s="17"/>
       <c r="E99" s="235" t="s">
@@ -16965,7 +17010,7 @@
       </c>
       <c r="S99" s="90">
         <f t="shared" si="29"/>
-        <v>28842.958161207225</v>
+        <v>26451.946161207226</v>
       </c>
       <c r="T99" s="90">
         <f t="shared" si="29"/>
@@ -16977,7 +17022,7 @@
       </c>
       <c r="W99" s="17"/>
     </row>
-    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="C100" s="17"/>
       <c r="E100" s="91" t="s">
@@ -17007,7 +17052,7 @@
       </c>
       <c r="S100" s="95">
         <f t="shared" si="30"/>
-        <v>9056.6888626190685</v>
+        <v>8305.9110946190685</v>
       </c>
       <c r="T100" s="95">
         <f t="shared" si="30"/>
@@ -17019,7 +17064,7 @@
       </c>
       <c r="W100" s="17"/>
     </row>
-    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="C101" s="17"/>
       <c r="E101" s="96" t="s">
@@ -17049,7 +17094,7 @@
       </c>
       <c r="S101" s="102">
         <f t="shared" si="31"/>
-        <v>19786.269298588159</v>
+        <v>18146.035066588156</v>
       </c>
       <c r="T101" s="97">
         <f>T99-T100</f>
@@ -17061,7 +17106,7 @@
       </c>
       <c r="W101" s="17"/>
     </row>
-    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="C102" s="17"/>
       <c r="E102" s="96" t="s">
@@ -17098,7 +17143,7 @@
       </c>
       <c r="W102" s="17"/>
     </row>
-    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="C103" s="17"/>
       <c r="E103" s="96"/>
@@ -17120,7 +17165,7 @@
       <c r="U103" s="90"/>
       <c r="W103" s="17"/>
     </row>
-    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="C104" s="17"/>
       <c r="E104" s="305" t="s">
@@ -17144,7 +17189,7 @@
       <c r="U104" s="70"/>
       <c r="W104" s="17"/>
     </row>
-    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="C105" s="17"/>
       <c r="E105" s="308" t="s">
@@ -17186,7 +17231,7 @@
       </c>
       <c r="W105" s="17"/>
     </row>
-    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="C106" s="17"/>
       <c r="E106" s="309" t="s">
@@ -17216,7 +17261,7 @@
       </c>
       <c r="S106" s="103">
         <f>S91+S101</f>
-        <v>-8281.5512982238433</v>
+        <v>-46706.585530223834</v>
       </c>
       <c r="T106" s="103">
         <f>T91+T101-T102</f>
@@ -17228,7 +17273,7 @@
       </c>
       <c r="W106" s="17"/>
     </row>
-    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="C107" s="17"/>
       <c r="E107" s="307" t="s">
@@ -17258,7 +17303,7 @@
       </c>
       <c r="S107" s="310">
         <f t="shared" si="33"/>
-        <v>501718.44870177616</v>
+        <v>463293.41446977615</v>
       </c>
       <c r="T107" s="310">
         <f>SUM(T105:T106)</f>
@@ -17270,7 +17315,7 @@
       </c>
       <c r="W107" s="17"/>
     </row>
-    <row r="108" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="C108" s="17"/>
       <c r="E108" s="104"/>
@@ -17292,7 +17337,7 @@
       <c r="U108" s="30"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="C109" s="17"/>
       <c r="E109" s="108">
@@ -17317,7 +17362,7 @@
       <c r="U109" s="30"/>
       <c r="W109" s="17"/>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="C110" s="17"/>
       <c r="E110" s="98" t="s">
@@ -17350,15 +17395,14 @@
         <v>337500</v>
       </c>
       <c r="T110" s="90">
-        <f>IF(E109&gt;$U$19,($I$8*$U$9)*$U$11*$U$16,0)</f>
-        <v>337500</v>
+        <v>0</v>
       </c>
       <c r="U110" s="90">
         <v>0</v>
       </c>
       <c r="W110" s="17"/>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="C111" s="17"/>
       <c r="E111" s="98" t="s">
@@ -17399,7 +17443,7 @@
       </c>
       <c r="W111" s="17"/>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="C112" s="17"/>
       <c r="E112" s="16" t="s">
@@ -17432,8 +17476,7 @@
         <v>-306832.6335</v>
       </c>
       <c r="T112" s="94">
-        <f>IF(T110=0,-$I$55,-($I$8*$I$12 + IF($I$19 = 1, U33, 0)))</f>
-        <v>-306832.6335</v>
+        <v>-5000</v>
       </c>
       <c r="U112" s="94">
         <f>-$I$55</f>
@@ -17441,7 +17484,7 @@
       </c>
       <c r="W112" s="17"/>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="C113" s="17"/>
       <c r="E113" s="91" t="s">
@@ -17471,7 +17514,7 @@
       </c>
       <c r="S113" s="94">
         <f t="shared" si="34"/>
-        <v>-538.30083438454983</v>
+        <v>-3035.9280594645493</v>
       </c>
       <c r="T113" s="94">
         <f t="shared" si="34"/>
@@ -17483,7 +17526,7 @@
       </c>
       <c r="W113" s="17"/>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="C114" s="17"/>
       <c r="E114" s="235" t="s">
@@ -17513,11 +17556,11 @@
       </c>
       <c r="S114" s="90">
         <f>SUM(S110:S113)</f>
-        <v>30129.065665615453</v>
+        <v>27631.438440535454</v>
       </c>
       <c r="T114" s="90">
         <f>SUM(T110:T113)</f>
-        <v>37906.03097701045</v>
+        <v>2238.6644770104485</v>
       </c>
       <c r="U114" s="90">
         <f t="shared" ref="U114" si="35">SUM(U110:U113)</f>
@@ -17525,7 +17568,7 @@
       </c>
       <c r="W114" s="17"/>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="C115" s="17"/>
       <c r="E115" s="91" t="s">
@@ -17555,11 +17598,11 @@
       </c>
       <c r="S115" s="95">
         <f>IF(S114&gt;0,S114*(0.124+0.15+0.04),0)</f>
-        <v>9460.5266190032526</v>
+        <v>8676.271670328133</v>
       </c>
       <c r="T115" s="95">
         <f>IF(T114&gt;0,T114*(0.124+0.15+0.04),0)</f>
-        <v>11902.493726781282</v>
+        <v>702.94064578128086</v>
       </c>
       <c r="U115" s="95">
         <f t="shared" ref="U115" si="36">IF(U114&gt;0,U114*(0.124+0.15+0.04),0)</f>
@@ -17567,7 +17610,7 @@
       </c>
       <c r="W115" s="17"/>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="C116" s="17"/>
       <c r="E116" s="96" t="s">
@@ -17597,11 +17640,11 @@
       </c>
       <c r="S116" s="97">
         <f t="shared" si="37"/>
-        <v>20668.539046612201</v>
+        <v>18955.166770207321</v>
       </c>
       <c r="T116" s="97">
         <f t="shared" si="37"/>
-        <v>26003.537250229168</v>
+        <v>1535.7238312291677</v>
       </c>
       <c r="U116" s="97">
         <f t="shared" si="37"/>
@@ -17609,7 +17652,7 @@
       </c>
       <c r="W116" s="17"/>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="C117" s="17"/>
       <c r="E117" s="96" t="s">
@@ -17638,15 +17681,14 @@
         <v>0</v>
       </c>
       <c r="T117" s="90">
-        <f>IF(E109=$U$19,$I$8*$I$58,0)</f>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U117" s="90">
         <v>0</v>
       </c>
       <c r="W117" s="17"/>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="C118" s="17"/>
       <c r="E118" s="305" t="s">
@@ -17670,7 +17712,7 @@
       <c r="U118" s="70"/>
       <c r="W118" s="17"/>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="C119" s="17"/>
       <c r="E119" s="308" t="s">
@@ -17704,7 +17746,7 @@
       </c>
       <c r="T119" s="302">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U119" s="303">
         <f t="shared" si="38"/>
@@ -17712,7 +17754,7 @@
       </c>
       <c r="W119" s="17"/>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="C120" s="17"/>
       <c r="E120" s="309" t="s">
@@ -17742,11 +17784,11 @@
       </c>
       <c r="S120" s="103">
         <f>S106+S116-S117</f>
-        <v>12386.987748388357</v>
+        <v>-27751.418760016513</v>
       </c>
       <c r="T120" s="103">
         <f>T106+T116-T117</f>
-        <v>605096.69541106501</v>
+        <v>70628.881992064998</v>
       </c>
       <c r="U120" s="267">
         <f t="shared" ref="U120" si="39">U106+U116-U117</f>
@@ -17754,7 +17796,7 @@
       </c>
       <c r="W120" s="17"/>
     </row>
-    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="C121" s="17"/>
       <c r="E121" s="307" t="s">
@@ -17784,11 +17826,11 @@
       </c>
       <c r="S121" s="310">
         <f t="shared" si="40"/>
-        <v>522386.98774838838</v>
+        <v>482248.5812399835</v>
       </c>
       <c r="T121" s="310">
         <f t="shared" si="40"/>
-        <v>605096.69541106501</v>
+        <v>580628.881992065</v>
       </c>
       <c r="U121" s="311">
         <f t="shared" si="40"/>
@@ -17796,7 +17838,7 @@
       </c>
       <c r="W121" s="17"/>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="C122" s="17"/>
       <c r="E122" s="67"/>
@@ -17818,7 +17860,7 @@
       <c r="U122" s="67"/>
       <c r="W122" s="17"/>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="C123" s="17"/>
       <c r="E123" s="108">
@@ -17843,7 +17885,7 @@
       <c r="U123" s="30"/>
       <c r="W123" s="17"/>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="C124" s="17"/>
       <c r="E124" s="98" t="s">
@@ -17884,7 +17926,7 @@
       </c>
       <c r="W124" s="17"/>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="C125" s="17"/>
       <c r="E125" s="98" t="s">
@@ -17925,7 +17967,7 @@
       </c>
       <c r="W125" s="17"/>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="C126" s="17"/>
       <c r="E126" s="16" t="s">
@@ -17967,7 +18009,7 @@
       </c>
       <c r="W126" s="17"/>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="C127" s="17"/>
       <c r="E127" s="91" t="s">
@@ -17997,11 +18039,11 @@
       </c>
       <c r="S127" s="94">
         <f>IF(S120&gt;0,S120*$I$16,S120*$I$15)</f>
-        <v>154.83734685485447</v>
+        <v>-1803.8422194010734</v>
       </c>
       <c r="T127" s="94">
         <f>IF(T120&gt;0,T120*$I$16,T120*$I$15)</f>
-        <v>7563.7086926383126</v>
+        <v>882.86102490081248</v>
       </c>
       <c r="U127" s="94">
         <f t="shared" ref="U127" si="41">IF(U120&gt;0,U120*$I$16,U120*$I$15)</f>
@@ -18009,7 +18051,7 @@
       </c>
       <c r="W127" s="17"/>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="C128" s="17"/>
       <c r="E128" s="235" t="s">
@@ -18039,11 +18081,11 @@
       </c>
       <c r="S128" s="90">
         <f>SUM(S124:S127)</f>
-        <v>30822.20384685486</v>
+        <v>28863.524280598929</v>
       </c>
       <c r="T128" s="90">
         <f>SUM(T124:T127)</f>
-        <v>38231.075192638316</v>
+        <v>31550.227524900816</v>
       </c>
       <c r="U128" s="90">
         <f t="shared" ref="U128" si="42">SUM(U124:U127)</f>
@@ -18051,7 +18093,7 @@
       </c>
       <c r="W128" s="17"/>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
       <c r="C129" s="17"/>
       <c r="E129" s="91" t="s">
@@ -18081,11 +18123,11 @@
       </c>
       <c r="S129" s="95">
         <f>IF(S128&gt;0,S128*(0.124+0.15+0.04),0)</f>
-        <v>9678.1720079124261</v>
+        <v>9063.1466241080634</v>
       </c>
       <c r="T129" s="95">
         <f>IF(T128&gt;0,T128*(0.124+0.15+0.04),0)</f>
-        <v>12004.557610488431</v>
+        <v>9906.7714428188556</v>
       </c>
       <c r="U129" s="95">
         <f t="shared" ref="U129" si="43">IF(U128&gt;0,U128*(0.124+0.15+0.04),0)</f>
@@ -18093,7 +18135,7 @@
       </c>
       <c r="W129" s="17"/>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
       <c r="C130" s="17"/>
       <c r="E130" s="96" t="s">
@@ -18123,11 +18165,11 @@
       </c>
       <c r="S130" s="97">
         <f t="shared" si="44"/>
-        <v>21144.031838942436</v>
+        <v>19800.377656490866</v>
       </c>
       <c r="T130" s="97">
         <f t="shared" si="44"/>
-        <v>26226.517582149885</v>
+        <v>21643.456082081961</v>
       </c>
       <c r="U130" s="97">
         <f t="shared" si="44"/>
@@ -18135,7 +18177,7 @@
       </c>
       <c r="W130" s="17"/>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="C131" s="17"/>
       <c r="E131" s="96" t="s">
@@ -18172,7 +18214,7 @@
       </c>
       <c r="W131" s="17"/>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
       <c r="C132" s="17"/>
       <c r="E132" s="305" t="s">
@@ -18196,7 +18238,7 @@
       <c r="U132" s="70"/>
       <c r="W132" s="17"/>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
       <c r="C133" s="17"/>
       <c r="E133" s="308" t="s">
@@ -18230,7 +18272,7 @@
       </c>
       <c r="T133" s="302">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U133" s="303">
         <f t="shared" si="45"/>
@@ -18238,7 +18280,7 @@
       </c>
       <c r="W133" s="17"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="C134" s="17"/>
       <c r="E134" s="309" t="s">
@@ -18268,11 +18310,11 @@
       </c>
       <c r="S134" s="103">
         <f>S120+S130-S131</f>
-        <v>33531.019587330797</v>
+        <v>-7951.0411035256475</v>
       </c>
       <c r="T134" s="103">
         <f>T120+T130-T131</f>
-        <v>631323.21299321484</v>
+        <v>92272.338074146959</v>
       </c>
       <c r="U134" s="267">
         <f t="shared" ref="U134" si="46">U120+U130-U131</f>
@@ -18280,7 +18322,7 @@
       </c>
       <c r="W134" s="17"/>
     </row>
-    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
       <c r="C135" s="17"/>
       <c r="E135" s="307" t="s">
@@ -18310,11 +18352,11 @@
       </c>
       <c r="S135" s="310">
         <f t="shared" si="47"/>
-        <v>543531.01958733075</v>
+        <v>502048.95889647433</v>
       </c>
       <c r="T135" s="310">
         <f t="shared" si="47"/>
-        <v>631323.21299321484</v>
+        <v>602272.338074147</v>
       </c>
       <c r="U135" s="311">
         <f t="shared" si="47"/>
@@ -18322,7 +18364,7 @@
       </c>
       <c r="W135" s="17"/>
     </row>
-    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
       <c r="C136" s="17"/>
       <c r="E136" s="67"/>
@@ -18344,7 +18386,7 @@
       <c r="U136" s="67"/>
       <c r="W136" s="17"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="C137" s="17"/>
       <c r="E137" s="108">
@@ -18369,7 +18411,7 @@
       <c r="U137" s="30"/>
       <c r="W137" s="17"/>
     </row>
-    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="C138" s="17"/>
       <c r="E138" s="98" t="s">
@@ -18410,7 +18452,7 @@
       </c>
       <c r="W138" s="17"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13"/>
       <c r="C139" s="17"/>
       <c r="E139" s="98" t="s">
@@ -18451,7 +18493,7 @@
       </c>
       <c r="W139" s="17"/>
     </row>
-    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C140" s="17"/>
       <c r="E140" s="16" t="s">
         <v>54</v>
@@ -18492,7 +18534,7 @@
       </c>
       <c r="W140" s="17"/>
     </row>
-    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C141" s="17"/>
       <c r="E141" s="91" t="s">
         <v>58</v>
@@ -18521,11 +18563,11 @@
       </c>
       <c r="S141" s="94">
         <f>IF(S134&gt;0,S134*$I$16,S134*$I$15)</f>
-        <v>419.13774484163497</v>
+        <v>-516.81767172916716</v>
       </c>
       <c r="T141" s="94">
         <f>IF(T134&gt;0,T134*$I$16,T134*$I$15)</f>
-        <v>7891.5401624151855</v>
+        <v>1153.4042259268369</v>
       </c>
       <c r="U141" s="94">
         <f t="shared" ref="U141" si="48">IF(U134&gt;0,U134*$I$16,U134*$I$15)</f>
@@ -18533,7 +18575,7 @@
       </c>
       <c r="W141" s="17"/>
     </row>
-    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C142" s="17"/>
       <c r="E142" s="235" t="s">
         <v>49</v>
@@ -18562,11 +18604,11 @@
       </c>
       <c r="S142" s="90">
         <f>SUM(S138:S141)</f>
-        <v>31086.504244841639</v>
+        <v>30150.548828270836</v>
       </c>
       <c r="T142" s="90">
         <f>SUM(T138:T141)</f>
-        <v>38558.906662415189</v>
+        <v>31820.770725926839</v>
       </c>
       <c r="U142" s="90">
         <f t="shared" ref="U142" si="49">SUM(U138:U141)</f>
@@ -18574,7 +18616,7 @@
       </c>
       <c r="W142" s="17"/>
     </row>
-    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C143" s="17"/>
       <c r="E143" s="91" t="s">
         <v>33</v>
@@ -18603,11 +18645,11 @@
       </c>
       <c r="S143" s="95">
         <f>IF(S142&gt;0,S142*(0.124+0.15+0.04),0)</f>
-        <v>9761.1623328802743</v>
+        <v>9467.2723320770419</v>
       </c>
       <c r="T143" s="95">
         <f>IF(T142&gt;0,T142*(0.124+0.15+0.04),0)</f>
-        <v>12107.496691998369</v>
+        <v>9991.7220079410272</v>
       </c>
       <c r="U143" s="95">
         <f t="shared" ref="U143" si="50">IF(U142&gt;0,U142*(0.124+0.15+0.04),0)</f>
@@ -18615,7 +18657,7 @@
       </c>
       <c r="W143" s="17"/>
     </row>
-    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C144" s="17"/>
       <c r="E144" s="96" t="s">
         <v>34</v>
@@ -18644,11 +18686,11 @@
       </c>
       <c r="S144" s="97">
         <f t="shared" si="51"/>
-        <v>21325.341911961365</v>
+        <v>20683.276496193794</v>
       </c>
       <c r="T144" s="97">
         <f t="shared" si="51"/>
-        <v>26451.409970416818</v>
+        <v>21829.04871798581</v>
       </c>
       <c r="U144" s="97">
         <f t="shared" si="51"/>
@@ -18656,7 +18698,7 @@
       </c>
       <c r="W144" s="17"/>
     </row>
-    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C145" s="17"/>
       <c r="E145" s="96" t="s">
         <v>55</v>
@@ -18692,7 +18734,7 @@
       </c>
       <c r="W145" s="17"/>
     </row>
-    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C146" s="17"/>
       <c r="E146" s="305" t="s">
         <v>59</v>
@@ -18715,7 +18757,7 @@
       <c r="U146" s="70"/>
       <c r="W146" s="17"/>
     </row>
-    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C147" s="17"/>
       <c r="E147" s="308" t="s">
         <v>0</v>
@@ -18748,7 +18790,7 @@
       </c>
       <c r="T147" s="302">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U147" s="303">
         <f t="shared" si="52"/>
@@ -18756,7 +18798,7 @@
       </c>
       <c r="W147" s="17"/>
     </row>
-    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C148" s="17"/>
       <c r="E148" s="309" t="s">
         <v>47</v>
@@ -18785,11 +18827,11 @@
       </c>
       <c r="S148" s="103">
         <f>S134+S144-S145</f>
-        <v>54856.361499292165</v>
+        <v>12732.235392668146</v>
       </c>
       <c r="T148" s="103">
         <f>T134+T144-T145</f>
-        <v>657774.62296363164</v>
+        <v>114101.38679213278</v>
       </c>
       <c r="U148" s="267">
         <f t="shared" ref="U148" si="53">U134+U144-U145</f>
@@ -18797,7 +18839,7 @@
       </c>
       <c r="W148" s="17"/>
     </row>
-    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C149" s="17"/>
       <c r="E149" s="307" t="s">
         <v>16</v>
@@ -18826,11 +18868,11 @@
       </c>
       <c r="S149" s="310">
         <f t="shared" si="54"/>
-        <v>564856.36149929219</v>
+        <v>522732.23539266817</v>
       </c>
       <c r="T149" s="310">
         <f t="shared" si="54"/>
-        <v>657774.62296363164</v>
+        <v>624101.38679213275</v>
       </c>
       <c r="U149" s="311">
         <f t="shared" si="54"/>
@@ -18838,7 +18880,7 @@
       </c>
       <c r="W149" s="17"/>
     </row>
-    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C150" s="29"/>
       <c r="E150" s="67"/>
       <c r="F150" s="13"/>
@@ -18859,7 +18901,7 @@
       <c r="U150" s="67"/>
       <c r="W150" s="17"/>
     </row>
-    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C151" s="29"/>
       <c r="E151" s="317" t="s">
         <v>106</v>
@@ -18882,7 +18924,7 @@
       <c r="U151" s="70"/>
       <c r="W151" s="17"/>
     </row>
-    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C152" s="29"/>
       <c r="E152" s="314" t="s">
         <v>56</v>
@@ -18911,11 +18953,11 @@
       </c>
       <c r="S152" s="322">
         <f t="shared" si="55"/>
-        <v>50168.861499292194</v>
+        <v>8044.7353926681681</v>
       </c>
       <c r="T152" s="322">
         <f t="shared" si="55"/>
-        <v>143087.12296363164</v>
+        <v>109413.88679213275</v>
       </c>
       <c r="U152" s="323">
         <f t="shared" si="55"/>
@@ -18923,7 +18965,7 @@
       </c>
       <c r="W152" s="17"/>
     </row>
-    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C153" s="29"/>
       <c r="E153" s="315" t="s">
         <v>57</v>
@@ -18952,11 +18994,11 @@
       </c>
       <c r="S153" s="320">
         <f t="shared" si="56"/>
-        <v>83.61476916548699</v>
+        <v>13.407892321113614</v>
       </c>
       <c r="T153" s="320">
         <f t="shared" si="56"/>
-        <v>238.47853827271939</v>
+        <v>182.35647798688791</v>
       </c>
       <c r="U153" s="321">
         <f t="shared" si="56"/>
@@ -18964,7 +19006,7 @@
       </c>
       <c r="W153" s="17"/>
     </row>
-    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C154" s="29"/>
       <c r="D154" s="17"/>
       <c r="E154" s="136"/>
@@ -18986,7 +19028,7 @@
       <c r="U154" s="138"/>
       <c r="W154" s="17"/>
     </row>
-    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
         <v>201</v>
@@ -19008,7 +19050,7 @@
       <c r="U155" s="58"/>
       <c r="W155" s="17"/>
     </row>
-    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="65"/>
@@ -19019,7 +19061,7 @@
       <c r="U156" s="58"/>
       <c r="W156" s="17"/>
     </row>
-    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="419" t="s">
@@ -19043,7 +19085,7 @@
       <c r="U157" s="109"/>
       <c r="W157" s="17"/>
     </row>
-    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="421" t="s">
@@ -19085,7 +19127,7 @@
       </c>
       <c r="W158" s="17"/>
     </row>
-    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="421" t="s">
@@ -19127,7 +19169,7 @@
       </c>
       <c r="W159" s="17"/>
     </row>
-    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="421" t="s">
@@ -19169,7 +19211,7 @@
       </c>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="307" t="s">
@@ -19211,7 +19253,7 @@
       </c>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
       <c r="E162" s="67"/>
@@ -19233,7 +19275,7 @@
       <c r="U162" s="67"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="108">
@@ -19258,7 +19300,7 @@
       <c r="U163" s="67"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="16" t="s">
@@ -19287,8 +19329,8 @@
         <v>353700</v>
       </c>
       <c r="S164" s="90">
-        <f>IF(E80&lt;$U$19,(($I$8*$U$9)-$I$47)*($U$11*(1+$I$48))*$U$14,($I$8*$U$9)*$U$11*$U$14)</f>
-        <v>353700</v>
+        <f>AB35</f>
+        <v>316915.20000000001</v>
       </c>
       <c r="T164" s="90">
         <f>AC44</f>
@@ -19300,7 +19342,7 @@
       </c>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="16" t="s">
@@ -19341,7 +19383,7 @@
       </c>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
       <c r="E166" s="91" t="s">
@@ -19383,7 +19425,7 @@
       </c>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
       <c r="E167" s="235" t="s">
@@ -19413,7 +19455,7 @@
       </c>
       <c r="S167" s="90">
         <f t="shared" si="61"/>
-        <v>-59892.0789041096</v>
+        <v>-96676.878904109588</v>
       </c>
       <c r="T167" s="90">
         <f t="shared" si="61"/>
@@ -19425,7 +19467,7 @@
       </c>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="91" t="s">
@@ -19467,7 +19509,7 @@
       </c>
       <c r="W168" s="29"/>
     </row>
-    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E169" s="96" t="s">
         <v>34</v>
       </c>
@@ -19495,7 +19537,7 @@
       </c>
       <c r="S169" s="97">
         <f t="shared" si="63"/>
-        <v>-59892.0789041096</v>
+        <v>-96676.878904109588</v>
       </c>
       <c r="T169" s="97">
         <f t="shared" si="63"/>
@@ -19507,7 +19549,7 @@
       </c>
       <c r="W169" s="29"/>
     </row>
-    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E170" s="98" t="s">
         <v>50</v>
       </c>
@@ -19543,7 +19585,7 @@
       </c>
       <c r="W170" s="29"/>
     </row>
-    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E171" s="101" t="s">
         <v>37</v>
       </c>
@@ -19578,7 +19620,7 @@
       </c>
       <c r="W171" s="29"/>
     </row>
-    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E172" s="419" t="s">
         <v>59</v>
       </c>
@@ -19600,7 +19642,7 @@
       <c r="U172" s="70"/>
       <c r="W172" s="29"/>
     </row>
-    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E173" s="426" t="s">
         <v>0</v>
       </c>
@@ -19640,7 +19682,7 @@
       </c>
       <c r="W173" s="29"/>
     </row>
-    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E174" s="427" t="s">
         <v>47</v>
       </c>
@@ -19668,7 +19710,7 @@
       </c>
       <c r="S174" s="424">
         <f t="shared" si="65"/>
-        <v>-59892.0789041096</v>
+        <v>-96676.878904109588</v>
       </c>
       <c r="T174" s="424">
         <f t="shared" si="65"/>
@@ -19680,7 +19722,7 @@
       </c>
       <c r="W174" s="29"/>
     </row>
-    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E175" s="307" t="s">
         <v>16</v>
       </c>
@@ -19708,7 +19750,7 @@
       </c>
       <c r="S175" s="265">
         <f t="shared" ref="S175" si="66">SUM(S173:S174)</f>
-        <v>450107.9210958904</v>
+        <v>413323.12109589041</v>
       </c>
       <c r="T175" s="265">
         <f>SUM(T173:T174)</f>
@@ -19720,7 +19762,7 @@
       </c>
       <c r="W175" s="29"/>
     </row>
-    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E176" s="67"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -19740,7 +19782,7 @@
       <c r="U176" s="67"/>
       <c r="W176" s="29"/>
     </row>
-    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E177" s="108">
         <f>E163+1</f>
         <v>2</v>
@@ -19763,7 +19805,7 @@
       <c r="U177" s="67"/>
       <c r="W177" s="29"/>
     </row>
-    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E178" s="98" t="s">
         <v>48</v>
       </c>
@@ -19802,7 +19844,7 @@
       </c>
       <c r="W178" s="29"/>
     </row>
-    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E179" s="98" t="s">
         <v>207</v>
       </c>
@@ -19840,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E180" s="16" t="s">
         <v>54</v>
       </c>
@@ -19879,7 +19921,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E181" s="91" t="s">
         <v>58</v>
       </c>
@@ -19907,7 +19949,7 @@
       </c>
       <c r="S181" s="94">
         <f t="shared" si="68"/>
-        <v>-3892.985128767124</v>
+        <v>-6283.9971287671233</v>
       </c>
       <c r="T181" s="94">
         <f t="shared" si="68"/>
@@ -19918,7 +19960,7 @@
         <v>5990.4881250000008</v>
       </c>
     </row>
-    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E182" s="235" t="s">
         <v>49</v>
       </c>
@@ -19946,7 +19988,7 @@
       </c>
       <c r="S182" s="90">
         <f t="shared" si="69"/>
-        <v>33607.014871232874</v>
+        <v>31216.002871232879</v>
       </c>
       <c r="T182" s="90">
         <f t="shared" si="69"/>
@@ -19957,7 +19999,7 @@
         <v>990.48812500000076</v>
       </c>
     </row>
-    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E183" s="91" t="s">
         <v>33</v>
       </c>
@@ -19985,7 +20027,7 @@
       </c>
       <c r="S183" s="95">
         <f t="shared" si="70"/>
-        <v>10552.602669567123</v>
+        <v>9801.8249015671245</v>
       </c>
       <c r="T183" s="95">
         <f t="shared" si="70"/>
@@ -19996,7 +20038,7 @@
         <v>311.01327125000023</v>
       </c>
     </row>
-    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E184" s="96" t="s">
         <v>34</v>
       </c>
@@ -20024,7 +20066,7 @@
       </c>
       <c r="S184" s="102">
         <f t="shared" si="71"/>
-        <v>23054.412201665749</v>
+        <v>21414.177969665754</v>
       </c>
       <c r="T184" s="97">
         <f>T182-T183</f>
@@ -20035,7 +20077,7 @@
         <v>679.47485375000053</v>
       </c>
     </row>
-    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E185" s="96" t="s">
         <v>55</v>
       </c>
@@ -20069,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E186" s="96"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
@@ -20088,7 +20130,7 @@
       <c r="T186" s="90"/>
       <c r="U186" s="90"/>
     </row>
-    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E187" s="419" t="s">
         <v>59</v>
       </c>
@@ -20109,7 +20151,7 @@
       <c r="T187" s="70"/>
       <c r="U187" s="70"/>
     </row>
-    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E188" s="426" t="s">
         <v>0</v>
       </c>
@@ -20148,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E189" s="427" t="s">
         <v>47</v>
       </c>
@@ -20176,7 +20218,7 @@
       </c>
       <c r="S189" s="430">
         <f>S174+S184</f>
-        <v>-36837.66670244385</v>
+        <v>-75262.700934443827</v>
       </c>
       <c r="T189" s="430">
         <f>T174+T184-T185</f>
@@ -20187,7 +20229,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E190" s="307" t="s">
         <v>16</v>
       </c>
@@ -20215,7 +20257,7 @@
       </c>
       <c r="S190" s="310">
         <f t="shared" si="73"/>
-        <v>473162.33329755615</v>
+        <v>434737.29906555614</v>
       </c>
       <c r="T190" s="310">
         <f>SUM(T188:T189)</f>
@@ -20226,7 +20268,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E191" s="104"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
@@ -20245,7 +20287,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.2">
       <c r="E192" s="108">
         <f>E177+1</f>
         <v>3</v>
@@ -20267,7 +20309,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E193" s="98" t="s">
         <v>48</v>
       </c>
@@ -20298,14 +20340,13 @@
         <v>337500</v>
       </c>
       <c r="T193" s="90">
-        <f>IF(E192&gt;$U$19,($I$8*$U$9)*$U$11*$U$16,0)</f>
-        <v>337500</v>
+        <v>0</v>
       </c>
       <c r="U193" s="90">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E194" s="98" t="s">
         <v>207</v>
       </c>
@@ -20343,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E195" s="16" t="s">
         <v>54</v>
       </c>
@@ -20374,15 +20415,15 @@
         <v>-300000</v>
       </c>
       <c r="T195" s="94">
-        <f>IF(T110=0,-$I$55,-($I$8*$I$12  +  IF($I$19 = 1, 0, U33)))</f>
-        <v>-300000</v>
+        <f>-I56</f>
+        <v>-5000</v>
       </c>
       <c r="U195" s="94">
         <f>-$I$55</f>
         <v>-5000</v>
       </c>
     </row>
-    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E196" s="91" t="s">
         <v>58</v>
       </c>
@@ -20410,7 +20451,7 @@
       </c>
       <c r="S196" s="94">
         <f t="shared" si="74"/>
-        <v>-2394.4483356588503</v>
+        <v>-4892.0755607388492</v>
       </c>
       <c r="T196" s="94">
         <f t="shared" si="74"/>
@@ -20421,7 +20462,7 @@
         <v>5998.9815606718767</v>
       </c>
     </row>
-    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E197" s="235" t="s">
         <v>49</v>
       </c>
@@ -20449,18 +20490,18 @@
       </c>
       <c r="S197" s="90">
         <f>SUM(S193:S196)</f>
-        <v>35105.551664341147</v>
+        <v>32607.924439261151</v>
       </c>
       <c r="T197" s="90">
         <f>SUM(T193:T196)</f>
-        <v>44463.431404421877</v>
+        <v>1963.4314044218763</v>
       </c>
       <c r="U197" s="90">
         <f t="shared" ref="U197" si="75">SUM(U193:U196)</f>
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E198" s="91" t="s">
         <v>33</v>
       </c>
@@ -20488,18 +20529,18 @@
       </c>
       <c r="S198" s="95">
         <f>IF(S197&gt;0,S197*(0.124+0.15+0.04),0)</f>
-        <v>11023.143222603119</v>
+        <v>10238.888273928002</v>
       </c>
       <c r="T198" s="95">
         <f>IF(T197&gt;0,T197*(0.124+0.15+0.04),0)</f>
-        <v>13961.517460988469</v>
+        <v>616.51746098846922</v>
       </c>
       <c r="U198" s="95">
         <f t="shared" ref="U198" si="76">IF(U197&gt;0,U197*(0.124+0.15+0.04),0)</f>
         <v>313.68021005096927</v>
       </c>
     </row>
-    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E199" s="96" t="s">
         <v>34</v>
       </c>
@@ -20527,18 +20568,18 @@
       </c>
       <c r="S199" s="97">
         <f t="shared" si="77"/>
-        <v>24082.408441738029</v>
+        <v>22369.036165333149</v>
       </c>
       <c r="T199" s="97">
         <f t="shared" si="77"/>
-        <v>30501.913943433407</v>
+        <v>1346.913943433407</v>
       </c>
       <c r="U199" s="97">
         <f t="shared" si="77"/>
         <v>685.30135062090744</v>
       </c>
     </row>
-    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E200" s="96" t="s">
         <v>55</v>
       </c>
@@ -20565,14 +20606,13 @@
         <v>0</v>
       </c>
       <c r="T200" s="90">
-        <f>IF(E192=$U$19,$I$8*$I$58,0)</f>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U200" s="90">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E201" s="419" t="s">
         <v>59</v>
       </c>
@@ -20593,7 +20633,7 @@
       <c r="T201" s="70"/>
       <c r="U201" s="70"/>
     </row>
-    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E202" s="426" t="s">
         <v>0</v>
       </c>
@@ -20625,14 +20665,14 @@
       </c>
       <c r="T202" s="422">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U202" s="423">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E203" s="427" t="s">
         <v>47</v>
       </c>
@@ -20660,18 +20700,18 @@
       </c>
       <c r="S203" s="430">
         <f>S189+S199-S200</f>
-        <v>-12755.258260705821</v>
+        <v>-52893.664769110677</v>
       </c>
       <c r="T203" s="430">
         <f>T189+T199-T200</f>
-        <v>587576.4262971835</v>
+        <v>48421.426297183498</v>
       </c>
       <c r="U203" s="431">
         <f t="shared" ref="U203" si="79">U189+U199-U200</f>
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E204" s="307" t="s">
         <v>16</v>
       </c>
@@ -20699,18 +20739,18 @@
       </c>
       <c r="S204" s="310">
         <f t="shared" si="80"/>
-        <v>497244.7417392942</v>
+        <v>457106.33523088932</v>
       </c>
       <c r="T204" s="310">
         <f t="shared" si="80"/>
-        <v>587576.4262971835</v>
+        <v>558421.4262971835</v>
       </c>
       <c r="U204" s="311">
         <f t="shared" si="80"/>
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E205" s="67"/>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
@@ -20729,7 +20769,7 @@
       <c r="T205" s="67"/>
       <c r="U205" s="67"/>
     </row>
-    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E206" s="108">
         <f>E192+1</f>
         <v>4</v>
@@ -20751,7 +20791,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E207" s="98" t="s">
         <v>48</v>
       </c>
@@ -20789,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E208" s="98" t="s">
         <v>207</v>
       </c>
@@ -20827,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E209" s="16" t="s">
         <v>54</v>
       </c>
@@ -20866,7 +20906,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E210" s="91" t="s">
         <v>58</v>
       </c>
@@ -20894,18 +20934,18 @@
       </c>
       <c r="S210" s="94">
         <f>IF(S203&gt;0,S203*$I$16,S203*$I$15)</f>
-        <v>-829.09178694587843</v>
+        <v>-3438.0882099921942</v>
       </c>
       <c r="T210" s="94">
         <f>IF(T203&gt;0,T203*$I$16,T203*$I$15)</f>
-        <v>7344.7053287147937</v>
+        <v>605.26782871479372</v>
       </c>
       <c r="U210" s="94">
         <f t="shared" ref="U210" si="81">IF(U203&gt;0,U203*$I$16,U203*$I$15)</f>
         <v>6007.5478275546375</v>
       </c>
     </row>
-    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E211" s="235" t="s">
         <v>49</v>
       </c>
@@ -20933,18 +20973,18 @@
       </c>
       <c r="S211" s="90">
         <f>SUM(S207:S210)</f>
-        <v>36670.908213054121</v>
+        <v>34061.911790007805</v>
       </c>
       <c r="T211" s="90">
         <f>SUM(T207:T210)</f>
-        <v>44844.705328714794</v>
+        <v>38105.267828714794</v>
       </c>
       <c r="U211" s="90">
         <f t="shared" ref="U211" si="82">SUM(U207:U210)</f>
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E212" s="91" t="s">
         <v>33</v>
       </c>
@@ -20972,18 +21012,18 @@
       </c>
       <c r="S212" s="95">
         <f>IF(S211&gt;0,S211*(0.124+0.15+0.04),0)</f>
-        <v>11514.665178898995</v>
+        <v>10695.44030206245</v>
       </c>
       <c r="T212" s="95">
         <f>IF(T211&gt;0,T211*(0.124+0.15+0.04),0)</f>
-        <v>14081.237473216444</v>
+        <v>11965.054098216446</v>
       </c>
       <c r="U212" s="95">
         <f t="shared" ref="U212" si="83">IF(U211&gt;0,U211*(0.124+0.15+0.04),0)</f>
         <v>316.3700178521562</v>
       </c>
     </row>
-    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E213" s="96" t="s">
         <v>34</v>
       </c>
@@ -21011,18 +21051,18 @@
       </c>
       <c r="S213" s="97">
         <f t="shared" si="84"/>
-        <v>25156.243034155126</v>
+        <v>23366.471487945353</v>
       </c>
       <c r="T213" s="97">
         <f t="shared" si="84"/>
-        <v>30763.467855498347</v>
+        <v>26140.213730498348</v>
       </c>
       <c r="U213" s="97">
         <f t="shared" si="84"/>
         <v>691.17780970248123</v>
       </c>
     </row>
-    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E214" s="96" t="s">
         <v>55</v>
       </c>
@@ -21056,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E215" s="419" t="s">
         <v>59</v>
       </c>
@@ -21077,7 +21117,7 @@
       <c r="T215" s="70"/>
       <c r="U215" s="70"/>
     </row>
-    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E216" s="426" t="s">
         <v>0</v>
       </c>
@@ -21109,14 +21149,14 @@
       </c>
       <c r="T216" s="422">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U216" s="423">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E217" s="427" t="s">
         <v>47</v>
       </c>
@@ -21144,18 +21184,18 @@
       </c>
       <c r="S217" s="430">
         <f>S203+S213-S214</f>
-        <v>12400.984773449305</v>
+        <v>-29527.193281165324</v>
       </c>
       <c r="T217" s="430">
         <f>T203+T213-T214</f>
-        <v>618339.89415268181</v>
+        <v>74561.640027681846</v>
       </c>
       <c r="U217" s="431">
         <f t="shared" ref="U217" si="86">U203+U213-U214</f>
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E218" s="307" t="s">
         <v>16</v>
       </c>
@@ -21183,18 +21223,18 @@
       </c>
       <c r="S218" s="310">
         <f t="shared" si="87"/>
-        <v>522400.98477344931</v>
+        <v>480472.80671883468</v>
       </c>
       <c r="T218" s="310">
         <f t="shared" si="87"/>
-        <v>618339.89415268181</v>
+        <v>584561.64002768183</v>
       </c>
       <c r="U218" s="311">
         <f t="shared" si="87"/>
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E219" s="67"/>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
@@ -21213,7 +21253,7 @@
       <c r="T219" s="67"/>
       <c r="U219" s="67"/>
     </row>
-    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E220" s="108">
         <f>E206+1</f>
         <v>5</v>
@@ -21235,7 +21275,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E221" s="98" t="s">
         <v>48</v>
       </c>
@@ -21273,7 +21313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E222" s="98" t="s">
         <v>207</v>
       </c>
@@ -21311,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E223" s="16" t="s">
         <v>54</v>
       </c>
@@ -21350,7 +21390,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E224" s="91" t="s">
         <v>58</v>
       </c>
@@ -21378,18 +21418,18 @@
       </c>
       <c r="S224" s="94">
         <f>IF(S217&gt;0,S217*$I$16,S217*$I$15)</f>
-        <v>155.01230966811633</v>
+        <v>-1919.2675632757462</v>
       </c>
       <c r="T224" s="94">
         <f>IF(T217&gt;0,T217*$I$16,T217*$I$15)</f>
-        <v>7729.2486769085226</v>
+        <v>932.02050034602314</v>
       </c>
       <c r="U224" s="94">
         <f t="shared" ref="U224" si="88">IF(U217&gt;0,U217*$I$16,U217*$I$15)</f>
         <v>6016.1875501759187</v>
       </c>
     </row>
-    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E225" s="235" t="s">
         <v>49</v>
       </c>
@@ -21417,18 +21457,18 @@
       </c>
       <c r="S225" s="90">
         <f>SUM(S221:S224)</f>
-        <v>37655.012309668113</v>
+        <v>35580.732436724255</v>
       </c>
       <c r="T225" s="90">
         <f>SUM(T221:T224)</f>
-        <v>45229.248676908523</v>
+        <v>38432.020500346021</v>
       </c>
       <c r="U225" s="90">
         <f t="shared" ref="U225" si="89">SUM(U221:U224)</f>
         <v>1016.1875501759187</v>
       </c>
     </row>
-    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E226" s="91" t="s">
         <v>33</v>
       </c>
@@ -21456,18 +21496,18 @@
       </c>
       <c r="S226" s="95">
         <f>IF(S225&gt;0,S225*(0.124+0.15+0.04),0)</f>
-        <v>11823.673865235787</v>
+        <v>11172.349985131415</v>
       </c>
       <c r="T226" s="95">
         <f>IF(T225&gt;0,T225*(0.124+0.15+0.04),0)</f>
-        <v>14201.984084549276</v>
+        <v>12067.654437108651</v>
       </c>
       <c r="U226" s="95">
         <f t="shared" ref="U226" si="90">IF(U225&gt;0,U225*(0.124+0.15+0.04),0)</f>
         <v>319.08289075523845</v>
       </c>
     </row>
-    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E227" s="96" t="s">
         <v>34</v>
       </c>
@@ -21495,18 +21535,18 @@
       </c>
       <c r="S227" s="97">
         <f t="shared" si="91"/>
-        <v>25831.338444432324</v>
+        <v>24408.382451592839</v>
       </c>
       <c r="T227" s="97">
         <f t="shared" si="91"/>
-        <v>31027.264592359246</v>
+        <v>26364.366063237372</v>
       </c>
       <c r="U227" s="97">
         <f t="shared" si="91"/>
         <v>697.10465942068026</v>
       </c>
     </row>
-    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E228" s="96" t="s">
         <v>55</v>
       </c>
@@ -21540,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E229" s="419" t="s">
         <v>59</v>
       </c>
@@ -21561,7 +21601,7 @@
       <c r="T229" s="70"/>
       <c r="U229" s="70"/>
     </row>
-    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E230" s="426" t="s">
         <v>0</v>
       </c>
@@ -21593,14 +21633,14 @@
       </c>
       <c r="T230" s="422">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="U230" s="423">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E231" s="427" t="s">
         <v>47</v>
       </c>
@@ -21628,18 +21668,18 @@
       </c>
       <c r="S231" s="430">
         <f>S217+S227-S228</f>
-        <v>38232.323217881625</v>
+        <v>-5118.8108295724851</v>
       </c>
       <c r="T231" s="430">
         <f>T217+T227-T228</f>
-        <v>649367.158745041</v>
+        <v>100926.00609091923</v>
       </c>
       <c r="U231" s="431">
         <f t="shared" ref="U231" si="93">U217+U227-U228</f>
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E232" s="307" t="s">
         <v>16</v>
       </c>
@@ -21667,18 +21707,18 @@
       </c>
       <c r="S232" s="310">
         <f t="shared" si="94"/>
-        <v>548232.32321788161</v>
+        <v>504881.1891704275</v>
       </c>
       <c r="T232" s="310">
         <f t="shared" si="94"/>
-        <v>649367.158745041</v>
+        <v>610926.00609091925</v>
       </c>
       <c r="U232" s="311">
         <f t="shared" si="94"/>
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E233" s="67"/>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
@@ -21697,7 +21737,7 @@
       <c r="T233" s="67"/>
       <c r="U233" s="67"/>
     </row>
-    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E234" s="317" t="s">
         <v>106</v>
       </c>
@@ -21718,7 +21758,7 @@
       <c r="T234" s="70"/>
       <c r="U234" s="70"/>
     </row>
-    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E235" s="314" t="s">
         <v>56</v>
       </c>
@@ -21746,18 +21786,18 @@
       </c>
       <c r="S235" s="322">
         <f t="shared" si="95"/>
-        <v>33544.823217881611</v>
+        <v>-9806.310829572496</v>
       </c>
       <c r="T235" s="322">
         <f t="shared" si="95"/>
-        <v>134679.658745041</v>
+        <v>96238.506090919254</v>
       </c>
       <c r="U235" s="323">
         <f t="shared" si="95"/>
         <v>-32695.391326505865</v>
       </c>
     </row>
-    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.2">
       <c r="E236" s="315" t="s">
         <v>57</v>
       </c>
@@ -21785,11 +21825,11 @@
       </c>
       <c r="S236" s="320">
         <f t="shared" si="96"/>
-        <v>55.908038696469355</v>
+        <v>-16.343851382620826</v>
       </c>
       <c r="T236" s="320">
         <f t="shared" si="96"/>
-        <v>224.46609790840168</v>
+        <v>160.39751015153209</v>
       </c>
       <c r="U236" s="321">
         <f t="shared" si="96"/>
@@ -21853,7 +21893,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z60"/>
@@ -21862,35 +21902,35 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="182" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="172" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="184" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="182" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="183" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="172" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="183" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="172" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="172"/>
-    <col min="14" max="14" width="11.42578125" style="183" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="172"/>
-    <col min="16" max="16" width="10.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="172" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="172" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="172"/>
+    <col min="3" max="3" width="11.5" style="172" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="184" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="182" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="183" customWidth="1"/>
+    <col min="7" max="9" width="11.5" style="172" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="183" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="172" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="172"/>
+    <col min="14" max="14" width="11.5" style="183" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="172"/>
+    <col min="16" max="16" width="10.1640625" style="172" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="172" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="172" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="172" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J2" s="172"/>
       <c r="N2" s="172"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J3" s="172"/>
       <c r="N3" s="172"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="349"/>
       <c r="B4" s="233"/>
       <c r="C4" s="197"/>
@@ -21920,7 +21960,7 @@
       <c r="L4" s="206"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="351" t="s">
         <v>260</v>
       </c>
@@ -21957,7 +21997,7 @@
       <c r="L5" s="200"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="352" t="s">
         <v>216</v>
       </c>
@@ -21999,7 +22039,7 @@
       <c r="N6" s="172"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="353" t="s">
         <v>217</v>
       </c>
@@ -22041,7 +22081,7 @@
       <c r="N7" s="172"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="353" t="s">
         <v>218</v>
       </c>
@@ -22085,7 +22125,7 @@
       <c r="N8" s="172"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="353" t="s">
         <v>219</v>
       </c>
@@ -22127,7 +22167,7 @@
       <c r="N9" s="172"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="353" t="s">
         <v>220</v>
       </c>
@@ -22171,7 +22211,7 @@
       <c r="N10" s="172"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="353" t="s">
         <v>221</v>
       </c>
@@ -22213,7 +22253,7 @@
       <c r="N11" s="172"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="353" t="s">
         <v>222</v>
       </c>
@@ -22255,7 +22295,7 @@
       <c r="N12" s="172"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="353" t="s">
         <v>223</v>
       </c>
@@ -22297,7 +22337,7 @@
       <c r="N13" s="172"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="353" t="s">
         <v>224</v>
       </c>
@@ -22339,7 +22379,7 @@
       <c r="N14" s="172"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="353" t="s">
         <v>225</v>
       </c>
@@ -22381,7 +22421,7 @@
       <c r="N15" s="172"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="354" t="s">
         <v>226</v>
       </c>
@@ -22423,7 +22463,7 @@
       <c r="N16" s="172"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="172"/>
       <c r="B17" s="172"/>
       <c r="D17" s="172"/>
@@ -22432,7 +22472,7 @@
       <c r="J17" s="172"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="172"/>
       <c r="B18" s="172"/>
       <c r="D18" s="172"/>
@@ -22441,7 +22481,7 @@
       <c r="J18" s="172"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="172"/>
       <c r="B19" s="172"/>
       <c r="D19" s="172"/>
@@ -22450,7 +22490,7 @@
       <c r="J19" s="172"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="D20" s="172"/>
@@ -22459,7 +22499,7 @@
       <c r="J20" s="172"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="D21" s="172"/>
@@ -22467,7 +22507,7 @@
       <c r="J21" s="172"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="172"/>
       <c r="B22" s="172"/>
       <c r="D22" s="172"/>
@@ -22476,7 +22516,7 @@
       <c r="J22" s="172"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="D23" s="172"/>
@@ -22486,7 +22526,7 @@
       <c r="J23" s="172"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="D24" s="172"/>
@@ -22495,7 +22535,7 @@
       <c r="J24" s="172"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="D25" s="172"/>
@@ -22504,7 +22544,7 @@
       <c r="J25" s="172"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="172"/>
       <c r="B26" s="172"/>
       <c r="D26" s="172"/>
@@ -22513,7 +22553,7 @@
       <c r="J26" s="172"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="172"/>
       <c r="B27" s="172"/>
       <c r="D27" s="172"/>
@@ -22523,7 +22563,7 @@
       <c r="J27" s="172"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="172"/>
       <c r="B28" s="172"/>
       <c r="D28" s="172"/>
@@ -22533,7 +22573,7 @@
       <c r="J28" s="172"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="172"/>
       <c r="B29" s="172"/>
       <c r="D29" s="172"/>
@@ -22542,7 +22582,7 @@
       <c r="J29" s="172"/>
       <c r="N29" s="172"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="172"/>
       <c r="B30" s="172"/>
       <c r="D30" s="172"/>
@@ -22551,60 +22591,60 @@
       <c r="J30" s="172"/>
       <c r="N30" s="172"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
       <c r="J31" s="172"/>
       <c r="N31" s="172"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D32" s="172"/>
       <c r="E32" s="172"/>
       <c r="F32" s="172"/>
       <c r="J32" s="172"/>
       <c r="N32" s="172"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D33" s="172"/>
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
       <c r="J33" s="172"/>
       <c r="N33" s="172"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D34" s="172"/>
       <c r="E34" s="172"/>
       <c r="F34" s="172"/>
       <c r="J34" s="172"/>
       <c r="N34" s="172"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D35" s="172"/>
       <c r="E35" s="172"/>
       <c r="F35" s="172"/>
       <c r="J35" s="172"/>
       <c r="N35" s="172"/>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z54" s="183"/>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z55" s="183"/>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z56" s="183"/>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z57" s="183"/>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z58" s="183"/>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Z59" s="183"/>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.2">
       <c r="Y60" s="183"/>
     </row>
   </sheetData>
@@ -22615,21 +22655,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="8.85546875" style="232"/>
-    <col min="14" max="14" width="8.85546875" style="232" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="232"/>
+    <col min="13" max="13" width="8.83203125" style="232"/>
+    <col min="14" max="14" width="8.83203125" style="232" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -22667,7 +22707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1948</v>
       </c>
@@ -22708,7 +22748,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1949</v>
       </c>
@@ -22746,7 +22786,7 @@
         <v>26.744649883485</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -22784,7 +22824,7 @@
         <v>82.3976439431285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1951</v>
       </c>
@@ -22822,7 +22862,7 @@
         <v>119.86075100011701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -22860,7 +22900,7 @@
         <v>103.8317861764</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1953</v>
       </c>
@@ -22898,7 +22938,7 @@
         <v>102.31199040246401</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1954</v>
       </c>
@@ -22936,7 +22976,7 @@
         <v>109.14097992220699</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1955</v>
       </c>
@@ -22974,7 +23014,7 @@
         <v>153.83773609233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1956</v>
       </c>
@@ -23012,7 +23052,7 @@
         <v>188.215488528641</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1957</v>
       </c>
@@ -23050,7 +23090,7 @@
         <v>58.910948991473703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -23088,7 +23128,7 @@
         <v>169.68893941527401</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -23126,7 +23166,7 @@
         <v>1.51177588074404</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1960</v>
       </c>
@@ -23164,7 +23204,7 @@
         <v>55.845242391120699</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1961</v>
       </c>
@@ -23202,7 +23242,7 @@
         <v>47.933784057507602</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1962</v>
       </c>
@@ -23240,7 +23280,7 @@
         <v>57.2462506324798</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1963</v>
       </c>
@@ -23278,7 +23318,7 @@
         <v>41.176404840271303</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1964</v>
       </c>
@@ -23316,7 +23356,7 @@
         <v>9.7091335926118791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1965</v>
       </c>
@@ -23354,7 +23394,7 @@
         <v>19.4817657046876</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -23392,7 +23432,7 @@
         <v>38.3175562144339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1967</v>
       </c>
@@ -23430,7 +23470,7 @@
         <v>87.966329851446702</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1968</v>
       </c>
@@ -23468,7 +23508,7 @@
         <v>62.7268214187106</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1969</v>
       </c>
@@ -23506,7 +23546,7 @@
         <v>21.244167883060101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1970</v>
       </c>
@@ -23544,7 +23584,7 @@
         <v>55.344402990449801</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1971</v>
       </c>
@@ -23582,7 +23622,7 @@
         <v>6.8948510452181599</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1972</v>
       </c>
@@ -23620,7 +23660,7 @@
         <v>149.41457106000999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1973</v>
       </c>
@@ -23658,7 +23698,7 @@
         <v>216.626025789648</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1974</v>
       </c>
@@ -23696,7 +23736,7 @@
         <v>42.033239563202002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1975</v>
       </c>
@@ -23734,7 +23774,7 @@
         <v>116.052640425951</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1976</v>
       </c>
@@ -23772,7 +23812,7 @@
         <v>17.195215301437401</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1977</v>
       </c>
@@ -23810,7 +23850,7 @@
         <v>38.191890055444198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1978</v>
       </c>
@@ -23848,7 +23888,7 @@
         <v>158.46371838925799</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1979</v>
       </c>
@@ -23886,7 +23926,7 @@
         <v>303.51896800302001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1980</v>
       </c>
@@ -23924,7 +23964,7 @@
         <v>36.730775148612402</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1981</v>
       </c>
@@ -23962,7 +24002,7 @@
         <v>50.165062666236302</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1982</v>
       </c>
@@ -24000,7 +24040,7 @@
         <v>75.031773969221305</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1983</v>
       </c>
@@ -24038,7 +24078,7 @@
         <v>174.77937601018601</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1984</v>
       </c>
@@ -24076,7 +24116,7 @@
         <v>35.0353282645627</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1985</v>
       </c>
@@ -24114,7 +24154,7 @@
         <v>211.74015426797001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1986</v>
       </c>
@@ -24152,7 +24192,7 @@
         <v>121.11527821163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1987</v>
       </c>
@@ -24190,7 +24230,7 @@
         <v>217.559087456246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1988</v>
       </c>
@@ -24228,7 +24268,7 @@
         <v>78.156397024875901</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1989</v>
       </c>
@@ -24266,7 +24306,7 @@
         <v>55.616847982418101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1990</v>
       </c>
@@ -24304,7 +24344,7 @@
         <v>94.207571659863703</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1991</v>
       </c>
@@ -24342,7 +24382,7 @@
         <v>136.926802434563</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1992</v>
       </c>
@@ -24380,7 +24420,7 @@
         <v>152.13244153303901</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -24418,7 +24458,7 @@
         <v>138.85518236750099</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1994</v>
       </c>
@@ -24456,7 +24496,7 @@
         <v>72.158887133900095</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -24494,7 +24534,7 @@
         <v>77.2776218922711</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1996</v>
       </c>
@@ -24532,7 +24572,7 @@
         <v>56.761122004347499</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1997</v>
       </c>
@@ -24570,7 +24610,7 @@
         <v>56.410364063708798</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1998</v>
       </c>
@@ -24608,7 +24648,7 @@
         <v>127.949558427176</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1999</v>
       </c>
@@ -24646,7 +24686,7 @@
         <v>32.956408196693403</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -24684,7 +24724,7 @@
         <v>94.902017279650195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2001</v>
       </c>
@@ -24722,7 +24762,7 @@
         <v>57.104443655591098</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -24760,7 +24800,7 @@
         <v>52.125295740467799</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2003</v>
       </c>
@@ -24798,7 +24838,7 @@
         <v>71.608814028954896</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -24836,7 +24876,7 @@
         <v>143.52897573657799</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -24874,7 +24914,7 @@
         <v>44.816531791766998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -24912,7 +24952,7 @@
         <v>135.21883314929201</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -24950,7 +24990,7 @@
         <v>136.81885662235601</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -24988,7 +25028,7 @@
         <v>96.545805036287106</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2009</v>
       </c>
@@ -25026,7 +25066,7 @@
         <v>167.739453717294</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -25064,7 +25104,7 @@
         <v>209.23408233309399</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -25102,7 +25142,7 @@
         <v>194.03938336230601</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2012</v>
       </c>
@@ -25140,7 +25180,7 @@
         <v>95.641943462574801</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -25178,7 +25218,7 @@
         <v>79.589355470485401</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -25216,7 +25256,7 @@
         <v>250.433376814659</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2015</v>
       </c>

--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trsh4998/Projects/drought_decision_model/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admcc\Documents\drought_decision_model\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24160" yWindow="620" windowWidth="31260" windowHeight="23060" tabRatio="653" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="24165" yWindow="615" windowWidth="31260" windowHeight="23055" tabRatio="653" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -107,11 +107,8 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -126,7 +123,7 @@
     <author>Jeffrey E. Tranel</author>
   </authors>
   <commentList>
-    <comment ref="AA16" authorId="0">
+    <comment ref="AA16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1">
+    <comment ref="C26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -738,9 +735,6 @@
   </si>
   <si>
     <t>JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEB   </t>
   </si>
   <si>
     <t>MAR</t>
@@ -1193,6 +1187,9 @@
   </si>
   <si>
     <t>Index values generated from "NOAAIndex.Rdata" using "CPER_NOAA.R".</t>
+  </si>
+  <si>
+    <t>FEB</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2255,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -3067,6 +3064,7 @@
     <xf numFmtId="1" fontId="21" fillId="13" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="40" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3119,7 +3117,9 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="17" xfId="12" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
@@ -3288,10 +3288,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.126130136005727"/>
-          <c:y val="0.0300362492798156"/>
-          <c:w val="0.551914188218074"/>
-          <c:h val="0.785117390051853"/>
+          <c:x val="0.12613013600572701"/>
+          <c:y val="3.0036249279815599E-2"/>
+          <c:w val="0.55191418821807403"/>
+          <c:h val="0.78511739005185299"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3339,22 +3339,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.2541677375</c:v>
+                  <c:v>31069.254167737505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.67302222585</c:v>
+                  <c:v>31335.673022225852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.37641839144</c:v>
+                  <c:v>31604.376418391439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.38394617915</c:v>
+                  <c:v>31875.383946179147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,22 +3408,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46912.83594801114</c:v>
+                  <c:v>46912.835948011139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.6440682542</c:v>
+                  <c:v>31069.644068254198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31336.06626613948</c:v>
+                  <c:v>31336.066266139478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.77303437162</c:v>
+                  <c:v>31604.773034371625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.78396314136</c:v>
+                  <c:v>31875.783963141363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,22 +3477,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.7416927024</c:v>
+                  <c:v>-33275.741692702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.44328997435</c:v>
+                  <c:v>28504.443289974348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.4564162743</c:v>
+                  <c:v>29775.456416274305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.1698688223</c:v>
+                  <c:v>30751.169868822304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.86115044746</c:v>
+                  <c:v>31014.861150447457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,22 +3546,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-64852.62059681199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26451.94616120723</c:v>
+                  <c:v>26451.946161207226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27631.43844053545</c:v>
+                  <c:v>27631.438440535454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28863.52428059893</c:v>
+                  <c:v>28863.524280598929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28863.52428059893</c:v>
+                  <c:v>28863.524280598929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,22 +3615,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.631139985076</c:v>
+                  <c:v>2219.6311399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2238.664477010449</c:v>
+                  <c:v>2238.6644770104485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31550.22752490082</c:v>
+                  <c:v>31550.227524900816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31820.77072592684</c:v>
+                  <c:v>31820.770725926839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,22 +3684,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.381139985077</c:v>
+                  <c:v>1263.3811399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.214633260449</c:v>
+                  <c:v>1274.2146332604489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.141023740657</c:v>
+                  <c:v>1285.1410237406571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.161108019233</c:v>
+                  <c:v>1296.1611080192333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3720,11 +3720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2099341808"/>
-        <c:axId val="-2035090144"/>
+        <c:axId val="510774760"/>
+        <c:axId val="510775152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099341808"/>
+        <c:axId val="510774760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3750,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.374711999315303"/>
+              <c:x val="0.37471199931530302"/>
               <c:y val="0.882226810063376"/>
             </c:manualLayout>
           </c:layout>
@@ -3770,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035090144"/>
+        <c:crossAx val="510775152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3778,11 +3778,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2035090144"/>
+        <c:axId val="510775152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150000.0"/>
-          <c:min val="-150000.0"/>
+          <c:max val="150000"/>
+          <c:min val="-150000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3803,14 +3803,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099341808"/>
+        <c:crossAx val="510774760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3821,9 +3820,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.719284466714388"/>
-          <c:y val="0.240095304397926"/>
-          <c:w val="0.236220187150519"/>
+          <c:x val="0.71928446671438795"/>
+          <c:y val="0.24009530439792601"/>
+          <c:w val="0.23622018715051901"/>
           <c:h val="0.367370366813904"/>
         </c:manualLayout>
       </c:layout>
@@ -3842,7 +3841,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3913,19 +3912,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.013419</c:v>
+                  <c:v>542151.01341899997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.5217780679</c:v>
+                  <c:v>563464.52177806792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.7934713148</c:v>
+                  <c:v>584960.79347131483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.3956943313</c:v>
+                  <c:v>606641.39569433138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.9090814102</c:v>
+                  <c:v>628507.90908141027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,19 +3981,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542182.2054603356</c:v>
+                  <c:v>542182.20546033559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563495.981291158</c:v>
+                  <c:v>563495.98129115801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584992.5227497297</c:v>
+                  <c:v>584992.52274972969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606673.3970513086</c:v>
+                  <c:v>606673.39705130865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628540.1848500236</c:v>
+                  <c:v>628540.18485002359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,13 +4056,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.2695057841</c:v>
+                  <c:v>516704.26950578415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.5720357962</c:v>
+                  <c:v>537799.57203579624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.7667850032</c:v>
+                  <c:v>559075.76678500324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4120,19 +4119,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445147.379403188</c:v>
+                  <c:v>445147.37940318801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463293.4144697761</c:v>
+                  <c:v>463293.41446977615</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>482248.5812399835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>502048.9588964743</c:v>
+                  <c:v>502048.95889647433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522732.2353926681</c:v>
+                  <c:v>522732.23539266817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,10 +4188,10 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.4911988061</c:v>
+                  <c:v>577570.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.1581608358</c:v>
+                  <c:v>579093.15816083585</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>580628.881992065</c:v>
@@ -4201,7 +4200,7 @@
                   <c:v>602272.338074147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>624101.3867921327</c:v>
+                  <c:v>624101.38679213275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4258,19 +4257,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.4911988061</c:v>
+                  <c:v>501070.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.1706608359</c:v>
+                  <c:v>501937.17066083587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.2818992526</c:v>
+                  <c:v>502811.28189925256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.8886415386</c:v>
+                  <c:v>503692.88864153862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.0551616398</c:v>
+                  <c:v>504582.05516163982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4291,11 +4290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833724336"/>
-        <c:axId val="1769676144"/>
+        <c:axId val="510785344"/>
+        <c:axId val="510784560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1833724336"/>
+        <c:axId val="510785344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4321,8 +4320,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.397844158620444"/>
-              <c:y val="0.851943838345508"/>
+              <c:x val="0.39784415862044398"/>
+              <c:y val="0.85194383834550802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4341,7 +4340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769676144"/>
+        <c:crossAx val="510784560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4349,10 +4348,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1769676144"/>
+        <c:axId val="510784560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="350000.0"/>
+          <c:min val="350000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4382,8 +4381,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0149824348879467"/>
-              <c:y val="0.254446083212408"/>
+              <c:x val="1.49824348879467E-2"/>
+              <c:y val="0.25444608321240803"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4392,14 +4391,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1833724336"/>
+        <c:crossAx val="510785344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -4415,7 +4413,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4455,8 +4453,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.634693340010944"/>
-          <c:y val="0.0327868946508024"/>
+          <c:x val="0.63469334001094402"/>
+          <c:y val="3.2786894650802402E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4468,10 +4466,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.148282648414531"/>
-          <c:y val="0.0533307669867238"/>
-          <c:w val="0.489297350574967"/>
-          <c:h val="0.73024847761814"/>
+          <c:x val="0.14828264841453101"/>
+          <c:y val="5.3330766986723802E-2"/>
+          <c:w val="0.48929735057496698"/>
+          <c:h val="0.73024847761814005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4522,19 +4520,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.013419</c:v>
+                  <c:v>542151.01341899997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.5217780679</c:v>
+                  <c:v>563464.52177806792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.7934713148</c:v>
+                  <c:v>584960.79347131483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.3956943313</c:v>
+                  <c:v>606641.39569433138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.9090814102</c:v>
+                  <c:v>628507.90908141027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,19 +4598,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542182.2054603356</c:v>
+                  <c:v>542182.20546033559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563495.981291158</c:v>
+                  <c:v>563495.98129115801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584992.5227497297</c:v>
+                  <c:v>584992.52274972969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606673.3970513086</c:v>
+                  <c:v>606673.39705130865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628540.1848500236</c:v>
+                  <c:v>628540.18485002359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4684,13 +4682,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.2695057841</c:v>
+                  <c:v>516704.26950578415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.5720357962</c:v>
+                  <c:v>537799.57203579624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.7667850032</c:v>
+                  <c:v>559075.76678500324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,19 +4754,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445147.379403188</c:v>
+                  <c:v>445147.37940318801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463293.4144697761</c:v>
+                  <c:v>463293.41446977615</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>482248.5812399835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>502048.9588964743</c:v>
+                  <c:v>502048.95889647433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522732.2353926681</c:v>
+                  <c:v>522732.23539266817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,10 +4832,10 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.4911988061</c:v>
+                  <c:v>577570.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.1581608358</c:v>
+                  <c:v>579093.15816083585</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>580628.881992065</c:v>
@@ -4846,7 +4844,7 @@
                   <c:v>602272.338074147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>624101.3867921327</c:v>
+                  <c:v>624101.38679213275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,19 +4910,19 @@
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.4911988061</c:v>
+                  <c:v>501070.49119880609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.1706608359</c:v>
+                  <c:v>501937.17066083587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.2818992526</c:v>
+                  <c:v>502811.28189925256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.8886415386</c:v>
+                  <c:v>503692.88864153862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.0551616398</c:v>
+                  <c:v>504582.05516163982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4945,11 +4943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2012081424"/>
-        <c:axId val="-2011692576"/>
+        <c:axId val="510786520"/>
+        <c:axId val="510783384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2012081424"/>
+        <c:axId val="510786520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,8 +4973,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.361293496264008"/>
-              <c:y val="0.873840403143063"/>
+              <c:x val="0.36129349626400797"/>
+              <c:y val="0.87384040314306299"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4995,7 +4993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011692576"/>
+        <c:crossAx val="510783384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5003,11 +5001,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011692576"/>
+        <c:axId val="510783384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700000.0"/>
-          <c:min val="0.0"/>
+          <c:max val="700000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5028,21 +5026,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2012081424"/>
+        <c:crossAx val="510786520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5091,8 +5087,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.631193760354424"/>
-          <c:y val="0.0429477728029002"/>
+          <c:x val="0.63119376035442398"/>
+          <c:y val="4.29477728029002E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5156,22 +5152,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.2541677375</c:v>
+                  <c:v>31069.254167737505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.67302222585</c:v>
+                  <c:v>31335.673022225852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.37641839144</c:v>
+                  <c:v>31604.376418391439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.38394617915</c:v>
+                  <c:v>31875.383946179147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,22 +5230,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46912.83594801114</c:v>
+                  <c:v>46912.835948011139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.6440682542</c:v>
+                  <c:v>31069.644068254198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31336.06626613948</c:v>
+                  <c:v>31336.066266139478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.77303437162</c:v>
+                  <c:v>31604.773034371625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.78396314136</c:v>
+                  <c:v>31875.783963141363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,22 +5299,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.7416927024</c:v>
+                  <c:v>-33275.741692702402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.44328997435</c:v>
+                  <c:v>28504.443289974348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.4564162743</c:v>
+                  <c:v>29775.456416274305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.1698688223</c:v>
+                  <c:v>30751.169868822304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.86115044746</c:v>
+                  <c:v>31014.861150447457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,22 +5368,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-64852.62059681199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26451.94616120723</c:v>
+                  <c:v>26451.946161207226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27631.43844053545</c:v>
+                  <c:v>27631.438440535454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28863.52428059893</c:v>
+                  <c:v>28863.524280598929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30150.54882827084</c:v>
+                  <c:v>30150.548828270836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5450,22 +5446,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.631139985076</c:v>
+                  <c:v>2219.6311399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2238.664477010449</c:v>
+                  <c:v>2238.6644770104485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31550.22752490082</c:v>
+                  <c:v>31550.227524900816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31820.77072592684</c:v>
+                  <c:v>31820.770725926839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,22 +5524,22 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.3665</c:v>
+                  <c:v>46867.366500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.2583072976</c:v>
+                  <c:v>98499.258307297598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.381139985077</c:v>
+                  <c:v>1263.3811399850765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.214633260449</c:v>
+                  <c:v>1274.2146332604489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.141023740657</c:v>
+                  <c:v>1285.1410237406571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.161108019233</c:v>
+                  <c:v>1296.1611080192333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,11 +5560,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2011938832"/>
-        <c:axId val="-2119822688"/>
+        <c:axId val="510784168"/>
+        <c:axId val="516013528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2011938832"/>
+        <c:axId val="510784168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,7 +5574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2119822688"/>
+        <c:crossAx val="516013528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5586,10 +5582,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119822688"/>
+        <c:axId val="516013528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-150000.0"/>
+          <c:min val="-150000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5614,8 +5610,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.016548463356974"/>
-              <c:y val="0.281590746153761"/>
+              <c:x val="1.6548463356973998E-2"/>
+              <c:y val="0.28159074615376101"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5624,7 +5620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2011938832"/>
+        <c:crossAx val="510784168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5635,10 +5631,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.644215713349326"/>
-          <c:y val="0.133545278332812"/>
-          <c:w val="0.275497343177606"/>
-          <c:h val="0.423572063006676"/>
+          <c:x val="0.64421571334932604"/>
+          <c:y val="0.13354527833281199"/>
+          <c:w val="0.27549734317760599"/>
+          <c:h val="0.42357206300667599"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6072,17 +6068,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="18.6640625" customWidth="1"/>
+    <col min="1" max="26" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -6153,7 +6149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="E2" s="148">
         <f>'Ranch Strategies'!$Q$149</f>
         <v>628540.18485002359</v>
@@ -6162,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6395,29 +6391,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:CK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:89" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="455" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="439"/>
       <c r="D3" s="439"/>
@@ -6427,13 +6423,13 @@
       <c r="H3" s="440"/>
       <c r="J3" s="403"/>
       <c r="K3" s="433" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L3" s="404"/>
       <c r="M3" s="404"/>
       <c r="N3" s="405"/>
     </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B4" s="441"/>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -6447,7 +6443,7 @@
       <c r="M4" s="407"/>
       <c r="N4" s="408"/>
     </row>
-    <row r="5" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B5" s="441"/>
       <c r="C5" s="437"/>
       <c r="D5" s="437"/>
@@ -6459,16 +6455,16 @@
       <c r="K5" s="407"/>
       <c r="L5" s="407"/>
       <c r="M5" s="413" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N5" s="412" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="2:89" ht="14" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="441"/>
       <c r="C6" s="376" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="392"/>
       <c r="E6" s="392"/>
@@ -6476,14 +6472,14 @@
       <c r="G6" s="437"/>
       <c r="H6" s="442"/>
       <c r="J6" s="409" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K6" s="407"/>
       <c r="L6" s="407"/>
       <c r="M6" s="407"/>
       <c r="N6" s="408"/>
     </row>
-    <row r="7" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B7" s="441"/>
       <c r="C7" s="378"/>
       <c r="D7" s="391"/>
@@ -6493,7 +6489,7 @@
       <c r="H7" s="442"/>
       <c r="J7" s="406"/>
       <c r="K7" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L7" s="407"/>
       <c r="M7" s="418">
@@ -6505,7 +6501,7 @@
         <v>53700</v>
       </c>
     </row>
-    <row r="8" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B8" s="441"/>
       <c r="C8" s="378" t="s">
         <v>173</v>
@@ -6519,7 +6515,7 @@
       <c r="H8" s="442"/>
       <c r="J8" s="406"/>
       <c r="K8" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L8" s="407"/>
       <c r="M8" s="418">
@@ -6531,10 +6527,10 @@
         <v>15088.577640713542</v>
       </c>
     </row>
-    <row r="9" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B9" s="441"/>
       <c r="C9" s="378" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="391"/>
       <c r="E9" s="391"/>
@@ -6545,7 +6541,7 @@
       <c r="H9" s="442"/>
       <c r="J9" s="406"/>
       <c r="K9" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L9" s="407"/>
       <c r="M9" s="418">
@@ -6559,10 +6555,10 @@
       <c r="CJ9" s="363"/>
       <c r="CK9" s="357"/>
     </row>
-    <row r="10" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B10" s="441"/>
       <c r="C10" s="378" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="391"/>
       <c r="E10" s="391"/>
@@ -6573,7 +6569,7 @@
       <c r="H10" s="442"/>
       <c r="J10" s="406"/>
       <c r="K10" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L10" s="407"/>
       <c r="M10" s="418">
@@ -6587,10 +6583,10 @@
       <c r="CJ10" s="363"/>
       <c r="CK10" s="357"/>
     </row>
-    <row r="11" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B11" s="441"/>
       <c r="C11" s="378" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11" s="391"/>
       <c r="E11" s="391"/>
@@ -6601,7 +6597,7 @@
       <c r="H11" s="442"/>
       <c r="J11" s="406"/>
       <c r="K11" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L11" s="407"/>
       <c r="M11" s="418">
@@ -6617,10 +6613,10 @@
       </c>
       <c r="CK11" s="357"/>
     </row>
-    <row r="12" spans="2:89" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B12" s="441"/>
       <c r="C12" s="378" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D12" s="391"/>
       <c r="E12" s="391"/>
@@ -6631,7 +6627,7 @@
       <c r="H12" s="442"/>
       <c r="J12" s="406"/>
       <c r="K12" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L12" s="407"/>
       <c r="M12" s="418">
@@ -6647,10 +6643,10 @@
       </c>
       <c r="CK12" s="357"/>
     </row>
-    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="441"/>
       <c r="C13" s="381" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" s="393"/>
       <c r="E13" s="393"/>
@@ -6660,7 +6656,7 @@
       <c r="G13" s="437"/>
       <c r="H13" s="442"/>
       <c r="J13" s="409" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="407"/>
       <c r="L13" s="407"/>
@@ -6695,7 +6691,7 @@
       </c>
       <c r="CK13" s="357"/>
     </row>
-    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="441"/>
       <c r="C14" s="437"/>
       <c r="D14" s="437"/>
@@ -6705,7 +6701,7 @@
       <c r="H14" s="442"/>
       <c r="J14" s="406"/>
       <c r="K14" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L14" s="407"/>
       <c r="M14" s="416">
@@ -6751,7 +6747,7 @@
       </c>
       <c r="CK14" s="357"/>
     </row>
-    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="441"/>
       <c r="C15" s="437"/>
       <c r="D15" s="437"/>
@@ -6761,7 +6757,7 @@
       <c r="H15" s="442"/>
       <c r="J15" s="406"/>
       <c r="K15" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L15" s="407"/>
       <c r="M15" s="416">
@@ -6808,7 +6804,7 @@
       </c>
       <c r="CK15" s="357"/>
     </row>
-    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="441"/>
       <c r="C16" s="366" t="s">
         <v>0</v>
@@ -6820,7 +6816,7 @@
       <c r="H16" s="442"/>
       <c r="J16" s="406"/>
       <c r="K16" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L16" s="407"/>
       <c r="M16" s="416">
@@ -6863,7 +6859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="441"/>
       <c r="C17" s="369"/>
       <c r="D17" s="370"/>
@@ -6873,7 +6869,7 @@
       <c r="H17" s="442"/>
       <c r="J17" s="406"/>
       <c r="K17" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L17" s="407"/>
       <c r="M17" s="416">
@@ -6916,10 +6912,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="441"/>
       <c r="C18" s="369" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" s="370"/>
       <c r="E18" s="370"/>
@@ -6930,7 +6926,7 @@
       <c r="H18" s="442"/>
       <c r="J18" s="406"/>
       <c r="K18" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L18" s="407"/>
       <c r="M18" s="416">
@@ -6973,10 +6969,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="441"/>
       <c r="C19" s="369" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D19" s="370"/>
       <c r="E19" s="370"/>
@@ -6987,7 +6983,7 @@
       <c r="H19" s="443"/>
       <c r="J19" s="406"/>
       <c r="K19" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L19" s="407"/>
       <c r="M19" s="416">
@@ -7030,7 +7026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="441"/>
       <c r="C20" s="369" t="s">
         <v>3</v>
@@ -7043,7 +7039,7 @@
       </c>
       <c r="H20" s="444"/>
       <c r="J20" s="409" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K20" s="407"/>
       <c r="L20" s="407"/>
@@ -7053,7 +7049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="441"/>
       <c r="C21" s="369" t="s">
         <v>53</v>
@@ -7067,7 +7063,7 @@
       <c r="H21" s="442"/>
       <c r="J21" s="406"/>
       <c r="K21" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L21" s="407"/>
       <c r="M21" s="416">
@@ -7082,7 +7078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="441"/>
       <c r="C22" s="372" t="s">
         <v>45</v>
@@ -7096,7 +7092,7 @@
       <c r="H22" s="444"/>
       <c r="J22" s="406"/>
       <c r="K22" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L22" s="407"/>
       <c r="M22" s="416">
@@ -7111,7 +7107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="441"/>
       <c r="C23" s="437"/>
       <c r="D23" s="437"/>
@@ -7121,7 +7117,7 @@
       <c r="H23" s="442"/>
       <c r="J23" s="406"/>
       <c r="K23" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L23" s="407"/>
       <c r="M23" s="416">
@@ -7136,7 +7132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="441"/>
       <c r="C24" s="437"/>
       <c r="D24" s="437"/>
@@ -7146,7 +7142,7 @@
       <c r="H24" s="442"/>
       <c r="J24" s="406"/>
       <c r="K24" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L24" s="407"/>
       <c r="M24" s="416">
@@ -7161,7 +7157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="441"/>
       <c r="C25" s="366" t="s">
         <v>2</v>
@@ -7173,7 +7169,7 @@
       <c r="H25" s="442"/>
       <c r="J25" s="406"/>
       <c r="K25" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L25" s="407"/>
       <c r="M25" s="416">
@@ -7185,10 +7181,10 @@
         <v>1963.4314044218763</v>
       </c>
       <c r="CH25" s="468" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="2:86" ht="14" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="2:86" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="441"/>
       <c r="C26" s="374"/>
       <c r="D26" s="370"/>
@@ -7198,7 +7194,7 @@
       <c r="H26" s="442"/>
       <c r="J26" s="406"/>
       <c r="K26" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L26" s="407"/>
       <c r="M26" s="416">
@@ -7210,7 +7206,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B27" s="441"/>
       <c r="C27" s="369" t="s">
         <v>70</v>
@@ -7223,14 +7219,14 @@
       </c>
       <c r="H27" s="445"/>
       <c r="J27" s="409" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K27" s="407"/>
       <c r="L27" s="407"/>
       <c r="M27" s="407"/>
       <c r="N27" s="408"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B28" s="441"/>
       <c r="C28" s="369" t="s">
         <v>71</v>
@@ -7244,7 +7240,7 @@
       <c r="H28" s="445"/>
       <c r="J28" s="406"/>
       <c r="K28" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L28" s="407"/>
       <c r="M28" s="416">
@@ -7256,7 +7252,7 @@
         <v>38614.29094676087</v>
       </c>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B29" s="441"/>
       <c r="C29" s="369" t="s">
         <v>30</v>
@@ -7270,7 +7266,7 @@
       <c r="H29" s="442"/>
       <c r="J29" s="406"/>
       <c r="K29" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L29" s="407"/>
       <c r="M29" s="416">
@@ -7282,7 +7278,7 @@
         <v>38277.49541052225</v>
       </c>
     </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B30" s="441"/>
       <c r="C30" s="369" t="s">
         <v>31</v>
@@ -7296,7 +7292,7 @@
       <c r="H30" s="442"/>
       <c r="J30" s="406"/>
       <c r="K30" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L30" s="407"/>
       <c r="M30" s="416">
@@ -7308,7 +7304,7 @@
         <v>36301.531527284853</v>
       </c>
     </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B31" s="441"/>
       <c r="C31" s="369"/>
       <c r="D31" s="370"/>
@@ -7318,7 +7314,7 @@
       <c r="H31" s="442"/>
       <c r="J31" s="406"/>
       <c r="K31" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L31" s="407"/>
       <c r="M31" s="416">
@@ -7330,10 +7326,10 @@
         <v>34061.911790007805</v>
       </c>
     </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B32" s="441"/>
       <c r="C32" s="375" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D32" s="370"/>
       <c r="E32" s="370"/>
@@ -7342,7 +7338,7 @@
       <c r="H32" s="442"/>
       <c r="J32" s="406"/>
       <c r="K32" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L32" s="407"/>
       <c r="M32" s="416">
@@ -7354,7 +7350,7 @@
         <v>38105.267828714794</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="441"/>
       <c r="C33" s="369" t="s">
         <v>43</v>
@@ -7368,7 +7364,7 @@
       <c r="H33" s="446"/>
       <c r="J33" s="406"/>
       <c r="K33" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L33" s="407"/>
       <c r="M33" s="416">
@@ -7380,10 +7376,10 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="441"/>
       <c r="C34" s="369" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" s="370"/>
       <c r="E34" s="370"/>
@@ -7393,17 +7389,17 @@
       </c>
       <c r="H34" s="446"/>
       <c r="J34" s="409" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K34" s="407"/>
       <c r="L34" s="407"/>
       <c r="M34" s="407"/>
       <c r="N34" s="408"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="441"/>
       <c r="C35" s="369" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D35" s="370"/>
       <c r="E35" s="370"/>
@@ -7414,7 +7410,7 @@
       <c r="H35" s="446"/>
       <c r="J35" s="406"/>
       <c r="K35" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L35" s="407"/>
       <c r="M35" s="416">
@@ -7426,10 +7422,10 @@
         <v>38945.40849162935</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="441"/>
       <c r="C36" s="372" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36" s="373"/>
       <c r="E36" s="373"/>
@@ -7440,7 +7436,7 @@
       <c r="H36" s="446"/>
       <c r="J36" s="406"/>
       <c r="K36" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L36" s="407"/>
       <c r="M36" s="416">
@@ -7453,7 +7449,7 @@
       </c>
       <c r="P36" s="403"/>
       <c r="Q36" s="432" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R36" s="404"/>
       <c r="S36" s="404"/>
@@ -7464,7 +7460,7 @@
       <c r="X36" s="404"/>
       <c r="Y36" s="405"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="441"/>
       <c r="C37" s="437"/>
       <c r="D37" s="437"/>
@@ -7474,7 +7470,7 @@
       <c r="H37" s="442"/>
       <c r="J37" s="406"/>
       <c r="K37" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L37" s="407"/>
       <c r="M37" s="416">
@@ -7496,7 +7492,7 @@
       <c r="X37" s="407"/>
       <c r="Y37" s="408"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="441"/>
       <c r="C38" s="437"/>
       <c r="D38" s="437"/>
@@ -7506,7 +7502,7 @@
       <c r="H38" s="442"/>
       <c r="J38" s="406"/>
       <c r="K38" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L38" s="407"/>
       <c r="M38" s="416">
@@ -7519,31 +7515,31 @@
       </c>
       <c r="P38" s="406"/>
       <c r="Q38" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R38" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S38" s="407"/>
       <c r="T38" s="407" t="s">
+        <v>282</v>
+      </c>
+      <c r="U38" s="407" t="s">
+        <v>260</v>
+      </c>
+      <c r="V38" s="407" t="s">
         <v>283</v>
-      </c>
-      <c r="U38" s="407" t="s">
-        <v>261</v>
-      </c>
-      <c r="V38" s="407" t="s">
-        <v>284</v>
       </c>
       <c r="W38" s="407"/>
       <c r="X38" s="407" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y38" s="408"/>
     </row>
-    <row r="39" spans="2:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="441"/>
       <c r="C39" s="366" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D39" s="367"/>
       <c r="E39" s="367"/>
@@ -7552,7 +7548,7 @@
       <c r="H39" s="442"/>
       <c r="J39" s="406"/>
       <c r="K39" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L39" s="407"/>
       <c r="M39" s="416">
@@ -7564,7 +7560,7 @@
         <v>38432.020500346021</v>
       </c>
       <c r="P39" s="434" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="436">
         <f>IF($G$51=1,'Ranch Strategies'!P152,'Ranch Strategies'!P235)</f>
@@ -7594,7 +7590,7 @@
       </c>
       <c r="Y39" s="458"/>
     </row>
-    <row r="40" spans="2:25" s="402" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:25" s="402" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="441"/>
       <c r="C40" s="374"/>
       <c r="D40" s="370"/>
@@ -7604,7 +7600,7 @@
       <c r="H40" s="442"/>
       <c r="J40" s="410"/>
       <c r="K40" s="411" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L40" s="411"/>
       <c r="M40" s="416">
@@ -7616,7 +7612,7 @@
         <v>1016.1875501759187</v>
       </c>
       <c r="P40" s="435" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="461">
         <f>IF($G$51=1, 'Ranch Strategies'!P235,'Ranch Strategies'!P152)</f>
@@ -7646,10 +7642,10 @@
       </c>
       <c r="Y40" s="463"/>
     </row>
-    <row r="41" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="441"/>
       <c r="C41" s="465" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D41" s="370"/>
       <c r="E41" s="370"/>
@@ -7659,7 +7655,7 @@
       </c>
       <c r="H41" s="442"/>
     </row>
-    <row r="42" spans="2:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="441"/>
       <c r="C42" s="369" t="s">
         <v>21</v>
@@ -7672,7 +7668,7 @@
       </c>
       <c r="H42" s="442"/>
     </row>
-    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B43" s="441"/>
       <c r="C43" s="369" t="s">
         <v>51</v>
@@ -7686,13 +7682,13 @@
       <c r="H43" s="447"/>
       <c r="J43" s="403"/>
       <c r="K43" s="433" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L43" s="404"/>
       <c r="M43" s="404"/>
       <c r="N43" s="405"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="441"/>
       <c r="C44" s="369" t="s">
         <v>52</v>
@@ -7710,7 +7706,7 @@
       <c r="M44" s="407"/>
       <c r="N44" s="408"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="441"/>
       <c r="C45" s="369" t="s">
         <v>36</v>
@@ -7726,16 +7722,16 @@
       <c r="K45" s="407"/>
       <c r="L45" s="407"/>
       <c r="M45" s="413" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N45" s="412" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="441"/>
       <c r="C46" s="372" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D46" s="373"/>
       <c r="E46" s="373"/>
@@ -7745,14 +7741,14 @@
       </c>
       <c r="H46" s="445"/>
       <c r="J46" s="409" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K46" s="407"/>
       <c r="L46" s="407"/>
       <c r="M46" s="407"/>
       <c r="N46" s="408"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="441"/>
       <c r="C47" s="437"/>
       <c r="D47" s="437"/>
@@ -7762,7 +7758,7 @@
       <c r="H47" s="445"/>
       <c r="J47" s="406"/>
       <c r="K47" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L47" s="407"/>
       <c r="M47" s="414">
@@ -7774,7 +7770,7 @@
         <v>546838.19999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" s="441"/>
       <c r="C48" s="437"/>
       <c r="D48" s="437"/>
@@ -7784,7 +7780,7 @@
       <c r="H48" s="442"/>
       <c r="J48" s="406"/>
       <c r="K48" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L48" s="407"/>
       <c r="M48" s="416">
@@ -7796,10 +7792,10 @@
         <v>520350.76426152949</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="441"/>
       <c r="C49" s="382" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D49" s="383"/>
       <c r="E49" s="383"/>
@@ -7808,7 +7804,7 @@
       <c r="H49" s="448"/>
       <c r="J49" s="406"/>
       <c r="K49" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L49" s="407"/>
       <c r="M49" s="416">
@@ -7820,7 +7816,7 @@
         <v>444900</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="441"/>
       <c r="C50" s="385"/>
       <c r="D50" s="386"/>
@@ -7830,7 +7826,7 @@
       <c r="H50" s="448"/>
       <c r="J50" s="406"/>
       <c r="K50" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L50" s="407"/>
       <c r="M50" s="416">
@@ -7842,10 +7838,10 @@
         <v>413323.12109589041</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="441"/>
       <c r="C51" s="385" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="386"/>
       <c r="E51" s="386"/>
@@ -7856,7 +7852,7 @@
       <c r="H51" s="448"/>
       <c r="J51" s="406"/>
       <c r="K51" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L51" s="407"/>
       <c r="M51" s="416">
@@ -7868,10 +7864,10 @@
         <v>555739.05000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="441"/>
       <c r="C52" s="385" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="386"/>
       <c r="E52" s="386"/>
@@ -7882,7 +7878,7 @@
       <c r="H52" s="449"/>
       <c r="J52" s="406"/>
       <c r="K52" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L52" s="407"/>
       <c r="M52" s="416">
@@ -7894,10 +7890,10 @@
         <v>479239.05000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="441"/>
       <c r="C53" s="385" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="386"/>
       <c r="E53" s="386"/>
@@ -7907,17 +7903,17 @@
       </c>
       <c r="H53" s="450"/>
       <c r="J53" s="409" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K53" s="407"/>
       <c r="L53" s="407"/>
       <c r="M53" s="407"/>
       <c r="N53" s="408"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="441"/>
       <c r="C54" s="385" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D54" s="386"/>
       <c r="E54" s="386"/>
@@ -7928,7 +7924,7 @@
       <c r="H54" s="450"/>
       <c r="J54" s="406"/>
       <c r="K54" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L54" s="407"/>
       <c r="M54" s="416">
@@ -7940,10 +7936,10 @@
         <v>572879.08756499994</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="441"/>
       <c r="C55" s="388" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D55" s="389"/>
       <c r="E55" s="389"/>
@@ -7954,7 +7950,7 @@
       <c r="H55" s="451"/>
       <c r="J55" s="406"/>
       <c r="K55" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L55" s="407"/>
       <c r="M55" s="416">
@@ -7966,7 +7962,7 @@
         <v>546164.52206507209</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="441"/>
       <c r="C56" s="437"/>
       <c r="D56" s="437"/>
@@ -7976,7 +7972,7 @@
       <c r="H56" s="442"/>
       <c r="J56" s="406"/>
       <c r="K56" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L56" s="407"/>
       <c r="M56" s="416">
@@ -7988,7 +7984,7 @@
         <v>467722.19099999999</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="452"/>
       <c r="C57" s="453"/>
       <c r="D57" s="453"/>
@@ -7998,7 +7994,7 @@
       <c r="H57" s="454"/>
       <c r="J57" s="406"/>
       <c r="K57" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L57" s="407"/>
       <c r="M57" s="416">
@@ -8031,10 +8027,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J58" s="406"/>
       <c r="K58" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L58" s="407"/>
       <c r="M58" s="416">
@@ -8073,10 +8069,10 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J59" s="406"/>
       <c r="K59" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L59" s="407"/>
       <c r="M59" s="416">
@@ -8116,9 +8112,9 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J60" s="409" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K60" s="407"/>
       <c r="L60" s="407"/>
@@ -8153,10 +8149,10 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J61" s="406"/>
       <c r="K61" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L61" s="407"/>
       <c r="M61" s="416">
@@ -8196,10 +8192,10 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J62" s="406"/>
       <c r="K62" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L62" s="407"/>
       <c r="M62" s="416">
@@ -8239,10 +8235,10 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J63" s="406"/>
       <c r="K63" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L63" s="407"/>
       <c r="M63" s="416">
@@ -8282,10 +8278,10 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J64" s="406"/>
       <c r="K64" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L64" s="407"/>
       <c r="M64" s="416">
@@ -8297,10 +8293,10 @@
         <v>457106.33523088932</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J65" s="406"/>
       <c r="K65" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L65" s="407"/>
       <c r="M65" s="416">
@@ -8312,10 +8308,10 @@
         <v>558421.4262971835</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J66" s="406"/>
       <c r="K66" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L66" s="407"/>
       <c r="M66" s="416">
@@ -8327,19 +8323,19 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J67" s="409" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K67" s="407"/>
       <c r="L67" s="407"/>
       <c r="M67" s="407"/>
       <c r="N67" s="408"/>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J68" s="406"/>
       <c r="K68" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L68" s="407"/>
       <c r="M68" s="416">
@@ -8351,10 +8347,10 @@
         <v>625632.6793303478</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J69" s="406"/>
       <c r="K69" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L69" s="407"/>
       <c r="M69" s="416">
@@ -8366,10 +8362,10 @@
         <v>598457.99469339836</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J70" s="406"/>
       <c r="K70" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L70" s="407"/>
       <c r="M70" s="416">
@@ -8381,10 +8377,10 @@
         <v>516464.87412440742</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J71" s="406"/>
       <c r="K71" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L71" s="407"/>
       <c r="M71" s="416">
@@ -8396,10 +8392,10 @@
         <v>480472.80671883468</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J72" s="406"/>
       <c r="K72" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L72" s="407"/>
       <c r="M72" s="416">
@@ -8411,10 +8407,10 @@
         <v>584561.64002768183</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J73" s="406"/>
       <c r="K73" s="407" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L73" s="407"/>
       <c r="M73" s="416">
@@ -8426,19 +8422,19 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J74" s="409" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K74" s="407"/>
       <c r="L74" s="407"/>
       <c r="M74" s="407"/>
       <c r="N74" s="408"/>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J75" s="406"/>
       <c r="K75" s="407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L75" s="407"/>
       <c r="M75" s="416">
@@ -8450,10 +8446,10 @@
         <v>652349.22955560556</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J76" s="406"/>
       <c r="K76" s="407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L76" s="407"/>
       <c r="M76" s="416">
@@ -8465,10 +8461,10 @@
         <v>624941.52199789428</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J77" s="406"/>
       <c r="K77" s="407" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L77" s="407"/>
       <c r="M77" s="416">
@@ -8480,10 +8476,10 @@
         <v>542245.31042002421</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J78" s="406"/>
       <c r="K78" s="407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L78" s="407"/>
       <c r="M78" s="416">
@@ -8495,10 +8491,10 @@
         <v>504881.1891704275</v>
       </c>
     </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J79" s="406"/>
       <c r="K79" s="407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L79" s="407"/>
       <c r="M79" s="416">
@@ -8510,10 +8506,10 @@
         <v>610926.00609091925</v>
       </c>
     </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J80" s="410"/>
       <c r="K80" s="411" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L80" s="411"/>
       <c r="M80" s="416">
@@ -8545,50 +8541,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P10:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="172" customWidth="1"/>
-    <col min="2" max="4" width="9.1640625" style="172"/>
-    <col min="5" max="5" width="9.1640625" style="172" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" style="172"/>
-    <col min="9" max="10" width="9.1640625" style="172" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="172"/>
+    <col min="1" max="1" width="13.42578125" style="172" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="172"/>
+    <col min="5" max="5" width="9.140625" style="172" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="172"/>
+    <col min="9" max="10" width="9.140625" style="172" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="225" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="269" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="G2" s="225" t="s">
         <v>256</v>
-      </c>
-      <c r="G2" s="225" t="s">
-        <v>257</v>
       </c>
       <c r="H2" s="225"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>187</v>
       </c>
@@ -8612,14 +8608,14 @@
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="181" t="s">
@@ -8660,9 +8656,9 @@
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="225" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="227">
         <v>1</v>
@@ -8703,7 +8699,7 @@
       <c r="P7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="225" t="s">
         <v>186</v>
       </c>
@@ -8757,11 +8753,11 @@
       </c>
       <c r="P8"/>
       <c r="Q8" s="348" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="225" t="s">
         <v>173</v>
       </c>
@@ -8827,9 +8823,9 @@
       </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="225" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="172">
         <f>D9/D8</f>
@@ -8879,15 +8875,15 @@
         <f t="shared" si="0"/>
         <v>0.10958254269449715</v>
       </c>
-      <c r="P10" s="491">
+      <c r="P10" s="473">
         <f t="shared" ref="P10:P11" si="1">SUM(D10:O10)</f>
         <v>8.9240262601322726</v>
       </c>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="225" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -8927,7 +8923,7 @@
       <c r="O11" s="348">
         <v>0</v>
       </c>
-      <c r="P11" s="491">
+      <c r="P11" s="473">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8935,9 +8931,9 @@
       <c r="R11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="225" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -8977,7 +8973,7 @@
       <c r="O12" s="359">
         <v>0.01</v>
       </c>
-      <c r="P12" s="491">
+      <c r="P12" s="473">
         <f>SUM(D12:O12)</f>
         <v>1.0002494508942579</v>
       </c>
@@ -8985,9 +8981,9 @@
       <c r="R12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="225" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" s="360">
         <v>0.01</v>
@@ -9025,7 +9021,7 @@
       <c r="O13" s="361">
         <v>0.01</v>
       </c>
-      <c r="P13" s="491">
+      <c r="P13" s="473">
         <f t="shared" ref="P13:P19" si="2">SUM(D13:O13)</f>
         <v>1</v>
       </c>
@@ -9033,9 +9029,9 @@
       <c r="R13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" s="362">
         <v>0.01</v>
@@ -9073,7 +9069,7 @@
       <c r="O14" s="362">
         <v>0.01</v>
       </c>
-      <c r="P14" s="491">
+      <c r="P14" s="473">
         <f t="shared" si="2"/>
         <v>0.99999000000000016</v>
       </c>
@@ -9081,7 +9077,7 @@
       <c r="R14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="225"/>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
@@ -9095,15 +9091,15 @@
       <c r="M15" s="228"/>
       <c r="N15" s="228"/>
       <c r="O15" s="228"/>
-      <c r="P15" s="491">
+      <c r="P15" s="473">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="348" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="172">
         <f>D11*D$10</f>
@@ -9153,15 +9149,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="491">
+      <c r="P16" s="473">
         <f t="shared" si="2"/>
         <v>0.52236121052680584</v>
       </c>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="348" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="172">
         <f t="shared" ref="D17:O18" si="4">D12*D$10</f>
@@ -9211,15 +9207,15 @@
         <f t="shared" si="4"/>
         <v>1.0958254269449715E-3</v>
       </c>
-      <c r="P17" s="491">
+      <c r="P17" s="473">
         <f t="shared" si="2"/>
         <v>0.69608894391079501</v>
       </c>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="348" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="172">
         <f t="shared" si="4"/>
@@ -9269,15 +9265,15 @@
         <f t="shared" si="4"/>
         <v>1.0958254269449715E-3</v>
       </c>
-      <c r="P18" s="491">
+      <c r="P18" s="473">
         <f t="shared" si="2"/>
         <v>0.70889512875856031</v>
       </c>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="348" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="172">
         <f>D14*D$10</f>
@@ -9327,16 +9323,16 @@
         <f t="shared" si="5"/>
         <v>1.0958254269449715E-3</v>
       </c>
-      <c r="P19" s="491">
+      <c r="P19" s="473">
         <f t="shared" si="2"/>
         <v>0.7869009834157159</v>
       </c>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9354,7 +9350,7 @@
       <c r="O21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9371,7 +9367,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9388,7 +9384,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9405,7 +9401,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9422,7 +9418,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9439,7 +9435,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9456,7 +9452,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9473,7 +9469,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9490,7 +9486,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -9507,7 +9503,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9524,7 +9520,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -9541,7 +9537,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9558,7 +9554,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9583,80 +9579,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="175" customWidth="1"/>
-    <col min="2" max="13" width="5.6640625" style="175" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="175" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="175"/>
+    <col min="1" max="1" width="12.42578125" style="175" customWidth="1"/>
+    <col min="2" max="13" width="5.7109375" style="175" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="175" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="175"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
-      <c r="F1" s="473"/>
-      <c r="G1" s="473"/>
-      <c r="H1" s="473"/>
-      <c r="I1" s="473"/>
-      <c r="J1" s="473"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="175" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="492" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="492" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="E2" s="176" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="F2" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="G2" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="176" t="s">
+      <c r="H2" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="I2" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="176" t="s">
+      <c r="J2" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="K2" s="176" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="176" t="s">
+      <c r="L2" s="176" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="176" t="s">
+      <c r="M2" s="176" t="s">
         <v>199</v>
-      </c>
-      <c r="M2" s="176" t="s">
-        <v>200</v>
       </c>
       <c r="N2" s="175" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="175">
         <v>1939</v>
       </c>
@@ -9701,7 +9697,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="175">
         <v>1940</v>
       </c>
@@ -9746,7 +9742,7 @@
         <v>14.810000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="175">
         <v>1941</v>
       </c>
@@ -9791,7 +9787,7 @@
         <v>19.809999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="175">
         <v>1942</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="175">
         <v>1943</v>
       </c>
@@ -9881,11 +9877,11 @@
         <v>7.45</v>
       </c>
       <c r="O7" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P7" s="178"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="175">
         <v>1944</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="175">
         <v>1945</v>
       </c>
@@ -9975,7 +9971,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="175">
         <v>1946</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>11.790000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="175">
         <v>1947</v>
       </c>
@@ -10065,7 +10061,7 @@
         <v>15.429999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="175">
         <v>1948</v>
       </c>
@@ -10110,7 +10106,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="175">
         <v>1949</v>
       </c>
@@ -10155,7 +10151,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="175">
         <v>1950</v>
       </c>
@@ -10200,7 +10196,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="175">
         <v>1951</v>
       </c>
@@ -10245,7 +10241,7 @@
         <v>13.110000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="175">
         <v>1952</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="175">
         <v>1953</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="175">
         <v>1954</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="175">
         <v>1955</v>
       </c>
@@ -10425,7 +10421,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="175">
         <v>1956</v>
       </c>
@@ -10470,7 +10466,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="175">
         <v>1957</v>
       </c>
@@ -10515,7 +10511,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="175">
         <v>1958</v>
       </c>
@@ -10560,7 +10556,7 @@
         <v>13.270000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="175">
         <v>1959</v>
       </c>
@@ -10605,7 +10601,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="175">
         <v>1960</v>
       </c>
@@ -10650,7 +10646,7 @@
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="175">
         <v>1961</v>
       </c>
@@ -10695,7 +10691,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="175">
         <v>1962</v>
       </c>
@@ -10740,7 +10736,7 @@
         <v>15.879999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="175">
         <v>1963</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="175">
         <v>1964</v>
       </c>
@@ -10830,7 +10826,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="175">
         <v>1965</v>
       </c>
@@ -10875,7 +10871,7 @@
         <v>14.839999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="175">
         <v>1966</v>
       </c>
@@ -10920,7 +10916,7 @@
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="175">
         <v>1967</v>
       </c>
@@ -10965,7 +10961,7 @@
         <v>22.88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="175">
         <v>1968</v>
       </c>
@@ -11010,7 +11006,7 @@
         <v>13.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="175">
         <v>1969</v>
       </c>
@@ -11055,7 +11051,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="175">
         <v>1970</v>
       </c>
@@ -11100,7 +11096,7 @@
         <v>9.5400000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="175">
         <v>1971</v>
       </c>
@@ -11145,7 +11141,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="175">
         <v>1972</v>
       </c>
@@ -11190,7 +11186,7 @@
         <v>14.719999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="175">
         <v>1973</v>
       </c>
@@ -11235,7 +11231,7 @@
         <v>10.829999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="175">
         <v>1974</v>
       </c>
@@ -11280,7 +11276,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="175">
         <v>1975</v>
       </c>
@@ -11325,7 +11321,7 @@
         <v>12.040000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="175">
         <v>1976</v>
       </c>
@@ -11370,7 +11366,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="175">
         <v>1977</v>
       </c>
@@ -11415,7 +11411,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="175">
         <v>1978</v>
       </c>
@@ -11460,7 +11456,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="175">
         <v>1979</v>
       </c>
@@ -11505,7 +11501,7 @@
         <v>19.429999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="175">
         <v>1980</v>
       </c>
@@ -11550,7 +11546,7 @@
         <v>14.180000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="175">
         <v>1981</v>
       </c>
@@ -11595,7 +11591,7 @@
         <v>15.629999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="175">
         <v>1982</v>
       </c>
@@ -11640,7 +11636,7 @@
         <v>18.689999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="175">
         <v>1983</v>
       </c>
@@ -11685,7 +11681,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="175">
         <v>1984</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>18.919999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="175">
         <v>1985</v>
       </c>
@@ -11775,7 +11771,7 @@
         <v>12.130000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="175">
         <v>1986</v>
       </c>
@@ -11820,7 +11816,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="175">
         <v>1987</v>
       </c>
@@ -11865,7 +11861,7 @@
         <v>17.439999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="175">
         <v>1988</v>
       </c>
@@ -11910,7 +11906,7 @@
         <v>10.959999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="175">
         <v>1989</v>
       </c>
@@ -11955,7 +11951,7 @@
         <v>14.419999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="175">
         <v>1990</v>
       </c>
@@ -12000,7 +11996,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="175">
         <v>1991</v>
       </c>
@@ -12045,7 +12041,7 @@
         <v>16.689999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="175">
         <v>1992</v>
       </c>
@@ -12090,7 +12086,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="175">
         <v>1993</v>
       </c>
@@ -12135,7 +12131,7 @@
         <v>16.960000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="175">
         <v>1994</v>
       </c>
@@ -12180,7 +12176,7 @@
         <v>11.979999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="175">
         <v>1995</v>
       </c>
@@ -12225,7 +12221,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="175">
         <v>1996</v>
       </c>
@@ -12270,7 +12266,7 @@
         <v>15.240000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="175">
         <v>1997</v>
       </c>
@@ -12315,7 +12311,7 @@
         <v>22.250000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="175">
         <v>1998</v>
       </c>
@@ -12360,7 +12356,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="175">
         <v>1999</v>
       </c>
@@ -12405,7 +12401,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="175">
         <v>2000</v>
       </c>
@@ -12450,7 +12446,7 @@
         <v>12.250000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="175">
         <v>2001</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="175">
         <v>2002</v>
       </c>
@@ -12540,7 +12536,7 @@
         <v>9.5599999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="175">
         <v>2003</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="175">
         <v>2004</v>
       </c>
@@ -12630,7 +12626,7 @@
         <v>11.550000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="175">
         <v>2005</v>
       </c>
@@ -12675,7 +12671,7 @@
         <v>14.569999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="175">
         <v>2006</v>
       </c>
@@ -12720,7 +12716,7 @@
         <v>11.840000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="175">
         <v>2007</v>
       </c>
@@ -12765,7 +12761,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="175">
         <v>2008</v>
       </c>
@@ -12810,7 +12806,7 @@
         <v>13.020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="175">
         <v>2009</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="175">
         <v>2010</v>
       </c>
@@ -12900,7 +12896,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="175">
         <v>2011</v>
       </c>
@@ -12945,7 +12941,7 @@
         <v>14.030000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="175">
         <v>2012</v>
       </c>
@@ -12990,37 +12986,37 @@
         <v>7.4799999999999995</v>
       </c>
       <c r="O76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W76" s="175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X76" s="175" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="175">
         <v>2013</v>
       </c>
@@ -13065,7 +13061,7 @@
         <v>15.989999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="175">
         <v>2014</v>
       </c>
@@ -13110,7 +13106,7 @@
         <v>14.559999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="175">
         <v>2015</v>
       </c>
@@ -13155,7 +13151,7 @@
         <v>14.979999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="175">
         <v>2016</v>
       </c>
@@ -13185,9 +13181,9 @@
       <c r="M80" s="179"/>
       <c r="N80" s="179"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="177">
         <f t="shared" ref="B81:I81" si="2">AVERAGE(B3:B78)</f>
@@ -13242,9 +13238,9 @@
         <v>13.457922077922078</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B82" s="177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" s="177"/>
       <c r="D82" s="177"/>
@@ -13258,9 +13254,9 @@
       <c r="L82" s="177"/>
       <c r="M82" s="177"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" s="177">
         <f>B81</f>
@@ -13327,35 +13323,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="0.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="0.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="0.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="13" width="0.83203125" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" customWidth="1"/>
-    <col min="15" max="15" width="0.83203125" customWidth="1"/>
-    <col min="16" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
-    <col min="25" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="13" width="0.85546875" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="0.85546875" customWidth="1"/>
+    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="25" max="28" width="10.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13378,10 +13374,10 @@
       <c r="U1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="C2" s="347" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D2" s="347"/>
       <c r="E2" s="347"/>
@@ -13403,7 +13399,7 @@
       <c r="U2" s="170"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -13426,7 +13422,7 @@
       <c r="U3" s="170"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -13448,13 +13444,13 @@
       <c r="T4" s="171"/>
       <c r="U4" s="170"/>
       <c r="W4" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="C5" s="168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="14"/>
@@ -13491,32 +13487,32 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="C6" s="483" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="483"/>
-      <c r="E6" s="483"/>
-      <c r="F6" s="483"/>
-      <c r="G6" s="483"/>
-      <c r="H6" s="483"/>
-      <c r="I6" s="483"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="483"/>
-      <c r="L6" s="483"/>
-      <c r="M6" s="483"/>
-      <c r="N6" s="483"/>
-      <c r="O6" s="483"/>
-      <c r="P6" s="483"/>
-      <c r="Q6" s="483"/>
-      <c r="R6" s="483"/>
-      <c r="S6" s="483"/>
+      <c r="C6" s="484" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="484"/>
+      <c r="E6" s="484"/>
+      <c r="F6" s="484"/>
+      <c r="G6" s="484"/>
+      <c r="H6" s="484"/>
+      <c r="I6" s="484"/>
+      <c r="J6" s="484"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="484"/>
+      <c r="M6" s="484"/>
+      <c r="N6" s="484"/>
+      <c r="O6" s="484"/>
+      <c r="P6" s="484"/>
+      <c r="Q6" s="484"/>
+      <c r="R6" s="484"/>
+      <c r="S6" s="484"/>
       <c r="T6" s="171"/>
       <c r="U6" s="170"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
       <c r="C7" s="68" t="s">
         <v>41</v>
@@ -13543,7 +13539,7 @@
       <c r="U7" s="67"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
       <c r="C8" s="15" t="s">
         <v>1</v>
@@ -13589,7 +13585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>72</v>
@@ -13622,7 +13618,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
       <c r="C10" s="16" t="s">
         <v>3</v>
@@ -13654,11 +13650,11 @@
         <v>375</v>
       </c>
       <c r="V10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
       <c r="C11" s="69" t="s">
         <v>53</v>
@@ -13699,7 +13695,7 @@
       <c r="AK11" s="357"/>
       <c r="AM11" s="357"/>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67"/>
       <c r="C12" s="16" t="s">
         <v>45</v>
@@ -13720,7 +13716,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="67"/>
       <c r="P12" s="364" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="364"/>
       <c r="R12" s="69"/>
@@ -13736,15 +13732,15 @@
       <c r="AK12" s="357"/>
       <c r="AM12" s="357"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67"/>
-      <c r="C13" s="490" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="490"/>
-      <c r="E13" s="490"/>
-      <c r="F13" s="490"/>
-      <c r="G13" s="490"/>
+      <c r="C13" s="491" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="491"/>
+      <c r="E13" s="491"/>
+      <c r="F13" s="491"/>
+      <c r="G13" s="491"/>
       <c r="H13" s="67"/>
       <c r="I13" s="186">
         <f>'Drought Calculator'!F3</f>
@@ -13776,7 +13772,7 @@
       <c r="AK13" s="357"/>
       <c r="AM13" s="357"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
       <c r="C14" s="68" t="s">
         <v>44</v>
@@ -13813,7 +13809,7 @@
       <c r="AK14" s="357"/>
       <c r="AM14" s="357"/>
     </row>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
@@ -13863,7 +13859,7 @@
       <c r="AK15" s="357"/>
       <c r="AM15" s="357"/>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="C16" s="16" t="s">
         <v>52</v>
@@ -13916,7 +13912,7 @@
       <c r="AK16" s="357"/>
       <c r="AM16" s="357"/>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
       <c r="C17" s="69" t="s">
         <v>36</v>
@@ -13961,7 +13957,7 @@
       <c r="AK17" s="357"/>
       <c r="AM17" s="357"/>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
       <c r="C18" s="15" t="s">
         <v>29</v>
@@ -13982,7 +13978,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="70"/>
       <c r="P18" s="163" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="68"/>
       <c r="R18" s="15"/>
@@ -14013,10 +14009,10 @@
       <c r="AK18" s="357"/>
       <c r="AM18" s="357"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
       <c r="C19" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I19" s="187">
         <f>UI!G51</f>
@@ -14032,7 +14028,7 @@
       <c r="Q19" s="68"/>
       <c r="R19" s="13"/>
       <c r="S19" s="166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T19" s="471"/>
       <c r="U19" s="260">
@@ -14058,7 +14054,7 @@
       <c r="AK19" s="357"/>
       <c r="AM19" s="357"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
@@ -14091,7 +14087,7 @@
       <c r="AK20" s="357"/>
       <c r="AM20" s="357"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
       <c r="C21" s="164" t="s">
         <v>170</v>
@@ -14128,10 +14124,10 @@
       <c r="AK21" s="357"/>
       <c r="AM21" s="357"/>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
       <c r="C22" s="163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22">
         <f>UI!F8</f>
@@ -14162,7 +14158,7 @@
       <c r="AK22" s="357"/>
       <c r="AM22" s="357"/>
     </row>
-    <row r="23" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -14190,7 +14186,7 @@
       <c r="AK23" s="357"/>
       <c r="AM23" s="357"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
       <c r="C24" s="46" t="s">
         <v>4</v>
@@ -14219,7 +14215,7 @@
       <c r="AJ24" s="357"/>
       <c r="AK24" s="357"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
       <c r="C25" s="18"/>
       <c r="D25" s="32"/>
@@ -14237,13 +14233,13 @@
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
       <c r="S25" s="60"/>
-      <c r="T25" s="484" t="s">
+      <c r="T25" s="485" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="485"/>
+      <c r="U25" s="486"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
@@ -14273,7 +14269,7 @@
       </c>
       <c r="W26" s="13"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
       <c r="C27" s="281" t="s">
         <v>14</v>
@@ -14307,7 +14303,7 @@
       </c>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
       <c r="C28" s="282" t="s">
         <v>15</v>
@@ -14340,7 +14336,7 @@
       </c>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
       <c r="C29" s="282" t="s">
         <v>46</v>
@@ -14372,7 +14368,7 @@
       </c>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="1:39" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -14390,23 +14386,23 @@
       <c r="U30" s="13"/>
       <c r="W30" s="13"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
       <c r="C31" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="65"/>
       <c r="P31" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="29"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
       <c r="C32" s="283" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D32" s="188"/>
       <c r="E32" s="189"/>
@@ -14418,7 +14414,7 @@
         <v>3000</v>
       </c>
       <c r="P32" s="283" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="188"/>
       <c r="R32" s="189"/>
@@ -14442,10 +14438,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67"/>
       <c r="C33" s="284" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="190"/>
       <c r="E33" s="191"/>
@@ -14457,7 +14453,7 @@
         <v>0.9</v>
       </c>
       <c r="P33" s="284" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q33" s="190"/>
       <c r="R33" s="191"/>
@@ -14481,10 +14477,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67"/>
       <c r="C34" s="284" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="190"/>
       <c r="E34" s="191"/>
@@ -14496,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="284" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="190"/>
       <c r="R34" s="191"/>
@@ -14518,10 +14514,10 @@
       </c>
       <c r="AC34" s="121"/>
     </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67"/>
       <c r="C35" s="284" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="190"/>
       <c r="E35" s="191"/>
@@ -14533,7 +14529,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="190"/>
       <c r="R35" s="191"/>
@@ -14555,10 +14551,10 @@
       </c>
       <c r="AC35" s="121"/>
     </row>
-    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
       <c r="C36" s="284" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" s="190"/>
       <c r="E36" s="191"/>
@@ -14570,7 +14566,7 @@
         <v>0.51</v>
       </c>
       <c r="P36" s="284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="190"/>
       <c r="R36" s="191"/>
@@ -14590,10 +14586,10 @@
       </c>
       <c r="AC36" s="121"/>
     </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
       <c r="C37" s="284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="190"/>
       <c r="E37" s="191"/>
@@ -14605,7 +14601,7 @@
         <v>89100</v>
       </c>
       <c r="P37" s="284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="190"/>
       <c r="R37" s="191"/>
@@ -14627,7 +14623,7 @@
       </c>
       <c r="AC37" s="121"/>
     </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
       <c r="C38" s="285"/>
       <c r="D38" s="192"/>
@@ -14637,7 +14633,7 @@
       <c r="H38" s="193"/>
       <c r="I38" s="194"/>
       <c r="P38" s="285" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="192"/>
       <c r="R38" s="193"/>
@@ -14659,7 +14655,7 @@
       </c>
       <c r="AC38" s="121"/>
     </row>
-    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="C39" s="286"/>
       <c r="D39" s="195"/>
@@ -14669,7 +14665,7 @@
       <c r="H39" s="195"/>
       <c r="I39" s="299"/>
       <c r="P39" s="286" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q39" s="195"/>
       <c r="R39" s="195"/>
@@ -14691,7 +14687,7 @@
       </c>
       <c r="AC39" s="121"/>
     </row>
-    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="C40" s="287"/>
       <c r="D40" s="196"/>
@@ -14701,7 +14697,7 @@
       <c r="H40" s="196"/>
       <c r="I40" s="300"/>
       <c r="P40" s="287" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="196"/>
       <c r="R40" s="196"/>
@@ -14723,14 +14719,14 @@
       </c>
       <c r="AC40" s="133"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="45"/>
       <c r="W41" s="29"/>
     </row>
-    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="C42" s="61" t="s">
         <v>38</v>
@@ -14751,7 +14747,7 @@
       <c r="U42" s="13"/>
       <c r="W42" s="29"/>
     </row>
-    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="C43" s="288" t="s">
         <v>17</v>
@@ -14769,10 +14765,10 @@
       <c r="Q43" s="78"/>
       <c r="R43" s="78"/>
       <c r="S43" s="78"/>
-      <c r="T43" s="486" t="s">
+      <c r="T43" s="487" t="s">
         <v>7</v>
       </c>
-      <c r="U43" s="487"/>
+      <c r="U43" s="488"/>
       <c r="Y43" s="53" t="s">
         <v>73</v>
       </c>
@@ -14784,7 +14780,7 @@
         <v>353700</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="C44" s="289" t="s">
         <v>19</v>
@@ -14819,7 +14815,7 @@
         <v>306675</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="C45" s="289" t="s">
         <v>21</v>
@@ -14857,7 +14853,7 @@
         <v>47025</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="C46" s="289" t="s">
         <v>92</v>
@@ -14892,7 +14888,7 @@
       <c r="AB46" s="114"/>
       <c r="AC46" s="121"/>
     </row>
-    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="C47" s="289" t="s">
         <v>93</v>
@@ -14931,7 +14927,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="C48" s="289" t="s">
         <v>94</v>
@@ -14970,7 +14966,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="C49" s="290" t="s">
         <v>39</v>
@@ -15009,7 +15005,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="C50" s="291" t="s">
         <v>98</v>
@@ -15025,7 +15021,7 @@
       </c>
       <c r="N50" s="13"/>
       <c r="P50" s="331" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
@@ -15045,7 +15041,7 @@
       <c r="AB50" s="114"/>
       <c r="AC50" s="121"/>
     </row>
-    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="C51" s="292" t="s">
         <v>99</v>
@@ -15086,7 +15082,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -15114,7 +15110,7 @@
         <v>3187.5</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="C53" s="61" t="s">
         <v>100</v>
@@ -15145,7 +15141,7 @@
         <v>6414.84375</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="C54" s="293" t="s">
         <v>105</v>
@@ -15163,10 +15159,10 @@
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
       <c r="S54" s="34"/>
-      <c r="T54" s="488" t="s">
+      <c r="T54" s="489" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="489"/>
+      <c r="U54" s="490"/>
       <c r="W54" s="13"/>
       <c r="Y54" s="127" t="s">
         <v>85</v>
@@ -15179,7 +15175,7 @@
         <v>6495.029296875</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="C55" s="294" t="s">
         <v>104</v>
@@ -15205,7 +15201,7 @@
       </c>
       <c r="W55" s="13"/>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="C56" s="294" t="s">
         <v>103</v>
@@ -15256,7 +15252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="C57" s="295" t="s">
         <v>78</v>
@@ -15286,7 +15282,7 @@
       </c>
       <c r="W57" s="13"/>
       <c r="X57" s="158" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y57" s="148">
         <f>P78</f>
@@ -15313,7 +15309,7 @@
         <v>514687.5</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="C58" s="296" t="s">
         <v>40</v>
@@ -15371,17 +15367,17 @@
         <v>501070.49119880609</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
-      <c r="C59" s="474" t="s">
+      <c r="C59" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="475"/>
-      <c r="E59" s="475"/>
-      <c r="F59" s="475"/>
-      <c r="G59" s="475"/>
-      <c r="H59" s="475"/>
-      <c r="I59" s="476"/>
+      <c r="D59" s="476"/>
+      <c r="E59" s="476"/>
+      <c r="F59" s="476"/>
+      <c r="G59" s="476"/>
+      <c r="H59" s="476"/>
+      <c r="I59" s="477"/>
       <c r="N59" s="13"/>
       <c r="P59" s="335" t="s">
         <v>95</v>
@@ -15427,15 +15423,15 @@
         <v>501937.17066083587</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="C60" s="477"/>
-      <c r="D60" s="478"/>
-      <c r="E60" s="478"/>
-      <c r="F60" s="478"/>
-      <c r="G60" s="478"/>
-      <c r="H60" s="478"/>
-      <c r="I60" s="479"/>
+      <c r="C60" s="478"/>
+      <c r="D60" s="479"/>
+      <c r="E60" s="479"/>
+      <c r="F60" s="479"/>
+      <c r="G60" s="479"/>
+      <c r="H60" s="479"/>
+      <c r="I60" s="480"/>
       <c r="N60" s="13"/>
       <c r="P60" s="336" t="s">
         <v>81</v>
@@ -15481,15 +15477,15 @@
         <v>502811.28189925256</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="C61" s="477"/>
-      <c r="D61" s="478"/>
-      <c r="E61" s="478"/>
-      <c r="F61" s="478"/>
-      <c r="G61" s="478"/>
-      <c r="H61" s="478"/>
-      <c r="I61" s="479"/>
+      <c r="C61" s="478"/>
+      <c r="D61" s="479"/>
+      <c r="E61" s="479"/>
+      <c r="F61" s="479"/>
+      <c r="G61" s="479"/>
+      <c r="H61" s="479"/>
+      <c r="I61" s="480"/>
       <c r="N61" s="13"/>
       <c r="P61" s="334" t="s">
         <v>24</v>
@@ -15535,15 +15531,15 @@
         <v>503692.88864153862</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="C62" s="477"/>
-      <c r="D62" s="478"/>
-      <c r="E62" s="478"/>
-      <c r="F62" s="478"/>
-      <c r="G62" s="478"/>
-      <c r="H62" s="478"/>
-      <c r="I62" s="479"/>
+      <c r="C62" s="478"/>
+      <c r="D62" s="479"/>
+      <c r="E62" s="479"/>
+      <c r="F62" s="479"/>
+      <c r="G62" s="479"/>
+      <c r="H62" s="479"/>
+      <c r="I62" s="480"/>
       <c r="N62" s="13"/>
       <c r="P62" s="334" t="s">
         <v>90</v>
@@ -15589,15 +15585,15 @@
         <v>504582.05516163982</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="C63" s="480"/>
-      <c r="D63" s="481"/>
-      <c r="E63" s="481"/>
-      <c r="F63" s="481"/>
-      <c r="G63" s="481"/>
-      <c r="H63" s="481"/>
-      <c r="I63" s="482"/>
+      <c r="C63" s="481"/>
+      <c r="D63" s="482"/>
+      <c r="E63" s="482"/>
+      <c r="F63" s="482"/>
+      <c r="G63" s="482"/>
+      <c r="H63" s="482"/>
+      <c r="I63" s="483"/>
       <c r="N63" s="13"/>
       <c r="P63" s="334" t="s">
         <v>89</v>
@@ -15615,7 +15611,7 @@
       </c>
       <c r="W63" s="13"/>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -15642,7 +15638,7 @@
       </c>
       <c r="W64" s="13"/>
     </row>
-    <row r="65" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -15669,7 +15665,7 @@
       </c>
       <c r="W65" s="13"/>
     </row>
-    <row r="66" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -15696,7 +15692,7 @@
       </c>
       <c r="W66" s="13"/>
     </row>
-    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -15723,7 +15719,7 @@
       </c>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -15736,7 +15732,7 @@
       <c r="N68" s="13"/>
       <c r="W68" s="13"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -15756,7 +15752,7 @@
       <c r="U69" s="17"/>
       <c r="W69" s="13"/>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -15779,7 +15775,7 @@
       <c r="U70" s="340"/>
       <c r="W70" s="13"/>
     </row>
-    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15802,7 +15798,7 @@
       <c r="U71" s="29"/>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15811,7 +15807,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
       <c r="I72" s="344" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J72" s="345"/>
       <c r="K72" s="345"/>
@@ -15820,26 +15816,26 @@
       <c r="N72" s="345"/>
       <c r="O72" s="346"/>
       <c r="P72" s="341" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q72" s="341" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R72" s="341" t="s">
         <v>117</v>
       </c>
       <c r="S72" s="341" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T72" s="342" t="s">
+        <v>208</v>
+      </c>
+      <c r="U72" s="343" t="s">
         <v>209</v>
       </c>
-      <c r="U72" s="343" t="s">
-        <v>210</v>
-      </c>
       <c r="W72" s="13"/>
     </row>
-    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -15862,7 +15858,7 @@
       <c r="U73" s="67"/>
       <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="C74" s="17"/>
       <c r="E74" s="305" t="s">
@@ -15886,7 +15882,7 @@
       <c r="U74" s="109"/>
       <c r="W74" s="13"/>
     </row>
-    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="C75" s="17"/>
       <c r="E75" s="306" t="s">
@@ -15928,7 +15924,7 @@
       </c>
       <c r="W75" s="13"/>
     </row>
-    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="C76" s="17"/>
       <c r="E76" s="306" t="s">
@@ -15970,7 +15966,7 @@
       </c>
       <c r="W76" s="13"/>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="C77" s="17"/>
       <c r="E77" s="306" t="s">
@@ -16012,7 +16008,7 @@
       </c>
       <c r="W77" s="13"/>
     </row>
-    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="C78" s="70"/>
       <c r="E78" s="307" t="s">
@@ -16054,7 +16050,7 @@
       </c>
       <c r="W78" s="13"/>
     </row>
-    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="C79" s="17"/>
       <c r="E79" s="67"/>
@@ -16076,7 +16072,7 @@
       <c r="U79" s="67"/>
       <c r="W79" s="13"/>
     </row>
-    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="C80" s="17"/>
       <c r="E80" s="108">
@@ -16101,7 +16097,7 @@
       <c r="U80" s="67"/>
       <c r="W80" s="13"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="C81" s="17"/>
       <c r="E81" s="16" t="s">
@@ -16144,11 +16140,11 @@
       <c r="W81" s="13"/>
       <c r="AC81" s="150"/>
     </row>
-    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="C82" s="17"/>
       <c r="E82" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -16186,11 +16182,11 @@
       <c r="W82" s="13"/>
       <c r="AC82" s="150"/>
     </row>
-    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="C83" s="17"/>
       <c r="E83" s="91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
@@ -16228,7 +16224,7 @@
       </c>
       <c r="W83" s="13"/>
     </row>
-    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="C84" s="17"/>
       <c r="E84" s="235" t="s">
@@ -16291,7 +16287,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="C85" s="17"/>
       <c r="E85" s="91" t="s">
@@ -16312,7 +16308,7 @@
         <v>14716.353081000001</v>
       </c>
       <c r="Q85" s="95">
-        <f t="shared" ref="P85:U85" si="16">IF(Q84&gt;0,Q84*(0.124+0.15+0.04),0)</f>
+        <f t="shared" ref="Q85:U85" si="16">IF(Q84&gt;0,Q84*(0.124+0.15+0.04),0)</f>
         <v>14730.630487675498</v>
       </c>
       <c r="R85" s="95">
@@ -16360,7 +16356,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="C86" s="17"/>
       <c r="E86" s="96" t="s">
@@ -16430,7 +16426,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="C87" s="17"/>
       <c r="E87" s="98" t="s">
@@ -16496,7 +16492,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="C88" s="17"/>
       <c r="E88" s="101" t="s">
@@ -16561,7 +16557,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="C89" s="17"/>
       <c r="E89" s="305" t="s">
@@ -16613,7 +16609,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="C90" s="17"/>
       <c r="E90" s="308" t="s">
@@ -16683,7 +16679,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="C91" s="17"/>
       <c r="E91" s="309" t="s">
@@ -16725,7 +16721,7 @@
       </c>
       <c r="W91" s="17"/>
     </row>
-    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="C92" s="17"/>
       <c r="E92" s="307" t="s">
@@ -16767,7 +16763,7 @@
       </c>
       <c r="W92" s="17"/>
     </row>
-    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="C93" s="17"/>
       <c r="E93" s="67"/>
@@ -16789,7 +16785,7 @@
       <c r="U93" s="67"/>
       <c r="W93" s="17"/>
     </row>
-    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="C94" s="17"/>
       <c r="E94" s="108">
@@ -16814,7 +16810,7 @@
       <c r="U94" s="67"/>
       <c r="W94" s="17"/>
     </row>
-    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="C95" s="17"/>
       <c r="E95" s="98" t="s">
@@ -16855,11 +16851,11 @@
       </c>
       <c r="W95" s="17"/>
     </row>
-    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="C96" s="17"/>
       <c r="E96" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -16896,7 +16892,7 @@
       </c>
       <c r="W96" s="17"/>
     </row>
-    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="C97" s="17"/>
       <c r="E97" s="16" t="s">
@@ -16938,7 +16934,7 @@
       </c>
       <c r="W97" s="17"/>
     </row>
-    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="C98" s="17"/>
       <c r="E98" s="91" t="s">
@@ -16980,7 +16976,7 @@
       </c>
       <c r="W98" s="17"/>
     </row>
-    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="C99" s="17"/>
       <c r="E99" s="235" t="s">
@@ -17022,7 +17018,7 @@
       </c>
       <c r="W99" s="17"/>
     </row>
-    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="C100" s="17"/>
       <c r="E100" s="91" t="s">
@@ -17064,7 +17060,7 @@
       </c>
       <c r="W100" s="17"/>
     </row>
-    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="C101" s="17"/>
       <c r="E101" s="96" t="s">
@@ -17106,7 +17102,7 @@
       </c>
       <c r="W101" s="17"/>
     </row>
-    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="C102" s="17"/>
       <c r="E102" s="96" t="s">
@@ -17143,7 +17139,7 @@
       </c>
       <c r="W102" s="17"/>
     </row>
-    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="C103" s="17"/>
       <c r="E103" s="96"/>
@@ -17165,7 +17161,7 @@
       <c r="U103" s="90"/>
       <c r="W103" s="17"/>
     </row>
-    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="C104" s="17"/>
       <c r="E104" s="305" t="s">
@@ -17189,7 +17185,7 @@
       <c r="U104" s="70"/>
       <c r="W104" s="17"/>
     </row>
-    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="C105" s="17"/>
       <c r="E105" s="308" t="s">
@@ -17231,7 +17227,7 @@
       </c>
       <c r="W105" s="17"/>
     </row>
-    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="C106" s="17"/>
       <c r="E106" s="309" t="s">
@@ -17273,7 +17269,7 @@
       </c>
       <c r="W106" s="17"/>
     </row>
-    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="C107" s="17"/>
       <c r="E107" s="307" t="s">
@@ -17315,7 +17311,7 @@
       </c>
       <c r="W107" s="17"/>
     </row>
-    <row r="108" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="C108" s="17"/>
       <c r="E108" s="104"/>
@@ -17337,7 +17333,7 @@
       <c r="U108" s="30"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="C109" s="17"/>
       <c r="E109" s="108">
@@ -17362,7 +17358,7 @@
       <c r="U109" s="30"/>
       <c r="W109" s="17"/>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="C110" s="17"/>
       <c r="E110" s="98" t="s">
@@ -17402,11 +17398,11 @@
       </c>
       <c r="W110" s="17"/>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="C111" s="17"/>
       <c r="E111" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
@@ -17443,7 +17439,7 @@
       </c>
       <c r="W111" s="17"/>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="C112" s="17"/>
       <c r="E112" s="16" t="s">
@@ -17484,7 +17480,7 @@
       </c>
       <c r="W112" s="17"/>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="C113" s="17"/>
       <c r="E113" s="91" t="s">
@@ -17526,7 +17522,7 @@
       </c>
       <c r="W113" s="17"/>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="C114" s="17"/>
       <c r="E114" s="235" t="s">
@@ -17568,7 +17564,7 @@
       </c>
       <c r="W114" s="17"/>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="C115" s="17"/>
       <c r="E115" s="91" t="s">
@@ -17610,7 +17606,7 @@
       </c>
       <c r="W115" s="17"/>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="C116" s="17"/>
       <c r="E116" s="96" t="s">
@@ -17652,7 +17648,7 @@
       </c>
       <c r="W116" s="17"/>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="C117" s="17"/>
       <c r="E117" s="96" t="s">
@@ -17688,7 +17684,7 @@
       </c>
       <c r="W117" s="17"/>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="C118" s="17"/>
       <c r="E118" s="305" t="s">
@@ -17712,7 +17708,7 @@
       <c r="U118" s="70"/>
       <c r="W118" s="17"/>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="C119" s="17"/>
       <c r="E119" s="308" t="s">
@@ -17754,7 +17750,7 @@
       </c>
       <c r="W119" s="17"/>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="C120" s="17"/>
       <c r="E120" s="309" t="s">
@@ -17796,7 +17792,7 @@
       </c>
       <c r="W120" s="17"/>
     </row>
-    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="C121" s="17"/>
       <c r="E121" s="307" t="s">
@@ -17838,7 +17834,7 @@
       </c>
       <c r="W121" s="17"/>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="C122" s="17"/>
       <c r="E122" s="67"/>
@@ -17860,7 +17856,7 @@
       <c r="U122" s="67"/>
       <c r="W122" s="17"/>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="C123" s="17"/>
       <c r="E123" s="108">
@@ -17885,7 +17881,7 @@
       <c r="U123" s="30"/>
       <c r="W123" s="17"/>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="C124" s="17"/>
       <c r="E124" s="98" t="s">
@@ -17926,11 +17922,11 @@
       </c>
       <c r="W124" s="17"/>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="C125" s="17"/>
       <c r="E125" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
@@ -17967,7 +17963,7 @@
       </c>
       <c r="W125" s="17"/>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="C126" s="17"/>
       <c r="E126" s="16" t="s">
@@ -18009,7 +18005,7 @@
       </c>
       <c r="W126" s="17"/>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="C127" s="17"/>
       <c r="E127" s="91" t="s">
@@ -18051,7 +18047,7 @@
       </c>
       <c r="W127" s="17"/>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="C128" s="17"/>
       <c r="E128" s="235" t="s">
@@ -18093,7 +18089,7 @@
       </c>
       <c r="W128" s="17"/>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="C129" s="17"/>
       <c r="E129" s="91" t="s">
@@ -18135,7 +18131,7 @@
       </c>
       <c r="W129" s="17"/>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="C130" s="17"/>
       <c r="E130" s="96" t="s">
@@ -18177,7 +18173,7 @@
       </c>
       <c r="W130" s="17"/>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="C131" s="17"/>
       <c r="E131" s="96" t="s">
@@ -18214,7 +18210,7 @@
       </c>
       <c r="W131" s="17"/>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="C132" s="17"/>
       <c r="E132" s="305" t="s">
@@ -18238,7 +18234,7 @@
       <c r="U132" s="70"/>
       <c r="W132" s="17"/>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="C133" s="17"/>
       <c r="E133" s="308" t="s">
@@ -18280,7 +18276,7 @@
       </c>
       <c r="W133" s="17"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="C134" s="17"/>
       <c r="E134" s="309" t="s">
@@ -18322,7 +18318,7 @@
       </c>
       <c r="W134" s="17"/>
     </row>
-    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="C135" s="17"/>
       <c r="E135" s="307" t="s">
@@ -18364,7 +18360,7 @@
       </c>
       <c r="W135" s="17"/>
     </row>
-    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="C136" s="17"/>
       <c r="E136" s="67"/>
@@ -18386,7 +18382,7 @@
       <c r="U136" s="67"/>
       <c r="W136" s="17"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="C137" s="17"/>
       <c r="E137" s="108">
@@ -18411,7 +18407,7 @@
       <c r="U137" s="30"/>
       <c r="W137" s="17"/>
     </row>
-    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="C138" s="17"/>
       <c r="E138" s="98" t="s">
@@ -18452,11 +18448,11 @@
       </c>
       <c r="W138" s="17"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="C139" s="17"/>
       <c r="E139" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
@@ -18493,7 +18489,7 @@
       </c>
       <c r="W139" s="17"/>
     </row>
-    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C140" s="17"/>
       <c r="E140" s="16" t="s">
         <v>54</v>
@@ -18534,7 +18530,7 @@
       </c>
       <c r="W140" s="17"/>
     </row>
-    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C141" s="17"/>
       <c r="E141" s="91" t="s">
         <v>58</v>
@@ -18575,7 +18571,7 @@
       </c>
       <c r="W141" s="17"/>
     </row>
-    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C142" s="17"/>
       <c r="E142" s="235" t="s">
         <v>49</v>
@@ -18616,7 +18612,7 @@
       </c>
       <c r="W142" s="17"/>
     </row>
-    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C143" s="17"/>
       <c r="E143" s="91" t="s">
         <v>33</v>
@@ -18657,7 +18653,7 @@
       </c>
       <c r="W143" s="17"/>
     </row>
-    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C144" s="17"/>
       <c r="E144" s="96" t="s">
         <v>34</v>
@@ -18698,7 +18694,7 @@
       </c>
       <c r="W144" s="17"/>
     </row>
-    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C145" s="17"/>
       <c r="E145" s="96" t="s">
         <v>55</v>
@@ -18734,7 +18730,7 @@
       </c>
       <c r="W145" s="17"/>
     </row>
-    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C146" s="17"/>
       <c r="E146" s="305" t="s">
         <v>59</v>
@@ -18757,7 +18753,7 @@
       <c r="U146" s="70"/>
       <c r="W146" s="17"/>
     </row>
-    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C147" s="17"/>
       <c r="E147" s="308" t="s">
         <v>0</v>
@@ -18798,7 +18794,7 @@
       </c>
       <c r="W147" s="17"/>
     </row>
-    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C148" s="17"/>
       <c r="E148" s="309" t="s">
         <v>47</v>
@@ -18839,7 +18835,7 @@
       </c>
       <c r="W148" s="17"/>
     </row>
-    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C149" s="17"/>
       <c r="E149" s="307" t="s">
         <v>16</v>
@@ -18880,7 +18876,7 @@
       </c>
       <c r="W149" s="17"/>
     </row>
-    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C150" s="29"/>
       <c r="E150" s="67"/>
       <c r="F150" s="13"/>
@@ -18901,7 +18897,7 @@
       <c r="U150" s="67"/>
       <c r="W150" s="17"/>
     </row>
-    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C151" s="29"/>
       <c r="E151" s="317" t="s">
         <v>106</v>
@@ -18924,7 +18920,7 @@
       <c r="U151" s="70"/>
       <c r="W151" s="17"/>
     </row>
-    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C152" s="29"/>
       <c r="E152" s="314" t="s">
         <v>56</v>
@@ -18965,7 +18961,7 @@
       </c>
       <c r="W152" s="17"/>
     </row>
-    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C153" s="29"/>
       <c r="E153" s="315" t="s">
         <v>57</v>
@@ -19006,7 +19002,7 @@
       </c>
       <c r="W153" s="17"/>
     </row>
-    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C154" s="29"/>
       <c r="D154" s="17"/>
       <c r="E154" s="136"/>
@@ -19028,10 +19024,10 @@
       <c r="U154" s="138"/>
       <c r="W154" s="17"/>
     </row>
-    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E155" s="338"/>
       <c r="F155" s="338"/>
@@ -19050,7 +19046,7 @@
       <c r="U155" s="58"/>
       <c r="W155" s="17"/>
     </row>
-    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="65"/>
@@ -19061,7 +19057,7 @@
       <c r="U156" s="58"/>
       <c r="W156" s="17"/>
     </row>
-    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="419" t="s">
@@ -19085,7 +19081,7 @@
       <c r="U157" s="109"/>
       <c r="W157" s="17"/>
     </row>
-    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="421" t="s">
@@ -19127,7 +19123,7 @@
       </c>
       <c r="W158" s="17"/>
     </row>
-    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="421" t="s">
@@ -19169,7 +19165,7 @@
       </c>
       <c r="W159" s="17"/>
     </row>
-    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="421" t="s">
@@ -19211,7 +19207,7 @@
       </c>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="307" t="s">
@@ -19253,7 +19249,7 @@
       </c>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
       <c r="E162" s="67"/>
@@ -19275,7 +19271,7 @@
       <c r="U162" s="67"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="108">
@@ -19300,7 +19296,7 @@
       <c r="U163" s="67"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="16" t="s">
@@ -19342,11 +19338,11 @@
       </c>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="13"/>
@@ -19383,11 +19379,11 @@
       </c>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
       <c r="E166" s="91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F166" s="92"/>
       <c r="G166" s="92"/>
@@ -19425,7 +19421,7 @@
       </c>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
       <c r="E167" s="235" t="s">
@@ -19467,7 +19463,7 @@
       </c>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="91" t="s">
@@ -19509,7 +19505,7 @@
       </c>
       <c r="W168" s="29"/>
     </row>
-    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E169" s="96" t="s">
         <v>34</v>
       </c>
@@ -19549,7 +19545,7 @@
       </c>
       <c r="W169" s="29"/>
     </row>
-    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E170" s="98" t="s">
         <v>50</v>
       </c>
@@ -19585,7 +19581,7 @@
       </c>
       <c r="W170" s="29"/>
     </row>
-    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E171" s="101" t="s">
         <v>37</v>
       </c>
@@ -19620,7 +19616,7 @@
       </c>
       <c r="W171" s="29"/>
     </row>
-    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E172" s="419" t="s">
         <v>59</v>
       </c>
@@ -19642,7 +19638,7 @@
       <c r="U172" s="70"/>
       <c r="W172" s="29"/>
     </row>
-    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E173" s="426" t="s">
         <v>0</v>
       </c>
@@ -19682,7 +19678,7 @@
       </c>
       <c r="W173" s="29"/>
     </row>
-    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E174" s="427" t="s">
         <v>47</v>
       </c>
@@ -19722,7 +19718,7 @@
       </c>
       <c r="W174" s="29"/>
     </row>
-    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E175" s="307" t="s">
         <v>16</v>
       </c>
@@ -19762,7 +19758,7 @@
       </c>
       <c r="W175" s="29"/>
     </row>
-    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E176" s="67"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -19782,7 +19778,7 @@
       <c r="U176" s="67"/>
       <c r="W176" s="29"/>
     </row>
-    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E177" s="108">
         <f>E163+1</f>
         <v>2</v>
@@ -19805,7 +19801,7 @@
       <c r="U177" s="67"/>
       <c r="W177" s="29"/>
     </row>
-    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E178" s="98" t="s">
         <v>48</v>
       </c>
@@ -19844,9 +19840,9 @@
       </c>
       <c r="W178" s="29"/>
     </row>
-    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E179" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
@@ -19882,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E180" s="16" t="s">
         <v>54</v>
       </c>
@@ -19921,7 +19917,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E181" s="91" t="s">
         <v>58</v>
       </c>
@@ -19960,7 +19956,7 @@
         <v>5990.4881250000008</v>
       </c>
     </row>
-    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E182" s="235" t="s">
         <v>49</v>
       </c>
@@ -19999,7 +19995,7 @@
         <v>990.48812500000076</v>
       </c>
     </row>
-    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E183" s="91" t="s">
         <v>33</v>
       </c>
@@ -20038,7 +20034,7 @@
         <v>311.01327125000023</v>
       </c>
     </row>
-    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E184" s="96" t="s">
         <v>34</v>
       </c>
@@ -20077,7 +20073,7 @@
         <v>679.47485375000053</v>
       </c>
     </row>
-    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E185" s="96" t="s">
         <v>55</v>
       </c>
@@ -20111,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E186" s="96"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
@@ -20130,7 +20126,7 @@
       <c r="T186" s="90"/>
       <c r="U186" s="90"/>
     </row>
-    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E187" s="419" t="s">
         <v>59</v>
       </c>
@@ -20151,7 +20147,7 @@
       <c r="T187" s="70"/>
       <c r="U187" s="70"/>
     </row>
-    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E188" s="426" t="s">
         <v>0</v>
       </c>
@@ -20190,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E189" s="427" t="s">
         <v>47</v>
       </c>
@@ -20229,7 +20225,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E190" s="307" t="s">
         <v>16</v>
       </c>
@@ -20268,7 +20264,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E191" s="104"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
@@ -20287,7 +20283,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.25">
       <c r="E192" s="108">
         <f>E177+1</f>
         <v>3</v>
@@ -20309,7 +20305,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E193" s="98" t="s">
         <v>48</v>
       </c>
@@ -20346,9 +20342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E194" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F194" s="13"/>
       <c r="G194" s="13"/>
@@ -20384,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E195" s="16" t="s">
         <v>54</v>
       </c>
@@ -20423,7 +20419,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E196" s="91" t="s">
         <v>58</v>
       </c>
@@ -20462,7 +20458,7 @@
         <v>5998.9815606718767</v>
       </c>
     </row>
-    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E197" s="235" t="s">
         <v>49</v>
       </c>
@@ -20501,7 +20497,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E198" s="91" t="s">
         <v>33</v>
       </c>
@@ -20540,7 +20536,7 @@
         <v>313.68021005096927</v>
       </c>
     </row>
-    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E199" s="96" t="s">
         <v>34</v>
       </c>
@@ -20579,7 +20575,7 @@
         <v>685.30135062090744</v>
       </c>
     </row>
-    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E200" s="96" t="s">
         <v>55</v>
       </c>
@@ -20612,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E201" s="419" t="s">
         <v>59</v>
       </c>
@@ -20633,7 +20629,7 @@
       <c r="T201" s="70"/>
       <c r="U201" s="70"/>
     </row>
-    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E202" s="426" t="s">
         <v>0</v>
       </c>
@@ -20672,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E203" s="427" t="s">
         <v>47</v>
       </c>
@@ -20711,7 +20707,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E204" s="307" t="s">
         <v>16</v>
       </c>
@@ -20750,7 +20746,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E205" s="67"/>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
@@ -20769,7 +20765,7 @@
       <c r="T205" s="67"/>
       <c r="U205" s="67"/>
     </row>
-    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E206" s="108">
         <f>E192+1</f>
         <v>4</v>
@@ -20791,7 +20787,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E207" s="98" t="s">
         <v>48</v>
       </c>
@@ -20829,9 +20825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E208" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="13"/>
@@ -20867,7 +20863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E209" s="16" t="s">
         <v>54</v>
       </c>
@@ -20906,7 +20902,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E210" s="91" t="s">
         <v>58</v>
       </c>
@@ -20945,7 +20941,7 @@
         <v>6007.5478275546375</v>
       </c>
     </row>
-    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E211" s="235" t="s">
         <v>49</v>
       </c>
@@ -20984,7 +20980,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E212" s="91" t="s">
         <v>33</v>
       </c>
@@ -21023,7 +21019,7 @@
         <v>316.3700178521562</v>
       </c>
     </row>
-    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E213" s="96" t="s">
         <v>34</v>
       </c>
@@ -21062,7 +21058,7 @@
         <v>691.17780970248123</v>
       </c>
     </row>
-    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E214" s="96" t="s">
         <v>55</v>
       </c>
@@ -21096,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E215" s="419" t="s">
         <v>59</v>
       </c>
@@ -21117,7 +21113,7 @@
       <c r="T215" s="70"/>
       <c r="U215" s="70"/>
     </row>
-    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E216" s="426" t="s">
         <v>0</v>
       </c>
@@ -21156,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E217" s="427" t="s">
         <v>47</v>
       </c>
@@ -21195,7 +21191,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E218" s="307" t="s">
         <v>16</v>
       </c>
@@ -21234,7 +21230,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E219" s="67"/>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
@@ -21253,7 +21249,7 @@
       <c r="T219" s="67"/>
       <c r="U219" s="67"/>
     </row>
-    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E220" s="108">
         <f>E206+1</f>
         <v>5</v>
@@ -21275,7 +21271,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E221" s="98" t="s">
         <v>48</v>
       </c>
@@ -21313,9 +21309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E222" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F222" s="13"/>
       <c r="G222" s="13"/>
@@ -21351,7 +21347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E223" s="16" t="s">
         <v>54</v>
       </c>
@@ -21390,7 +21386,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E224" s="91" t="s">
         <v>58</v>
       </c>
@@ -21429,7 +21425,7 @@
         <v>6016.1875501759187</v>
       </c>
     </row>
-    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E225" s="235" t="s">
         <v>49</v>
       </c>
@@ -21468,7 +21464,7 @@
         <v>1016.1875501759187</v>
       </c>
     </row>
-    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E226" s="91" t="s">
         <v>33</v>
       </c>
@@ -21507,7 +21503,7 @@
         <v>319.08289075523845</v>
       </c>
     </row>
-    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E227" s="96" t="s">
         <v>34</v>
       </c>
@@ -21546,7 +21542,7 @@
         <v>697.10465942068026</v>
       </c>
     </row>
-    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E228" s="96" t="s">
         <v>55</v>
       </c>
@@ -21580,7 +21576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E229" s="419" t="s">
         <v>59</v>
       </c>
@@ -21601,7 +21597,7 @@
       <c r="T229" s="70"/>
       <c r="U229" s="70"/>
     </row>
-    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E230" s="426" t="s">
         <v>0</v>
       </c>
@@ -21640,7 +21636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E231" s="427" t="s">
         <v>47</v>
       </c>
@@ -21679,7 +21675,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E232" s="307" t="s">
         <v>16</v>
       </c>
@@ -21718,7 +21714,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E233" s="67"/>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
@@ -21737,7 +21733,7 @@
       <c r="T233" s="67"/>
       <c r="U233" s="67"/>
     </row>
-    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E234" s="317" t="s">
         <v>106</v>
       </c>
@@ -21758,7 +21754,7 @@
       <c r="T234" s="70"/>
       <c r="U234" s="70"/>
     </row>
-    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E235" s="314" t="s">
         <v>56</v>
       </c>
@@ -21797,7 +21793,7 @@
         <v>-32695.391326505865</v>
       </c>
     </row>
-    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E236" s="315" t="s">
         <v>57</v>
       </c>
@@ -21893,7 +21889,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z60"/>
@@ -21902,35 +21898,35 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="182" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="172" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="184" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="182" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="183" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="172" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="183" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="172" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="172"/>
-    <col min="14" max="14" width="11.5" style="183" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="172"/>
-    <col min="16" max="16" width="10.1640625" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="172" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="172" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" style="172" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="172"/>
+    <col min="3" max="3" width="11.42578125" style="172" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="184" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="182" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="183" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="172" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="183" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="172" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="172"/>
+    <col min="14" max="14" width="11.42578125" style="183" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="172"/>
+    <col min="16" max="16" width="10.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="172" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="172" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="172"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2" s="172"/>
       <c r="N2" s="172"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J3" s="172"/>
       <c r="N3" s="172"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="349"/>
       <c r="B4" s="233"/>
       <c r="C4" s="197"/>
@@ -21960,46 +21956,46 @@
       <c r="L4" s="206"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="1:18" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="351" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="230" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="230" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="230" t="s">
-        <v>259</v>
-      </c>
       <c r="E5" s="230" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="230" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="230" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="230" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="230" t="s">
+      <c r="H5" s="230" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="230" t="s">
+      <c r="I5" s="230" t="s">
         <v>233</v>
       </c>
-      <c r="I5" s="230" t="s">
+      <c r="J5" s="231" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="231" t="s">
+      <c r="K5" s="230" t="s">
         <v>235</v>
-      </c>
-      <c r="K5" s="230" t="s">
-        <v>236</v>
       </c>
       <c r="L5" s="200"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="352" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="204">
         <v>1</v>
@@ -22039,9 +22035,9 @@
       <c r="N6" s="172"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="353" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="198">
         <v>2</v>
@@ -22081,9 +22077,9 @@
       <c r="N7" s="172"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="353" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="198">
         <v>3</v>
@@ -22125,9 +22121,9 @@
       <c r="N8" s="172"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="353" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="204">
         <v>4</v>
@@ -22167,9 +22163,9 @@
       <c r="N9" s="172"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="353" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="198">
         <v>5</v>
@@ -22211,9 +22207,9 @@
       <c r="N10" s="172"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="353" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="198">
         <v>6</v>
@@ -22253,9 +22249,9 @@
       <c r="N11" s="172"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="353" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="204">
         <v>7</v>
@@ -22295,9 +22291,9 @@
       <c r="N12" s="172"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="353" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="198">
         <v>8</v>
@@ -22337,9 +22333,9 @@
       <c r="N13" s="172"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="353" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="198">
         <v>9</v>
@@ -22379,9 +22375,9 @@
       <c r="N14" s="172"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="353" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="204">
         <v>10</v>
@@ -22421,9 +22417,9 @@
       <c r="N15" s="172"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="354" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="202">
         <v>11</v>
@@ -22463,7 +22459,7 @@
       <c r="N16" s="172"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="172"/>
       <c r="B17" s="172"/>
       <c r="D17" s="172"/>
@@ -22472,7 +22468,7 @@
       <c r="J17" s="172"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="172"/>
       <c r="B18" s="172"/>
       <c r="D18" s="172"/>
@@ -22481,7 +22477,7 @@
       <c r="J18" s="172"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="172"/>
       <c r="B19" s="172"/>
       <c r="D19" s="172"/>
@@ -22490,7 +22486,7 @@
       <c r="J19" s="172"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="D20" s="172"/>
@@ -22499,7 +22495,7 @@
       <c r="J20" s="172"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="D21" s="172"/>
@@ -22507,7 +22503,7 @@
       <c r="J21" s="172"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="172"/>
       <c r="B22" s="172"/>
       <c r="D22" s="172"/>
@@ -22516,7 +22512,7 @@
       <c r="J22" s="172"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="D23" s="172"/>
@@ -22526,7 +22522,7 @@
       <c r="J23" s="172"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="D24" s="172"/>
@@ -22535,7 +22531,7 @@
       <c r="J24" s="172"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="D25" s="172"/>
@@ -22544,7 +22540,7 @@
       <c r="J25" s="172"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="172"/>
       <c r="B26" s="172"/>
       <c r="D26" s="172"/>
@@ -22553,7 +22549,7 @@
       <c r="J26" s="172"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="172"/>
       <c r="B27" s="172"/>
       <c r="D27" s="172"/>
@@ -22563,7 +22559,7 @@
       <c r="J27" s="172"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="172"/>
       <c r="B28" s="172"/>
       <c r="D28" s="172"/>
@@ -22573,7 +22569,7 @@
       <c r="J28" s="172"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="172"/>
       <c r="B29" s="172"/>
       <c r="D29" s="172"/>
@@ -22582,7 +22578,7 @@
       <c r="J29" s="172"/>
       <c r="N29" s="172"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="172"/>
       <c r="B30" s="172"/>
       <c r="D30" s="172"/>
@@ -22591,60 +22587,60 @@
       <c r="J30" s="172"/>
       <c r="N30" s="172"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
       <c r="J31" s="172"/>
       <c r="N31" s="172"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" s="172"/>
       <c r="E32" s="172"/>
       <c r="F32" s="172"/>
       <c r="J32" s="172"/>
       <c r="N32" s="172"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="172"/>
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
       <c r="J33" s="172"/>
       <c r="N33" s="172"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" s="172"/>
       <c r="E34" s="172"/>
       <c r="F34" s="172"/>
       <c r="J34" s="172"/>
       <c r="N34" s="172"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="172"/>
       <c r="E35" s="172"/>
       <c r="F35" s="172"/>
       <c r="J35" s="172"/>
       <c r="N35" s="172"/>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z54" s="183"/>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z55" s="183"/>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z56" s="183"/>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z57" s="183"/>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z58" s="183"/>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Z59" s="183"/>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Y60" s="183"/>
     </row>
   </sheetData>
@@ -22655,21 +22651,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="8.83203125" style="232"/>
-    <col min="14" max="14" width="8.83203125" style="232" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="232"/>
+    <col min="13" max="13" width="8.85546875" style="232"/>
+    <col min="14" max="14" width="8.85546875" style="232" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -22707,7 +22703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1948</v>
       </c>
@@ -22745,10 +22741,10 @@
         <v>92.948850455332504</v>
       </c>
       <c r="N2" s="472" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1949</v>
       </c>
@@ -22786,7 +22782,7 @@
         <v>26.744649883485</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -22824,7 +22820,7 @@
         <v>82.3976439431285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1951</v>
       </c>
@@ -22862,7 +22858,7 @@
         <v>119.86075100011701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -22900,7 +22896,7 @@
         <v>103.8317861764</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1953</v>
       </c>
@@ -22938,7 +22934,7 @@
         <v>102.31199040246401</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1954</v>
       </c>
@@ -22976,7 +22972,7 @@
         <v>109.14097992220699</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1955</v>
       </c>
@@ -23014,7 +23010,7 @@
         <v>153.83773609233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1956</v>
       </c>
@@ -23052,7 +23048,7 @@
         <v>188.215488528641</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1957</v>
       </c>
@@ -23090,7 +23086,7 @@
         <v>58.910948991473703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -23128,7 +23124,7 @@
         <v>169.68893941527401</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -23166,7 +23162,7 @@
         <v>1.51177588074404</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1960</v>
       </c>
@@ -23204,7 +23200,7 @@
         <v>55.845242391120699</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1961</v>
       </c>
@@ -23242,7 +23238,7 @@
         <v>47.933784057507602</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1962</v>
       </c>
@@ -23280,7 +23276,7 @@
         <v>57.2462506324798</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1963</v>
       </c>
@@ -23318,7 +23314,7 @@
         <v>41.176404840271303</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1964</v>
       </c>
@@ -23356,7 +23352,7 @@
         <v>9.7091335926118791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1965</v>
       </c>
@@ -23394,7 +23390,7 @@
         <v>19.4817657046876</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -23432,7 +23428,7 @@
         <v>38.3175562144339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1967</v>
       </c>
@@ -23470,7 +23466,7 @@
         <v>87.966329851446702</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1968</v>
       </c>
@@ -23508,7 +23504,7 @@
         <v>62.7268214187106</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1969</v>
       </c>
@@ -23546,7 +23542,7 @@
         <v>21.244167883060101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1970</v>
       </c>
@@ -23584,7 +23580,7 @@
         <v>55.344402990449801</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1971</v>
       </c>
@@ -23622,7 +23618,7 @@
         <v>6.8948510452181599</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1972</v>
       </c>
@@ -23660,7 +23656,7 @@
         <v>149.41457106000999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1973</v>
       </c>
@@ -23698,7 +23694,7 @@
         <v>216.626025789648</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1974</v>
       </c>
@@ -23736,7 +23732,7 @@
         <v>42.033239563202002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1975</v>
       </c>
@@ -23774,7 +23770,7 @@
         <v>116.052640425951</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1976</v>
       </c>
@@ -23812,7 +23808,7 @@
         <v>17.195215301437401</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1977</v>
       </c>
@@ -23850,7 +23846,7 @@
         <v>38.191890055444198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1978</v>
       </c>
@@ -23888,7 +23884,7 @@
         <v>158.46371838925799</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1979</v>
       </c>
@@ -23926,7 +23922,7 @@
         <v>303.51896800302001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1980</v>
       </c>
@@ -23964,7 +23960,7 @@
         <v>36.730775148612402</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1981</v>
       </c>
@@ -24002,7 +23998,7 @@
         <v>50.165062666236302</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1982</v>
       </c>
@@ -24040,7 +24036,7 @@
         <v>75.031773969221305</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1983</v>
       </c>
@@ -24078,7 +24074,7 @@
         <v>174.77937601018601</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1984</v>
       </c>
@@ -24116,7 +24112,7 @@
         <v>35.0353282645627</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1985</v>
       </c>
@@ -24154,7 +24150,7 @@
         <v>211.74015426797001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1986</v>
       </c>
@@ -24192,7 +24188,7 @@
         <v>121.11527821163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1987</v>
       </c>
@@ -24230,7 +24226,7 @@
         <v>217.559087456246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1988</v>
       </c>
@@ -24268,7 +24264,7 @@
         <v>78.156397024875901</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1989</v>
       </c>
@@ -24306,7 +24302,7 @@
         <v>55.616847982418101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1990</v>
       </c>
@@ -24344,7 +24340,7 @@
         <v>94.207571659863703</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1991</v>
       </c>
@@ -24382,7 +24378,7 @@
         <v>136.926802434563</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1992</v>
       </c>
@@ -24420,7 +24416,7 @@
         <v>152.13244153303901</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -24458,7 +24454,7 @@
         <v>138.85518236750099</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1994</v>
       </c>
@@ -24496,7 +24492,7 @@
         <v>72.158887133900095</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -24534,7 +24530,7 @@
         <v>77.2776218922711</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1996</v>
       </c>
@@ -24572,7 +24568,7 @@
         <v>56.761122004347499</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1997</v>
       </c>
@@ -24610,7 +24606,7 @@
         <v>56.410364063708798</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1998</v>
       </c>
@@ -24648,7 +24644,7 @@
         <v>127.949558427176</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1999</v>
       </c>
@@ -24686,7 +24682,7 @@
         <v>32.956408196693403</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -24724,7 +24720,7 @@
         <v>94.902017279650195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2001</v>
       </c>
@@ -24762,7 +24758,7 @@
         <v>57.104443655591098</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -24800,7 +24796,7 @@
         <v>52.125295740467799</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2003</v>
       </c>
@@ -24838,7 +24834,7 @@
         <v>71.608814028954896</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -24876,7 +24872,7 @@
         <v>143.52897573657799</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -24914,7 +24910,7 @@
         <v>44.816531791766998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -24952,7 +24948,7 @@
         <v>135.21883314929201</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -24990,7 +24986,7 @@
         <v>136.81885662235601</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -25028,7 +25024,7 @@
         <v>96.545805036287106</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2009</v>
       </c>
@@ -25066,7 +25062,7 @@
         <v>167.739453717294</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -25104,7 +25100,7 @@
         <v>209.23408233309399</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -25142,7 +25138,7 @@
         <v>194.03938336230601</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2012</v>
       </c>
@@ -25180,7 +25176,7 @@
         <v>95.641943462574801</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -25218,7 +25214,7 @@
         <v>79.589355470485401</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -25256,7 +25252,7 @@
         <v>250.433376814659</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
